--- a/docs/New Template Calculations.xlsx
+++ b/docs/New Template Calculations.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRTrains2-Extended\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2442BDC9-3434-4E64-9033-41127750F2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69E2FCD-76C8-4A55-926B-E50FDD023BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2385" windowWidth="32145" windowHeight="17145" activeTab="1" xr2:uid="{D51931E5-81BC-4C5B-8C55-7A4B86E09E95}"/>
+    <workbookView xWindow="10305" yWindow="3420" windowWidth="25050" windowHeight="16020" activeTab="1" xr2:uid="{D51931E5-81BC-4C5B-8C55-7A4B86E09E95}"/>
   </bookViews>
   <sheets>
     <sheet name="1x" sheetId="1" r:id="rId1"/>
     <sheet name="2x" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>Horizontal</t>
   </si>
@@ -125,6 +126,75 @@
   </si>
   <si>
     <t>~1.375 ft</t>
+  </si>
+  <si>
+    <t>~0.7 ft</t>
+  </si>
+  <si>
+    <t>~0.4m</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>Gresley Coach, BR Mk 1s</t>
+  </si>
+  <si>
+    <t>Class 390</t>
+  </si>
+  <si>
+    <t>Class 720, Class 390 DM</t>
+  </si>
+  <si>
+    <t>Class 141</t>
+  </si>
+  <si>
+    <t>Stanier P3 Coach</t>
+  </si>
+  <si>
+    <t>Thompson Coach</t>
+  </si>
+  <si>
+    <t>BR Mk 5 CAF</t>
+  </si>
+  <si>
+    <t>Engines</t>
+  </si>
+  <si>
+    <t>Coaches</t>
+  </si>
+  <si>
+    <t>Wagons</t>
+  </si>
+  <si>
+    <t>Mus</t>
+  </si>
+  <si>
+    <t>Class 158</t>
+  </si>
+  <si>
+    <t>Class 101/102</t>
+  </si>
+  <si>
+    <t>Class 117</t>
+  </si>
+  <si>
+    <t>GWR 5700</t>
+  </si>
+  <si>
+    <t>BR Conflat P</t>
+  </si>
+  <si>
+    <t>BR 10 ton Carflat</t>
+  </si>
+  <si>
+    <t>BR 21 ton Hopper, 20 ton Hopper Coal Wagon</t>
+  </si>
+  <si>
+    <t>BR 20 ton Carflat B/C, 56 ton Iron Ore Wagon</t>
+  </si>
+  <si>
+    <t>BR Conflat A, Banana van</t>
   </si>
 </sst>
 </file>
@@ -299,12 +369,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -313,11 +383,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -325,15 +393,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -344,6 +403,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -682,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C473DBD1-BF4E-4659-B175-DA8950A0E94D}">
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:R18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,92 +775,95 @@
       <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="K1" s="27" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="K1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
-      <c r="P1" s="27" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="P1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="29"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="Z2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
@@ -812,10 +889,10 @@
         <f t="shared" ref="G3:G18" si="2">F3+1</f>
         <v>5</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="1">
         <v>12</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <f t="shared" ref="I3:I18" si="3">H3+1</f>
         <v>13</v>
       </c>
@@ -824,57 +901,57 @@
         <v>7</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" ref="L3:L18" si="5">((C3/2)+6)</f>
+        <f>((C3/2)+6)</f>
         <v>8</v>
       </c>
-      <c r="M3" s="16">
-        <f t="shared" ref="M3:M18" si="6">((C3/4)+10)</f>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M18" si="5">((C3/4)+10)</f>
         <v>11</v>
       </c>
-      <c r="N3" s="17">
-        <f t="shared" ref="N3:N18" si="7">M3+1</f>
+      <c r="N3" s="16">
+        <f t="shared" ref="N3:N18" si="6">M3+1</f>
         <v>12</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="22">
         <v>8</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="1">
         <f>(B3*2)+8</f>
         <v>10</v>
       </c>
-      <c r="R3" s="17">
-        <f t="shared" ref="R3:R18" si="8">Q3+1</f>
+      <c r="R3" s="16">
+        <f t="shared" ref="R3:R18" si="7">Q3+1</f>
         <v>11</v>
       </c>
       <c r="T3" s="6">
         <v>0</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="1">
         <f>T3+P3+1</f>
         <v>9</v>
       </c>
-      <c r="V3" s="16">
-        <f t="shared" ref="V3:V14" si="9">U3+L3+1</f>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3:V14" si="8">U3+L3+1</f>
         <v>18</v>
       </c>
-      <c r="W3" s="16">
-        <f t="shared" ref="W3:W14" si="10">V3+G3+1</f>
+      <c r="W3" s="1">
+        <f t="shared" ref="W3:W14" si="9">V3+G3+1</f>
         <v>24</v>
       </c>
-      <c r="X3" s="16">
-        <f t="shared" ref="X3:X14" si="11">W3+L3+1</f>
+      <c r="X3" s="1">
+        <f t="shared" ref="X3:X14" si="10">W3+L3+1</f>
         <v>33</v>
       </c>
-      <c r="Y3" s="16">
-        <f t="shared" ref="Y3:Y14" si="12">X3+P3+1</f>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y14" si="11">X3+P3+1</f>
         <v>42</v>
       </c>
-      <c r="Z3" s="16">
-        <f t="shared" ref="Z3:Z14" si="13">Y3+L3+1</f>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z14" si="12">Y3+L3+1</f>
         <v>51</v>
       </c>
       <c r="AA3" s="8">
-        <f t="shared" ref="AA3:AA14" si="14">Z3+G3+1</f>
+        <f t="shared" ref="AA3:AA14" si="13">Z3+G3+1</f>
         <v>57</v>
       </c>
     </row>
@@ -896,14 +973,14 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4">
         <v>12</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="18">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -911,58 +988,58 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
+        <f t="shared" ref="L4:L18" si="14">((C4/2)+6)</f>
+        <v>10</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="M4" s="19">
+        <v>12</v>
+      </c>
+      <c r="N4" s="18">
         <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="P4" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q14" si="15">(C4/2)+8</f>
         <v>12</v>
       </c>
-      <c r="N4" s="20">
+      <c r="R4" s="18">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="P4" s="25">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="19">
-        <f t="shared" ref="Q4:Q14" si="15">(C4/2)+8</f>
-        <v>12</v>
-      </c>
-      <c r="R4" s="20">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
       <c r="T4" s="9">
         <v>0</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4">
         <f>T4+P4+1</f>
         <v>9</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="W4" s="19">
+        <v>30</v>
+      </c>
+      <c r="X4">
         <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="X4" s="19">
+        <v>41</v>
+      </c>
+      <c r="Y4">
         <f t="shared" si="11"/>
-        <v>41</v>
-      </c>
-      <c r="Y4" s="19">
+        <v>50</v>
+      </c>
+      <c r="Z4">
         <f t="shared" si="12"/>
-        <v>50</v>
-      </c>
-      <c r="Z4" s="19">
+        <v>61</v>
+      </c>
+      <c r="AA4" s="11">
         <f t="shared" si="13"/>
-        <v>61</v>
-      </c>
-      <c r="AA4" s="11">
-        <f t="shared" si="14"/>
         <v>71</v>
       </c>
     </row>
@@ -988,10 +1065,10 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="1">
         <v>12</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -1000,57 +1077,57 @@
         <v>11</v>
       </c>
       <c r="L5" s="15">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="M5" s="1">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="M5" s="16">
+        <v>13</v>
+      </c>
+      <c r="N5" s="16">
         <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="N5" s="17">
-        <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="22">
         <v>8</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="1">
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-      <c r="R5" s="17">
-        <f t="shared" si="8"/>
+      <c r="R5" s="16">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T5" s="6">
         <v>0</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="1">
         <f>T5+P5+1</f>
         <v>9</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="1">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="W5" s="1">
         <f t="shared" si="9"/>
-        <v>22</v>
-      </c>
-      <c r="W5" s="16">
+        <v>36</v>
+      </c>
+      <c r="X5" s="1">
         <f t="shared" si="10"/>
-        <v>36</v>
-      </c>
-      <c r="X5" s="16">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="1">
         <f t="shared" si="11"/>
-        <v>49</v>
-      </c>
-      <c r="Y5" s="16">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="1">
         <f t="shared" si="12"/>
-        <v>58</v>
-      </c>
-      <c r="Z5" s="16">
+        <v>71</v>
+      </c>
+      <c r="AA5" s="8">
         <f t="shared" si="13"/>
-        <v>71</v>
-      </c>
-      <c r="AA5" s="8">
-        <f t="shared" si="14"/>
         <v>85</v>
       </c>
     </row>
@@ -1072,14 +1149,14 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6">
         <v>12</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -1087,58 +1164,58 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="M6" s="19">
+      <c r="N6" s="18">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="N6" s="20">
-        <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="23">
         <v>8</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="R6" s="20">
-        <f t="shared" si="8"/>
+      <c r="R6" s="18">
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="T6" s="9">
         <v>0</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6">
         <f>T6+P6+1</f>
         <v>9</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="W6" s="19">
+        <v>42</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="10"/>
-        <v>42</v>
-      </c>
-      <c r="X6" s="19">
+        <v>57</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="11"/>
-        <v>57</v>
-      </c>
-      <c r="Y6" s="19">
+        <v>66</v>
+      </c>
+      <c r="Z6">
         <f t="shared" si="12"/>
-        <v>66</v>
-      </c>
-      <c r="Z6" s="19">
+        <v>81</v>
+      </c>
+      <c r="AA6" s="11">
         <f t="shared" si="13"/>
-        <v>81</v>
-      </c>
-      <c r="AA6" s="11">
-        <f t="shared" si="14"/>
         <v>99</v>
       </c>
     </row>
@@ -1164,10 +1241,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="1">
         <v>12</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -1176,57 +1253,57 @@
         <v>15</v>
       </c>
       <c r="L7" s="15">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="M7" s="1">
         <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="M7" s="16">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="N7" s="17">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="P7" s="24">
+      <c r="P7" s="22">
         <v>8</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="1">
         <f t="shared" si="15"/>
         <v>18</v>
       </c>
-      <c r="R7" s="17">
-        <f t="shared" si="8"/>
+      <c r="R7" s="16">
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="T7" s="6">
         <v>0</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="1">
         <f>T7+P7+1</f>
         <v>9</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="1">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="W7" s="1">
         <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="W7" s="16">
+        <v>48</v>
+      </c>
+      <c r="X7" s="1">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="X7" s="16">
+        <v>65</v>
+      </c>
+      <c r="Y7" s="1">
         <f t="shared" si="11"/>
-        <v>65</v>
-      </c>
-      <c r="Y7" s="16">
+        <v>74</v>
+      </c>
+      <c r="Z7" s="1">
         <f t="shared" si="12"/>
-        <v>74</v>
-      </c>
-      <c r="Z7" s="16">
+        <v>91</v>
+      </c>
+      <c r="AA7" s="8">
         <f t="shared" si="13"/>
-        <v>91</v>
-      </c>
-      <c r="AA7" s="8">
-        <f t="shared" si="14"/>
         <v>113</v>
       </c>
     </row>
@@ -1248,14 +1325,14 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8">
         <v>12</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="18">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -1263,58 +1340,58 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="M8" s="19">
+        <v>16</v>
+      </c>
+      <c r="N8" s="18">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="23">
         <v>8</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8">
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="R8" s="20">
-        <f t="shared" si="8"/>
+      <c r="R8" s="18">
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="T8" s="9">
         <v>0</v>
       </c>
-      <c r="U8" s="19">
+      <c r="U8">
         <f t="shared" ref="U8:U14" si="16">T8+P8+1</f>
         <v>9</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
-      <c r="W8" s="19">
+        <v>54</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="10"/>
-        <v>54</v>
-      </c>
-      <c r="X8" s="19">
+        <v>73</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="11"/>
-        <v>73</v>
-      </c>
-      <c r="Y8" s="19">
+        <v>82</v>
+      </c>
+      <c r="Z8">
         <f t="shared" si="12"/>
-        <v>82</v>
-      </c>
-      <c r="Z8" s="19">
+        <v>101</v>
+      </c>
+      <c r="AA8" s="11">
         <f t="shared" si="13"/>
-        <v>101</v>
-      </c>
-      <c r="AA8" s="11">
-        <f t="shared" si="14"/>
         <v>127</v>
       </c>
     </row>
@@ -1340,10 +1417,10 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="1">
         <v>12</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -1352,57 +1429,57 @@
         <v>19</v>
       </c>
       <c r="L9" s="15">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="M9" s="16">
+        <v>17</v>
+      </c>
+      <c r="N9" s="16">
         <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="N9" s="17">
-        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="22">
         <v>8</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="1">
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
-      <c r="R9" s="17">
-        <f t="shared" si="8"/>
+      <c r="R9" s="16">
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="T9" s="6">
         <v>0</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="1">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="1">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="W9" s="1">
         <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="W9" s="16">
+        <v>60</v>
+      </c>
+      <c r="X9" s="1">
         <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="X9" s="16">
+        <v>81</v>
+      </c>
+      <c r="Y9" s="1">
         <f t="shared" si="11"/>
-        <v>81</v>
-      </c>
-      <c r="Y9" s="16">
+        <v>90</v>
+      </c>
+      <c r="Z9" s="1">
         <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="Z9" s="16">
+        <v>111</v>
+      </c>
+      <c r="AA9" s="8">
         <f t="shared" si="13"/>
-        <v>111</v>
-      </c>
-      <c r="AA9" s="8">
-        <f t="shared" si="14"/>
         <v>141</v>
       </c>
     </row>
@@ -1424,14 +1501,14 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="18">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -1439,65 +1516,63 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="M10" s="19">
+        <v>18</v>
+      </c>
+      <c r="N10" s="18">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="23">
         <v>8</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10">
         <f t="shared" si="15"/>
         <v>24</v>
       </c>
-      <c r="R10" s="20">
-        <f t="shared" si="8"/>
+      <c r="R10" s="18">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="W10" s="19">
+        <v>66</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="10"/>
-        <v>66</v>
-      </c>
-      <c r="X10" s="19">
+        <v>89</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="11"/>
-        <v>89</v>
-      </c>
-      <c r="Y10" s="19">
+        <v>98</v>
+      </c>
+      <c r="Z10">
         <f t="shared" si="12"/>
-        <v>98</v>
-      </c>
-      <c r="Z10" s="19">
+        <v>121</v>
+      </c>
+      <c r="AA10" s="11">
         <f t="shared" si="13"/>
-        <v>121</v>
-      </c>
-      <c r="AA10" s="11">
-        <f t="shared" si="14"/>
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="A11" s="6"/>
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -1517,10 +1592,10 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="1">
         <v>13</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
@@ -1530,67 +1605,65 @@
         <v>23</v>
       </c>
       <c r="L11" s="15">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="M11" s="16">
+        <v>19</v>
+      </c>
+      <c r="N11" s="16">
         <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="N11" s="17">
-        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="24">
+      <c r="P11" s="22">
         <v>9</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="1">
         <f t="shared" si="15"/>
         <v>26</v>
       </c>
-      <c r="R11" s="17">
-        <f t="shared" si="8"/>
+      <c r="R11" s="16">
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="6">
         <v>0</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="1">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="1">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="W11" s="1">
         <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
-      <c r="W11" s="16">
+        <v>73</v>
+      </c>
+      <c r="X11" s="1">
         <f t="shared" si="10"/>
-        <v>73</v>
-      </c>
-      <c r="X11" s="16">
+        <v>98</v>
+      </c>
+      <c r="Y11" s="1">
         <f t="shared" si="11"/>
-        <v>98</v>
-      </c>
-      <c r="Y11" s="16">
+        <v>108</v>
+      </c>
+      <c r="Z11" s="1">
         <f t="shared" si="12"/>
-        <v>108</v>
-      </c>
-      <c r="Z11" s="16">
+        <v>133</v>
+      </c>
+      <c r="AA11" s="8">
         <f t="shared" si="13"/>
-        <v>133</v>
-      </c>
-      <c r="AA11" s="8">
-        <f t="shared" si="14"/>
         <v>171</v>
       </c>
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>0.6</v>
-      </c>
+      <c r="A12" s="9"/>
       <c r="B12" s="10">
         <v>10</v>
       </c>
@@ -1605,14 +1678,14 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12">
         <v>14</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="18">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -1620,65 +1693,63 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="M12" s="19">
+        <v>20</v>
+      </c>
+      <c r="N12" s="18">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="N12" s="20">
-        <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="23">
         <v>10</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12">
         <f t="shared" si="15"/>
         <v>28</v>
       </c>
-      <c r="R12" s="20">
-        <f t="shared" si="8"/>
+      <c r="R12" s="18">
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="T12" s="9">
         <v>0</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U12">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="9"/>
-        <v>38</v>
-      </c>
-      <c r="W12" s="19">
+        <v>80</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="X12" s="19">
+        <v>107</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="11"/>
-        <v>107</v>
-      </c>
-      <c r="Y12" s="19">
+        <v>118</v>
+      </c>
+      <c r="Z12">
         <f t="shared" si="12"/>
-        <v>118</v>
-      </c>
-      <c r="Z12" s="19">
+        <v>145</v>
+      </c>
+      <c r="AA12" s="11">
         <f t="shared" si="13"/>
-        <v>145</v>
-      </c>
-      <c r="AA12" s="11">
-        <f t="shared" si="14"/>
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>0.65</v>
-      </c>
+      <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -1698,10 +1769,10 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="1">
         <v>15</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
@@ -1711,66 +1782,66 @@
         <v>27</v>
       </c>
       <c r="L13" s="15">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="M13" s="16">
+        <v>21</v>
+      </c>
+      <c r="N13" s="16">
         <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="N13" s="17">
-        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="24">
+      <c r="P13" s="22">
         <v>11</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="1">
         <f t="shared" si="15"/>
         <v>30</v>
       </c>
-      <c r="R13" s="17">
-        <f t="shared" si="8"/>
+      <c r="R13" s="16">
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="6">
         <v>0</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13" s="1">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="1">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="W13" s="1">
         <f t="shared" si="9"/>
-        <v>41</v>
-      </c>
-      <c r="W13" s="16">
+        <v>87</v>
+      </c>
+      <c r="X13" s="1">
         <f t="shared" si="10"/>
-        <v>87</v>
-      </c>
-      <c r="X13" s="16">
+        <v>116</v>
+      </c>
+      <c r="Y13" s="1">
         <f t="shared" si="11"/>
-        <v>116</v>
-      </c>
-      <c r="Y13" s="16">
+        <v>128</v>
+      </c>
+      <c r="Z13" s="1">
         <f t="shared" si="12"/>
-        <v>128</v>
-      </c>
-      <c r="Z13" s="16">
+        <v>157</v>
+      </c>
+      <c r="AA13" s="8">
         <f t="shared" si="13"/>
-        <v>157</v>
-      </c>
-      <c r="AA13" s="8">
-        <f t="shared" si="14"/>
         <v>203</v>
       </c>
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B14" s="10">
         <v>12</v>
@@ -1786,14 +1857,14 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14">
         <v>16</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="18">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
@@ -1801,65 +1872,63 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="17">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="M14" s="19">
+        <v>22</v>
+      </c>
+      <c r="N14" s="18">
         <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="N14" s="20">
-        <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="23">
         <v>12</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14">
         <f t="shared" si="15"/>
         <v>32</v>
       </c>
-      <c r="R14" s="20">
-        <f t="shared" si="8"/>
+      <c r="R14" s="18">
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="T14" s="9">
         <v>0</v>
       </c>
-      <c r="U14" s="19">
+      <c r="U14">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="V14" s="19">
+      <c r="V14">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="9"/>
-        <v>44</v>
-      </c>
-      <c r="W14" s="19">
+        <v>94</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="10"/>
-        <v>94</v>
-      </c>
-      <c r="X14" s="19">
+        <v>125</v>
+      </c>
+      <c r="Y14">
         <f t="shared" si="11"/>
-        <v>125</v>
-      </c>
-      <c r="Y14" s="19">
+        <v>138</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="12"/>
-        <v>138</v>
-      </c>
-      <c r="Z14" s="19">
+        <v>169</v>
+      </c>
+      <c r="AA14" s="11">
         <f t="shared" si="13"/>
-        <v>169</v>
-      </c>
-      <c r="AA14" s="11">
-        <f t="shared" si="14"/>
         <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>0.75</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="7">
         <v>13</v>
       </c>
@@ -1879,10 +1948,10 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="1">
         <v>17</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -1892,54 +1961,54 @@
         <v>31</v>
       </c>
       <c r="L15" s="15">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="M15" s="16">
+        <v>23</v>
+      </c>
+      <c r="N15" s="16">
         <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="N15" s="17">
-        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="24">
+      <c r="P15" s="22">
         <v>13</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="1">
         <f>(B15*2)+8</f>
         <v>34</v>
       </c>
-      <c r="R15" s="17">
-        <f t="shared" si="8"/>
+      <c r="R15" s="16">
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="6">
         <v>0</v>
       </c>
-      <c r="U15" s="16">
+      <c r="U15" s="1">
         <f>T15+P15+1</f>
         <v>14</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="1">
         <f t="shared" ref="V15:V18" si="17">U15+L15+1</f>
         <v>47</v>
       </c>
-      <c r="W15" s="16">
+      <c r="W15" s="1">
         <f t="shared" ref="W15:W18" si="18">V15+G15+1</f>
         <v>101</v>
       </c>
-      <c r="X15" s="16">
+      <c r="X15" s="1">
         <f t="shared" ref="X15:X18" si="19">W15+L15+1</f>
         <v>134</v>
       </c>
-      <c r="Y15" s="16">
+      <c r="Y15" s="1">
         <f t="shared" ref="Y15:Y18" si="20">X15+P15+1</f>
         <v>148</v>
       </c>
-      <c r="Z15" s="16">
+      <c r="Z15" s="1">
         <f t="shared" ref="Z15:Z18" si="21">Y15+L15+1</f>
         <v>181</v>
       </c>
@@ -1949,9 +2018,7 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>0.8</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="B16" s="10">
         <v>14</v>
       </c>
@@ -1966,14 +2033,14 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16">
         <v>18</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="18">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -1981,53 +2048,53 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="17">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="M16" s="19">
+        <v>24</v>
+      </c>
+      <c r="N16" s="18">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="N16" s="20">
-        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P16" s="23">
         <v>14</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16">
         <f t="shared" ref="Q16:Q18" si="23">(C16/2)+8</f>
         <v>36</v>
       </c>
-      <c r="R16" s="20">
-        <f t="shared" si="8"/>
+      <c r="R16" s="18">
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="T16" s="9">
         <v>0</v>
       </c>
-      <c r="U16" s="19">
+      <c r="U16">
         <f>T16+P16+1</f>
         <v>15</v>
       </c>
-      <c r="V16" s="19">
+      <c r="V16">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="W16" s="19">
+      <c r="W16">
         <f t="shared" si="18"/>
         <v>108</v>
       </c>
-      <c r="X16" s="19">
+      <c r="X16">
         <f t="shared" si="19"/>
         <v>143</v>
       </c>
-      <c r="Y16" s="19">
+      <c r="Y16">
         <f t="shared" si="20"/>
         <v>158</v>
       </c>
-      <c r="Z16" s="19">
+      <c r="Z16">
         <f t="shared" si="21"/>
         <v>193</v>
       </c>
@@ -2037,9 +2104,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>0.85</v>
-      </c>
+      <c r="A17" s="6"/>
       <c r="B17" s="7">
         <v>15</v>
       </c>
@@ -2059,10 +2124,10 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="1">
         <v>19</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -2072,54 +2137,54 @@
         <v>35</v>
       </c>
       <c r="L17" s="15">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="M17" s="1">
         <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="M17" s="16">
+        <v>25</v>
+      </c>
+      <c r="N17" s="16">
         <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="N17" s="17">
-        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="P17" s="24">
+      <c r="P17" s="22">
         <v>15</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="1">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
-      <c r="R17" s="17">
-        <f t="shared" si="8"/>
+      <c r="R17" s="16">
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="6">
         <v>0</v>
       </c>
-      <c r="U17" s="16">
+      <c r="U17" s="1">
         <f>T17+P17+1</f>
         <v>16</v>
       </c>
-      <c r="V17" s="16">
+      <c r="V17" s="1">
         <f t="shared" si="17"/>
         <v>53</v>
       </c>
-      <c r="W17" s="16">
+      <c r="W17" s="1">
         <f t="shared" si="18"/>
         <v>115</v>
       </c>
-      <c r="X17" s="16">
+      <c r="X17" s="1">
         <f t="shared" si="19"/>
         <v>152</v>
       </c>
-      <c r="Y17" s="16">
+      <c r="Y17" s="1">
         <f t="shared" si="20"/>
         <v>168</v>
       </c>
-      <c r="Z17" s="16">
+      <c r="Z17" s="1">
         <f t="shared" si="21"/>
         <v>205</v>
       </c>
@@ -2129,9 +2194,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>0.9</v>
-      </c>
+      <c r="A18" s="12"/>
       <c r="B18" s="13">
         <v>16</v>
       </c>
@@ -2146,14 +2209,14 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="19">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="20">
         <v>20</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="21">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -2161,53 +2224,53 @@
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="19">
+        <f t="shared" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="M18" s="20">
         <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="M18" s="22">
+        <v>26</v>
+      </c>
+      <c r="N18" s="21">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="N18" s="23">
-        <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="24">
         <v>16</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="20">
         <f t="shared" si="23"/>
         <v>40</v>
       </c>
-      <c r="R18" s="23">
-        <f t="shared" si="8"/>
+      <c r="R18" s="21">
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="T18" s="12">
         <v>0</v>
       </c>
-      <c r="U18" s="22">
+      <c r="U18" s="20">
         <f>T18+P18+1</f>
         <v>17</v>
       </c>
-      <c r="V18" s="22">
+      <c r="V18" s="20">
         <f t="shared" si="17"/>
         <v>56</v>
       </c>
-      <c r="W18" s="22">
+      <c r="W18" s="20">
         <f t="shared" si="18"/>
         <v>122</v>
       </c>
-      <c r="X18" s="22">
+      <c r="X18" s="20">
         <f t="shared" si="19"/>
         <v>161</v>
       </c>
-      <c r="Y18" s="22">
+      <c r="Y18" s="20">
         <f t="shared" si="20"/>
         <v>178</v>
       </c>
-      <c r="Z18" s="22">
+      <c r="Z18" s="20">
         <f t="shared" si="21"/>
         <v>217</v>
       </c>
@@ -2256,7 +2319,7 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="33">
+      <c r="B21" s="28">
         <v>1</v>
       </c>
       <c r="C21" s="7">
@@ -2268,91 +2331,91 @@
         <v>0: 8 x 11</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f>_xlfn.CONCAT(U3, ": ", $L3," x ", $N3)</f>
+        <f t="shared" ref="E21:E36" si="26">_xlfn.CONCAT(U3, ": ", $L3," x ", $N3)</f>
         <v>9: 8 x 12</v>
       </c>
       <c r="F21" s="7" t="str">
-        <f>_xlfn.CONCAT(V3, ": ", $G3," x ", $I3)</f>
+        <f t="shared" ref="F21:F36" si="27">_xlfn.CONCAT(V3, ": ", $G3," x ", $I3)</f>
         <v>18: 5 x 13</v>
       </c>
       <c r="G21" s="7" t="str">
-        <f>_xlfn.CONCAT(W3, ": ", $L3," x ", $N3)</f>
+        <f t="shared" ref="G21:G36" si="28">_xlfn.CONCAT(W3, ": ", $L3," x ", $N3)</f>
         <v>24: 8 x 12</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f>_xlfn.CONCAT(X3, ": ", $P3," x ", $R3)</f>
+        <f t="shared" ref="H21:H36" si="29">_xlfn.CONCAT(X3, ": ", $P3," x ", $R3)</f>
         <v>33: 8 x 11</v>
       </c>
       <c r="I21" s="7" t="str">
-        <f>_xlfn.CONCAT(Y3, ": ", $L3," x ", $N3)</f>
+        <f t="shared" ref="I21:I36" si="30">_xlfn.CONCAT(Y3, ": ", $L3," x ", $N3)</f>
         <v>42: 8 x 12</v>
       </c>
       <c r="J21" s="7" t="str">
-        <f>_xlfn.CONCAT(Z3, ": ", $G3," x ", $I3)</f>
+        <f t="shared" ref="J21:J36" si="31">_xlfn.CONCAT(Z3, ": ", $G3," x ", $I3)</f>
         <v>51: 5 x 13</v>
       </c>
       <c r="K21" s="7" t="str">
-        <f>_xlfn.CONCAT(AA3, ": ", $L3," x ", $N3)</f>
+        <f t="shared" ref="K21:K36" si="32">_xlfn.CONCAT(AA3, ": ", $L3," x ", $N3)</f>
         <v>57: 8 x 12</v>
       </c>
       <c r="L21" s="8">
-        <f>R3+1</f>
+        <f t="shared" ref="L21:L36" si="33">R3+1</f>
         <v>12</v>
       </c>
       <c r="O21" s="1">
         <v>13</v>
       </c>
       <c r="P21" s="1">
-        <f>O21+$L21</f>
+        <f t="shared" ref="P21:AA21" si="34">O21+$L21</f>
         <v>25</v>
       </c>
       <c r="Q21" s="1">
-        <f>P21+$L21</f>
+        <f t="shared" si="34"/>
         <v>37</v>
       </c>
       <c r="R21" s="1">
-        <f>Q21+$L21</f>
+        <f t="shared" si="34"/>
         <v>49</v>
       </c>
       <c r="S21" s="1">
-        <f>R21+$L21</f>
+        <f t="shared" si="34"/>
         <v>61</v>
       </c>
       <c r="T21" s="1">
-        <f>S21+$L21</f>
+        <f t="shared" si="34"/>
         <v>73</v>
       </c>
       <c r="U21" s="1">
-        <f>T21+$L21</f>
+        <f t="shared" si="34"/>
         <v>85</v>
       </c>
       <c r="V21" s="1">
-        <f>U21+$L21</f>
+        <f t="shared" si="34"/>
         <v>97</v>
       </c>
       <c r="W21" s="1">
-        <f>V21+$L21</f>
+        <f t="shared" si="34"/>
         <v>109</v>
       </c>
       <c r="X21" s="1">
-        <f>W21+$L21</f>
+        <f t="shared" si="34"/>
         <v>121</v>
       </c>
       <c r="Y21" s="1">
-        <f>X21+$L21</f>
+        <f t="shared" si="34"/>
         <v>133</v>
       </c>
       <c r="Z21" s="1">
-        <f>Y21+$L21</f>
+        <f t="shared" si="34"/>
         <v>145</v>
       </c>
       <c r="AA21" s="1">
-        <f>Z21+$L21</f>
+        <f t="shared" si="34"/>
         <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="34">
+      <c r="B22" s="29">
         <v>2</v>
       </c>
       <c r="C22" s="10">
@@ -2364,91 +2427,91 @@
         <v>0: 8 x 13</v>
       </c>
       <c r="E22" s="10" t="str">
-        <f>_xlfn.CONCAT(U4, ": ", $L4," x ", $N4)</f>
+        <f t="shared" si="26"/>
         <v>9: 10 x 13</v>
       </c>
       <c r="F22" s="10" t="str">
-        <f>_xlfn.CONCAT(V4, ": ", $G4," x ", $I4)</f>
+        <f t="shared" si="27"/>
         <v>20: 9 x 13</v>
       </c>
       <c r="G22" s="10" t="str">
-        <f>_xlfn.CONCAT(W4, ": ", $L4," x ", $N4)</f>
+        <f t="shared" si="28"/>
         <v>30: 10 x 13</v>
       </c>
       <c r="H22" s="10" t="str">
-        <f>_xlfn.CONCAT(X4, ": ", $P4," x ", $R4)</f>
+        <f t="shared" si="29"/>
         <v>41: 8 x 13</v>
       </c>
       <c r="I22" s="10" t="str">
-        <f>_xlfn.CONCAT(Y4, ": ", $L4," x ", $N4)</f>
+        <f t="shared" si="30"/>
         <v>50: 10 x 13</v>
       </c>
       <c r="J22" s="10" t="str">
-        <f>_xlfn.CONCAT(Z4, ": ", $G4," x ", $I4)</f>
+        <f t="shared" si="31"/>
         <v>61: 9 x 13</v>
       </c>
       <c r="K22" s="10" t="str">
-        <f>_xlfn.CONCAT(AA4, ": ", $L4," x ", $N4)</f>
+        <f t="shared" si="32"/>
         <v>71: 10 x 13</v>
       </c>
       <c r="L22" s="11">
-        <f>R4+1</f>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="O22">
         <v>13</v>
       </c>
       <c r="P22">
-        <f>O22+$L22</f>
+        <f t="shared" ref="P22:AA22" si="35">O22+$L22</f>
         <v>27</v>
       </c>
       <c r="Q22">
-        <f>P22+$L22</f>
+        <f t="shared" si="35"/>
         <v>41</v>
       </c>
       <c r="R22">
-        <f>Q22+$L22</f>
+        <f t="shared" si="35"/>
         <v>55</v>
       </c>
       <c r="S22">
-        <f>R22+$L22</f>
+        <f t="shared" si="35"/>
         <v>69</v>
       </c>
       <c r="T22">
-        <f>S22+$L22</f>
+        <f t="shared" si="35"/>
         <v>83</v>
       </c>
       <c r="U22">
-        <f>T22+$L22</f>
+        <f t="shared" si="35"/>
         <v>97</v>
       </c>
       <c r="V22">
-        <f>U22+$L22</f>
+        <f t="shared" si="35"/>
         <v>111</v>
       </c>
       <c r="W22">
-        <f>V22+$L22</f>
+        <f t="shared" si="35"/>
         <v>125</v>
       </c>
       <c r="X22">
-        <f>W22+$L22</f>
+        <f t="shared" si="35"/>
         <v>139</v>
       </c>
       <c r="Y22">
-        <f>X22+$L22</f>
+        <f t="shared" si="35"/>
         <v>153</v>
       </c>
       <c r="Z22">
-        <f>Y22+$L22</f>
+        <f t="shared" si="35"/>
         <v>167</v>
       </c>
       <c r="AA22">
-        <f>Z22+$L22</f>
+        <f t="shared" si="35"/>
         <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="33">
+      <c r="B23" s="28">
         <v>3</v>
       </c>
       <c r="C23" s="7">
@@ -2460,91 +2523,91 @@
         <v>0: 8 x 15</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f>_xlfn.CONCAT(U5, ": ", $L5," x ", $N5)</f>
+        <f t="shared" si="26"/>
         <v>9: 12 x 14</v>
       </c>
       <c r="F23" s="7" t="str">
-        <f>_xlfn.CONCAT(V5, ": ", $G5," x ", $I5)</f>
+        <f t="shared" si="27"/>
         <v>22: 13 x 13</v>
       </c>
       <c r="G23" s="7" t="str">
-        <f>_xlfn.CONCAT(W5, ": ", $L5," x ", $N5)</f>
+        <f t="shared" si="28"/>
         <v>36: 12 x 14</v>
       </c>
       <c r="H23" s="7" t="str">
-        <f>_xlfn.CONCAT(X5, ": ", $P5," x ", $R5)</f>
+        <f t="shared" si="29"/>
         <v>49: 8 x 15</v>
       </c>
       <c r="I23" s="7" t="str">
-        <f>_xlfn.CONCAT(Y5, ": ", $L5," x ", $N5)</f>
+        <f t="shared" si="30"/>
         <v>58: 12 x 14</v>
       </c>
       <c r="J23" s="7" t="str">
-        <f>_xlfn.CONCAT(Z5, ": ", $G5," x ", $I5)</f>
+        <f t="shared" si="31"/>
         <v>71: 13 x 13</v>
       </c>
       <c r="K23" s="7" t="str">
-        <f>_xlfn.CONCAT(AA5, ": ", $L5," x ", $N5)</f>
+        <f t="shared" si="32"/>
         <v>85: 12 x 14</v>
       </c>
       <c r="L23" s="8">
-        <f>R5+1</f>
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
       <c r="O23" s="1">
         <v>13</v>
       </c>
       <c r="P23" s="1">
-        <f>O23+$L23</f>
+        <f t="shared" ref="P23:AA23" si="36">O23+$L23</f>
         <v>29</v>
       </c>
       <c r="Q23" s="1">
-        <f>P23+$L23</f>
+        <f t="shared" si="36"/>
         <v>45</v>
       </c>
       <c r="R23" s="1">
-        <f>Q23+$L23</f>
+        <f t="shared" si="36"/>
         <v>61</v>
       </c>
       <c r="S23" s="1">
-        <f>R23+$L23</f>
+        <f t="shared" si="36"/>
         <v>77</v>
       </c>
       <c r="T23" s="1">
-        <f>S23+$L23</f>
+        <f t="shared" si="36"/>
         <v>93</v>
       </c>
       <c r="U23" s="1">
-        <f>T23+$L23</f>
+        <f t="shared" si="36"/>
         <v>109</v>
       </c>
       <c r="V23" s="1">
-        <f>U23+$L23</f>
+        <f t="shared" si="36"/>
         <v>125</v>
       </c>
       <c r="W23" s="1">
-        <f>V23+$L23</f>
+        <f t="shared" si="36"/>
         <v>141</v>
       </c>
       <c r="X23" s="1">
-        <f>W23+$L23</f>
+        <f t="shared" si="36"/>
         <v>157</v>
       </c>
       <c r="Y23" s="1">
-        <f>X23+$L23</f>
+        <f t="shared" si="36"/>
         <v>173</v>
       </c>
       <c r="Z23" s="1">
-        <f>Y23+$L23</f>
+        <f t="shared" si="36"/>
         <v>189</v>
       </c>
       <c r="AA23" s="1">
-        <f>Z23+$L23</f>
+        <f t="shared" si="36"/>
         <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B24" s="34">
+      <c r="B24" s="29">
         <v>4</v>
       </c>
       <c r="C24" s="10">
@@ -2556,91 +2619,91 @@
         <v>0: 8 x 17</v>
       </c>
       <c r="E24" s="10" t="str">
-        <f>_xlfn.CONCAT(U6, ": ", $L6," x ", $N6)</f>
+        <f t="shared" si="26"/>
         <v>9: 14 x 15</v>
       </c>
       <c r="F24" s="10" t="str">
-        <f>_xlfn.CONCAT(V6, ": ", $G6," x ", $I6)</f>
+        <f t="shared" si="27"/>
         <v>24: 17 x 13</v>
       </c>
       <c r="G24" s="10" t="str">
-        <f>_xlfn.CONCAT(W6, ": ", $L6," x ", $N6)</f>
+        <f t="shared" si="28"/>
         <v>42: 14 x 15</v>
       </c>
       <c r="H24" s="10" t="str">
-        <f>_xlfn.CONCAT(X6, ": ", $P6," x ", $R6)</f>
+        <f t="shared" si="29"/>
         <v>57: 8 x 17</v>
       </c>
       <c r="I24" s="10" t="str">
-        <f>_xlfn.CONCAT(Y6, ": ", $L6," x ", $N6)</f>
+        <f t="shared" si="30"/>
         <v>66: 14 x 15</v>
       </c>
       <c r="J24" s="10" t="str">
-        <f>_xlfn.CONCAT(Z6, ": ", $G6," x ", $I6)</f>
+        <f t="shared" si="31"/>
         <v>81: 17 x 13</v>
       </c>
       <c r="K24" s="10" t="str">
-        <f>_xlfn.CONCAT(AA6, ": ", $L6," x ", $N6)</f>
+        <f t="shared" si="32"/>
         <v>99: 14 x 15</v>
       </c>
       <c r="L24" s="11">
-        <f>R6+1</f>
+        <f t="shared" si="33"/>
         <v>18</v>
       </c>
       <c r="O24">
         <v>13</v>
       </c>
       <c r="P24">
-        <f>O24+$L24</f>
+        <f t="shared" ref="P24:AA24" si="37">O24+$L24</f>
         <v>31</v>
       </c>
       <c r="Q24">
-        <f>P24+$L24</f>
+        <f t="shared" si="37"/>
         <v>49</v>
       </c>
       <c r="R24">
-        <f>Q24+$L24</f>
+        <f t="shared" si="37"/>
         <v>67</v>
       </c>
       <c r="S24">
-        <f>R24+$L24</f>
+        <f t="shared" si="37"/>
         <v>85</v>
       </c>
       <c r="T24">
-        <f>S24+$L24</f>
+        <f t="shared" si="37"/>
         <v>103</v>
       </c>
       <c r="U24">
-        <f>T24+$L24</f>
+        <f t="shared" si="37"/>
         <v>121</v>
       </c>
       <c r="V24">
-        <f>U24+$L24</f>
+        <f t="shared" si="37"/>
         <v>139</v>
       </c>
       <c r="W24">
-        <f>V24+$L24</f>
+        <f t="shared" si="37"/>
         <v>157</v>
       </c>
       <c r="X24">
-        <f>W24+$L24</f>
+        <f t="shared" si="37"/>
         <v>175</v>
       </c>
       <c r="Y24">
-        <f>X24+$L24</f>
+        <f t="shared" si="37"/>
         <v>193</v>
       </c>
       <c r="Z24">
-        <f>Y24+$L24</f>
+        <f t="shared" si="37"/>
         <v>211</v>
       </c>
       <c r="AA24">
-        <f>Z24+$L24</f>
+        <f t="shared" si="37"/>
         <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B25" s="33">
+      <c r="B25" s="28">
         <v>5</v>
       </c>
       <c r="C25" s="7">
@@ -2652,91 +2715,91 @@
         <v>0: 8 x 19</v>
       </c>
       <c r="E25" s="7" t="str">
-        <f>_xlfn.CONCAT(U7, ": ", $L7," x ", $N7)</f>
+        <f t="shared" si="26"/>
         <v>9: 16 x 16</v>
       </c>
       <c r="F25" s="7" t="str">
-        <f>_xlfn.CONCAT(V7, ": ", $G7," x ", $I7)</f>
+        <f t="shared" si="27"/>
         <v>26: 21 x 13</v>
       </c>
       <c r="G25" s="7" t="str">
-        <f>_xlfn.CONCAT(W7, ": ", $L7," x ", $N7)</f>
+        <f t="shared" si="28"/>
         <v>48: 16 x 16</v>
       </c>
       <c r="H25" s="7" t="str">
-        <f>_xlfn.CONCAT(X7, ": ", $P7," x ", $R7)</f>
+        <f t="shared" si="29"/>
         <v>65: 8 x 19</v>
       </c>
       <c r="I25" s="7" t="str">
-        <f>_xlfn.CONCAT(Y7, ": ", $L7," x ", $N7)</f>
+        <f t="shared" si="30"/>
         <v>74: 16 x 16</v>
       </c>
       <c r="J25" s="7" t="str">
-        <f>_xlfn.CONCAT(Z7, ": ", $G7," x ", $I7)</f>
+        <f t="shared" si="31"/>
         <v>91: 21 x 13</v>
       </c>
       <c r="K25" s="7" t="str">
-        <f>_xlfn.CONCAT(AA7, ": ", $L7," x ", $N7)</f>
+        <f t="shared" si="32"/>
         <v>113: 16 x 16</v>
       </c>
       <c r="L25" s="8">
-        <f>R7+1</f>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="O25" s="1">
         <v>13</v>
       </c>
       <c r="P25" s="1">
-        <f>O25+$L25</f>
+        <f t="shared" ref="P25:AA25" si="38">O25+$L25</f>
         <v>33</v>
       </c>
       <c r="Q25" s="1">
-        <f>P25+$L25</f>
+        <f t="shared" si="38"/>
         <v>53</v>
       </c>
       <c r="R25" s="1">
-        <f>Q25+$L25</f>
+        <f t="shared" si="38"/>
         <v>73</v>
       </c>
       <c r="S25" s="1">
-        <f>R25+$L25</f>
+        <f t="shared" si="38"/>
         <v>93</v>
       </c>
       <c r="T25" s="1">
-        <f>S25+$L25</f>
+        <f t="shared" si="38"/>
         <v>113</v>
       </c>
       <c r="U25" s="1">
-        <f>T25+$L25</f>
+        <f t="shared" si="38"/>
         <v>133</v>
       </c>
       <c r="V25" s="1">
-        <f>U25+$L25</f>
+        <f t="shared" si="38"/>
         <v>153</v>
       </c>
       <c r="W25" s="1">
-        <f>V25+$L25</f>
+        <f t="shared" si="38"/>
         <v>173</v>
       </c>
       <c r="X25" s="1">
-        <f>W25+$L25</f>
+        <f t="shared" si="38"/>
         <v>193</v>
       </c>
       <c r="Y25" s="1">
-        <f>X25+$L25</f>
+        <f t="shared" si="38"/>
         <v>213</v>
       </c>
       <c r="Z25" s="1">
-        <f>Y25+$L25</f>
+        <f t="shared" si="38"/>
         <v>233</v>
       </c>
       <c r="AA25" s="1">
-        <f>Z25+$L25</f>
+        <f t="shared" si="38"/>
         <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="34">
+      <c r="B26" s="29">
         <v>6</v>
       </c>
       <c r="C26" s="10">
@@ -2748,91 +2811,91 @@
         <v>0: 8 x 21</v>
       </c>
       <c r="E26" s="10" t="str">
-        <f>_xlfn.CONCAT(U8, ": ", $L8," x ", $N8)</f>
+        <f t="shared" si="26"/>
         <v>9: 18 x 17</v>
       </c>
       <c r="F26" s="10" t="str">
-        <f>_xlfn.CONCAT(V8, ": ", $G8," x ", $I8)</f>
+        <f t="shared" si="27"/>
         <v>28: 25 x 13</v>
       </c>
       <c r="G26" s="10" t="str">
-        <f>_xlfn.CONCAT(W8, ": ", $L8," x ", $N8)</f>
+        <f t="shared" si="28"/>
         <v>54: 18 x 17</v>
       </c>
       <c r="H26" s="10" t="str">
-        <f>_xlfn.CONCAT(X8, ": ", $P8," x ", $R8)</f>
+        <f t="shared" si="29"/>
         <v>73: 8 x 21</v>
       </c>
       <c r="I26" s="10" t="str">
-        <f>_xlfn.CONCAT(Y8, ": ", $L8," x ", $N8)</f>
+        <f t="shared" si="30"/>
         <v>82: 18 x 17</v>
       </c>
       <c r="J26" s="10" t="str">
-        <f>_xlfn.CONCAT(Z8, ": ", $G8," x ", $I8)</f>
+        <f t="shared" si="31"/>
         <v>101: 25 x 13</v>
       </c>
       <c r="K26" s="10" t="str">
-        <f>_xlfn.CONCAT(AA8, ": ", $L8," x ", $N8)</f>
+        <f t="shared" si="32"/>
         <v>127: 18 x 17</v>
       </c>
       <c r="L26" s="11">
-        <f>R8+1</f>
+        <f t="shared" si="33"/>
         <v>22</v>
       </c>
       <c r="O26">
         <v>13</v>
       </c>
       <c r="P26">
-        <f>O26+$L26</f>
+        <f t="shared" ref="P26:AA26" si="39">O26+$L26</f>
         <v>35</v>
       </c>
       <c r="Q26">
-        <f>P26+$L26</f>
+        <f t="shared" si="39"/>
         <v>57</v>
       </c>
       <c r="R26">
-        <f>Q26+$L26</f>
+        <f t="shared" si="39"/>
         <v>79</v>
       </c>
       <c r="S26">
-        <f>R26+$L26</f>
+        <f t="shared" si="39"/>
         <v>101</v>
       </c>
       <c r="T26">
-        <f>S26+$L26</f>
+        <f t="shared" si="39"/>
         <v>123</v>
       </c>
       <c r="U26">
-        <f>T26+$L26</f>
+        <f t="shared" si="39"/>
         <v>145</v>
       </c>
       <c r="V26">
-        <f>U26+$L26</f>
+        <f t="shared" si="39"/>
         <v>167</v>
       </c>
       <c r="W26">
-        <f>V26+$L26</f>
+        <f t="shared" si="39"/>
         <v>189</v>
       </c>
       <c r="X26">
-        <f>W26+$L26</f>
+        <f t="shared" si="39"/>
         <v>211</v>
       </c>
       <c r="Y26">
-        <f>X26+$L26</f>
+        <f t="shared" si="39"/>
         <v>233</v>
       </c>
       <c r="Z26">
-        <f>Y26+$L26</f>
+        <f t="shared" si="39"/>
         <v>255</v>
       </c>
       <c r="AA26">
-        <f>Z26+$L26</f>
+        <f t="shared" si="39"/>
         <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B27" s="33">
+      <c r="B27" s="28">
         <v>7</v>
       </c>
       <c r="C27" s="7">
@@ -2844,91 +2907,91 @@
         <v>0: 8 x 23</v>
       </c>
       <c r="E27" s="7" t="str">
-        <f>_xlfn.CONCAT(U9, ": ", $L9," x ", $N9)</f>
+        <f t="shared" si="26"/>
         <v>9: 20 x 18</v>
       </c>
       <c r="F27" s="7" t="str">
-        <f>_xlfn.CONCAT(V9, ": ", $G9," x ", $I9)</f>
+        <f t="shared" si="27"/>
         <v>30: 29 x 13</v>
       </c>
       <c r="G27" s="7" t="str">
-        <f>_xlfn.CONCAT(W9, ": ", $L9," x ", $N9)</f>
+        <f t="shared" si="28"/>
         <v>60: 20 x 18</v>
       </c>
       <c r="H27" s="7" t="str">
-        <f>_xlfn.CONCAT(X9, ": ", $P9," x ", $R9)</f>
+        <f t="shared" si="29"/>
         <v>81: 8 x 23</v>
       </c>
       <c r="I27" s="7" t="str">
-        <f>_xlfn.CONCAT(Y9, ": ", $L9," x ", $N9)</f>
+        <f t="shared" si="30"/>
         <v>90: 20 x 18</v>
       </c>
       <c r="J27" s="7" t="str">
-        <f>_xlfn.CONCAT(Z9, ": ", $G9," x ", $I9)</f>
+        <f t="shared" si="31"/>
         <v>111: 29 x 13</v>
       </c>
       <c r="K27" s="7" t="str">
-        <f>_xlfn.CONCAT(AA9, ": ", $L9," x ", $N9)</f>
+        <f t="shared" si="32"/>
         <v>141: 20 x 18</v>
       </c>
       <c r="L27" s="8">
-        <f>R9+1</f>
+        <f t="shared" si="33"/>
         <v>24</v>
       </c>
       <c r="O27" s="1">
         <v>13</v>
       </c>
       <c r="P27" s="1">
-        <f>O27+$L27</f>
+        <f t="shared" ref="P27:AA27" si="40">O27+$L27</f>
         <v>37</v>
       </c>
       <c r="Q27" s="1">
-        <f>P27+$L27</f>
+        <f t="shared" si="40"/>
         <v>61</v>
       </c>
       <c r="R27" s="1">
-        <f>Q27+$L27</f>
+        <f t="shared" si="40"/>
         <v>85</v>
       </c>
       <c r="S27" s="1">
-        <f>R27+$L27</f>
+        <f t="shared" si="40"/>
         <v>109</v>
       </c>
       <c r="T27" s="1">
-        <f>S27+$L27</f>
+        <f t="shared" si="40"/>
         <v>133</v>
       </c>
       <c r="U27" s="1">
-        <f>T27+$L27</f>
+        <f t="shared" si="40"/>
         <v>157</v>
       </c>
       <c r="V27" s="1">
-        <f>U27+$L27</f>
+        <f t="shared" si="40"/>
         <v>181</v>
       </c>
       <c r="W27" s="1">
-        <f>V27+$L27</f>
+        <f t="shared" si="40"/>
         <v>205</v>
       </c>
       <c r="X27" s="1">
-        <f>W27+$L27</f>
+        <f t="shared" si="40"/>
         <v>229</v>
       </c>
       <c r="Y27" s="1">
-        <f>X27+$L27</f>
+        <f t="shared" si="40"/>
         <v>253</v>
       </c>
       <c r="Z27" s="1">
-        <f>Y27+$L27</f>
+        <f t="shared" si="40"/>
         <v>277</v>
       </c>
       <c r="AA27" s="1">
-        <f>Z27+$L27</f>
+        <f t="shared" si="40"/>
         <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="34">
+      <c r="B28" s="29">
         <v>8</v>
       </c>
       <c r="C28" s="10">
@@ -2940,91 +3003,91 @@
         <v>0: 8 x 25</v>
       </c>
       <c r="E28" s="10" t="str">
-        <f>_xlfn.CONCAT(U10, ": ", $L10," x ", $N10)</f>
+        <f t="shared" si="26"/>
         <v>9: 22 x 19</v>
       </c>
       <c r="F28" s="10" t="str">
-        <f>_xlfn.CONCAT(V10, ": ", $G10," x ", $I10)</f>
+        <f t="shared" si="27"/>
         <v>32: 33 x 13</v>
       </c>
       <c r="G28" s="10" t="str">
-        <f>_xlfn.CONCAT(W10, ": ", $L10," x ", $N10)</f>
+        <f t="shared" si="28"/>
         <v>66: 22 x 19</v>
       </c>
       <c r="H28" s="10" t="str">
-        <f>_xlfn.CONCAT(X10, ": ", $P10," x ", $R10)</f>
+        <f t="shared" si="29"/>
         <v>89: 8 x 25</v>
       </c>
       <c r="I28" s="10" t="str">
-        <f>_xlfn.CONCAT(Y10, ": ", $L10," x ", $N10)</f>
+        <f t="shared" si="30"/>
         <v>98: 22 x 19</v>
       </c>
       <c r="J28" s="10" t="str">
-        <f>_xlfn.CONCAT(Z10, ": ", $G10," x ", $I10)</f>
+        <f t="shared" si="31"/>
         <v>121: 33 x 13</v>
       </c>
       <c r="K28" s="10" t="str">
-        <f>_xlfn.CONCAT(AA10, ": ", $L10," x ", $N10)</f>
+        <f t="shared" si="32"/>
         <v>155: 22 x 19</v>
       </c>
       <c r="L28" s="11">
-        <f>R10+1</f>
+        <f t="shared" si="33"/>
         <v>26</v>
       </c>
       <c r="O28">
         <v>13</v>
       </c>
       <c r="P28">
-        <f>O28+$L28</f>
+        <f t="shared" ref="P28:AA28" si="41">O28+$L28</f>
         <v>39</v>
       </c>
       <c r="Q28">
-        <f>P28+$L28</f>
+        <f t="shared" si="41"/>
         <v>65</v>
       </c>
       <c r="R28">
-        <f>Q28+$L28</f>
+        <f t="shared" si="41"/>
         <v>91</v>
       </c>
       <c r="S28">
-        <f>R28+$L28</f>
+        <f t="shared" si="41"/>
         <v>117</v>
       </c>
       <c r="T28">
-        <f>S28+$L28</f>
+        <f t="shared" si="41"/>
         <v>143</v>
       </c>
       <c r="U28">
-        <f>T28+$L28</f>
+        <f t="shared" si="41"/>
         <v>169</v>
       </c>
       <c r="V28">
-        <f>U28+$L28</f>
+        <f t="shared" si="41"/>
         <v>195</v>
       </c>
       <c r="W28">
-        <f>V28+$L28</f>
+        <f t="shared" si="41"/>
         <v>221</v>
       </c>
       <c r="X28">
-        <f>W28+$L28</f>
+        <f t="shared" si="41"/>
         <v>247</v>
       </c>
       <c r="Y28">
-        <f>X28+$L28</f>
+        <f t="shared" si="41"/>
         <v>273</v>
       </c>
       <c r="Z28">
-        <f>Y28+$L28</f>
+        <f t="shared" si="41"/>
         <v>299</v>
       </c>
       <c r="AA28">
-        <f>Z28+$L28</f>
+        <f t="shared" si="41"/>
         <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B29" s="33">
+      <c r="B29" s="28">
         <v>9</v>
       </c>
       <c r="C29" s="7">
@@ -3036,91 +3099,91 @@
         <v>0: 9 x 27</v>
       </c>
       <c r="E29" s="7" t="str">
-        <f>_xlfn.CONCAT(U11, ": ", $L11," x ", $N11)</f>
+        <f t="shared" si="26"/>
         <v>10: 24 x 20</v>
       </c>
       <c r="F29" s="7" t="str">
-        <f>_xlfn.CONCAT(V11, ": ", $G11," x ", $I11)</f>
+        <f t="shared" si="27"/>
         <v>35: 37 x 14</v>
       </c>
       <c r="G29" s="7" t="str">
-        <f>_xlfn.CONCAT(W11, ": ", $L11," x ", $N11)</f>
+        <f t="shared" si="28"/>
         <v>73: 24 x 20</v>
       </c>
       <c r="H29" s="7" t="str">
-        <f>_xlfn.CONCAT(X11, ": ", $P11," x ", $R11)</f>
+        <f t="shared" si="29"/>
         <v>98: 9 x 27</v>
       </c>
       <c r="I29" s="7" t="str">
-        <f>_xlfn.CONCAT(Y11, ": ", $L11," x ", $N11)</f>
+        <f t="shared" si="30"/>
         <v>108: 24 x 20</v>
       </c>
       <c r="J29" s="7" t="str">
-        <f>_xlfn.CONCAT(Z11, ": ", $G11," x ", $I11)</f>
+        <f t="shared" si="31"/>
         <v>133: 37 x 14</v>
       </c>
       <c r="K29" s="7" t="str">
-        <f>_xlfn.CONCAT(AA11, ": ", $L11," x ", $N11)</f>
+        <f t="shared" si="32"/>
         <v>171: 24 x 20</v>
       </c>
       <c r="L29" s="8">
-        <f>R11+1</f>
+        <f t="shared" si="33"/>
         <v>28</v>
       </c>
       <c r="O29" s="1">
         <v>13</v>
       </c>
       <c r="P29" s="1">
-        <f>O29+$L29</f>
+        <f t="shared" ref="P29:AA29" si="42">O29+$L29</f>
         <v>41</v>
       </c>
       <c r="Q29" s="1">
-        <f>P29+$L29</f>
+        <f t="shared" si="42"/>
         <v>69</v>
       </c>
       <c r="R29" s="1">
-        <f>Q29+$L29</f>
+        <f t="shared" si="42"/>
         <v>97</v>
       </c>
       <c r="S29" s="1">
-        <f>R29+$L29</f>
+        <f t="shared" si="42"/>
         <v>125</v>
       </c>
       <c r="T29" s="1">
-        <f>S29+$L29</f>
+        <f t="shared" si="42"/>
         <v>153</v>
       </c>
       <c r="U29" s="1">
-        <f>T29+$L29</f>
+        <f t="shared" si="42"/>
         <v>181</v>
       </c>
       <c r="V29" s="1">
-        <f>U29+$L29</f>
+        <f t="shared" si="42"/>
         <v>209</v>
       </c>
       <c r="W29" s="1">
-        <f>V29+$L29</f>
+        <f t="shared" si="42"/>
         <v>237</v>
       </c>
       <c r="X29" s="1">
-        <f>W29+$L29</f>
+        <f t="shared" si="42"/>
         <v>265</v>
       </c>
       <c r="Y29" s="1">
-        <f>X29+$L29</f>
+        <f t="shared" si="42"/>
         <v>293</v>
       </c>
       <c r="Z29" s="1">
-        <f>Y29+$L29</f>
+        <f t="shared" si="42"/>
         <v>321</v>
       </c>
       <c r="AA29" s="1">
-        <f>Z29+$L29</f>
+        <f t="shared" si="42"/>
         <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="34">
+      <c r="B30" s="29">
         <v>10</v>
       </c>
       <c r="C30" s="10">
@@ -3132,91 +3195,91 @@
         <v>0: 10 x 29</v>
       </c>
       <c r="E30" s="10" t="str">
-        <f>_xlfn.CONCAT(U12, ": ", $L12," x ", $N12)</f>
+        <f t="shared" si="26"/>
         <v>11: 26 x 21</v>
       </c>
       <c r="F30" s="10" t="str">
-        <f>_xlfn.CONCAT(V12, ": ", $G12," x ", $I12)</f>
+        <f t="shared" si="27"/>
         <v>38: 41 x 15</v>
       </c>
       <c r="G30" s="10" t="str">
-        <f>_xlfn.CONCAT(W12, ": ", $L12," x ", $N12)</f>
+        <f t="shared" si="28"/>
         <v>80: 26 x 21</v>
       </c>
       <c r="H30" s="10" t="str">
-        <f>_xlfn.CONCAT(X12, ": ", $P12," x ", $R12)</f>
+        <f t="shared" si="29"/>
         <v>107: 10 x 29</v>
       </c>
       <c r="I30" s="10" t="str">
-        <f>_xlfn.CONCAT(Y12, ": ", $L12," x ", $N12)</f>
+        <f t="shared" si="30"/>
         <v>118: 26 x 21</v>
       </c>
       <c r="J30" s="10" t="str">
-        <f>_xlfn.CONCAT(Z12, ": ", $G12," x ", $I12)</f>
+        <f t="shared" si="31"/>
         <v>145: 41 x 15</v>
       </c>
       <c r="K30" s="10" t="str">
-        <f>_xlfn.CONCAT(AA12, ": ", $L12," x ", $N12)</f>
+        <f t="shared" si="32"/>
         <v>187: 26 x 21</v>
       </c>
       <c r="L30" s="11">
-        <f>R12+1</f>
+        <f t="shared" si="33"/>
         <v>30</v>
       </c>
       <c r="O30">
         <v>13</v>
       </c>
       <c r="P30">
-        <f>O30+$L30</f>
+        <f t="shared" ref="P30:AA30" si="43">O30+$L30</f>
         <v>43</v>
       </c>
       <c r="Q30">
-        <f>P30+$L30</f>
+        <f t="shared" si="43"/>
         <v>73</v>
       </c>
       <c r="R30">
-        <f>Q30+$L30</f>
+        <f t="shared" si="43"/>
         <v>103</v>
       </c>
       <c r="S30">
-        <f>R30+$L30</f>
+        <f t="shared" si="43"/>
         <v>133</v>
       </c>
       <c r="T30">
-        <f>S30+$L30</f>
+        <f t="shared" si="43"/>
         <v>163</v>
       </c>
       <c r="U30">
-        <f>T30+$L30</f>
+        <f t="shared" si="43"/>
         <v>193</v>
       </c>
       <c r="V30">
-        <f>U30+$L30</f>
+        <f t="shared" si="43"/>
         <v>223</v>
       </c>
       <c r="W30">
-        <f>V30+$L30</f>
+        <f t="shared" si="43"/>
         <v>253</v>
       </c>
       <c r="X30">
-        <f>W30+$L30</f>
+        <f t="shared" si="43"/>
         <v>283</v>
       </c>
       <c r="Y30">
-        <f>X30+$L30</f>
+        <f t="shared" si="43"/>
         <v>313</v>
       </c>
       <c r="Z30">
-        <f>Y30+$L30</f>
+        <f t="shared" si="43"/>
         <v>343</v>
       </c>
       <c r="AA30">
-        <f>Z30+$L30</f>
+        <f t="shared" si="43"/>
         <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="33">
+      <c r="B31" s="28">
         <v>11</v>
       </c>
       <c r="C31" s="7">
@@ -3228,91 +3291,91 @@
         <v>0: 11 x 31</v>
       </c>
       <c r="E31" s="7" t="str">
-        <f>_xlfn.CONCAT(U13, ": ", $L13," x ", $N13)</f>
+        <f t="shared" si="26"/>
         <v>12: 28 x 22</v>
       </c>
       <c r="F31" s="7" t="str">
-        <f>_xlfn.CONCAT(V13, ": ", $G13," x ", $I13)</f>
+        <f t="shared" si="27"/>
         <v>41: 45 x 16</v>
       </c>
       <c r="G31" s="7" t="str">
-        <f>_xlfn.CONCAT(W13, ": ", $L13," x ", $N13)</f>
+        <f t="shared" si="28"/>
         <v>87: 28 x 22</v>
       </c>
       <c r="H31" s="7" t="str">
-        <f>_xlfn.CONCAT(X13, ": ", $P13," x ", $R13)</f>
+        <f t="shared" si="29"/>
         <v>116: 11 x 31</v>
       </c>
       <c r="I31" s="7" t="str">
-        <f>_xlfn.CONCAT(Y13, ": ", $L13," x ", $N13)</f>
+        <f t="shared" si="30"/>
         <v>128: 28 x 22</v>
       </c>
       <c r="J31" s="7" t="str">
-        <f>_xlfn.CONCAT(Z13, ": ", $G13," x ", $I13)</f>
+        <f t="shared" si="31"/>
         <v>157: 45 x 16</v>
       </c>
       <c r="K31" s="7" t="str">
-        <f>_xlfn.CONCAT(AA13, ": ", $L13," x ", $N13)</f>
+        <f t="shared" si="32"/>
         <v>203: 28 x 22</v>
       </c>
       <c r="L31" s="8">
-        <f>R13+1</f>
+        <f t="shared" si="33"/>
         <v>32</v>
       </c>
       <c r="O31" s="1">
         <v>13</v>
       </c>
       <c r="P31" s="1">
-        <f>O31+$L31</f>
+        <f t="shared" ref="P31:AA31" si="44">O31+$L31</f>
         <v>45</v>
       </c>
       <c r="Q31" s="1">
-        <f>P31+$L31</f>
+        <f t="shared" si="44"/>
         <v>77</v>
       </c>
       <c r="R31" s="1">
-        <f>Q31+$L31</f>
+        <f t="shared" si="44"/>
         <v>109</v>
       </c>
       <c r="S31" s="1">
-        <f>R31+$L31</f>
+        <f t="shared" si="44"/>
         <v>141</v>
       </c>
       <c r="T31" s="1">
-        <f>S31+$L31</f>
+        <f t="shared" si="44"/>
         <v>173</v>
       </c>
       <c r="U31" s="1">
-        <f>T31+$L31</f>
+        <f t="shared" si="44"/>
         <v>205</v>
       </c>
       <c r="V31" s="1">
-        <f>U31+$L31</f>
+        <f t="shared" si="44"/>
         <v>237</v>
       </c>
       <c r="W31" s="1">
-        <f>V31+$L31</f>
+        <f t="shared" si="44"/>
         <v>269</v>
       </c>
       <c r="X31" s="1">
-        <f>W31+$L31</f>
+        <f t="shared" si="44"/>
         <v>301</v>
       </c>
       <c r="Y31" s="1">
-        <f>X31+$L31</f>
+        <f t="shared" si="44"/>
         <v>333</v>
       </c>
       <c r="Z31" s="1">
-        <f>Y31+$L31</f>
+        <f t="shared" si="44"/>
         <v>365</v>
       </c>
       <c r="AA31" s="1">
-        <f>Z31+$L31</f>
+        <f t="shared" si="44"/>
         <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="34">
+      <c r="B32" s="29">
         <v>12</v>
       </c>
       <c r="C32" s="10">
@@ -3324,91 +3387,91 @@
         <v>0: 12 x 33</v>
       </c>
       <c r="E32" s="10" t="str">
-        <f>_xlfn.CONCAT(U14, ": ", $L14," x ", $N14)</f>
+        <f t="shared" si="26"/>
         <v>13: 30 x 23</v>
       </c>
       <c r="F32" s="10" t="str">
-        <f>_xlfn.CONCAT(V14, ": ", $G14," x ", $I14)</f>
+        <f t="shared" si="27"/>
         <v>44: 49 x 17</v>
       </c>
       <c r="G32" s="10" t="str">
-        <f>_xlfn.CONCAT(W14, ": ", $L14," x ", $N14)</f>
+        <f t="shared" si="28"/>
         <v>94: 30 x 23</v>
       </c>
       <c r="H32" s="10" t="str">
-        <f>_xlfn.CONCAT(X14, ": ", $P14," x ", $R14)</f>
+        <f t="shared" si="29"/>
         <v>125: 12 x 33</v>
       </c>
       <c r="I32" s="10" t="str">
-        <f>_xlfn.CONCAT(Y14, ": ", $L14," x ", $N14)</f>
+        <f t="shared" si="30"/>
         <v>138: 30 x 23</v>
       </c>
       <c r="J32" s="10" t="str">
-        <f>_xlfn.CONCAT(Z14, ": ", $G14," x ", $I14)</f>
+        <f t="shared" si="31"/>
         <v>169: 49 x 17</v>
       </c>
       <c r="K32" s="10" t="str">
-        <f>_xlfn.CONCAT(AA14, ": ", $L14," x ", $N14)</f>
+        <f t="shared" si="32"/>
         <v>219: 30 x 23</v>
       </c>
       <c r="L32" s="11">
-        <f>R14+1</f>
+        <f t="shared" si="33"/>
         <v>34</v>
       </c>
       <c r="O32">
         <v>13</v>
       </c>
       <c r="P32">
-        <f>O32+$L32</f>
+        <f t="shared" ref="P32:AA32" si="45">O32+$L32</f>
         <v>47</v>
       </c>
       <c r="Q32">
-        <f>P32+$L32</f>
+        <f t="shared" si="45"/>
         <v>81</v>
       </c>
       <c r="R32">
-        <f>Q32+$L32</f>
+        <f t="shared" si="45"/>
         <v>115</v>
       </c>
       <c r="S32">
-        <f>R32+$L32</f>
+        <f t="shared" si="45"/>
         <v>149</v>
       </c>
       <c r="T32">
-        <f>S32+$L32</f>
+        <f t="shared" si="45"/>
         <v>183</v>
       </c>
       <c r="U32">
-        <f>T32+$L32</f>
+        <f t="shared" si="45"/>
         <v>217</v>
       </c>
       <c r="V32">
-        <f>U32+$L32</f>
+        <f t="shared" si="45"/>
         <v>251</v>
       </c>
       <c r="W32">
-        <f>V32+$L32</f>
+        <f t="shared" si="45"/>
         <v>285</v>
       </c>
       <c r="X32">
-        <f>W32+$L32</f>
+        <f t="shared" si="45"/>
         <v>319</v>
       </c>
       <c r="Y32">
-        <f>X32+$L32</f>
+        <f t="shared" si="45"/>
         <v>353</v>
       </c>
       <c r="Z32">
-        <f>Y32+$L32</f>
+        <f t="shared" si="45"/>
         <v>387</v>
       </c>
       <c r="AA32">
-        <f>Z32+$L32</f>
+        <f t="shared" si="45"/>
         <v>421</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B33" s="33">
+      <c r="B33" s="28">
         <v>13</v>
       </c>
       <c r="C33" s="7">
@@ -3416,44 +3479,44 @@
         <v>52</v>
       </c>
       <c r="D33" s="7" t="str">
-        <f t="shared" ref="D33:D36" si="26">_xlfn.CONCAT(T15, ": ", $P15," x ", $R15)</f>
+        <f t="shared" ref="D33:D36" si="46">_xlfn.CONCAT(T15, ": ", $P15," x ", $R15)</f>
         <v>0: 13 x 35</v>
       </c>
       <c r="E33" s="7" t="str">
-        <f>_xlfn.CONCAT(U15, ": ", $L15," x ", $N15)</f>
+        <f t="shared" si="26"/>
         <v>14: 32 x 24</v>
       </c>
       <c r="F33" s="7" t="str">
-        <f>_xlfn.CONCAT(V15, ": ", $G15," x ", $I15)</f>
+        <f t="shared" si="27"/>
         <v>47: 53 x 18</v>
       </c>
       <c r="G33" s="7" t="str">
-        <f>_xlfn.CONCAT(W15, ": ", $L15," x ", $N15)</f>
+        <f t="shared" si="28"/>
         <v>101: 32 x 24</v>
       </c>
       <c r="H33" s="7" t="str">
-        <f>_xlfn.CONCAT(X15, ": ", $P15," x ", $R15)</f>
+        <f t="shared" si="29"/>
         <v>134: 13 x 35</v>
       </c>
       <c r="I33" s="7" t="str">
-        <f>_xlfn.CONCAT(Y15, ": ", $L15," x ", $N15)</f>
+        <f t="shared" si="30"/>
         <v>148: 32 x 24</v>
       </c>
       <c r="J33" s="7" t="str">
-        <f>_xlfn.CONCAT(Z15, ": ", $G15," x ", $I15)</f>
+        <f t="shared" si="31"/>
         <v>181: 53 x 18</v>
       </c>
       <c r="K33" s="7" t="str">
-        <f>_xlfn.CONCAT(AA15, ": ", $L15," x ", $N15)</f>
+        <f t="shared" si="32"/>
         <v>235: 32 x 24</v>
       </c>
       <c r="L33" s="8">
-        <f>R15+1</f>
+        <f t="shared" si="33"/>
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B34" s="34">
+      <c r="B34" s="29">
         <v>14</v>
       </c>
       <c r="C34" s="10">
@@ -3461,95 +3524,95 @@
         <v>56</v>
       </c>
       <c r="D34" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>0: 14 x 37</v>
+      </c>
+      <c r="E34" s="10" t="str">
         <f t="shared" si="26"/>
-        <v>0: 14 x 37</v>
-      </c>
-      <c r="E34" s="10" t="str">
-        <f>_xlfn.CONCAT(U16, ": ", $L16," x ", $N16)</f>
         <v>15: 34 x 25</v>
       </c>
       <c r="F34" s="10" t="str">
-        <f>_xlfn.CONCAT(V16, ": ", $G16," x ", $I16)</f>
+        <f t="shared" si="27"/>
         <v>50: 57 x 19</v>
       </c>
       <c r="G34" s="10" t="str">
-        <f>_xlfn.CONCAT(W16, ": ", $L16," x ", $N16)</f>
+        <f t="shared" si="28"/>
         <v>108: 34 x 25</v>
       </c>
       <c r="H34" s="10" t="str">
-        <f>_xlfn.CONCAT(X16, ": ", $P16," x ", $R16)</f>
+        <f t="shared" si="29"/>
         <v>143: 14 x 37</v>
       </c>
       <c r="I34" s="10" t="str">
-        <f>_xlfn.CONCAT(Y16, ": ", $L16," x ", $N16)</f>
+        <f t="shared" si="30"/>
         <v>158: 34 x 25</v>
       </c>
       <c r="J34" s="10" t="str">
-        <f>_xlfn.CONCAT(Z16, ": ", $G16," x ", $I16)</f>
+        <f t="shared" si="31"/>
         <v>193: 57 x 19</v>
       </c>
       <c r="K34" s="10" t="str">
-        <f>_xlfn.CONCAT(AA16, ": ", $L16," x ", $N16)</f>
+        <f t="shared" si="32"/>
         <v>251: 34 x 25</v>
       </c>
       <c r="L34" s="11">
-        <f>R16+1</f>
+        <f t="shared" si="33"/>
         <v>38</v>
       </c>
       <c r="O34" s="1">
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <f>O34+$L21</f>
+        <f t="shared" ref="P34:AA34" si="47">O34+$L21</f>
         <v>12</v>
       </c>
       <c r="Q34" s="1">
-        <f>P34+$L21</f>
+        <f t="shared" si="47"/>
         <v>24</v>
       </c>
       <c r="R34" s="1">
-        <f>Q34+$L21</f>
+        <f t="shared" si="47"/>
         <v>36</v>
       </c>
       <c r="S34" s="1">
-        <f>R34+$L21</f>
+        <f t="shared" si="47"/>
         <v>48</v>
       </c>
       <c r="T34" s="1">
-        <f>S34+$L21</f>
+        <f t="shared" si="47"/>
         <v>60</v>
       </c>
       <c r="U34" s="1">
-        <f>T34+$L21</f>
+        <f t="shared" si="47"/>
         <v>72</v>
       </c>
       <c r="V34" s="1">
-        <f>U34+$L21</f>
+        <f t="shared" si="47"/>
         <v>84</v>
       </c>
       <c r="W34" s="1">
-        <f>V34+$L21</f>
+        <f t="shared" si="47"/>
         <v>96</v>
       </c>
       <c r="X34" s="1">
-        <f>W34+$L21</f>
+        <f t="shared" si="47"/>
         <v>108</v>
       </c>
       <c r="Y34" s="1">
-        <f>X34+$L21</f>
+        <f t="shared" si="47"/>
         <v>120</v>
       </c>
       <c r="Z34" s="1">
-        <f>Y34+$L21</f>
+        <f t="shared" si="47"/>
         <v>132</v>
       </c>
       <c r="AA34" s="1">
-        <f>Z34+$L21</f>
+        <f t="shared" si="47"/>
         <v>144</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B35" s="33">
+      <c r="B35" s="28">
         <v>15</v>
       </c>
       <c r="C35" s="7">
@@ -3557,95 +3620,95 @@
         <v>60</v>
       </c>
       <c r="D35" s="7" t="str">
+        <f t="shared" si="46"/>
+        <v>0: 15 x 39</v>
+      </c>
+      <c r="E35" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>0: 15 x 39</v>
-      </c>
-      <c r="E35" s="7" t="str">
-        <f>_xlfn.CONCAT(U17, ": ", $L17," x ", $N17)</f>
         <v>16: 36 x 26</v>
       </c>
       <c r="F35" s="7" t="str">
-        <f>_xlfn.CONCAT(V17, ": ", $G17," x ", $I17)</f>
+        <f t="shared" si="27"/>
         <v>53: 61 x 20</v>
       </c>
       <c r="G35" s="7" t="str">
-        <f>_xlfn.CONCAT(W17, ": ", $L17," x ", $N17)</f>
+        <f t="shared" si="28"/>
         <v>115: 36 x 26</v>
       </c>
       <c r="H35" s="7" t="str">
-        <f>_xlfn.CONCAT(X17, ": ", $P17," x ", $R17)</f>
+        <f t="shared" si="29"/>
         <v>152: 15 x 39</v>
       </c>
       <c r="I35" s="7" t="str">
-        <f>_xlfn.CONCAT(Y17, ": ", $L17," x ", $N17)</f>
+        <f t="shared" si="30"/>
         <v>168: 36 x 26</v>
       </c>
       <c r="J35" s="7" t="str">
-        <f>_xlfn.CONCAT(Z17, ": ", $G17," x ", $I17)</f>
+        <f t="shared" si="31"/>
         <v>205: 61 x 20</v>
       </c>
       <c r="K35" s="7" t="str">
-        <f>_xlfn.CONCAT(AA17, ": ", $L17," x ", $N17)</f>
+        <f t="shared" si="32"/>
         <v>267: 36 x 26</v>
       </c>
       <c r="L35" s="8">
-        <f>R17+1</f>
+        <f t="shared" si="33"/>
         <v>40</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <f>O35+$L22</f>
+        <f t="shared" ref="P35:AA35" si="48">O35+$L22</f>
         <v>14</v>
       </c>
       <c r="Q35">
-        <f>P35+$L22</f>
+        <f t="shared" si="48"/>
         <v>28</v>
       </c>
       <c r="R35">
-        <f>Q35+$L22</f>
+        <f t="shared" si="48"/>
         <v>42</v>
       </c>
       <c r="S35">
-        <f>R35+$L22</f>
+        <f t="shared" si="48"/>
         <v>56</v>
       </c>
       <c r="T35">
-        <f>S35+$L22</f>
+        <f t="shared" si="48"/>
         <v>70</v>
       </c>
       <c r="U35">
-        <f>T35+$L22</f>
+        <f t="shared" si="48"/>
         <v>84</v>
       </c>
       <c r="V35">
-        <f>U35+$L22</f>
+        <f t="shared" si="48"/>
         <v>98</v>
       </c>
       <c r="W35">
-        <f>V35+$L22</f>
+        <f t="shared" si="48"/>
         <v>112</v>
       </c>
       <c r="X35">
-        <f>W35+$L22</f>
+        <f t="shared" si="48"/>
         <v>126</v>
       </c>
       <c r="Y35">
-        <f>X35+$L22</f>
+        <f t="shared" si="48"/>
         <v>140</v>
       </c>
       <c r="Z35">
-        <f>Y35+$L22</f>
+        <f t="shared" si="48"/>
         <v>154</v>
       </c>
       <c r="AA35">
-        <f>Z35+$L22</f>
+        <f t="shared" si="48"/>
         <v>168</v>
       </c>
     </row>
     <row r="36" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="35">
+      <c r="B36" s="30">
         <v>16</v>
       </c>
       <c r="C36" s="13">
@@ -3653,90 +3716,90 @@
         <v>64</v>
       </c>
       <c r="D36" s="13" t="str">
+        <f t="shared" si="46"/>
+        <v>0: 16 x 41</v>
+      </c>
+      <c r="E36" s="13" t="str">
         <f t="shared" si="26"/>
-        <v>0: 16 x 41</v>
-      </c>
-      <c r="E36" s="13" t="str">
-        <f>_xlfn.CONCAT(U18, ": ", $L18," x ", $N18)</f>
         <v>17: 38 x 27</v>
       </c>
       <c r="F36" s="13" t="str">
-        <f>_xlfn.CONCAT(V18, ": ", $G18," x ", $I18)</f>
+        <f t="shared" si="27"/>
         <v>56: 65 x 21</v>
       </c>
       <c r="G36" s="13" t="str">
-        <f>_xlfn.CONCAT(W18, ": ", $L18," x ", $N18)</f>
+        <f t="shared" si="28"/>
         <v>122: 38 x 27</v>
       </c>
       <c r="H36" s="13" t="str">
-        <f>_xlfn.CONCAT(X18, ": ", $P18," x ", $R18)</f>
+        <f t="shared" si="29"/>
         <v>161: 16 x 41</v>
       </c>
       <c r="I36" s="13" t="str">
-        <f>_xlfn.CONCAT(Y18, ": ", $L18," x ", $N18)</f>
+        <f t="shared" si="30"/>
         <v>178: 38 x 27</v>
       </c>
       <c r="J36" s="13" t="str">
-        <f>_xlfn.CONCAT(Z18, ": ", $G18," x ", $I18)</f>
+        <f t="shared" si="31"/>
         <v>217: 65 x 21</v>
       </c>
       <c r="K36" s="13" t="str">
-        <f>_xlfn.CONCAT(AA18, ": ", $L18," x ", $N18)</f>
+        <f t="shared" si="32"/>
         <v>283: 38 x 27</v>
       </c>
       <c r="L36" s="14">
-        <f>R18+1</f>
+        <f t="shared" si="33"/>
         <v>42</v>
       </c>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <f>O36+$L23</f>
+        <f t="shared" ref="P36:AA36" si="49">O36+$L23</f>
         <v>16</v>
       </c>
       <c r="Q36" s="1">
-        <f>P36+$L23</f>
+        <f t="shared" si="49"/>
         <v>32</v>
       </c>
       <c r="R36" s="1">
-        <f>Q36+$L23</f>
+        <f t="shared" si="49"/>
         <v>48</v>
       </c>
       <c r="S36" s="1">
-        <f>R36+$L23</f>
+        <f t="shared" si="49"/>
         <v>64</v>
       </c>
       <c r="T36" s="1">
-        <f>S36+$L23</f>
+        <f t="shared" si="49"/>
         <v>80</v>
       </c>
       <c r="U36" s="1">
-        <f>T36+$L23</f>
+        <f t="shared" si="49"/>
         <v>96</v>
       </c>
       <c r="V36" s="1">
-        <f>U36+$L23</f>
+        <f t="shared" si="49"/>
         <v>112</v>
       </c>
       <c r="W36" s="1">
-        <f>V36+$L23</f>
+        <f t="shared" si="49"/>
         <v>128</v>
       </c>
       <c r="X36" s="1">
-        <f>W36+$L23</f>
+        <f t="shared" si="49"/>
         <v>144</v>
       </c>
       <c r="Y36" s="1">
-        <f>X36+$L23</f>
+        <f t="shared" si="49"/>
         <v>160</v>
       </c>
       <c r="Z36" s="1">
-        <f>Y36+$L23</f>
+        <f t="shared" si="49"/>
         <v>176</v>
       </c>
       <c r="AA36" s="1">
-        <f>Z36+$L23</f>
+        <f t="shared" si="49"/>
         <v>192</v>
       </c>
     </row>
@@ -3745,51 +3808,51 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <f>O37+$L24</f>
+        <f t="shared" ref="P37:AA37" si="50">O37+$L24</f>
         <v>18</v>
       </c>
       <c r="Q37">
-        <f>P37+$L24</f>
+        <f t="shared" si="50"/>
         <v>36</v>
       </c>
       <c r="R37">
-        <f>Q37+$L24</f>
+        <f t="shared" si="50"/>
         <v>54</v>
       </c>
       <c r="S37">
-        <f>R37+$L24</f>
+        <f t="shared" si="50"/>
         <v>72</v>
       </c>
       <c r="T37">
-        <f>S37+$L24</f>
+        <f t="shared" si="50"/>
         <v>90</v>
       </c>
       <c r="U37">
-        <f>T37+$L24</f>
+        <f t="shared" si="50"/>
         <v>108</v>
       </c>
       <c r="V37">
-        <f>U37+$L24</f>
+        <f t="shared" si="50"/>
         <v>126</v>
       </c>
       <c r="W37">
-        <f>V37+$L24</f>
+        <f t="shared" si="50"/>
         <v>144</v>
       </c>
       <c r="X37">
-        <f>W37+$L24</f>
+        <f t="shared" si="50"/>
         <v>162</v>
       </c>
       <c r="Y37">
-        <f>X37+$L24</f>
+        <f t="shared" si="50"/>
         <v>180</v>
       </c>
       <c r="Z37">
-        <f>Y37+$L24</f>
+        <f t="shared" si="50"/>
         <v>198</v>
       </c>
       <c r="AA37">
-        <f>Z37+$L24</f>
+        <f t="shared" si="50"/>
         <v>216</v>
       </c>
     </row>
@@ -3798,51 +3861,51 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <f>O38+$L25</f>
+        <f t="shared" ref="P38:AA38" si="51">O38+$L25</f>
         <v>20</v>
       </c>
       <c r="Q38" s="1">
-        <f>P38+$L25</f>
+        <f t="shared" si="51"/>
         <v>40</v>
       </c>
       <c r="R38" s="1">
-        <f>Q38+$L25</f>
+        <f t="shared" si="51"/>
         <v>60</v>
       </c>
       <c r="S38" s="1">
-        <f>R38+$L25</f>
+        <f t="shared" si="51"/>
         <v>80</v>
       </c>
       <c r="T38" s="1">
-        <f>S38+$L25</f>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="U38" s="1">
-        <f>T38+$L25</f>
+        <f t="shared" si="51"/>
         <v>120</v>
       </c>
       <c r="V38" s="1">
-        <f>U38+$L25</f>
+        <f t="shared" si="51"/>
         <v>140</v>
       </c>
       <c r="W38" s="1">
-        <f>V38+$L25</f>
+        <f t="shared" si="51"/>
         <v>160</v>
       </c>
       <c r="X38" s="1">
-        <f>W38+$L25</f>
+        <f t="shared" si="51"/>
         <v>180</v>
       </c>
       <c r="Y38" s="1">
-        <f>X38+$L25</f>
+        <f t="shared" si="51"/>
         <v>200</v>
       </c>
       <c r="Z38" s="1">
-        <f>Y38+$L25</f>
+        <f t="shared" si="51"/>
         <v>220</v>
       </c>
       <c r="AA38" s="1">
-        <f>Z38+$L25</f>
+        <f t="shared" si="51"/>
         <v>240</v>
       </c>
     </row>
@@ -3851,51 +3914,51 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <f>O39+$L26</f>
+        <f t="shared" ref="P39:AA39" si="52">O39+$L26</f>
         <v>22</v>
       </c>
       <c r="Q39">
-        <f>P39+$L26</f>
+        <f t="shared" si="52"/>
         <v>44</v>
       </c>
       <c r="R39">
-        <f>Q39+$L26</f>
+        <f t="shared" si="52"/>
         <v>66</v>
       </c>
       <c r="S39">
-        <f>R39+$L26</f>
+        <f t="shared" si="52"/>
         <v>88</v>
       </c>
       <c r="T39">
-        <f>S39+$L26</f>
+        <f t="shared" si="52"/>
         <v>110</v>
       </c>
       <c r="U39">
-        <f>T39+$L26</f>
+        <f t="shared" si="52"/>
         <v>132</v>
       </c>
       <c r="V39">
-        <f>U39+$L26</f>
+        <f t="shared" si="52"/>
         <v>154</v>
       </c>
       <c r="W39">
-        <f>V39+$L26</f>
+        <f t="shared" si="52"/>
         <v>176</v>
       </c>
       <c r="X39">
-        <f>W39+$L26</f>
+        <f t="shared" si="52"/>
         <v>198</v>
       </c>
       <c r="Y39">
-        <f>X39+$L26</f>
+        <f t="shared" si="52"/>
         <v>220</v>
       </c>
       <c r="Z39">
-        <f>Y39+$L26</f>
+        <f t="shared" si="52"/>
         <v>242</v>
       </c>
       <c r="AA39">
-        <f>Z39+$L26</f>
+        <f t="shared" si="52"/>
         <v>264</v>
       </c>
     </row>
@@ -3904,51 +3967,51 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <f>O40+$L27</f>
+        <f t="shared" ref="P40:AA40" si="53">O40+$L27</f>
         <v>24</v>
       </c>
       <c r="Q40" s="1">
-        <f>P40+$L27</f>
+        <f t="shared" si="53"/>
         <v>48</v>
       </c>
       <c r="R40" s="1">
-        <f>Q40+$L27</f>
+        <f t="shared" si="53"/>
         <v>72</v>
       </c>
       <c r="S40" s="1">
-        <f>R40+$L27</f>
+        <f t="shared" si="53"/>
         <v>96</v>
       </c>
       <c r="T40" s="1">
-        <f>S40+$L27</f>
+        <f t="shared" si="53"/>
         <v>120</v>
       </c>
       <c r="U40" s="1">
-        <f>T40+$L27</f>
+        <f t="shared" si="53"/>
         <v>144</v>
       </c>
       <c r="V40" s="1">
-        <f>U40+$L27</f>
+        <f t="shared" si="53"/>
         <v>168</v>
       </c>
       <c r="W40" s="1">
-        <f>V40+$L27</f>
+        <f t="shared" si="53"/>
         <v>192</v>
       </c>
       <c r="X40" s="1">
-        <f>W40+$L27</f>
+        <f t="shared" si="53"/>
         <v>216</v>
       </c>
       <c r="Y40" s="1">
-        <f>X40+$L27</f>
+        <f t="shared" si="53"/>
         <v>240</v>
       </c>
       <c r="Z40" s="1">
-        <f>Y40+$L27</f>
+        <f t="shared" si="53"/>
         <v>264</v>
       </c>
       <c r="AA40" s="1">
-        <f>Z40+$L27</f>
+        <f t="shared" si="53"/>
         <v>288</v>
       </c>
     </row>
@@ -3957,51 +4020,51 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <f>O41+$L28</f>
+        <f t="shared" ref="P41:AA41" si="54">O41+$L28</f>
         <v>26</v>
       </c>
       <c r="Q41">
-        <f>P41+$L28</f>
+        <f t="shared" si="54"/>
         <v>52</v>
       </c>
       <c r="R41">
-        <f>Q41+$L28</f>
+        <f t="shared" si="54"/>
         <v>78</v>
       </c>
       <c r="S41">
-        <f>R41+$L28</f>
+        <f t="shared" si="54"/>
         <v>104</v>
       </c>
       <c r="T41">
-        <f>S41+$L28</f>
+        <f t="shared" si="54"/>
         <v>130</v>
       </c>
       <c r="U41">
-        <f>T41+$L28</f>
+        <f t="shared" si="54"/>
         <v>156</v>
       </c>
       <c r="V41">
-        <f>U41+$L28</f>
+        <f t="shared" si="54"/>
         <v>182</v>
       </c>
       <c r="W41">
-        <f>V41+$L28</f>
+        <f t="shared" si="54"/>
         <v>208</v>
       </c>
       <c r="X41">
-        <f>W41+$L28</f>
+        <f t="shared" si="54"/>
         <v>234</v>
       </c>
       <c r="Y41">
-        <f>X41+$L28</f>
+        <f t="shared" si="54"/>
         <v>260</v>
       </c>
       <c r="Z41">
-        <f>Y41+$L28</f>
+        <f t="shared" si="54"/>
         <v>286</v>
       </c>
       <c r="AA41">
-        <f>Z41+$L28</f>
+        <f t="shared" si="54"/>
         <v>312</v>
       </c>
     </row>
@@ -4010,51 +4073,51 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <f>O42+$L29</f>
+        <f t="shared" ref="P42:AA42" si="55">O42+$L29</f>
         <v>28</v>
       </c>
       <c r="Q42" s="1">
-        <f>P42+$L29</f>
+        <f t="shared" si="55"/>
         <v>56</v>
       </c>
       <c r="R42" s="1">
-        <f>Q42+$L29</f>
+        <f t="shared" si="55"/>
         <v>84</v>
       </c>
       <c r="S42" s="1">
-        <f>R42+$L29</f>
+        <f t="shared" si="55"/>
         <v>112</v>
       </c>
       <c r="T42" s="1">
-        <f>S42+$L29</f>
+        <f t="shared" si="55"/>
         <v>140</v>
       </c>
       <c r="U42" s="1">
-        <f>T42+$L29</f>
+        <f t="shared" si="55"/>
         <v>168</v>
       </c>
       <c r="V42" s="1">
-        <f>U42+$L29</f>
+        <f t="shared" si="55"/>
         <v>196</v>
       </c>
       <c r="W42" s="1">
-        <f>V42+$L29</f>
+        <f t="shared" si="55"/>
         <v>224</v>
       </c>
       <c r="X42" s="1">
-        <f>W42+$L29</f>
+        <f t="shared" si="55"/>
         <v>252</v>
       </c>
       <c r="Y42" s="1">
-        <f>X42+$L29</f>
+        <f t="shared" si="55"/>
         <v>280</v>
       </c>
       <c r="Z42" s="1">
-        <f>Y42+$L29</f>
+        <f t="shared" si="55"/>
         <v>308</v>
       </c>
       <c r="AA42" s="1">
-        <f>Z42+$L29</f>
+        <f t="shared" si="55"/>
         <v>336</v>
       </c>
     </row>
@@ -4063,51 +4126,51 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <f>O43+$L30</f>
+        <f t="shared" ref="P43:AA43" si="56">O43+$L30</f>
         <v>30</v>
       </c>
       <c r="Q43">
-        <f>P43+$L30</f>
+        <f t="shared" si="56"/>
         <v>60</v>
       </c>
       <c r="R43">
-        <f>Q43+$L30</f>
+        <f t="shared" si="56"/>
         <v>90</v>
       </c>
       <c r="S43">
-        <f>R43+$L30</f>
+        <f t="shared" si="56"/>
         <v>120</v>
       </c>
       <c r="T43">
-        <f>S43+$L30</f>
+        <f t="shared" si="56"/>
         <v>150</v>
       </c>
       <c r="U43">
-        <f>T43+$L30</f>
+        <f t="shared" si="56"/>
         <v>180</v>
       </c>
       <c r="V43">
-        <f>U43+$L30</f>
+        <f t="shared" si="56"/>
         <v>210</v>
       </c>
       <c r="W43">
-        <f>V43+$L30</f>
+        <f t="shared" si="56"/>
         <v>240</v>
       </c>
       <c r="X43">
-        <f>W43+$L30</f>
+        <f t="shared" si="56"/>
         <v>270</v>
       </c>
       <c r="Y43">
-        <f>X43+$L30</f>
+        <f t="shared" si="56"/>
         <v>300</v>
       </c>
       <c r="Z43">
-        <f>Y43+$L30</f>
+        <f t="shared" si="56"/>
         <v>330</v>
       </c>
       <c r="AA43">
-        <f>Z43+$L30</f>
+        <f t="shared" si="56"/>
         <v>360</v>
       </c>
     </row>
@@ -4116,51 +4179,51 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <f>O44+$L31</f>
+        <f t="shared" ref="P44:AA44" si="57">O44+$L31</f>
         <v>32</v>
       </c>
       <c r="Q44" s="1">
-        <f>P44+$L31</f>
+        <f t="shared" si="57"/>
         <v>64</v>
       </c>
       <c r="R44" s="1">
-        <f>Q44+$L31</f>
+        <f t="shared" si="57"/>
         <v>96</v>
       </c>
       <c r="S44" s="1">
-        <f>R44+$L31</f>
+        <f t="shared" si="57"/>
         <v>128</v>
       </c>
       <c r="T44" s="1">
-        <f>S44+$L31</f>
+        <f t="shared" si="57"/>
         <v>160</v>
       </c>
       <c r="U44" s="1">
-        <f>T44+$L31</f>
+        <f t="shared" si="57"/>
         <v>192</v>
       </c>
       <c r="V44" s="1">
-        <f>U44+$L31</f>
+        <f t="shared" si="57"/>
         <v>224</v>
       </c>
       <c r="W44" s="1">
-        <f>V44+$L31</f>
+        <f t="shared" si="57"/>
         <v>256</v>
       </c>
       <c r="X44" s="1">
-        <f>W44+$L31</f>
+        <f t="shared" si="57"/>
         <v>288</v>
       </c>
       <c r="Y44" s="1">
-        <f>X44+$L31</f>
+        <f t="shared" si="57"/>
         <v>320</v>
       </c>
       <c r="Z44" s="1">
-        <f>Y44+$L31</f>
+        <f t="shared" si="57"/>
         <v>352</v>
       </c>
       <c r="AA44" s="1">
-        <f>Z44+$L31</f>
+        <f t="shared" si="57"/>
         <v>384</v>
       </c>
     </row>
@@ -4176,51 +4239,51 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <f>O45+$L32</f>
+        <f t="shared" ref="P45:AA45" si="58">O45+$L32</f>
         <v>34</v>
       </c>
       <c r="Q45">
-        <f>P45+$L32</f>
+        <f t="shared" si="58"/>
         <v>68</v>
       </c>
       <c r="R45">
-        <f>Q45+$L32</f>
+        <f t="shared" si="58"/>
         <v>102</v>
       </c>
       <c r="S45">
-        <f>R45+$L32</f>
+        <f t="shared" si="58"/>
         <v>136</v>
       </c>
       <c r="T45">
-        <f>S45+$L32</f>
+        <f t="shared" si="58"/>
         <v>170</v>
       </c>
       <c r="U45">
-        <f>T45+$L32</f>
+        <f t="shared" si="58"/>
         <v>204</v>
       </c>
       <c r="V45">
-        <f>U45+$L32</f>
+        <f t="shared" si="58"/>
         <v>238</v>
       </c>
       <c r="W45">
-        <f>V45+$L32</f>
+        <f t="shared" si="58"/>
         <v>272</v>
       </c>
       <c r="X45">
-        <f>W45+$L32</f>
+        <f t="shared" si="58"/>
         <v>306</v>
       </c>
       <c r="Y45">
-        <f>X45+$L32</f>
+        <f t="shared" si="58"/>
         <v>340</v>
       </c>
       <c r="Z45">
-        <f>Y45+$L32</f>
+        <f t="shared" si="58"/>
         <v>374</v>
       </c>
       <c r="AA45">
-        <f>Z45+$L32</f>
+        <f t="shared" si="58"/>
         <v>408</v>
       </c>
     </row>
@@ -4275,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8F6D6D-59ED-49CD-AE7B-2DD498233183}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4286,94 +4349,94 @@
         <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="K1" s="27" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="K1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
-      <c r="P1" s="27" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="P1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="29"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="Z2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4396,75 +4459,75 @@
         <v>8</v>
       </c>
       <c r="G3" s="15">
-        <f t="shared" ref="G3:G18" si="1">F3+1</f>
-        <v>9</v>
-      </c>
-      <c r="H3" s="16">
-        <v>12</v>
-      </c>
-      <c r="I3" s="17">
-        <f t="shared" ref="I3:I18" si="2">H3+1</f>
-        <v>13</v>
+        <f>F3+2</f>
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>24</v>
+      </c>
+      <c r="I3" s="16">
+        <f>H3+2</f>
+        <v>26</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="6">
-        <f t="shared" ref="K3:K18" si="3">L3-1</f>
+        <f t="shared" ref="K3:K18" si="1">L3-1</f>
         <v>9</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" ref="L3:L18" si="4">((C3/2)+6)</f>
+        <f t="shared" ref="L3:L18" si="2">((C3/2)+6)</f>
         <v>10</v>
       </c>
-      <c r="M3" s="16">
-        <f t="shared" ref="M3:M18" si="5">((C3/4)+10)</f>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M18" si="3">((C3/4)+10)</f>
         <v>12</v>
       </c>
-      <c r="N3" s="17">
-        <f t="shared" ref="N3:N18" si="6">M3+1</f>
+      <c r="N3" s="16">
+        <f t="shared" ref="N3:N18" si="4">M3+1</f>
         <v>13</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="P3" s="24">
+      <c r="P3" s="22">
         <v>8</v>
       </c>
-      <c r="Q3" s="16">
-        <v>20</v>
-      </c>
-      <c r="R3" s="17">
-        <f t="shared" ref="R3:R18" si="7">Q3+1</f>
-        <v>21</v>
+      <c r="Q3" s="1">
+        <v>22</v>
+      </c>
+      <c r="R3" s="16">
+        <f t="shared" ref="R3:R18" si="5">Q3+1</f>
+        <v>23</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="6">
         <v>0</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="1">
         <f>T3+P3+1</f>
         <v>9</v>
       </c>
-      <c r="V3" s="16">
-        <f t="shared" ref="V3:V18" si="8">U3+L3+1</f>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3:V18" si="6">U3+L3+1</f>
         <v>20</v>
       </c>
-      <c r="W3" s="16">
-        <f t="shared" ref="W3:W18" si="9">V3+G3+1</f>
-        <v>30</v>
-      </c>
-      <c r="X3" s="16">
-        <f t="shared" ref="X3:X18" si="10">W3+L3+1</f>
-        <v>41</v>
-      </c>
-      <c r="Y3" s="16">
-        <f t="shared" ref="Y3:Y18" si="11">X3+P3+1</f>
-        <v>50</v>
-      </c>
-      <c r="Z3" s="16">
-        <f t="shared" ref="Z3:Z18" si="12">Y3+L3+1</f>
-        <v>61</v>
+      <c r="W3" s="1">
+        <f t="shared" ref="W3:W18" si="7">V3+G3+1</f>
+        <v>31</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" ref="X3:X18" si="8">W3+L3+1</f>
+        <v>42</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y18" si="9">X3+P3+1</f>
+        <v>51</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z18" si="10">Y3+L3+1</f>
+        <v>62</v>
       </c>
       <c r="AA3" s="8">
-        <f t="shared" ref="AA3:AA18" si="13">Z3+G3+1</f>
-        <v>71</v>
+        <f t="shared" ref="AA3:AA18" si="11">Z3+G3+1</f>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -4484,73 +4547,73 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
+        <f>F4+2</f>
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4" s="18">
+        <f>H4+2</f>
+        <v>26</v>
+      </c>
+      <c r="K4" s="9">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="H4" s="19">
-        <v>12</v>
-      </c>
-      <c r="I4" s="20">
+        <v>13</v>
+      </c>
+      <c r="L4" s="17">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K4" s="9">
+        <v>14</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="L4" s="18">
+        <v>14</v>
+      </c>
+      <c r="N4" s="18">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="M4" s="19">
+        <v>15</v>
+      </c>
+      <c r="P4" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>26</v>
+      </c>
+      <c r="R4" s="18">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="N4" s="20">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="P4" s="25">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>24</v>
-      </c>
-      <c r="R4" s="20">
-        <f t="shared" si="7"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T4" s="9">
         <v>0</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4">
         <f>T4+P4+1</f>
         <v>9</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="X4">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="W4" s="19">
+        <v>58</v>
+      </c>
+      <c r="Y4">
         <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-      <c r="X4" s="19">
+        <v>67</v>
+      </c>
+      <c r="Z4">
         <f t="shared" si="10"/>
-        <v>57</v>
-      </c>
-      <c r="Y4" s="19">
+        <v>82</v>
+      </c>
+      <c r="AA4" s="11">
         <f t="shared" si="11"/>
-        <v>66</v>
-      </c>
-      <c r="Z4" s="19">
-        <f t="shared" si="12"/>
-        <v>81</v>
-      </c>
-      <c r="AA4" s="11">
-        <f t="shared" si="13"/>
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -4572,75 +4635,75 @@
         <v>24</v>
       </c>
       <c r="G5" s="15">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="H5" s="16">
-        <v>12</v>
-      </c>
-      <c r="I5" s="17">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f>F5+2</f>
+        <v>26</v>
+      </c>
+      <c r="H5" s="1">
+        <v>24</v>
+      </c>
+      <c r="I5" s="16">
+        <f>H5+2</f>
+        <v>26</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M5" s="1">
         <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="L5" s="15">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="M5" s="16">
+      <c r="O5" s="1"/>
+      <c r="P5" s="22">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>30</v>
+      </c>
+      <c r="R5" s="16">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="N5" s="17">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="24">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>28</v>
-      </c>
-      <c r="R5" s="17">
-        <f t="shared" si="7"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="6">
         <v>0</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="1">
         <f>T5+P5+1</f>
         <v>9</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="1">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="X5" s="1">
         <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="W5" s="16">
+        <v>74</v>
+      </c>
+      <c r="Y5" s="1">
         <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="X5" s="16">
+        <v>83</v>
+      </c>
+      <c r="Z5" s="1">
         <f t="shared" si="10"/>
-        <v>73</v>
-      </c>
-      <c r="Y5" s="16">
+        <v>102</v>
+      </c>
+      <c r="AA5" s="8">
         <f t="shared" si="11"/>
-        <v>82</v>
-      </c>
-      <c r="Z5" s="16">
-        <f t="shared" si="12"/>
-        <v>101</v>
-      </c>
-      <c r="AA5" s="8">
-        <f t="shared" si="13"/>
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -4660,73 +4723,73 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
+        <f>F6+2</f>
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>24</v>
+      </c>
+      <c r="I6" s="18">
+        <f>H6+2</f>
+        <v>26</v>
+      </c>
+      <c r="K6" s="9">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="H6" s="19">
-        <v>12</v>
-      </c>
-      <c r="I6" s="20">
+        <v>21</v>
+      </c>
+      <c r="L6" s="17">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K6" s="9">
+        <v>22</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="L6" s="18">
+        <v>18</v>
+      </c>
+      <c r="N6" s="18">
         <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="M6" s="19">
+        <v>19</v>
+      </c>
+      <c r="P6" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>34</v>
+      </c>
+      <c r="R6" s="18">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="N6" s="20">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="P6" s="25">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>32</v>
-      </c>
-      <c r="R6" s="20">
-        <f t="shared" si="7"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T6" s="9">
         <v>0</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6">
         <f>T6+P6+1</f>
         <v>9</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="W6" s="19">
+        <v>90</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="9"/>
-        <v>66</v>
-      </c>
-      <c r="X6" s="19">
+        <v>99</v>
+      </c>
+      <c r="Z6">
         <f t="shared" si="10"/>
-        <v>89</v>
-      </c>
-      <c r="Y6" s="19">
+        <v>122</v>
+      </c>
+      <c r="AA6" s="11">
         <f t="shared" si="11"/>
-        <v>98</v>
-      </c>
-      <c r="Z6" s="19">
-        <f t="shared" si="12"/>
-        <v>121</v>
-      </c>
-      <c r="AA6" s="11">
-        <f t="shared" si="13"/>
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -4748,75 +4811,75 @@
         <v>40</v>
       </c>
       <c r="G7" s="15">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="H7" s="16">
-        <v>12</v>
-      </c>
-      <c r="I7" s="17">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f>F7+2</f>
+        <v>42</v>
+      </c>
+      <c r="H7" s="1">
+        <v>24</v>
+      </c>
+      <c r="I7" s="16">
+        <f>H7+2</f>
+        <v>26</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="L7" s="15">
+        <v>20</v>
+      </c>
+      <c r="N7" s="16">
         <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="M7" s="16">
+        <v>21</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="22">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>38</v>
+      </c>
+      <c r="R7" s="16">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="N7" s="17">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="24">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>36</v>
-      </c>
-      <c r="R7" s="17">
-        <f t="shared" si="7"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="6">
         <v>0</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="1">
         <f>T7+P7+1</f>
         <v>9</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="1">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="X7" s="1">
         <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="W7" s="16">
+        <v>106</v>
+      </c>
+      <c r="Y7" s="1">
         <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
-      <c r="X7" s="16">
+        <v>115</v>
+      </c>
+      <c r="Z7" s="1">
         <f t="shared" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="Y7" s="16">
+        <v>142</v>
+      </c>
+      <c r="AA7" s="8">
         <f t="shared" si="11"/>
-        <v>114</v>
-      </c>
-      <c r="Z7" s="16">
-        <f t="shared" si="12"/>
-        <v>141</v>
-      </c>
-      <c r="AA7" s="8">
-        <f t="shared" si="13"/>
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -4836,73 +4899,73 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
+        <f t="shared" ref="G8:G17" si="12">F8+2</f>
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" ref="I8:I17" si="13">H8+2</f>
+        <v>26</v>
+      </c>
+      <c r="K8" s="9">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="H8" s="19">
-        <v>12</v>
-      </c>
-      <c r="I8" s="20">
+        <v>29</v>
+      </c>
+      <c r="L8" s="17">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K8" s="9">
+        <v>30</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="L8" s="18">
+        <v>22</v>
+      </c>
+      <c r="N8" s="18">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="M8" s="19">
+        <v>23</v>
+      </c>
+      <c r="P8" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>42</v>
+      </c>
+      <c r="R8" s="18">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="P8" s="25">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>40</v>
-      </c>
-      <c r="R8" s="20">
-        <f t="shared" si="7"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T8" s="9">
         <v>0</v>
       </c>
-      <c r="U8" s="19">
+      <c r="U8">
         <f t="shared" ref="U8:U14" si="14">T8+P8+1</f>
         <v>9</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="W8" s="19">
+        <v>122</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="X8" s="19">
+        <v>131</v>
+      </c>
+      <c r="Z8">
         <f t="shared" si="10"/>
-        <v>121</v>
-      </c>
-      <c r="Y8" s="19">
+        <v>162</v>
+      </c>
+      <c r="AA8" s="11">
         <f t="shared" si="11"/>
-        <v>130</v>
-      </c>
-      <c r="Z8" s="19">
-        <f t="shared" si="12"/>
-        <v>161</v>
-      </c>
-      <c r="AA8" s="11">
-        <f t="shared" si="13"/>
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -4924,75 +4987,75 @@
         <v>56</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="H9" s="16">
-        <v>12</v>
-      </c>
-      <c r="I9" s="17">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="H9" s="1">
+        <v>24</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" si="13"/>
+        <v>26</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="L9" s="15">
+        <v>24</v>
+      </c>
+      <c r="N9" s="16">
         <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="M9" s="16">
+        <v>25</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="22">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>48</v>
+      </c>
+      <c r="R9" s="16">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="N9" s="17">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="24">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>44</v>
-      </c>
-      <c r="R9" s="17">
-        <f t="shared" si="7"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="6">
         <v>0</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="1">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="1">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="X9" s="1">
         <f t="shared" si="8"/>
-        <v>44</v>
-      </c>
-      <c r="W9" s="16">
+        <v>138</v>
+      </c>
+      <c r="Y9" s="1">
         <f t="shared" si="9"/>
-        <v>102</v>
-      </c>
-      <c r="X9" s="16">
+        <v>147</v>
+      </c>
+      <c r="Z9" s="1">
         <f t="shared" si="10"/>
-        <v>137</v>
-      </c>
-      <c r="Y9" s="16">
+        <v>182</v>
+      </c>
+      <c r="AA9" s="8">
         <f t="shared" si="11"/>
-        <v>146</v>
-      </c>
-      <c r="Z9" s="16">
-        <f t="shared" si="12"/>
-        <v>181</v>
-      </c>
-      <c r="AA9" s="8">
-        <f t="shared" si="13"/>
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -5012,79 +5075,77 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="H10">
+        <v>24</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="K10" s="9">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="H10" s="19">
-        <v>12</v>
-      </c>
-      <c r="I10" s="20">
+        <v>37</v>
+      </c>
+      <c r="L10" s="17">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K10" s="9">
+        <v>38</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="L10" s="18">
+        <v>26</v>
+      </c>
+      <c r="N10" s="18">
         <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="M10" s="19">
+        <v>27</v>
+      </c>
+      <c r="P10" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>50</v>
+      </c>
+      <c r="R10" s="18">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="P10" s="25">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>48</v>
-      </c>
-      <c r="R10" s="20">
-        <f t="shared" si="7"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="W10" s="19">
+        <v>154</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="9"/>
-        <v>114</v>
-      </c>
-      <c r="X10" s="19">
+        <v>163</v>
+      </c>
+      <c r="Z10">
         <f t="shared" si="10"/>
-        <v>153</v>
-      </c>
-      <c r="Y10" s="19">
+        <v>202</v>
+      </c>
+      <c r="AA10" s="11">
         <f t="shared" si="11"/>
-        <v>162</v>
-      </c>
-      <c r="Z10" s="19">
-        <f t="shared" si="12"/>
-        <v>201</v>
-      </c>
-      <c r="AA10" s="11">
-        <f t="shared" si="13"/>
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="A11" s="6"/>
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -5100,81 +5161,79 @@
         <v>72</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="H11" s="16">
-        <v>12</v>
-      </c>
-      <c r="I11" s="17">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="H11" s="1">
+        <v>24</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="13"/>
+        <v>26</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="6">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="L11" s="15">
+        <v>28</v>
+      </c>
+      <c r="N11" s="16">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="M11" s="16">
+        <v>29</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="22">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>54</v>
+      </c>
+      <c r="R11" s="16">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="N11" s="17">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="24">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>52</v>
-      </c>
-      <c r="R11" s="17">
-        <f t="shared" si="7"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="6">
         <v>0</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="1">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="1">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="X11" s="1">
         <f t="shared" si="8"/>
-        <v>53</v>
-      </c>
-      <c r="W11" s="16">
+        <v>171</v>
+      </c>
+      <c r="Y11" s="1">
         <f t="shared" si="9"/>
-        <v>127</v>
-      </c>
-      <c r="X11" s="16">
+        <v>181</v>
+      </c>
+      <c r="Z11" s="1">
         <f t="shared" si="10"/>
-        <v>170</v>
-      </c>
-      <c r="Y11" s="16">
+        <v>224</v>
+      </c>
+      <c r="AA11" s="8">
         <f t="shared" si="11"/>
-        <v>180</v>
-      </c>
-      <c r="Z11" s="16">
-        <f t="shared" si="12"/>
-        <v>223</v>
-      </c>
-      <c r="AA11" s="8">
-        <f t="shared" si="13"/>
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>0.6</v>
-      </c>
+      <c r="A12" s="9"/>
       <c r="B12" s="10">
         <v>10</v>
       </c>
@@ -5188,79 +5247,77 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
+        <f t="shared" si="12"/>
+        <v>82</v>
+      </c>
+      <c r="H12">
+        <v>24</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="K12" s="9">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="H12" s="19">
-        <v>12</v>
-      </c>
-      <c r="I12" s="20">
+        <v>45</v>
+      </c>
+      <c r="L12" s="17">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K12" s="9">
+        <v>46</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="L12" s="18">
+        <v>30</v>
+      </c>
+      <c r="N12" s="18">
         <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="M12" s="19">
+        <v>31</v>
+      </c>
+      <c r="P12" s="23">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>58</v>
+      </c>
+      <c r="R12" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="N12" s="20">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="P12" s="25">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>56</v>
-      </c>
-      <c r="R12" s="20">
-        <f t="shared" si="7"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T12" s="9">
         <v>0</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U12">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="7"/>
+        <v>141</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="8"/>
-        <v>58</v>
-      </c>
-      <c r="W12" s="19">
+        <v>188</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="9"/>
-        <v>140</v>
-      </c>
-      <c r="X12" s="19">
+        <v>199</v>
+      </c>
+      <c r="Z12">
         <f t="shared" si="10"/>
-        <v>187</v>
-      </c>
-      <c r="Y12" s="19">
+        <v>246</v>
+      </c>
+      <c r="AA12" s="11">
         <f t="shared" si="11"/>
-        <v>198</v>
-      </c>
-      <c r="Z12" s="19">
-        <f t="shared" si="12"/>
-        <v>245</v>
-      </c>
-      <c r="AA12" s="11">
-        <f t="shared" si="13"/>
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>0.65</v>
-      </c>
+      <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -5276,80 +5333,80 @@
         <v>88</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="H13" s="16">
-        <v>12</v>
-      </c>
-      <c r="I13" s="17">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="H13" s="1">
+        <v>24</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="13"/>
+        <v>26</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="6">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M13" s="1">
         <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="L13" s="15">
+        <v>32</v>
+      </c>
+      <c r="N13" s="16">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="M13" s="16">
+        <v>33</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="22">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>62</v>
+      </c>
+      <c r="R13" s="16">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="N13" s="17">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="24">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>60</v>
-      </c>
-      <c r="R13" s="17">
-        <f t="shared" si="7"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="6">
         <v>0</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13" s="1">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="1">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="7"/>
+        <v>154</v>
+      </c>
+      <c r="X13" s="1">
         <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="W13" s="16">
+        <v>205</v>
+      </c>
+      <c r="Y13" s="1">
         <f t="shared" si="9"/>
-        <v>153</v>
-      </c>
-      <c r="X13" s="16">
+        <v>217</v>
+      </c>
+      <c r="Z13" s="1">
         <f t="shared" si="10"/>
-        <v>204</v>
-      </c>
-      <c r="Y13" s="16">
+        <v>268</v>
+      </c>
+      <c r="AA13" s="8">
         <f t="shared" si="11"/>
-        <v>216</v>
-      </c>
-      <c r="Z13" s="16">
-        <f t="shared" si="12"/>
-        <v>267</v>
-      </c>
-      <c r="AA13" s="8">
-        <f t="shared" si="13"/>
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B14" s="10">
         <v>12</v>
@@ -5364,79 +5421,77 @@
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
+        <f t="shared" si="12"/>
+        <v>98</v>
+      </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="K14" s="9">
         <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="H14" s="19">
+        <v>53</v>
+      </c>
+      <c r="L14" s="17">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="N14" s="18">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="P14" s="23">
         <v>12</v>
       </c>
-      <c r="I14" s="20">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="L14" s="18">
-        <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-      <c r="M14" s="19">
+      <c r="Q14">
+        <v>66</v>
+      </c>
+      <c r="R14" s="18">
         <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="N14" s="20">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="P14" s="25">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>64</v>
-      </c>
-      <c r="R14" s="20">
-        <f t="shared" si="7"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T14" s="9">
         <v>0</v>
       </c>
-      <c r="U14" s="19">
+      <c r="U14">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="V14" s="19">
+      <c r="V14">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="7"/>
+        <v>167</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="8"/>
-        <v>68</v>
-      </c>
-      <c r="W14" s="19">
+        <v>222</v>
+      </c>
+      <c r="Y14">
         <f t="shared" si="9"/>
-        <v>166</v>
-      </c>
-      <c r="X14" s="19">
+        <v>235</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="10"/>
-        <v>221</v>
-      </c>
-      <c r="Y14" s="19">
+        <v>290</v>
+      </c>
+      <c r="AA14" s="11">
         <f t="shared" si="11"/>
-        <v>234</v>
-      </c>
-      <c r="Z14" s="19">
-        <f t="shared" si="12"/>
-        <v>289</v>
-      </c>
-      <c r="AA14" s="11">
-        <f t="shared" si="13"/>
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>0.75</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="7">
         <v>13</v>
       </c>
@@ -5452,81 +5507,79 @@
         <v>104</v>
       </c>
       <c r="G15" s="15">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="H15" s="16">
-        <v>12</v>
-      </c>
-      <c r="I15" s="17">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>106</v>
+      </c>
+      <c r="H15" s="1">
+        <v>24</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="13"/>
+        <v>26</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="L15" s="15">
+        <v>36</v>
+      </c>
+      <c r="N15" s="16">
         <f t="shared" si="4"/>
-        <v>58</v>
-      </c>
-      <c r="M15" s="16">
+        <v>37</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="22">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>70</v>
+      </c>
+      <c r="R15" s="16">
         <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="N15" s="17">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="24">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>68</v>
-      </c>
-      <c r="R15" s="17">
-        <f t="shared" si="7"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="6">
         <v>0</v>
       </c>
-      <c r="U15" s="16">
+      <c r="U15" s="1">
         <f>T15+P15+1</f>
         <v>14</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="1">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="X15" s="1">
         <f t="shared" si="8"/>
-        <v>73</v>
-      </c>
-      <c r="W15" s="16">
+        <v>239</v>
+      </c>
+      <c r="Y15" s="1">
         <f t="shared" si="9"/>
-        <v>179</v>
-      </c>
-      <c r="X15" s="16">
+        <v>253</v>
+      </c>
+      <c r="Z15" s="1">
         <f t="shared" si="10"/>
-        <v>238</v>
-      </c>
-      <c r="Y15" s="16">
+        <v>312</v>
+      </c>
+      <c r="AA15" s="8">
         <f t="shared" si="11"/>
-        <v>252</v>
-      </c>
-      <c r="Z15" s="16">
-        <f t="shared" si="12"/>
-        <v>311</v>
-      </c>
-      <c r="AA15" s="8">
-        <f t="shared" si="13"/>
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>0.8</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="B16" s="10">
         <v>14</v>
       </c>
@@ -5540,79 +5593,77 @@
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
+        <f t="shared" si="12"/>
+        <v>114</v>
+      </c>
+      <c r="H16">
+        <v>24</v>
+      </c>
+      <c r="I16" s="18">
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="K16" s="9">
         <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="H16" s="19">
-        <v>12</v>
-      </c>
-      <c r="I16" s="20">
+        <v>61</v>
+      </c>
+      <c r="L16" s="17">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K16" s="9">
+        <v>62</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="L16" s="18">
+        <v>38</v>
+      </c>
+      <c r="N16" s="18">
         <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="M16" s="19">
+        <v>39</v>
+      </c>
+      <c r="P16" s="23">
+        <v>14</v>
+      </c>
+      <c r="Q16">
+        <v>74</v>
+      </c>
+      <c r="R16" s="18">
         <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="N16" s="20">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="P16" s="25">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>72</v>
-      </c>
-      <c r="R16" s="20">
-        <f t="shared" si="7"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T16" s="9">
         <v>0</v>
       </c>
-      <c r="U16" s="19">
+      <c r="U16">
         <f>T16+P16+1</f>
         <v>15</v>
       </c>
-      <c r="V16" s="19">
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="7"/>
+        <v>193</v>
+      </c>
+      <c r="X16">
         <f t="shared" si="8"/>
-        <v>78</v>
-      </c>
-      <c r="W16" s="19">
+        <v>256</v>
+      </c>
+      <c r="Y16">
         <f t="shared" si="9"/>
-        <v>192</v>
-      </c>
-      <c r="X16" s="19">
+        <v>271</v>
+      </c>
+      <c r="Z16">
         <f t="shared" si="10"/>
-        <v>255</v>
-      </c>
-      <c r="Y16" s="19">
+        <v>334</v>
+      </c>
+      <c r="AA16" s="11">
         <f t="shared" si="11"/>
-        <v>270</v>
-      </c>
-      <c r="Z16" s="19">
-        <f t="shared" si="12"/>
-        <v>333</v>
-      </c>
-      <c r="AA16" s="11">
-        <f t="shared" si="13"/>
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>0.85</v>
-      </c>
+      <c r="A17" s="6"/>
       <c r="B17" s="7">
         <v>15</v>
       </c>
@@ -5628,81 +5679,79 @@
         <v>120</v>
       </c>
       <c r="G17" s="15">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="H17" s="16">
-        <v>12</v>
-      </c>
-      <c r="I17" s="17">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>122</v>
+      </c>
+      <c r="H17" s="1">
+        <v>24</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="13"/>
+        <v>26</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="M17" s="1">
         <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="L17" s="15">
+        <v>40</v>
+      </c>
+      <c r="N17" s="16">
         <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="M17" s="16">
+        <v>41</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="22">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>78</v>
+      </c>
+      <c r="R17" s="16">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="N17" s="17">
-        <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="24">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>76</v>
-      </c>
-      <c r="R17" s="17">
-        <f t="shared" si="7"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="6">
         <v>0</v>
       </c>
-      <c r="U17" s="16">
+      <c r="U17" s="1">
         <f>T17+P17+1</f>
         <v>16</v>
       </c>
-      <c r="V17" s="16">
+      <c r="V17" s="1">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="7"/>
+        <v>206</v>
+      </c>
+      <c r="X17" s="1">
         <f t="shared" si="8"/>
-        <v>83</v>
-      </c>
-      <c r="W17" s="16">
+        <v>273</v>
+      </c>
+      <c r="Y17" s="1">
         <f t="shared" si="9"/>
-        <v>205</v>
-      </c>
-      <c r="X17" s="16">
+        <v>289</v>
+      </c>
+      <c r="Z17" s="1">
         <f t="shared" si="10"/>
-        <v>272</v>
-      </c>
-      <c r="Y17" s="16">
+        <v>356</v>
+      </c>
+      <c r="AA17" s="8">
         <f t="shared" si="11"/>
-        <v>288</v>
-      </c>
-      <c r="Z17" s="16">
-        <f t="shared" si="12"/>
-        <v>355</v>
-      </c>
-      <c r="AA17" s="8">
-        <f t="shared" si="13"/>
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>0.9</v>
-      </c>
+      <c r="A18" s="12"/>
       <c r="B18" s="13">
         <v>16</v>
       </c>
@@ -5716,73 +5765,73 @@
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="19">
+        <f>F18+2</f>
+        <v>130</v>
+      </c>
+      <c r="H18" s="20">
+        <v>24</v>
+      </c>
+      <c r="I18" s="21">
+        <f>H18+2</f>
+        <v>26</v>
+      </c>
+      <c r="K18" s="12">
         <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-      <c r="H18" s="22">
-        <v>12</v>
-      </c>
-      <c r="I18" s="23">
+        <v>69</v>
+      </c>
+      <c r="L18" s="19">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K18" s="12">
+        <v>70</v>
+      </c>
+      <c r="M18" s="20">
         <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-      <c r="L18" s="21">
+        <v>42</v>
+      </c>
+      <c r="N18" s="21">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="M18" s="22">
+        <v>43</v>
+      </c>
+      <c r="P18" s="24">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>82</v>
+      </c>
+      <c r="R18" s="21">
         <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="N18" s="23">
-        <f t="shared" si="6"/>
-        <v>43</v>
-      </c>
-      <c r="P18" s="26">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>80</v>
-      </c>
-      <c r="R18" s="23">
-        <f t="shared" si="7"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T18" s="12">
         <v>0</v>
       </c>
-      <c r="U18" s="22">
+      <c r="U18" s="20">
         <f>T18+P18+1</f>
         <v>17</v>
       </c>
-      <c r="V18" s="22">
+      <c r="V18" s="20">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="W18" s="20">
+        <f t="shared" si="7"/>
+        <v>219</v>
+      </c>
+      <c r="X18" s="20">
         <f t="shared" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="W18" s="22">
+        <v>290</v>
+      </c>
+      <c r="Y18" s="20">
         <f t="shared" si="9"/>
-        <v>218</v>
-      </c>
-      <c r="X18" s="22">
+        <v>307</v>
+      </c>
+      <c r="Z18" s="20">
         <f t="shared" si="10"/>
-        <v>289</v>
-      </c>
-      <c r="Y18" s="22">
+        <v>378</v>
+      </c>
+      <c r="AA18" s="14">
         <f t="shared" si="11"/>
-        <v>306</v>
-      </c>
-      <c r="Z18" s="22">
-        <f t="shared" si="12"/>
-        <v>377</v>
-      </c>
-      <c r="AA18" s="14">
-        <f t="shared" si="13"/>
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -5807,56 +5856,56 @@
   <sheetData>
     <row r="1" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="K2" s="27" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="K2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="P2" s="27" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="P2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5869,10 +5918,10 @@
         <f t="shared" ref="G4:G19" si="1">F4+1</f>
         <v>1</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="1">
         <v>12</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <f t="shared" ref="I4:I19" si="2">H4+1</f>
         <v>13</v>
       </c>
@@ -5885,22 +5934,22 @@
         <f t="shared" ref="L4:L19" si="4">((C4/2)+6)</f>
         <v>6</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="1">
         <f t="shared" ref="M4:M19" si="5">((C4/4)+10)</f>
         <v>10</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="16">
         <f t="shared" ref="N4:N19" si="6">M4+1</f>
         <v>11</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="24">
+      <c r="P4" s="22">
         <v>8</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="1">
         <v>20</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="16">
         <f t="shared" ref="R4:R19" si="7">Q4+1</f>
         <v>21</v>
       </c>
@@ -5910,14 +5959,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -5925,25 +5974,25 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="18">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="23">
         <v>8</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5">
         <v>24</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="18">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
@@ -5957,10 +6006,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="1">
         <v>12</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -5973,22 +6022,22 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="16">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="24">
+      <c r="P6" s="22">
         <v>8</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="1">
         <v>28</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="16">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
@@ -5998,14 +6047,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7">
         <v>12</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -6013,25 +6062,25 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="18">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="23">
         <v>8</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7">
         <v>32</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="18">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
@@ -6045,10 +6094,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="1">
         <v>12</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -6061,22 +6110,22 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="16">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="24">
+      <c r="P8" s="22">
         <v>8</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="1">
         <v>36</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="16">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
@@ -6086,14 +6135,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9">
         <v>12</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -6101,25 +6150,25 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="17">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="18">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="23">
         <v>8</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9">
         <v>40</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="18">
         <f t="shared" si="7"/>
         <v>41</v>
       </c>
@@ -6133,10 +6182,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="1">
         <v>12</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -6149,22 +6198,22 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="24">
+      <c r="P10" s="22">
         <v>8</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="1">
         <v>44</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="16">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
@@ -6174,14 +6223,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="18">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -6189,25 +6238,25 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="17">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="18">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="23">
         <v>8</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11">
         <v>48</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="18">
         <f t="shared" si="7"/>
         <v>49</v>
       </c>
@@ -6221,10 +6270,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="1">
         <v>12</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -6237,22 +6286,22 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="16">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="P12" s="24">
+      <c r="P12" s="22">
         <v>9</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="1">
         <v>52</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="16">
         <f t="shared" si="7"/>
         <v>53</v>
       </c>
@@ -6262,14 +6311,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13">
         <v>12</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="18">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -6277,25 +6326,25 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="17">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="18">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="23">
         <v>10</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13">
         <v>56</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="18">
         <f t="shared" si="7"/>
         <v>57</v>
       </c>
@@ -6309,10 +6358,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="1">
         <v>12</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -6325,22 +6374,22 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="16">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="24">
+      <c r="P14" s="22">
         <v>11</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="1">
         <v>60</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="16">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
@@ -6350,14 +6399,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15">
         <v>12</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="18">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -6365,25 +6414,25 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="17">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="18">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="23">
         <v>12</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15">
         <v>64</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="18">
         <f t="shared" si="7"/>
         <v>65</v>
       </c>
@@ -6397,10 +6446,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="1">
         <v>12</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -6413,22 +6462,22 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="16">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="24">
+      <c r="P16" s="22">
         <v>13</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="1">
         <v>68</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="16">
         <f t="shared" si="7"/>
         <v>69</v>
       </c>
@@ -6438,14 +6487,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17">
         <v>12</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="18">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -6453,25 +6502,25 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="17">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="18">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P17" s="25">
+      <c r="P17" s="23">
         <v>14</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17">
         <v>72</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="18">
         <f t="shared" si="7"/>
         <v>73</v>
       </c>
@@ -6485,10 +6534,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="1">
         <v>12</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -6501,22 +6550,22 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="16">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="P18" s="24">
+      <c r="P18" s="22">
         <v>15</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="1">
         <v>76</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="16">
         <f t="shared" si="7"/>
         <v>77</v>
       </c>
@@ -6526,14 +6575,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="20">
         <v>12</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="21">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -6541,25 +6590,25 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="19">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="20">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="21">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="24">
         <v>16</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="20">
         <v>80</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="21">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
@@ -6572,4 +6621,392 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D567034D-4663-46F2-A4A6-28819A59EEA7}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="6" max="9" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:C18" si="0">32/(8/B3)</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="11">
+        <v>11</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="11">
+        <v>22</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D7" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D8" s="11">
+        <v>33</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D9" s="8">
+        <v>38.5</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="11">
+        <v>44</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D11" s="8">
+        <v>49.5</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B12" s="10">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D12" s="11">
+        <v>55</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="B13" s="7">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D13" s="8">
+        <v>60.5</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B14" s="10">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D14" s="11">
+        <v>66</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="B15" s="7">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D15" s="8">
+        <v>71.5</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B16" s="10">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D16" s="11">
+        <v>77</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="B17" s="7">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D17" s="8">
+        <v>82.5</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="B18" s="13">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D18" s="14">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/New Template Calculations.xlsx
+++ b/docs/New Template Calculations.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRTrains2-Extended\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69E2FCD-76C8-4A55-926B-E50FDD023BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736EE48B-A5CD-4FC3-B441-05D2BD6B7DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="3420" windowWidth="25050" windowHeight="16020" activeTab="1" xr2:uid="{D51931E5-81BC-4C5B-8C55-7A4B86E09E95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{D51931E5-81BC-4C5B-8C55-7A4B86E09E95}"/>
   </bookViews>
   <sheets>
     <sheet name="1x" sheetId="1" r:id="rId1"/>
     <sheet name="2x" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="Coverage" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="285">
   <si>
     <t>Horizontal</t>
   </si>
@@ -195,6 +196,702 @@
   </si>
   <si>
     <t>BR Conflat A, Banana van</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Era</t>
+  </si>
+  <si>
+    <t>Victorian</t>
+  </si>
+  <si>
+    <t>Edwardian</t>
+  </si>
+  <si>
+    <t>Big Four</t>
+  </si>
+  <si>
+    <t>Early BR</t>
+  </si>
+  <si>
+    <t>Dieselisation</t>
+  </si>
+  <si>
+    <t>Late BR/ Sectors</t>
+  </si>
+  <si>
+    <t>Light General Purpose</t>
+  </si>
+  <si>
+    <t>Diesel MU</t>
+  </si>
+  <si>
+    <t>Overhead Electric MU</t>
+  </si>
+  <si>
+    <t>3rd/4th Rail Electric MU</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Express Passenger</t>
+  </si>
+  <si>
+    <t>Light Goods</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Early Privatisation</t>
+  </si>
+  <si>
+    <t>Modern</t>
+  </si>
+  <si>
+    <t>GNR Stirling Single</t>
+  </si>
+  <si>
+    <t>LNWR Webb Coal Tank</t>
+  </si>
+  <si>
+    <t>GWR 2301 Dean Goods</t>
+  </si>
+  <si>
+    <t>Medium Passenger</t>
+  </si>
+  <si>
+    <t>Medium Goods</t>
+  </si>
+  <si>
+    <t>LSWR 415 Adams Radial Tank</t>
+  </si>
+  <si>
+    <t>GWR 93, 850, 1901 Saddle Tanks</t>
+  </si>
+  <si>
+    <t>GWR 3100 "Large Prairie"</t>
+  </si>
+  <si>
+    <t>GWR 2800 "Night Owl"</t>
+  </si>
+  <si>
+    <t>CR 43/903 Class "Cardean"</t>
+  </si>
+  <si>
+    <t>GWR 2900 "Saints"</t>
+  </si>
+  <si>
+    <t>LMS Princess Royal</t>
+  </si>
+  <si>
+    <t>LMS Stanier Mogul</t>
+  </si>
+  <si>
+    <t>LMS Stanier 8F</t>
+  </si>
+  <si>
+    <t>LMS Stanier 5MT "Black Five"</t>
+  </si>
+  <si>
+    <t>LNER Gresley V1</t>
+  </si>
+  <si>
+    <t>GWR 6100 "Large Prairie"</t>
+  </si>
+  <si>
+    <t>LMS Fowler 7F</t>
+  </si>
+  <si>
+    <t>SR Z Class</t>
+  </si>
+  <si>
+    <t>LNER B17 "Sandringham"</t>
+  </si>
+  <si>
+    <t>LNER D49 "Shires"</t>
+  </si>
+  <si>
+    <t>GWR 6000 "King"</t>
+  </si>
+  <si>
+    <t>SR Lord Nelson Class</t>
+  </si>
+  <si>
+    <t>LMS Hughes Crab Mogul</t>
+  </si>
+  <si>
+    <t>GWR 4073 "Castle"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNR K1 </t>
+  </si>
+  <si>
+    <t>GCR Class 8</t>
+  </si>
+  <si>
+    <t>Fast/Heavy Goods</t>
+  </si>
+  <si>
+    <t>LBSCR L Class "Remembrance"</t>
+  </si>
+  <si>
+    <t>GNR Class O1</t>
+  </si>
+  <si>
+    <t>SECR K Class "River"</t>
+  </si>
+  <si>
+    <t>SD&amp;JR 7F</t>
+  </si>
+  <si>
+    <t>GCR Class 9N</t>
+  </si>
+  <si>
+    <t>GCR Class 8K/M</t>
+  </si>
+  <si>
+    <t>GWR 4300 Class</t>
+  </si>
+  <si>
+    <t>GER S69 Class</t>
+  </si>
+  <si>
+    <t>NER T2 Class</t>
+  </si>
+  <si>
+    <t>LNWR Claughton</t>
+  </si>
+  <si>
+    <t>GCR Class 9P "Lord Farringdon"</t>
+  </si>
+  <si>
+    <t>GCR Class 11E "Directors"</t>
+  </si>
+  <si>
+    <t>HR Clan Goods</t>
+  </si>
+  <si>
+    <t>LSWR N15 "King Arthur"</t>
+  </si>
+  <si>
+    <t>GCR Class 11F "Imp. Directors"</t>
+  </si>
+  <si>
+    <t>GWR 4700 Class</t>
+  </si>
+  <si>
+    <t>HR Clan Class</t>
+  </si>
+  <si>
+    <t>MR Lickey Banker</t>
+  </si>
+  <si>
+    <t>GNR Class A1</t>
+  </si>
+  <si>
+    <t>GWR 5205 Class</t>
+  </si>
+  <si>
+    <t>LMS Royal Scot</t>
+  </si>
+  <si>
+    <t>LMS Fowler 4P</t>
+  </si>
+  <si>
+    <t>LNER Class W1</t>
+  </si>
+  <si>
+    <t>LNER Class A3</t>
+  </si>
+  <si>
+    <t>LMS 6399 "Fury"</t>
+  </si>
+  <si>
+    <t>GWR 6800 "Grange"</t>
+  </si>
+  <si>
+    <t>GWR Collet 2-10-2T</t>
+  </si>
+  <si>
+    <t>LNER Class P2 (Streamlined)</t>
+  </si>
+  <si>
+    <t>LNER Class W1 (Streamlined)</t>
+  </si>
+  <si>
+    <t>LNER Class K4</t>
+  </si>
+  <si>
+    <t>LMS Princess Coronation</t>
+  </si>
+  <si>
+    <t>LNER Class V4 "Bantom Cock"</t>
+  </si>
+  <si>
+    <t>LNER Class V2 "Green Arrow"</t>
+  </si>
+  <si>
+    <t>LNER Class B1 "Bongos"</t>
+  </si>
+  <si>
+    <t>USATC S160</t>
+  </si>
+  <si>
+    <t>WD Austerity</t>
+  </si>
+  <si>
+    <t>WD Austerity Tank</t>
+  </si>
+  <si>
+    <t>LNER Class O1</t>
+  </si>
+  <si>
+    <t>SR West Country/Battle of Britain</t>
+  </si>
+  <si>
+    <t>SR Merchant Navy Class</t>
+  </si>
+  <si>
+    <t>LNER Class A2/3</t>
+  </si>
+  <si>
+    <t>LMS Rebuilt Patriot</t>
+  </si>
+  <si>
+    <t>LMS Ivatt 2MT</t>
+  </si>
+  <si>
+    <t>LNER Class A1/1 "Great Northern"</t>
+  </si>
+  <si>
+    <t>LNER Class A2/1</t>
+  </si>
+  <si>
+    <t>LNER Class A2/2</t>
+  </si>
+  <si>
+    <t>LMS Rebuilt Royal Scot</t>
+  </si>
+  <si>
+    <t>BR Standard 7MT "Britannia"</t>
+  </si>
+  <si>
+    <t>BR Standard 8P "Duke"</t>
+  </si>
+  <si>
+    <t>BR Standard 6MT "Clan"</t>
+  </si>
+  <si>
+    <t>BR Standard 5MT</t>
+  </si>
+  <si>
+    <t>BR Standard 4MT</t>
+  </si>
+  <si>
+    <t>BR Standard 4MT Tank</t>
+  </si>
+  <si>
+    <t>BR Standard 9F</t>
+  </si>
+  <si>
+    <t>BR Standard 3MT</t>
+  </si>
+  <si>
+    <t>BR Standard 3MT Tank</t>
+  </si>
+  <si>
+    <t>BR Standard 2MT</t>
+  </si>
+  <si>
+    <t>BR Standard 2MT Tank</t>
+  </si>
+  <si>
+    <t>LNER Class A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR Rebuilt WC/BoB </t>
+  </si>
+  <si>
+    <t>BR Rebuilt Merchant Navy</t>
+  </si>
+  <si>
+    <t>BR "Fell" 10100</t>
+  </si>
+  <si>
+    <t>LMS Diesel 10000</t>
+  </si>
+  <si>
+    <t>LNER Class A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNER Class P2 </t>
+  </si>
+  <si>
+    <t>GWR 1400 "Autotanks"</t>
+  </si>
+  <si>
+    <t>SR Q1 Class</t>
+  </si>
+  <si>
+    <t>LMS Rebuilt Jubilee</t>
+  </si>
+  <si>
+    <t>LMS Jubilee</t>
+  </si>
+  <si>
+    <t>GWR Railcar</t>
+  </si>
+  <si>
+    <t>GWR 7200 Class</t>
+  </si>
+  <si>
+    <t>GWR 4900 "Hall"</t>
+  </si>
+  <si>
+    <t>LMS Fowler 2P</t>
+  </si>
+  <si>
+    <t>SR U/U1 "U-boats"</t>
+  </si>
+  <si>
+    <t>LMS Garratts</t>
+  </si>
+  <si>
+    <t>LMS 3F "Jinty"</t>
+  </si>
+  <si>
+    <t>LMS Fowler 4F</t>
+  </si>
+  <si>
+    <t>GWR 111 "The Great Bear"</t>
+  </si>
+  <si>
+    <t>LBSCR E4X</t>
+  </si>
+  <si>
+    <t>GCR Class 8H</t>
+  </si>
+  <si>
+    <t>GWR 4000 "Star"</t>
+  </si>
+  <si>
+    <t>GER A55R</t>
+  </si>
+  <si>
+    <t>GWR 3700 "City"</t>
+  </si>
+  <si>
+    <t>LBSCR E7</t>
+  </si>
+  <si>
+    <t>LBSCR E6</t>
+  </si>
+  <si>
+    <t>GER A55 "Decapod"</t>
+  </si>
+  <si>
+    <t>LBSCR E4</t>
+  </si>
+  <si>
+    <t>CR 721 "Dunalastair"</t>
+  </si>
+  <si>
+    <t>CR 439 Class</t>
+  </si>
+  <si>
+    <t>LSWR T3</t>
+  </si>
+  <si>
+    <t>GER S46 "Claud Hamilton"</t>
+  </si>
+  <si>
+    <t>CR Single No. 123</t>
+  </si>
+  <si>
+    <t>EMD Class 59 "Shed"</t>
+  </si>
+  <si>
+    <t>BREL Class 58 "Bone"</t>
+  </si>
+  <si>
+    <t>BREL Class 56 "Gridiron"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE Class 50 </t>
+  </si>
+  <si>
+    <t>EE Class 55 "Deltic"</t>
+  </si>
+  <si>
+    <t>BR Swindon Class 52 "Western"</t>
+  </si>
+  <si>
+    <t>Sulzer Class 46 "Peaks"</t>
+  </si>
+  <si>
+    <t>Beyer-Peacock Class 35 "Hymek"</t>
+  </si>
+  <si>
+    <t>EE Class 37 "Tractor"</t>
+  </si>
+  <si>
+    <t>Brush Class 47</t>
+  </si>
+  <si>
+    <t>NBL Class 43 "Warship"</t>
+  </si>
+  <si>
+    <t>NBL Class 41 "Warship"</t>
+  </si>
+  <si>
+    <t>BR Swindon Class 42 "Warship"</t>
+  </si>
+  <si>
+    <t>Sulzer Class 44 "Peaks"</t>
+  </si>
+  <si>
+    <t>EE Class 20</t>
+  </si>
+  <si>
+    <t>BREL Class 43 "Intercity 125"</t>
+  </si>
+  <si>
+    <t>Medium/Heavy General Purpose</t>
+  </si>
+  <si>
+    <t>Stadler Class 68 "UKLight"</t>
+  </si>
+  <si>
+    <t>EMD Class 66 "Sheds"</t>
+  </si>
+  <si>
+    <t>Brush Class 60 "Tugs"</t>
+  </si>
+  <si>
+    <t>BREL APT-E</t>
+  </si>
+  <si>
+    <t>BREL APT-P</t>
+  </si>
+  <si>
+    <t>BREL Class 91 "Electras"</t>
+  </si>
+  <si>
+    <t>BREL Class 150 "Sprinter"</t>
+  </si>
+  <si>
+    <t>BREL Class 155 "Super Sprinter"</t>
+  </si>
+  <si>
+    <t>BREL Class 158 "Express Sprinter"</t>
+  </si>
+  <si>
+    <t>BREL Class 159 "SW Turbo"</t>
+  </si>
+  <si>
+    <t>BREL Class 156 "Super Sprinter"</t>
+  </si>
+  <si>
+    <t>BREL Class 142 "Pacer"</t>
+  </si>
+  <si>
+    <t>BREL Class 140 "Pacer"</t>
+  </si>
+  <si>
+    <t>Bombardier Class 170 "Turbostar"</t>
+  </si>
+  <si>
+    <t>Bombardier Class 220 "Voyager"</t>
+  </si>
+  <si>
+    <t>Metro-Cammel Class 251 Blue Pullman</t>
+  </si>
+  <si>
+    <t>BREL Class 252 "Prototype HST"</t>
+  </si>
+  <si>
+    <t>BREL Class 253 "HST"</t>
+  </si>
+  <si>
+    <t>Hitachi Class 800 "IET/Azuma"</t>
+  </si>
+  <si>
+    <t>BR Class 309 "Clacton Express"</t>
+  </si>
+  <si>
+    <t>Metro-Vick Class 28 "CoBo"</t>
+  </si>
+  <si>
+    <t>BREL Class 314</t>
+  </si>
+  <si>
+    <t>ABB Class 325 "Royal Mail"</t>
+  </si>
+  <si>
+    <t>Alstom Class 334 "Juniper"</t>
+  </si>
+  <si>
+    <t>Bombardier Class 345 "Aventra"</t>
+  </si>
+  <si>
+    <t>Bombardier Class 375 "Electrostar"</t>
+  </si>
+  <si>
+    <t>Siemens Class 380 "Desiro"</t>
+  </si>
+  <si>
+    <t>Siemens Class 700 "Desiro City"</t>
+  </si>
+  <si>
+    <t>Stadler Class 755 "FLIRT"</t>
+  </si>
+  <si>
+    <t>GEC Class 373 TGV "Eurostar"</t>
+  </si>
+  <si>
+    <t>Alstom Class 390 "Pendolino"</t>
+  </si>
+  <si>
+    <t>CAF Class 397 "Civity"</t>
+  </si>
+  <si>
+    <t>SR 4-DD</t>
+  </si>
+  <si>
+    <t>SR 4-COR/4-RES "Nelsons"</t>
+  </si>
+  <si>
+    <t>SR 5-BEL "Brighton Belle"</t>
+  </si>
+  <si>
+    <t>SR 4-LAV</t>
+  </si>
+  <si>
+    <t>SR 4-SUB "Suburban"</t>
+  </si>
+  <si>
+    <t>LSWR 3-SUB</t>
+  </si>
+  <si>
+    <t>BREL Class 442/5-WES "Wessex Electrics"</t>
+  </si>
+  <si>
+    <t>Alstom Class 460/8-GAT "Juniper"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR Class 421/4-CIG </t>
+  </si>
+  <si>
+    <t>BR Class 420/422 4-BIG</t>
+  </si>
+  <si>
+    <t>BR Class 482 8-MIG</t>
+  </si>
+  <si>
+    <t>BR Class 438 4-TC/3-TC</t>
+  </si>
+  <si>
+    <t>SR 6-PAN</t>
+  </si>
+  <si>
+    <t>SR 6-PUL/6-CITY</t>
+  </si>
+  <si>
+    <t>BR 6TC</t>
+  </si>
+  <si>
+    <t>BR Class 432 4-REP</t>
+  </si>
+  <si>
+    <t>BRCW Class 33 "Crompton"</t>
+  </si>
+  <si>
+    <t>Metro-Cammel Class 111</t>
+  </si>
+  <si>
+    <t>Metro-Cammel Class 101/102</t>
+  </si>
+  <si>
+    <t>Pressed Steel Class 121 "Bubble Car"</t>
+  </si>
+  <si>
+    <t>Gloucester RC&amp;W Class 122 "Bubble Car"</t>
+  </si>
+  <si>
+    <t>BREL Class 165 "Networker"</t>
+  </si>
+  <si>
+    <t>BREL Class 166 "Networker"</t>
+  </si>
+  <si>
+    <t>BREL Class 365 "Networker"</t>
+  </si>
+  <si>
+    <t>BREL Class 465 "Networker"</t>
+  </si>
+  <si>
+    <t>BREL Class 466 "Networker"</t>
+  </si>
+  <si>
+    <t>Brush Class 53 "Falcon"</t>
+  </si>
+  <si>
+    <t>GWR 5700 Class</t>
+  </si>
+  <si>
+    <t>BR Class 77/Class EM2</t>
+  </si>
+  <si>
+    <t>BR Class 76/Class EM1</t>
+  </si>
+  <si>
+    <t>SR V "Schools"</t>
+  </si>
+  <si>
+    <t>GWR 2251 "Collet Goods"</t>
+  </si>
+  <si>
+    <t>GWR 517 Class</t>
+  </si>
+  <si>
+    <t>LBSCR A1 "Terriers"</t>
+  </si>
+  <si>
+    <t>GER F48 Class</t>
+  </si>
+  <si>
+    <t>NBR Drummond Class C</t>
+  </si>
+  <si>
+    <t>LSWR Drummond M7 Class</t>
+  </si>
+  <si>
+    <t>CR 72 "Dunalistair V"</t>
+  </si>
+  <si>
+    <t>SR Class CC Electrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNWR DX Goods </t>
+  </si>
+  <si>
+    <t>LNWR Lady of the Lake Class</t>
+  </si>
+  <si>
+    <t>GER Class Y14</t>
+  </si>
+  <si>
+    <t>MR 115 Class</t>
+  </si>
+  <si>
+    <t>MR 483 Class</t>
+  </si>
+  <si>
+    <t>LMS Fowler 4P Compound</t>
   </si>
 </sst>
 </file>
@@ -230,7 +927,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -355,11 +1052,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -408,6 +1131,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -419,6 +1155,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C473DBD1-BF4E-4659-B175-DA8950A0E94D}">
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,23 +1520,23 @@
       <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="K1" s="32" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+      <c r="K1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="34"/>
-      <c r="P1" s="32" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="41"/>
+      <c r="P1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="34"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="41"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
@@ -1593,11 +2335,11 @@
         <v>37</v>
       </c>
       <c r="H11" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="6">
@@ -1683,11 +2425,11 @@
         <v>41</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="4"/>
@@ -1770,11 +2512,11 @@
         <v>45</v>
       </c>
       <c r="H13" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="6">
@@ -1862,11 +2604,11 @@
         <v>49</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="18">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="4"/>
@@ -1949,11 +2691,11 @@
         <v>53</v>
       </c>
       <c r="H15" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="6">
@@ -1993,27 +2735,27 @@
         <v>14</v>
       </c>
       <c r="V15" s="1">
-        <f t="shared" ref="V15:V18" si="17">U15+L15+1</f>
+        <f>U15+L15+1</f>
         <v>47</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" ref="W15:W18" si="18">V15+G15+1</f>
+        <f>V15+G15+1</f>
         <v>101</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" ref="X15:X18" si="19">W15+L15+1</f>
+        <f>W15+L15+1</f>
         <v>134</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" ref="Y15:Y18" si="20">X15+P15+1</f>
+        <f>X15+P15+1</f>
         <v>148</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" ref="Z15:Z18" si="21">Y15+L15+1</f>
+        <f>Y15+L15+1</f>
         <v>181</v>
       </c>
       <c r="AA15" s="8">
-        <f t="shared" ref="AA15:AA18" si="22">Z15+G15+1</f>
+        <f>Z15+G15+1</f>
         <v>235</v>
       </c>
     </row>
@@ -2038,11 +2780,11 @@
         <v>57</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="4"/>
@@ -2064,7 +2806,7 @@
         <v>14</v>
       </c>
       <c r="Q16">
-        <f t="shared" ref="Q16:Q18" si="23">(C16/2)+8</f>
+        <f>(C16/2)+8</f>
         <v>36</v>
       </c>
       <c r="R16" s="18">
@@ -2079,27 +2821,27 @@
         <v>15</v>
       </c>
       <c r="V16">
-        <f t="shared" si="17"/>
+        <f>U16+L16+1</f>
         <v>50</v>
       </c>
       <c r="W16">
-        <f t="shared" si="18"/>
+        <f>V16+G16+1</f>
         <v>108</v>
       </c>
       <c r="X16">
-        <f t="shared" si="19"/>
+        <f>W16+L16+1</f>
         <v>143</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="20"/>
+        <f>X16+P16+1</f>
         <v>158</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="21"/>
+        <f>Y16+L16+1</f>
         <v>193</v>
       </c>
       <c r="AA16" s="11">
-        <f t="shared" si="22"/>
+        <f>Z16+G16+1</f>
         <v>251</v>
       </c>
     </row>
@@ -2125,11 +2867,11 @@
         <v>61</v>
       </c>
       <c r="H17" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="6">
@@ -2153,7 +2895,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="23"/>
+        <f>(C17/2)+8</f>
         <v>38</v>
       </c>
       <c r="R17" s="16">
@@ -2169,27 +2911,27 @@
         <v>16</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" si="17"/>
+        <f>U17+L17+1</f>
         <v>53</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" si="18"/>
+        <f>V17+G17+1</f>
         <v>115</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" si="19"/>
+        <f>W17+L17+1</f>
         <v>152</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" si="20"/>
+        <f>X17+P17+1</f>
         <v>168</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" si="21"/>
+        <f>Y17+L17+1</f>
         <v>205</v>
       </c>
       <c r="AA17" s="8">
-        <f t="shared" si="22"/>
+        <f>Z17+G17+1</f>
         <v>267</v>
       </c>
     </row>
@@ -2214,11 +2956,11 @@
         <v>65</v>
       </c>
       <c r="H18" s="20">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I18" s="21">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="4"/>
@@ -2240,7 +2982,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="20">
-        <f t="shared" si="23"/>
+        <f>(C18/2)+8</f>
         <v>40</v>
       </c>
       <c r="R18" s="21">
@@ -2255,27 +2997,27 @@
         <v>17</v>
       </c>
       <c r="V18" s="20">
-        <f t="shared" si="17"/>
+        <f>U18+L18+1</f>
         <v>56</v>
       </c>
       <c r="W18" s="20">
-        <f t="shared" si="18"/>
+        <f>V18+G18+1</f>
         <v>122</v>
       </c>
       <c r="X18" s="20">
-        <f t="shared" si="19"/>
+        <f>W18+L18+1</f>
         <v>161</v>
       </c>
       <c r="Y18" s="20">
-        <f t="shared" si="20"/>
+        <f>X18+P18+1</f>
         <v>178</v>
       </c>
       <c r="Z18" s="20">
-        <f t="shared" si="21"/>
+        <f>Y18+L18+1</f>
         <v>217</v>
       </c>
       <c r="AA18" s="14">
-        <f t="shared" si="22"/>
+        <f>Z18+G18+1</f>
         <v>283</v>
       </c>
     </row>
@@ -2323,94 +3065,94 @@
         <v>1</v>
       </c>
       <c r="C21" s="7">
-        <f t="shared" ref="C21:C36" si="24">32/(8/B21)</f>
+        <f t="shared" ref="C21:C36" si="17">32/(8/B21)</f>
         <v>4</v>
       </c>
       <c r="D21" s="7" t="str">
-        <f t="shared" ref="D21:D32" si="25">_xlfn.CONCAT(T3, ": ", $P3," x ", $R3)</f>
+        <f t="shared" ref="D21:D32" si="18">_xlfn.CONCAT(T3, ": ", $P3," x ", $R3)</f>
         <v>0: 8 x 11</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f t="shared" ref="E21:E36" si="26">_xlfn.CONCAT(U3, ": ", $L3," x ", $N3)</f>
+        <f t="shared" ref="E21:E36" si="19">_xlfn.CONCAT(U3, ": ", $L3," x ", $N3)</f>
         <v>9: 8 x 12</v>
       </c>
       <c r="F21" s="7" t="str">
-        <f t="shared" ref="F21:F36" si="27">_xlfn.CONCAT(V3, ": ", $G3," x ", $I3)</f>
+        <f t="shared" ref="F21:F36" si="20">_xlfn.CONCAT(V3, ": ", $G3," x ", $I3)</f>
         <v>18: 5 x 13</v>
       </c>
       <c r="G21" s="7" t="str">
-        <f t="shared" ref="G21:G36" si="28">_xlfn.CONCAT(W3, ": ", $L3," x ", $N3)</f>
+        <f t="shared" ref="G21:G36" si="21">_xlfn.CONCAT(W3, ": ", $L3," x ", $N3)</f>
         <v>24: 8 x 12</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f t="shared" ref="H21:H36" si="29">_xlfn.CONCAT(X3, ": ", $P3," x ", $R3)</f>
+        <f t="shared" ref="H21:H36" si="22">_xlfn.CONCAT(X3, ": ", $P3," x ", $R3)</f>
         <v>33: 8 x 11</v>
       </c>
       <c r="I21" s="7" t="str">
-        <f t="shared" ref="I21:I36" si="30">_xlfn.CONCAT(Y3, ": ", $L3," x ", $N3)</f>
+        <f t="shared" ref="I21:I36" si="23">_xlfn.CONCAT(Y3, ": ", $L3," x ", $N3)</f>
         <v>42: 8 x 12</v>
       </c>
       <c r="J21" s="7" t="str">
-        <f t="shared" ref="J21:J36" si="31">_xlfn.CONCAT(Z3, ": ", $G3," x ", $I3)</f>
+        <f t="shared" ref="J21:J36" si="24">_xlfn.CONCAT(Z3, ": ", $G3," x ", $I3)</f>
         <v>51: 5 x 13</v>
       </c>
       <c r="K21" s="7" t="str">
-        <f t="shared" ref="K21:K36" si="32">_xlfn.CONCAT(AA3, ": ", $L3," x ", $N3)</f>
+        <f t="shared" ref="K21:K36" si="25">_xlfn.CONCAT(AA3, ": ", $L3," x ", $N3)</f>
         <v>57: 8 x 12</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" ref="L21:L36" si="33">R3+1</f>
+        <f t="shared" ref="L21:L36" si="26">R3+1</f>
         <v>12</v>
       </c>
       <c r="O21" s="1">
         <v>13</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" ref="P21:AA21" si="34">O21+$L21</f>
+        <f t="shared" ref="P21:AA21" si="27">O21+$L21</f>
         <v>25</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>37</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>49</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>61</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>73</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>85</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>97</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>109</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>121</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>133</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>145</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>157</v>
       </c>
     </row>
@@ -2419,94 +3161,94 @@
         <v>2</v>
       </c>
       <c r="C22" s="10">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>0: 8 x 13</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>9: 10 x 13</v>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>20: 9 x 13</v>
+      </c>
+      <c r="G22" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>30: 10 x 13</v>
+      </c>
+      <c r="H22" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>41: 8 x 13</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>50: 10 x 13</v>
+      </c>
+      <c r="J22" s="10" t="str">
         <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="D22" s="10" t="str">
+        <v>61: 9 x 13</v>
+      </c>
+      <c r="K22" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>0: 8 x 13</v>
-      </c>
-      <c r="E22" s="10" t="str">
+        <v>71: 10 x 13</v>
+      </c>
+      <c r="L22" s="11">
         <f t="shared" si="26"/>
-        <v>9: 10 x 13</v>
-      </c>
-      <c r="F22" s="10" t="str">
-        <f t="shared" si="27"/>
-        <v>20: 9 x 13</v>
-      </c>
-      <c r="G22" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v>30: 10 x 13</v>
-      </c>
-      <c r="H22" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>41: 8 x 13</v>
-      </c>
-      <c r="I22" s="10" t="str">
-        <f t="shared" si="30"/>
-        <v>50: 10 x 13</v>
-      </c>
-      <c r="J22" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>61: 9 x 13</v>
-      </c>
-      <c r="K22" s="10" t="str">
-        <f t="shared" si="32"/>
-        <v>71: 10 x 13</v>
-      </c>
-      <c r="L22" s="11">
-        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="O22">
         <v>13</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:AA22" si="35">O22+$L22</f>
+        <f t="shared" ref="P22:AA22" si="28">O22+$L22</f>
         <v>27</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="28"/>
         <v>41</v>
       </c>
       <c r="R22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="28"/>
         <v>55</v>
       </c>
       <c r="S22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="28"/>
         <v>69</v>
       </c>
       <c r="T22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="28"/>
         <v>83</v>
       </c>
       <c r="U22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="28"/>
         <v>97</v>
       </c>
       <c r="V22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="28"/>
         <v>111</v>
       </c>
       <c r="W22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="28"/>
         <v>125</v>
       </c>
       <c r="X22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="28"/>
         <v>139</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="28"/>
         <v>153</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="28"/>
         <v>167</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="28"/>
         <v>181</v>
       </c>
     </row>
@@ -2515,94 +3257,94 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>0: 8 x 15</v>
+      </c>
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>9: 12 x 14</v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>22: 13 x 13</v>
+      </c>
+      <c r="G23" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>36: 12 x 14</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>49: 8 x 15</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>58: 12 x 14</v>
+      </c>
+      <c r="J23" s="7" t="str">
         <f t="shared" si="24"/>
-        <v>12</v>
-      </c>
-      <c r="D23" s="7" t="str">
+        <v>71: 13 x 13</v>
+      </c>
+      <c r="K23" s="7" t="str">
         <f t="shared" si="25"/>
-        <v>0: 8 x 15</v>
-      </c>
-      <c r="E23" s="7" t="str">
+        <v>85: 12 x 14</v>
+      </c>
+      <c r="L23" s="8">
         <f t="shared" si="26"/>
-        <v>9: 12 x 14</v>
-      </c>
-      <c r="F23" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v>22: 13 x 13</v>
-      </c>
-      <c r="G23" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v>36: 12 x 14</v>
-      </c>
-      <c r="H23" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v>49: 8 x 15</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f t="shared" si="30"/>
-        <v>58: 12 x 14</v>
-      </c>
-      <c r="J23" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v>71: 13 x 13</v>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f t="shared" si="32"/>
-        <v>85: 12 x 14</v>
-      </c>
-      <c r="L23" s="8">
-        <f t="shared" si="33"/>
         <v>16</v>
       </c>
       <c r="O23" s="1">
         <v>13</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" ref="P23:AA23" si="36">O23+$L23</f>
+        <f t="shared" ref="P23:AA23" si="29">O23+$L23</f>
         <v>29</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>45</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>61</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>77</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>93</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>109</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>125</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>141</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>157</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>173</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>189</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>205</v>
       </c>
     </row>
@@ -2611,94 +3353,94 @@
         <v>4</v>
       </c>
       <c r="C24" s="10">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>0: 8 x 17</v>
+      </c>
+      <c r="E24" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>9: 14 x 15</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>24: 17 x 13</v>
+      </c>
+      <c r="G24" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>42: 14 x 15</v>
+      </c>
+      <c r="H24" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>57: 8 x 17</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>66: 14 x 15</v>
+      </c>
+      <c r="J24" s="10" t="str">
         <f t="shared" si="24"/>
-        <v>16</v>
-      </c>
-      <c r="D24" s="10" t="str">
+        <v>81: 17 x 13</v>
+      </c>
+      <c r="K24" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>0: 8 x 17</v>
-      </c>
-      <c r="E24" s="10" t="str">
+        <v>99: 14 x 15</v>
+      </c>
+      <c r="L24" s="11">
         <f t="shared" si="26"/>
-        <v>9: 14 x 15</v>
-      </c>
-      <c r="F24" s="10" t="str">
-        <f t="shared" si="27"/>
-        <v>24: 17 x 13</v>
-      </c>
-      <c r="G24" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v>42: 14 x 15</v>
-      </c>
-      <c r="H24" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>57: 8 x 17</v>
-      </c>
-      <c r="I24" s="10" t="str">
-        <f t="shared" si="30"/>
-        <v>66: 14 x 15</v>
-      </c>
-      <c r="J24" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>81: 17 x 13</v>
-      </c>
-      <c r="K24" s="10" t="str">
-        <f t="shared" si="32"/>
-        <v>99: 14 x 15</v>
-      </c>
-      <c r="L24" s="11">
-        <f t="shared" si="33"/>
         <v>18</v>
       </c>
       <c r="O24">
         <v>13</v>
       </c>
       <c r="P24">
-        <f t="shared" ref="P24:AA24" si="37">O24+$L24</f>
+        <f t="shared" ref="P24:AA24" si="30">O24+$L24</f>
         <v>31</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>49</v>
       </c>
       <c r="R24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>67</v>
       </c>
       <c r="S24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>85</v>
       </c>
       <c r="T24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>103</v>
       </c>
       <c r="U24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>121</v>
       </c>
       <c r="V24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>139</v>
       </c>
       <c r="W24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>157</v>
       </c>
       <c r="X24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>175</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>193</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>211</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>229</v>
       </c>
     </row>
@@ -2707,94 +3449,94 @@
         <v>5</v>
       </c>
       <c r="C25" s="7">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>0: 8 x 19</v>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>9: 16 x 16</v>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>26: 21 x 13</v>
+      </c>
+      <c r="G25" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>48: 16 x 16</v>
+      </c>
+      <c r="H25" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>65: 8 x 19</v>
+      </c>
+      <c r="I25" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>74: 16 x 16</v>
+      </c>
+      <c r="J25" s="7" t="str">
         <f t="shared" si="24"/>
-        <v>20</v>
-      </c>
-      <c r="D25" s="7" t="str">
+        <v>91: 21 x 13</v>
+      </c>
+      <c r="K25" s="7" t="str">
         <f t="shared" si="25"/>
-        <v>0: 8 x 19</v>
-      </c>
-      <c r="E25" s="7" t="str">
+        <v>113: 16 x 16</v>
+      </c>
+      <c r="L25" s="8">
         <f t="shared" si="26"/>
-        <v>9: 16 x 16</v>
-      </c>
-      <c r="F25" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v>26: 21 x 13</v>
-      </c>
-      <c r="G25" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v>48: 16 x 16</v>
-      </c>
-      <c r="H25" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v>65: 8 x 19</v>
-      </c>
-      <c r="I25" s="7" t="str">
-        <f t="shared" si="30"/>
-        <v>74: 16 x 16</v>
-      </c>
-      <c r="J25" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v>91: 21 x 13</v>
-      </c>
-      <c r="K25" s="7" t="str">
-        <f t="shared" si="32"/>
-        <v>113: 16 x 16</v>
-      </c>
-      <c r="L25" s="8">
-        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="O25" s="1">
         <v>13</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" ref="P25:AA25" si="38">O25+$L25</f>
+        <f t="shared" ref="P25:AA25" si="31">O25+$L25</f>
         <v>33</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>53</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>73</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>93</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>113</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>133</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>153</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>173</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>193</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>213</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>233</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>253</v>
       </c>
     </row>
@@ -2803,94 +3545,94 @@
         <v>6</v>
       </c>
       <c r="C26" s="10">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>0: 8 x 21</v>
+      </c>
+      <c r="E26" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>9: 18 x 17</v>
+      </c>
+      <c r="F26" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>28: 25 x 13</v>
+      </c>
+      <c r="G26" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>54: 18 x 17</v>
+      </c>
+      <c r="H26" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>73: 8 x 21</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>82: 18 x 17</v>
+      </c>
+      <c r="J26" s="10" t="str">
         <f t="shared" si="24"/>
-        <v>24</v>
-      </c>
-      <c r="D26" s="10" t="str">
+        <v>101: 25 x 13</v>
+      </c>
+      <c r="K26" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>0: 8 x 21</v>
-      </c>
-      <c r="E26" s="10" t="str">
+        <v>127: 18 x 17</v>
+      </c>
+      <c r="L26" s="11">
         <f t="shared" si="26"/>
-        <v>9: 18 x 17</v>
-      </c>
-      <c r="F26" s="10" t="str">
-        <f t="shared" si="27"/>
-        <v>28: 25 x 13</v>
-      </c>
-      <c r="G26" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v>54: 18 x 17</v>
-      </c>
-      <c r="H26" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>73: 8 x 21</v>
-      </c>
-      <c r="I26" s="10" t="str">
-        <f t="shared" si="30"/>
-        <v>82: 18 x 17</v>
-      </c>
-      <c r="J26" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>101: 25 x 13</v>
-      </c>
-      <c r="K26" s="10" t="str">
-        <f t="shared" si="32"/>
-        <v>127: 18 x 17</v>
-      </c>
-      <c r="L26" s="11">
-        <f t="shared" si="33"/>
         <v>22</v>
       </c>
       <c r="O26">
         <v>13</v>
       </c>
       <c r="P26">
-        <f t="shared" ref="P26:AA26" si="39">O26+$L26</f>
+        <f t="shared" ref="P26:AA26" si="32">O26+$L26</f>
         <v>35</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>57</v>
       </c>
       <c r="R26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>79</v>
       </c>
       <c r="S26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>101</v>
       </c>
       <c r="T26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>123</v>
       </c>
       <c r="U26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>145</v>
       </c>
       <c r="V26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>167</v>
       </c>
       <c r="W26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>189</v>
       </c>
       <c r="X26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>211</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>233</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>255</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>277</v>
       </c>
     </row>
@@ -2899,94 +3641,94 @@
         <v>7</v>
       </c>
       <c r="C27" s="7">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="D27" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>0: 8 x 23</v>
+      </c>
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>9: 20 x 18</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>30: 29 x 13</v>
+      </c>
+      <c r="G27" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>60: 20 x 18</v>
+      </c>
+      <c r="H27" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>81: 8 x 23</v>
+      </c>
+      <c r="I27" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>90: 20 x 18</v>
+      </c>
+      <c r="J27" s="7" t="str">
         <f t="shared" si="24"/>
-        <v>28</v>
-      </c>
-      <c r="D27" s="7" t="str">
+        <v>111: 29 x 13</v>
+      </c>
+      <c r="K27" s="7" t="str">
         <f t="shared" si="25"/>
-        <v>0: 8 x 23</v>
-      </c>
-      <c r="E27" s="7" t="str">
+        <v>141: 20 x 18</v>
+      </c>
+      <c r="L27" s="8">
         <f t="shared" si="26"/>
-        <v>9: 20 x 18</v>
-      </c>
-      <c r="F27" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v>30: 29 x 13</v>
-      </c>
-      <c r="G27" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v>60: 20 x 18</v>
-      </c>
-      <c r="H27" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v>81: 8 x 23</v>
-      </c>
-      <c r="I27" s="7" t="str">
-        <f t="shared" si="30"/>
-        <v>90: 20 x 18</v>
-      </c>
-      <c r="J27" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v>111: 29 x 13</v>
-      </c>
-      <c r="K27" s="7" t="str">
-        <f t="shared" si="32"/>
-        <v>141: 20 x 18</v>
-      </c>
-      <c r="L27" s="8">
-        <f t="shared" si="33"/>
         <v>24</v>
       </c>
       <c r="O27" s="1">
         <v>13</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" ref="P27:AA27" si="40">O27+$L27</f>
+        <f t="shared" ref="P27:AA27" si="33">O27+$L27</f>
         <v>37</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>61</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>85</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>109</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>133</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>157</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>181</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>205</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>229</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>253</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>277</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>301</v>
       </c>
     </row>
@@ -2995,94 +3737,94 @@
         <v>8</v>
       </c>
       <c r="C28" s="10">
+        <f t="shared" si="17"/>
+        <v>32</v>
+      </c>
+      <c r="D28" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>0: 8 x 25</v>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>9: 22 x 19</v>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>32: 33 x 13</v>
+      </c>
+      <c r="G28" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>66: 22 x 19</v>
+      </c>
+      <c r="H28" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>89: 8 x 25</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>98: 22 x 19</v>
+      </c>
+      <c r="J28" s="10" t="str">
         <f t="shared" si="24"/>
-        <v>32</v>
-      </c>
-      <c r="D28" s="10" t="str">
+        <v>121: 33 x 13</v>
+      </c>
+      <c r="K28" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>0: 8 x 25</v>
-      </c>
-      <c r="E28" s="10" t="str">
+        <v>155: 22 x 19</v>
+      </c>
+      <c r="L28" s="11">
         <f t="shared" si="26"/>
-        <v>9: 22 x 19</v>
-      </c>
-      <c r="F28" s="10" t="str">
-        <f t="shared" si="27"/>
-        <v>32: 33 x 13</v>
-      </c>
-      <c r="G28" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v>66: 22 x 19</v>
-      </c>
-      <c r="H28" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>89: 8 x 25</v>
-      </c>
-      <c r="I28" s="10" t="str">
-        <f t="shared" si="30"/>
-        <v>98: 22 x 19</v>
-      </c>
-      <c r="J28" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>121: 33 x 13</v>
-      </c>
-      <c r="K28" s="10" t="str">
-        <f t="shared" si="32"/>
-        <v>155: 22 x 19</v>
-      </c>
-      <c r="L28" s="11">
-        <f t="shared" si="33"/>
         <v>26</v>
       </c>
       <c r="O28">
         <v>13</v>
       </c>
       <c r="P28">
-        <f t="shared" ref="P28:AA28" si="41">O28+$L28</f>
+        <f t="shared" ref="P28:AA28" si="34">O28+$L28</f>
         <v>39</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>65</v>
       </c>
       <c r="R28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>91</v>
       </c>
       <c r="S28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>117</v>
       </c>
       <c r="T28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>143</v>
       </c>
       <c r="U28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>169</v>
       </c>
       <c r="V28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>195</v>
       </c>
       <c r="W28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>221</v>
       </c>
       <c r="X28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>247</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>273</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>299</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>325</v>
       </c>
     </row>
@@ -3091,94 +3833,94 @@
         <v>9</v>
       </c>
       <c r="C29" s="7">
+        <f t="shared" si="17"/>
+        <v>36</v>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>0: 9 x 27</v>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>10: 24 x 20</v>
+      </c>
+      <c r="F29" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>35: 37 x 13</v>
+      </c>
+      <c r="G29" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>73: 24 x 20</v>
+      </c>
+      <c r="H29" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>98: 9 x 27</v>
+      </c>
+      <c r="I29" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>108: 24 x 20</v>
+      </c>
+      <c r="J29" s="7" t="str">
         <f t="shared" si="24"/>
-        <v>36</v>
-      </c>
-      <c r="D29" s="7" t="str">
+        <v>133: 37 x 13</v>
+      </c>
+      <c r="K29" s="7" t="str">
         <f t="shared" si="25"/>
-        <v>0: 9 x 27</v>
-      </c>
-      <c r="E29" s="7" t="str">
+        <v>171: 24 x 20</v>
+      </c>
+      <c r="L29" s="8">
         <f t="shared" si="26"/>
-        <v>10: 24 x 20</v>
-      </c>
-      <c r="F29" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v>35: 37 x 14</v>
-      </c>
-      <c r="G29" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v>73: 24 x 20</v>
-      </c>
-      <c r="H29" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v>98: 9 x 27</v>
-      </c>
-      <c r="I29" s="7" t="str">
-        <f t="shared" si="30"/>
-        <v>108: 24 x 20</v>
-      </c>
-      <c r="J29" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v>133: 37 x 14</v>
-      </c>
-      <c r="K29" s="7" t="str">
-        <f t="shared" si="32"/>
-        <v>171: 24 x 20</v>
-      </c>
-      <c r="L29" s="8">
-        <f t="shared" si="33"/>
         <v>28</v>
       </c>
       <c r="O29" s="1">
         <v>13</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" ref="P29:AA29" si="42">O29+$L29</f>
+        <f t="shared" ref="P29:AA29" si="35">O29+$L29</f>
         <v>41</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>69</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>97</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>125</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>153</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>181</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>209</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>237</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>265</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>293</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>321</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>349</v>
       </c>
     </row>
@@ -3187,94 +3929,94 @@
         <v>10</v>
       </c>
       <c r="C30" s="10">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="D30" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>0: 10 x 29</v>
+      </c>
+      <c r="E30" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>11: 26 x 21</v>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>38: 41 x 13</v>
+      </c>
+      <c r="G30" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>80: 26 x 21</v>
+      </c>
+      <c r="H30" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>107: 10 x 29</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>118: 26 x 21</v>
+      </c>
+      <c r="J30" s="10" t="str">
         <f t="shared" si="24"/>
-        <v>40</v>
-      </c>
-      <c r="D30" s="10" t="str">
+        <v>145: 41 x 13</v>
+      </c>
+      <c r="K30" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>0: 10 x 29</v>
-      </c>
-      <c r="E30" s="10" t="str">
+        <v>187: 26 x 21</v>
+      </c>
+      <c r="L30" s="11">
         <f t="shared" si="26"/>
-        <v>11: 26 x 21</v>
-      </c>
-      <c r="F30" s="10" t="str">
-        <f t="shared" si="27"/>
-        <v>38: 41 x 15</v>
-      </c>
-      <c r="G30" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v>80: 26 x 21</v>
-      </c>
-      <c r="H30" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>107: 10 x 29</v>
-      </c>
-      <c r="I30" s="10" t="str">
-        <f t="shared" si="30"/>
-        <v>118: 26 x 21</v>
-      </c>
-      <c r="J30" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>145: 41 x 15</v>
-      </c>
-      <c r="K30" s="10" t="str">
-        <f t="shared" si="32"/>
-        <v>187: 26 x 21</v>
-      </c>
-      <c r="L30" s="11">
-        <f t="shared" si="33"/>
         <v>30</v>
       </c>
       <c r="O30">
         <v>13</v>
       </c>
       <c r="P30">
-        <f t="shared" ref="P30:AA30" si="43">O30+$L30</f>
+        <f t="shared" ref="P30:AA30" si="36">O30+$L30</f>
         <v>43</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>73</v>
       </c>
       <c r="R30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>103</v>
       </c>
       <c r="S30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>133</v>
       </c>
       <c r="T30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>163</v>
       </c>
       <c r="U30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>193</v>
       </c>
       <c r="V30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>223</v>
       </c>
       <c r="W30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>253</v>
       </c>
       <c r="X30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>283</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>313</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>343</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>373</v>
       </c>
     </row>
@@ -3283,94 +4025,94 @@
         <v>11</v>
       </c>
       <c r="C31" s="7">
+        <f t="shared" si="17"/>
+        <v>44</v>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>0: 11 x 31</v>
+      </c>
+      <c r="E31" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>12: 28 x 22</v>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>41: 45 x 13</v>
+      </c>
+      <c r="G31" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>87: 28 x 22</v>
+      </c>
+      <c r="H31" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>116: 11 x 31</v>
+      </c>
+      <c r="I31" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>128: 28 x 22</v>
+      </c>
+      <c r="J31" s="7" t="str">
         <f t="shared" si="24"/>
-        <v>44</v>
-      </c>
-      <c r="D31" s="7" t="str">
+        <v>157: 45 x 13</v>
+      </c>
+      <c r="K31" s="7" t="str">
         <f t="shared" si="25"/>
-        <v>0: 11 x 31</v>
-      </c>
-      <c r="E31" s="7" t="str">
+        <v>203: 28 x 22</v>
+      </c>
+      <c r="L31" s="8">
         <f t="shared" si="26"/>
-        <v>12: 28 x 22</v>
-      </c>
-      <c r="F31" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v>41: 45 x 16</v>
-      </c>
-      <c r="G31" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v>87: 28 x 22</v>
-      </c>
-      <c r="H31" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v>116: 11 x 31</v>
-      </c>
-      <c r="I31" s="7" t="str">
-        <f t="shared" si="30"/>
-        <v>128: 28 x 22</v>
-      </c>
-      <c r="J31" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v>157: 45 x 16</v>
-      </c>
-      <c r="K31" s="7" t="str">
-        <f t="shared" si="32"/>
-        <v>203: 28 x 22</v>
-      </c>
-      <c r="L31" s="8">
-        <f t="shared" si="33"/>
         <v>32</v>
       </c>
       <c r="O31" s="1">
         <v>13</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" ref="P31:AA31" si="44">O31+$L31</f>
+        <f t="shared" ref="P31:AA31" si="37">O31+$L31</f>
         <v>45</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>77</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>109</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>141</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>173</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>205</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>237</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>269</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>301</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>333</v>
       </c>
       <c r="Z31" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>365</v>
       </c>
       <c r="AA31" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>397</v>
       </c>
     </row>
@@ -3379,94 +4121,94 @@
         <v>12</v>
       </c>
       <c r="C32" s="10">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+      <c r="D32" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>0: 12 x 33</v>
+      </c>
+      <c r="E32" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>13: 30 x 23</v>
+      </c>
+      <c r="F32" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>44: 49 x 13</v>
+      </c>
+      <c r="G32" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>94: 30 x 23</v>
+      </c>
+      <c r="H32" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>125: 12 x 33</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>138: 30 x 23</v>
+      </c>
+      <c r="J32" s="10" t="str">
         <f t="shared" si="24"/>
-        <v>48</v>
-      </c>
-      <c r="D32" s="10" t="str">
+        <v>169: 49 x 13</v>
+      </c>
+      <c r="K32" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>0: 12 x 33</v>
-      </c>
-      <c r="E32" s="10" t="str">
+        <v>219: 30 x 23</v>
+      </c>
+      <c r="L32" s="11">
         <f t="shared" si="26"/>
-        <v>13: 30 x 23</v>
-      </c>
-      <c r="F32" s="10" t="str">
-        <f t="shared" si="27"/>
-        <v>44: 49 x 17</v>
-      </c>
-      <c r="G32" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v>94: 30 x 23</v>
-      </c>
-      <c r="H32" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>125: 12 x 33</v>
-      </c>
-      <c r="I32" s="10" t="str">
-        <f t="shared" si="30"/>
-        <v>138: 30 x 23</v>
-      </c>
-      <c r="J32" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>169: 49 x 17</v>
-      </c>
-      <c r="K32" s="10" t="str">
-        <f t="shared" si="32"/>
-        <v>219: 30 x 23</v>
-      </c>
-      <c r="L32" s="11">
-        <f t="shared" si="33"/>
         <v>34</v>
       </c>
       <c r="O32">
         <v>13</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32:AA32" si="45">O32+$L32</f>
+        <f t="shared" ref="P32:AA32" si="38">O32+$L32</f>
         <v>47</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>81</v>
       </c>
       <c r="R32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>115</v>
       </c>
       <c r="S32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>149</v>
       </c>
       <c r="T32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>183</v>
       </c>
       <c r="U32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>217</v>
       </c>
       <c r="V32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>251</v>
       </c>
       <c r="W32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>285</v>
       </c>
       <c r="X32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>319</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>353</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>387</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>421</v>
       </c>
     </row>
@@ -3475,43 +4217,43 @@
         <v>13</v>
       </c>
       <c r="C33" s="7">
+        <f t="shared" si="17"/>
+        <v>52</v>
+      </c>
+      <c r="D33" s="7" t="str">
+        <f>_xlfn.CONCAT(T15, ": ", $P15," x ", $R15)</f>
+        <v>0: 13 x 35</v>
+      </c>
+      <c r="E33" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>14: 32 x 24</v>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>47: 53 x 13</v>
+      </c>
+      <c r="G33" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>101: 32 x 24</v>
+      </c>
+      <c r="H33" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>134: 13 x 35</v>
+      </c>
+      <c r="I33" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>148: 32 x 24</v>
+      </c>
+      <c r="J33" s="7" t="str">
         <f t="shared" si="24"/>
-        <v>52</v>
-      </c>
-      <c r="D33" s="7" t="str">
-        <f t="shared" ref="D33:D36" si="46">_xlfn.CONCAT(T15, ": ", $P15," x ", $R15)</f>
-        <v>0: 13 x 35</v>
-      </c>
-      <c r="E33" s="7" t="str">
+        <v>181: 53 x 13</v>
+      </c>
+      <c r="K33" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v>235: 32 x 24</v>
+      </c>
+      <c r="L33" s="8">
         <f t="shared" si="26"/>
-        <v>14: 32 x 24</v>
-      </c>
-      <c r="F33" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v>47: 53 x 18</v>
-      </c>
-      <c r="G33" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v>101: 32 x 24</v>
-      </c>
-      <c r="H33" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v>134: 13 x 35</v>
-      </c>
-      <c r="I33" s="7" t="str">
-        <f t="shared" si="30"/>
-        <v>148: 32 x 24</v>
-      </c>
-      <c r="J33" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v>181: 53 x 18</v>
-      </c>
-      <c r="K33" s="7" t="str">
-        <f t="shared" si="32"/>
-        <v>235: 32 x 24</v>
-      </c>
-      <c r="L33" s="8">
-        <f t="shared" si="33"/>
         <v>36</v>
       </c>
     </row>
@@ -3520,94 +4262,94 @@
         <v>14</v>
       </c>
       <c r="C34" s="10">
+        <f t="shared" si="17"/>
+        <v>56</v>
+      </c>
+      <c r="D34" s="10" t="str">
+        <f>_xlfn.CONCAT(T16, ": ", $P16," x ", $R16)</f>
+        <v>0: 14 x 37</v>
+      </c>
+      <c r="E34" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>15: 34 x 25</v>
+      </c>
+      <c r="F34" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>50: 57 x 13</v>
+      </c>
+      <c r="G34" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>108: 34 x 25</v>
+      </c>
+      <c r="H34" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>143: 14 x 37</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>158: 34 x 25</v>
+      </c>
+      <c r="J34" s="10" t="str">
         <f t="shared" si="24"/>
-        <v>56</v>
-      </c>
-      <c r="D34" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v>0: 14 x 37</v>
-      </c>
-      <c r="E34" s="10" t="str">
+        <v>193: 57 x 13</v>
+      </c>
+      <c r="K34" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>251: 34 x 25</v>
+      </c>
+      <c r="L34" s="11">
         <f t="shared" si="26"/>
-        <v>15: 34 x 25</v>
-      </c>
-      <c r="F34" s="10" t="str">
-        <f t="shared" si="27"/>
-        <v>50: 57 x 19</v>
-      </c>
-      <c r="G34" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v>108: 34 x 25</v>
-      </c>
-      <c r="H34" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>143: 14 x 37</v>
-      </c>
-      <c r="I34" s="10" t="str">
-        <f t="shared" si="30"/>
-        <v>158: 34 x 25</v>
-      </c>
-      <c r="J34" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v>193: 57 x 19</v>
-      </c>
-      <c r="K34" s="10" t="str">
-        <f t="shared" si="32"/>
-        <v>251: 34 x 25</v>
-      </c>
-      <c r="L34" s="11">
-        <f t="shared" si="33"/>
         <v>38</v>
       </c>
       <c r="O34" s="1">
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" ref="P34:AA34" si="47">O34+$L21</f>
+        <f t="shared" ref="P34:AA34" si="39">O34+$L21</f>
         <v>12</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>36</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>48</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>60</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>72</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>84</v>
       </c>
       <c r="W34" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>96</v>
       </c>
       <c r="X34" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>108</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>120</v>
       </c>
       <c r="Z34" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>132</v>
       </c>
       <c r="AA34" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>144</v>
       </c>
     </row>
@@ -3616,94 +4358,94 @@
         <v>15</v>
       </c>
       <c r="C35" s="7">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="D35" s="7" t="str">
+        <f>_xlfn.CONCAT(T17, ": ", $P17," x ", $R17)</f>
+        <v>0: 15 x 39</v>
+      </c>
+      <c r="E35" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>16: 36 x 26</v>
+      </c>
+      <c r="F35" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>53: 61 x 13</v>
+      </c>
+      <c r="G35" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>115: 36 x 26</v>
+      </c>
+      <c r="H35" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>152: 15 x 39</v>
+      </c>
+      <c r="I35" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>168: 36 x 26</v>
+      </c>
+      <c r="J35" s="7" t="str">
         <f t="shared" si="24"/>
-        <v>60</v>
-      </c>
-      <c r="D35" s="7" t="str">
-        <f t="shared" si="46"/>
-        <v>0: 15 x 39</v>
-      </c>
-      <c r="E35" s="7" t="str">
+        <v>205: 61 x 13</v>
+      </c>
+      <c r="K35" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v>267: 36 x 26</v>
+      </c>
+      <c r="L35" s="8">
         <f t="shared" si="26"/>
-        <v>16: 36 x 26</v>
-      </c>
-      <c r="F35" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v>53: 61 x 20</v>
-      </c>
-      <c r="G35" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v>115: 36 x 26</v>
-      </c>
-      <c r="H35" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v>152: 15 x 39</v>
-      </c>
-      <c r="I35" s="7" t="str">
-        <f t="shared" si="30"/>
-        <v>168: 36 x 26</v>
-      </c>
-      <c r="J35" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v>205: 61 x 20</v>
-      </c>
-      <c r="K35" s="7" t="str">
-        <f t="shared" si="32"/>
-        <v>267: 36 x 26</v>
-      </c>
-      <c r="L35" s="8">
-        <f t="shared" si="33"/>
         <v>40</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" ref="P35:AA35" si="48">O35+$L22</f>
+        <f t="shared" ref="P35:AA35" si="40">O35+$L22</f>
         <v>14</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>28</v>
       </c>
       <c r="R35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>42</v>
       </c>
       <c r="S35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>56</v>
       </c>
       <c r="T35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>70</v>
       </c>
       <c r="U35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>84</v>
       </c>
       <c r="V35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>98</v>
       </c>
       <c r="W35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>112</v>
       </c>
       <c r="X35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>126</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>140</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>154</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>168</v>
       </c>
     </row>
@@ -3712,94 +4454,94 @@
         <v>16</v>
       </c>
       <c r="C36" s="13">
+        <f t="shared" si="17"/>
+        <v>64</v>
+      </c>
+      <c r="D36" s="13" t="str">
+        <f>_xlfn.CONCAT(T18, ": ", $P18," x ", $R18)</f>
+        <v>0: 16 x 41</v>
+      </c>
+      <c r="E36" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>17: 38 x 27</v>
+      </c>
+      <c r="F36" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>56: 65 x 13</v>
+      </c>
+      <c r="G36" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>122: 38 x 27</v>
+      </c>
+      <c r="H36" s="13" t="str">
+        <f t="shared" si="22"/>
+        <v>161: 16 x 41</v>
+      </c>
+      <c r="I36" s="13" t="str">
+        <f t="shared" si="23"/>
+        <v>178: 38 x 27</v>
+      </c>
+      <c r="J36" s="13" t="str">
         <f t="shared" si="24"/>
-        <v>64</v>
-      </c>
-      <c r="D36" s="13" t="str">
-        <f t="shared" si="46"/>
-        <v>0: 16 x 41</v>
-      </c>
-      <c r="E36" s="13" t="str">
+        <v>217: 65 x 13</v>
+      </c>
+      <c r="K36" s="13" t="str">
+        <f t="shared" si="25"/>
+        <v>283: 38 x 27</v>
+      </c>
+      <c r="L36" s="14">
         <f t="shared" si="26"/>
-        <v>17: 38 x 27</v>
-      </c>
-      <c r="F36" s="13" t="str">
-        <f t="shared" si="27"/>
-        <v>56: 65 x 21</v>
-      </c>
-      <c r="G36" s="13" t="str">
-        <f t="shared" si="28"/>
-        <v>122: 38 x 27</v>
-      </c>
-      <c r="H36" s="13" t="str">
-        <f t="shared" si="29"/>
-        <v>161: 16 x 41</v>
-      </c>
-      <c r="I36" s="13" t="str">
-        <f t="shared" si="30"/>
-        <v>178: 38 x 27</v>
-      </c>
-      <c r="J36" s="13" t="str">
-        <f t="shared" si="31"/>
-        <v>217: 65 x 21</v>
-      </c>
-      <c r="K36" s="13" t="str">
-        <f t="shared" si="32"/>
-        <v>283: 38 x 27</v>
-      </c>
-      <c r="L36" s="14">
-        <f t="shared" si="33"/>
         <v>42</v>
       </c>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" ref="P36:AA36" si="49">O36+$L23</f>
+        <f t="shared" ref="P36:AA36" si="41">O36+$L23</f>
         <v>16</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>32</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>48</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>64</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>80</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>96</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>112</v>
       </c>
       <c r="W36" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>128</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>144</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>160</v>
       </c>
       <c r="Z36" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>176</v>
       </c>
       <c r="AA36" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>192</v>
       </c>
     </row>
@@ -3808,51 +4550,51 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <f t="shared" ref="P37:AA37" si="50">O37+$L24</f>
+        <f t="shared" ref="P37:AA37" si="42">O37+$L24</f>
         <v>18</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v>36</v>
       </c>
       <c r="R37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v>54</v>
       </c>
       <c r="S37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v>72</v>
       </c>
       <c r="T37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v>90</v>
       </c>
       <c r="U37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v>108</v>
       </c>
       <c r="V37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v>126</v>
       </c>
       <c r="W37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v>144</v>
       </c>
       <c r="X37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v>162</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v>198</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v>216</v>
       </c>
     </row>
@@ -3861,51 +4603,51 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" ref="P38:AA38" si="51">O38+$L25</f>
+        <f t="shared" ref="P38:AA38" si="43">O38+$L25</f>
         <v>20</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="43"/>
         <v>40</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="43"/>
         <v>60</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="43"/>
         <v>80</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="43"/>
         <v>120</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="43"/>
         <v>140</v>
       </c>
       <c r="W38" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="43"/>
         <v>160</v>
       </c>
       <c r="X38" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="43"/>
         <v>180</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="43"/>
         <v>200</v>
       </c>
       <c r="Z38" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="43"/>
         <v>220</v>
       </c>
       <c r="AA38" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="43"/>
         <v>240</v>
       </c>
     </row>
@@ -3914,51 +4656,51 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" ref="P39:AA39" si="52">O39+$L26</f>
+        <f t="shared" ref="P39:AA39" si="44">O39+$L26</f>
         <v>22</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>44</v>
       </c>
       <c r="R39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>66</v>
       </c>
       <c r="S39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>88</v>
       </c>
       <c r="T39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>110</v>
       </c>
       <c r="U39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>132</v>
       </c>
       <c r="V39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>154</v>
       </c>
       <c r="W39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>176</v>
       </c>
       <c r="X39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>198</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>220</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>242</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>264</v>
       </c>
     </row>
@@ -3967,51 +4709,51 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" ref="P40:AA40" si="53">O40+$L27</f>
+        <f t="shared" ref="P40:AA40" si="45">O40+$L27</f>
         <v>24</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>48</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>72</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>96</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>120</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>144</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>168</v>
       </c>
       <c r="W40" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>192</v>
       </c>
       <c r="X40" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>216</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>240</v>
       </c>
       <c r="Z40" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>264</v>
       </c>
       <c r="AA40" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>288</v>
       </c>
     </row>
@@ -4020,51 +4762,51 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="shared" ref="P41:AA41" si="54">O41+$L28</f>
+        <f t="shared" ref="P41:AA41" si="46">O41+$L28</f>
         <v>26</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>52</v>
       </c>
       <c r="R41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>78</v>
       </c>
       <c r="S41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>104</v>
       </c>
       <c r="T41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>130</v>
       </c>
       <c r="U41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>156</v>
       </c>
       <c r="V41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>182</v>
       </c>
       <c r="W41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>208</v>
       </c>
       <c r="X41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>234</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>260</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>286</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>312</v>
       </c>
     </row>
@@ -4073,51 +4815,51 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" ref="P42:AA42" si="55">O42+$L29</f>
+        <f t="shared" ref="P42:AA42" si="47">O42+$L29</f>
         <v>28</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>56</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>84</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>112</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>140</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>168</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>196</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>224</v>
       </c>
       <c r="X42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>252</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>280</v>
       </c>
       <c r="Z42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>308</v>
       </c>
       <c r="AA42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="47"/>
         <v>336</v>
       </c>
     </row>
@@ -4126,51 +4868,51 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" ref="P43:AA43" si="56">O43+$L30</f>
+        <f t="shared" ref="P43:AA43" si="48">O43+$L30</f>
         <v>30</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>60</v>
       </c>
       <c r="R43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>90</v>
       </c>
       <c r="S43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>120</v>
       </c>
       <c r="T43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>150</v>
       </c>
       <c r="U43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>180</v>
       </c>
       <c r="V43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>210</v>
       </c>
       <c r="W43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>240</v>
       </c>
       <c r="X43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>270</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>300</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>330</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="48"/>
         <v>360</v>
       </c>
     </row>
@@ -4179,51 +4921,51 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" ref="P44:AA44" si="57">O44+$L31</f>
+        <f t="shared" ref="P44:AA44" si="49">O44+$L31</f>
         <v>32</v>
       </c>
       <c r="Q44" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="49"/>
         <v>64</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="49"/>
         <v>96</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="49"/>
         <v>128</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="49"/>
         <v>160</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="49"/>
         <v>192</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="49"/>
         <v>224</v>
       </c>
       <c r="W44" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="49"/>
         <v>256</v>
       </c>
       <c r="X44" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="49"/>
         <v>288</v>
       </c>
       <c r="Y44" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="49"/>
         <v>320</v>
       </c>
       <c r="Z44" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="49"/>
         <v>352</v>
       </c>
       <c r="AA44" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="49"/>
         <v>384</v>
       </c>
     </row>
@@ -4239,51 +4981,51 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <f t="shared" ref="P45:AA45" si="58">O45+$L32</f>
+        <f t="shared" ref="P45:AA45" si="50">O45+$L32</f>
         <v>34</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="58"/>
+        <f t="shared" si="50"/>
         <v>68</v>
       </c>
       <c r="R45">
-        <f t="shared" si="58"/>
+        <f t="shared" si="50"/>
         <v>102</v>
       </c>
       <c r="S45">
-        <f t="shared" si="58"/>
+        <f t="shared" si="50"/>
         <v>136</v>
       </c>
       <c r="T45">
-        <f t="shared" si="58"/>
+        <f t="shared" si="50"/>
         <v>170</v>
       </c>
       <c r="U45">
-        <f t="shared" si="58"/>
+        <f t="shared" si="50"/>
         <v>204</v>
       </c>
       <c r="V45">
-        <f t="shared" si="58"/>
+        <f t="shared" si="50"/>
         <v>238</v>
       </c>
       <c r="W45">
-        <f t="shared" si="58"/>
+        <f t="shared" si="50"/>
         <v>272</v>
       </c>
       <c r="X45">
-        <f t="shared" si="58"/>
+        <f t="shared" si="50"/>
         <v>306</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="58"/>
+        <f t="shared" si="50"/>
         <v>340</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="58"/>
+        <f t="shared" si="50"/>
         <v>374</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="58"/>
+        <f t="shared" si="50"/>
         <v>408</v>
       </c>
     </row>
@@ -4336,40 +5078,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8F6D6D-59ED-49CD-AE7B-2DD498233183}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="K1" s="32" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="L1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="34"/>
-      <c r="P1" s="32" t="s">
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
+      <c r="Q1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="34"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="40"/>
+      <c r="S1" s="41"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -4377,70 +5119,73 @@
         <v>3</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="M2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="R2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="U2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="V2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="W2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="X2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="Y2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Z2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="AA2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AB2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>0.1</v>
       </c>
@@ -4448,89 +5193,93 @@
         <v>1</v>
       </c>
       <c r="C3" s="7">
+        <f t="shared" ref="C3:C18" si="0">32/(8/B3)</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="7">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>5.5</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="6">
-        <f t="shared" ref="F3:F18" si="0">C3</f>
+      <c r="F3" s="1"/>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G18" si="1">D3</f>
         <v>8</v>
       </c>
-      <c r="G3" s="15">
-        <f>F3+2</f>
+      <c r="H3" s="15">
+        <f>G3+2</f>
         <v>10</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>24</v>
       </c>
-      <c r="I3" s="16">
-        <f>H3+2</f>
+      <c r="J3" s="16">
+        <f>I3+2</f>
         <v>26</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="6">
-        <f t="shared" ref="K3:K18" si="1">L3-1</f>
+      <c r="K3" s="1"/>
+      <c r="L3" s="32">
+        <f>M3-2</f>
+        <v>14</v>
+      </c>
+      <c r="M3" s="33">
+        <f>((D3/2)+12)</f>
+        <v>16</v>
+      </c>
+      <c r="N3" s="34">
+        <f>((D3/4)+20)</f>
+        <v>22</v>
+      </c>
+      <c r="O3" s="35">
+        <f>N3+2</f>
+        <v>24</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="22">
+        <v>8</v>
+      </c>
+      <c r="R3" s="1">
+        <v>22</v>
+      </c>
+      <c r="S3" s="16">
+        <f t="shared" ref="S3:S18" si="2">R3+1</f>
+        <v>23</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="6">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <f>U3+Q3+1</f>
         <v>9</v>
       </c>
-      <c r="L3" s="15">
-        <f t="shared" ref="L3:L18" si="2">((C3/2)+6)</f>
-        <v>10</v>
-      </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M18" si="3">((C3/4)+10)</f>
-        <v>12</v>
-      </c>
-      <c r="N3" s="16">
-        <f t="shared" ref="N3:N18" si="4">M3+1</f>
-        <v>13</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="22">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>22</v>
-      </c>
-      <c r="R3" s="16">
-        <f t="shared" ref="R3:R18" si="5">Q3+1</f>
-        <v>23</v>
-      </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="6">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <f>T3+P3+1</f>
-        <v>9</v>
-      </c>
-      <c r="V3" s="1">
-        <f t="shared" ref="V3:V18" si="6">U3+L3+1</f>
-        <v>20</v>
-      </c>
       <c r="W3" s="1">
-        <f t="shared" ref="W3:W18" si="7">V3+G3+1</f>
-        <v>31</v>
+        <f t="shared" ref="W3:W18" si="3">V3+M3+1</f>
+        <v>26</v>
       </c>
       <c r="X3" s="1">
-        <f t="shared" ref="X3:X18" si="8">W3+L3+1</f>
-        <v>42</v>
+        <f t="shared" ref="X3:X18" si="4">W3+H3+1</f>
+        <v>37</v>
       </c>
       <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y18" si="9">X3+P3+1</f>
-        <v>51</v>
+        <f t="shared" ref="Y3:Y18" si="5">X3+M3+1</f>
+        <v>54</v>
       </c>
       <c r="Z3" s="1">
-        <f t="shared" ref="Z3:Z18" si="10">Y3+L3+1</f>
-        <v>62</v>
-      </c>
-      <c r="AA3" s="8">
-        <f t="shared" ref="AA3:AA18" si="11">Z3+G3+1</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Z3:Z18" si="6">Y3+Q3+1</f>
+        <v>63</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" ref="AA3:AA18" si="7">Z3+M3+1</f>
+        <v>80</v>
+      </c>
+      <c r="AB3" s="8">
+        <f t="shared" ref="AB3:AB18" si="8">AA3+H3+1</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>0.15</v>
       </c>
@@ -4538,873 +5287,913 @@
         <v>2</v>
       </c>
       <c r="C4" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="10">
         <v>16</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="11">
         <v>11</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H4" s="17">
+        <f>G4+2</f>
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4" s="18">
+        <f>I4+2</f>
+        <v>26</v>
+      </c>
+      <c r="L4" s="9">
+        <f>M4-2</f>
+        <v>18</v>
+      </c>
+      <c r="M4" s="17">
+        <f>((D4/2)+12)</f>
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <f>((D4/4)+20)</f>
+        <v>24</v>
+      </c>
+      <c r="O4" s="18">
+        <f>N4+2</f>
+        <v>26</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>26</v>
+      </c>
+      <c r="S4" s="18">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>U4+Q4+1</f>
+        <v>9</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="AB4" s="11">
+        <f t="shared" si="8"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H5" s="15">
+        <f>G5+2</f>
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
+        <v>24</v>
+      </c>
+      <c r="J5" s="16">
+        <f>I5+2</f>
+        <v>26</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="6">
+        <f t="shared" ref="L5:L18" si="9">M5-2</f>
+        <v>22</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" ref="M5:M18" si="10">((D5/2)+12)</f>
+        <v>24</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" ref="N5:N18" si="11">((D5/4)+20)</f>
+        <v>26</v>
+      </c>
+      <c r="O5" s="16">
+        <f t="shared" ref="O5:O18" si="12">N5+2</f>
+        <v>28</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="22">
+        <v>8</v>
+      </c>
+      <c r="R5" s="1">
+        <v>30</v>
+      </c>
+      <c r="S5" s="16">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <f>U5+Q5+1</f>
+        <v>9</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="AB5" s="8">
+        <f t="shared" si="8"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G4" s="17">
-        <f>F4+2</f>
-        <v>18</v>
-      </c>
-      <c r="H4">
+      <c r="D6" s="10">
+        <v>32</v>
+      </c>
+      <c r="E6" s="11">
+        <v>22</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="H6" s="17">
+        <f>G6+2</f>
+        <v>34</v>
+      </c>
+      <c r="I6">
         <v>24</v>
       </c>
-      <c r="I4" s="18">
-        <f>H4+2</f>
+      <c r="J6" s="18">
+        <f>I6+2</f>
         <v>26</v>
       </c>
-      <c r="K4" s="9">
+      <c r="L6" s="9">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="O6" s="18">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>34</v>
+      </c>
+      <c r="S6" s="18">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>U6+Q6+1</f>
+        <v>9</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="AB6" s="11">
+        <f t="shared" si="8"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D7" s="7">
+        <v>40</v>
+      </c>
+      <c r="E7" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="L4" s="17">
+        <v>40</v>
+      </c>
+      <c r="H7" s="15">
+        <f>G7+2</f>
+        <v>42</v>
+      </c>
+      <c r="I7" s="1">
+        <v>24</v>
+      </c>
+      <c r="J7" s="16">
+        <f>I7+2</f>
+        <v>26</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="6">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="M7" s="15">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="O7" s="16">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="22">
+        <v>8</v>
+      </c>
+      <c r="R7" s="1">
+        <v>38</v>
+      </c>
+      <c r="S7" s="16">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="M4">
+        <v>39</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="6">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <f>U7+Q7+1</f>
+        <v>9</v>
+      </c>
+      <c r="W7" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="N4" s="18">
+        <v>42</v>
+      </c>
+      <c r="X7" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="P4" s="23">
-        <v>8</v>
-      </c>
-      <c r="Q4">
-        <v>26</v>
-      </c>
-      <c r="R4" s="18">
+        <v>85</v>
+      </c>
+      <c r="Y7" s="1">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="T4" s="9">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <f>T4+P4+1</f>
-        <v>9</v>
-      </c>
-      <c r="V4">
+        <v>118</v>
+      </c>
+      <c r="Z7" s="1">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="W4">
+        <v>127</v>
+      </c>
+      <c r="AA7" s="1">
         <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-      <c r="X4">
+        <v>160</v>
+      </c>
+      <c r="AB7" s="8">
         <f t="shared" si="8"/>
-        <v>58</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="9"/>
-        <v>67</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="10"/>
-        <v>82</v>
-      </c>
-      <c r="AA4" s="11">
-        <f t="shared" si="11"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8">
-        <v>16.5</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G5" s="15">
-        <f>F5+2</f>
+      <c r="D8" s="10">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11">
+        <v>33</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" ref="H8:H17" si="13">G8+2</f>
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" ref="J8:J17" si="14">I8+2</f>
         <v>26</v>
       </c>
-      <c r="H5" s="1">
+      <c r="L8" s="9">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="M8" s="17">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>42</v>
+      </c>
+      <c r="S8" s="18">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ref="V8:V14" si="15">U8+Q8+1</f>
+        <v>9</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="6"/>
+        <v>143</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="AB8" s="11">
+        <f t="shared" si="8"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D9" s="7">
+        <v>56</v>
+      </c>
+      <c r="E9" s="8">
+        <v>38.5</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="H9" s="15">
+        <f t="shared" si="13"/>
+        <v>58</v>
+      </c>
+      <c r="I9" s="1">
         <v>24</v>
       </c>
-      <c r="I5" s="16">
-        <f>H5+2</f>
+      <c r="J9" s="16">
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="L5" s="15">
+      <c r="K9" s="1"/>
+      <c r="L9" s="6">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="O9" s="16">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="22">
+        <v>8</v>
+      </c>
+      <c r="R9" s="1">
+        <v>48</v>
+      </c>
+      <c r="S9" s="16">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="M5" s="1">
+        <v>49</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="W9" s="1">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="N5" s="16">
+        <v>50</v>
+      </c>
+      <c r="X9" s="1">
         <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="22">
+        <v>109</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="6"/>
+        <v>159</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="AB9" s="8">
+        <f t="shared" si="8"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="Q5" s="1">
-        <v>30</v>
-      </c>
-      <c r="R5" s="16">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <f>T5+P5+1</f>
-        <v>9</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="W5" s="1">
-        <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-      <c r="X5" s="1">
-        <f t="shared" si="8"/>
-        <v>74</v>
-      </c>
-      <c r="Y5" s="1">
-        <f t="shared" si="9"/>
-        <v>83</v>
-      </c>
-      <c r="Z5" s="1">
-        <f t="shared" si="10"/>
-        <v>102</v>
-      </c>
-      <c r="AA5" s="8">
-        <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="B6" s="10">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10">
-        <v>32</v>
-      </c>
-      <c r="D6" s="11">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G6" s="17">
-        <f>F6+2</f>
-        <v>34</v>
-      </c>
-      <c r="H6">
+      <c r="D10" s="10">
+        <v>64</v>
+      </c>
+      <c r="E10" s="11">
+        <v>44</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="13"/>
+        <v>66</v>
+      </c>
+      <c r="I10">
         <v>24</v>
       </c>
-      <c r="I6" s="18">
-        <f>H6+2</f>
+      <c r="J10" s="18">
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
-      <c r="K6" s="9">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="L6" s="17">
+      <c r="L10" s="9">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="M10" s="17">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>50</v>
+      </c>
+      <c r="S10" s="18">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="M6">
+        <v>51</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="N6" s="18">
+        <v>54</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="P6" s="23">
-        <v>8</v>
-      </c>
-      <c r="Q6">
-        <v>34</v>
-      </c>
-      <c r="R6" s="18">
+        <v>121</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f>T6+P6+1</f>
-        <v>9</v>
-      </c>
-      <c r="V6">
+        <v>166</v>
+      </c>
+      <c r="Z10">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="W6">
+        <v>175</v>
+      </c>
+      <c r="AA10">
         <f t="shared" si="7"/>
-        <v>67</v>
-      </c>
-      <c r="X6">
+        <v>220</v>
+      </c>
+      <c r="AB10" s="11">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="9"/>
-        <v>99</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="10"/>
-        <v>122</v>
-      </c>
-      <c r="AA6" s="11">
-        <f t="shared" si="11"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="B7" s="7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7">
-        <v>40</v>
-      </c>
-      <c r="D7" s="8">
-        <v>27.5</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G7" s="15">
-        <f>F7+2</f>
-        <v>42</v>
-      </c>
-      <c r="H7" s="1">
-        <v>24</v>
-      </c>
-      <c r="I7" s="16">
-        <f>H7+2</f>
-        <v>26</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="6">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="L7" s="15">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="N7" s="16">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="22">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>38</v>
-      </c>
-      <c r="R7" s="16">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="6">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <f>T7+P7+1</f>
-        <v>9</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="W7" s="1">
-        <f t="shared" si="7"/>
-        <v>79</v>
-      </c>
-      <c r="X7" s="1">
-        <f t="shared" si="8"/>
-        <v>106</v>
-      </c>
-      <c r="Y7" s="1">
-        <f t="shared" si="9"/>
-        <v>115</v>
-      </c>
-      <c r="Z7" s="1">
-        <f t="shared" si="10"/>
-        <v>142</v>
-      </c>
-      <c r="AA7" s="8">
-        <f t="shared" si="11"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="B8" s="10">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10">
-        <v>48</v>
-      </c>
-      <c r="D8" s="11">
-        <v>33</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="G8" s="17">
-        <f t="shared" ref="G8:G17" si="12">F8+2</f>
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>24</v>
-      </c>
-      <c r="I8" s="18">
-        <f t="shared" ref="I8:I17" si="13">H8+2</f>
-        <v>26</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="L8" s="17">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="N8" s="18">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="P8" s="23">
-        <v>8</v>
-      </c>
-      <c r="Q8">
-        <v>42</v>
-      </c>
-      <c r="R8" s="18">
-        <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f t="shared" ref="U8:U14" si="14">T8+P8+1</f>
-        <v>9</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="7"/>
-        <v>91</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="8"/>
-        <v>122</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="9"/>
-        <v>131</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="10"/>
-        <v>162</v>
-      </c>
-      <c r="AA8" s="11">
-        <f t="shared" si="11"/>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="B9" s="7">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7">
-        <v>56</v>
-      </c>
-      <c r="D9" s="8">
-        <v>38.5</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="G9" s="15">
-        <f t="shared" si="12"/>
-        <v>58</v>
-      </c>
-      <c r="H9" s="1">
-        <v>24</v>
-      </c>
-      <c r="I9" s="16">
-        <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="6">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="L9" s="15">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="N9" s="16">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="22">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>48</v>
-      </c>
-      <c r="R9" s="16">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="6">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="V9" s="1">
-        <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="W9" s="1">
-        <f t="shared" si="7"/>
-        <v>103</v>
-      </c>
-      <c r="X9" s="1">
-        <f t="shared" si="8"/>
-        <v>138</v>
-      </c>
-      <c r="Y9" s="1">
-        <f t="shared" si="9"/>
-        <v>147</v>
-      </c>
-      <c r="Z9" s="1">
-        <f t="shared" si="10"/>
-        <v>182</v>
-      </c>
-      <c r="AA9" s="8">
-        <f t="shared" si="11"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="B10" s="10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10">
-        <v>64</v>
-      </c>
-      <c r="D10" s="11">
-        <v>44</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="G10" s="17">
-        <f t="shared" si="12"/>
-        <v>66</v>
-      </c>
-      <c r="H10">
-        <v>24</v>
-      </c>
-      <c r="I10" s="18">
-        <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="K10" s="9">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="L10" s="17">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="N10" s="18">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="P10" s="23">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <v>50</v>
-      </c>
-      <c r="R10" s="18">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="T10" s="9">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="6"/>
-        <v>48</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="7"/>
-        <v>115</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="8"/>
-        <v>154</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="9"/>
-        <v>163</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="10"/>
-        <v>202</v>
-      </c>
-      <c r="AA10" s="11">
-        <f t="shared" si="11"/>
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7">
         <v>9</v>
       </c>
       <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D11" s="7">
         <v>72</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <v>49.5</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="G11" s="15">
+      <c r="H11" s="15">
+        <f t="shared" si="13"/>
+        <v>74</v>
+      </c>
+      <c r="I11" s="1">
+        <v>24</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="6">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="O11" s="16">
         <f t="shared" si="12"/>
-        <v>74</v>
-      </c>
-      <c r="H11" s="1">
-        <v>24</v>
-      </c>
-      <c r="I11" s="16">
-        <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="6">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="L11" s="15">
+        <v>40</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="22">
+        <v>9</v>
+      </c>
+      <c r="R11" s="1">
+        <v>54</v>
+      </c>
+      <c r="S11" s="16">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="M11" s="1">
+        <v>55</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="W11" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="N11" s="16">
+        <v>59</v>
+      </c>
+      <c r="X11" s="1">
         <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="22">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>54</v>
-      </c>
-      <c r="R11" s="16">
+        <v>134</v>
+      </c>
+      <c r="Y11" s="1">
         <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="V11" s="1">
+        <v>183</v>
+      </c>
+      <c r="Z11" s="1">
         <f t="shared" si="6"/>
-        <v>53</v>
-      </c>
-      <c r="W11" s="1">
+        <v>193</v>
+      </c>
+      <c r="AA11" s="1">
         <f t="shared" si="7"/>
-        <v>128</v>
-      </c>
-      <c r="X11" s="1">
+        <v>242</v>
+      </c>
+      <c r="AB11" s="8">
         <f t="shared" si="8"/>
-        <v>171</v>
-      </c>
-      <c r="Y11" s="1">
-        <f t="shared" si="9"/>
-        <v>181</v>
-      </c>
-      <c r="Z11" s="1">
-        <f t="shared" si="10"/>
-        <v>224</v>
-      </c>
-      <c r="AA11" s="8">
-        <f t="shared" si="11"/>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10">
         <v>10</v>
       </c>
       <c r="C12" s="10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D12" s="10">
         <v>80</v>
       </c>
-      <c r="D12" s="11">
+      <c r="E12" s="11">
         <v>55</v>
       </c>
-      <c r="F12" s="9">
-        <f t="shared" si="0"/>
+      <c r="G12" s="9">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="G12" s="17">
+      <c r="H12" s="17">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="I12">
+        <v>24</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="M12" s="17">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="O12" s="18">
         <f t="shared" si="12"/>
-        <v>82</v>
-      </c>
-      <c r="H12">
-        <v>24</v>
-      </c>
-      <c r="I12" s="18">
-        <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="L12" s="17">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>58</v>
+      </c>
+      <c r="S12" s="18">
         <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="M12">
+        <v>59</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="N12" s="18">
+        <v>64</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="P12" s="23">
-        <v>10</v>
-      </c>
-      <c r="Q12">
-        <v>58</v>
-      </c>
-      <c r="R12" s="18">
+        <v>147</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="T12" s="9">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="14"/>
-        <v>11</v>
-      </c>
-      <c r="V12">
+        <v>200</v>
+      </c>
+      <c r="Z12">
         <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="W12">
+        <v>211</v>
+      </c>
+      <c r="AA12">
         <f t="shared" si="7"/>
-        <v>141</v>
-      </c>
-      <c r="X12">
+        <v>264</v>
+      </c>
+      <c r="AB12" s="11">
         <f t="shared" si="8"/>
-        <v>188</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="9"/>
-        <v>199</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="10"/>
-        <v>246</v>
-      </c>
-      <c r="AA12" s="11">
-        <f t="shared" si="11"/>
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>11</v>
       </c>
       <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D13" s="7">
         <v>88</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <v>60.5</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="6">
-        <f>C13</f>
+      <c r="F13" s="1"/>
+      <c r="G13" s="6">
+        <f>D13</f>
         <v>88</v>
       </c>
-      <c r="G13" s="15">
+      <c r="H13" s="15">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="I13" s="1">
+        <v>24</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="6">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="O13" s="16">
         <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="H13" s="1">
-        <v>24</v>
-      </c>
-      <c r="I13" s="16">
-        <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="6">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="L13" s="15">
+        <v>44</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="22">
+        <v>11</v>
+      </c>
+      <c r="R13" s="1">
+        <v>62</v>
+      </c>
+      <c r="S13" s="16">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="M13" s="1">
+        <v>63</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="W13" s="1">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="N13" s="16">
+        <v>69</v>
+      </c>
+      <c r="X13" s="1">
         <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="22">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>62</v>
-      </c>
-      <c r="R13" s="16">
+        <v>160</v>
+      </c>
+      <c r="Y13" s="1">
         <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="6">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="V13" s="1">
+        <v>217</v>
+      </c>
+      <c r="Z13" s="1">
         <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="W13" s="1">
+        <v>229</v>
+      </c>
+      <c r="AA13" s="1">
         <f t="shared" si="7"/>
-        <v>154</v>
-      </c>
-      <c r="X13" s="1">
+        <v>286</v>
+      </c>
+      <c r="AB13" s="8">
         <f t="shared" si="8"/>
-        <v>205</v>
-      </c>
-      <c r="Y13" s="1">
-        <f t="shared" si="9"/>
-        <v>217</v>
-      </c>
-      <c r="Z13" s="1">
-        <f t="shared" si="10"/>
-        <v>268</v>
-      </c>
-      <c r="AA13" s="8">
-        <f t="shared" si="11"/>
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>0.8</v>
       </c>
@@ -5412,433 +6201,453 @@
         <v>12</v>
       </c>
       <c r="C14" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D14" s="10">
         <v>96</v>
       </c>
-      <c r="D14" s="11">
+      <c r="E14" s="11">
         <v>66</v>
       </c>
-      <c r="F14" s="9">
-        <f t="shared" si="0"/>
+      <c r="G14" s="9">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="G14" s="17">
+      <c r="H14" s="17">
+        <f t="shared" si="13"/>
+        <v>98</v>
+      </c>
+      <c r="I14">
+        <v>24</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="M14" s="17">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="11"/>
+        <v>44</v>
+      </c>
+      <c r="O14" s="18">
         <f t="shared" si="12"/>
-        <v>98</v>
-      </c>
-      <c r="H14">
-        <v>24</v>
-      </c>
-      <c r="I14" s="18">
-        <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="L14" s="17">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>66</v>
+      </c>
+      <c r="S14" s="18">
         <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="M14">
+        <v>67</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="N14" s="18">
+        <v>74</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="P14" s="23">
-        <v>12</v>
-      </c>
-      <c r="Q14">
-        <v>66</v>
-      </c>
-      <c r="R14" s="18">
+        <v>173</v>
+      </c>
+      <c r="Y14">
         <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="T14" s="9">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="14"/>
-        <v>13</v>
-      </c>
-      <c r="V14">
+        <v>234</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="W14">
+        <v>247</v>
+      </c>
+      <c r="AA14">
         <f t="shared" si="7"/>
-        <v>167</v>
-      </c>
-      <c r="X14">
+        <v>308</v>
+      </c>
+      <c r="AB14" s="11">
         <f t="shared" si="8"/>
-        <v>222</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="9"/>
-        <v>235</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="10"/>
-        <v>290</v>
-      </c>
-      <c r="AA14" s="11">
-        <f t="shared" si="11"/>
-        <v>389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7">
         <v>13</v>
       </c>
       <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D15" s="7">
         <v>104</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <v>71.5</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="G15" s="15">
+      <c r="H15" s="15">
+        <f t="shared" si="13"/>
+        <v>106</v>
+      </c>
+      <c r="I15" s="1">
+        <v>24</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="6">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="O15" s="16">
         <f t="shared" si="12"/>
-        <v>106</v>
-      </c>
-      <c r="H15" s="1">
-        <v>24</v>
-      </c>
-      <c r="I15" s="16">
-        <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="6">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="L15" s="15">
+        <v>48</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="22">
+        <v>13</v>
+      </c>
+      <c r="R15" s="1">
+        <v>70</v>
+      </c>
+      <c r="S15" s="16">
         <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="M15" s="1">
+        <v>71</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="6">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <f>U15+Q15+1</f>
+        <v>14</v>
+      </c>
+      <c r="W15" s="1">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="N15" s="16">
+        <v>79</v>
+      </c>
+      <c r="X15" s="1">
         <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="22">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>70</v>
-      </c>
-      <c r="R15" s="16">
+        <v>186</v>
+      </c>
+      <c r="Y15" s="1">
         <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="6">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
-        <f>T15+P15+1</f>
-        <v>14</v>
-      </c>
-      <c r="V15" s="1">
+        <v>251</v>
+      </c>
+      <c r="Z15" s="1">
         <f t="shared" si="6"/>
-        <v>73</v>
-      </c>
-      <c r="W15" s="1">
+        <v>265</v>
+      </c>
+      <c r="AA15" s="1">
         <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-      <c r="X15" s="1">
+        <v>330</v>
+      </c>
+      <c r="AB15" s="8">
         <f t="shared" si="8"/>
-        <v>239</v>
-      </c>
-      <c r="Y15" s="1">
-        <f t="shared" si="9"/>
-        <v>253</v>
-      </c>
-      <c r="Z15" s="1">
-        <f t="shared" si="10"/>
-        <v>312</v>
-      </c>
-      <c r="AA15" s="8">
-        <f t="shared" si="11"/>
-        <v>419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10">
         <v>14</v>
       </c>
       <c r="C16" s="10">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D16" s="10">
         <v>112</v>
       </c>
-      <c r="D16" s="11">
+      <c r="E16" s="11">
         <v>77</v>
       </c>
-      <c r="F16" s="9">
-        <f t="shared" si="0"/>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="G16" s="17">
+      <c r="H16" s="17">
+        <f t="shared" si="13"/>
+        <v>114</v>
+      </c>
+      <c r="I16">
+        <v>24</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="M16" s="17">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="O16" s="18">
         <f t="shared" si="12"/>
-        <v>114</v>
-      </c>
-      <c r="H16">
-        <v>24</v>
-      </c>
-      <c r="I16" s="18">
-        <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="K16" s="9">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="L16" s="17">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <v>74</v>
+      </c>
+      <c r="S16" s="18">
         <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="M16">
+        <v>75</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>U16+Q16+1</f>
+        <v>15</v>
+      </c>
+      <c r="W16">
         <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="N16" s="18">
+        <v>84</v>
+      </c>
+      <c r="X16">
         <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="P16" s="23">
-        <v>14</v>
-      </c>
-      <c r="Q16">
-        <v>74</v>
-      </c>
-      <c r="R16" s="18">
+        <v>199</v>
+      </c>
+      <c r="Y16">
         <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f>T16+P16+1</f>
-        <v>15</v>
-      </c>
-      <c r="V16">
+        <v>268</v>
+      </c>
+      <c r="Z16">
         <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="W16">
+        <v>283</v>
+      </c>
+      <c r="AA16">
         <f t="shared" si="7"/>
-        <v>193</v>
-      </c>
-      <c r="X16">
+        <v>352</v>
+      </c>
+      <c r="AB16" s="11">
         <f t="shared" si="8"/>
-        <v>256</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="9"/>
-        <v>271</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="10"/>
-        <v>334</v>
-      </c>
-      <c r="AA16" s="11">
-        <f t="shared" si="11"/>
-        <v>449</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7">
         <v>15</v>
       </c>
       <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D17" s="7">
         <v>120</v>
       </c>
-      <c r="D17" s="8">
+      <c r="E17" s="8">
         <v>82.5</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="6">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="G17" s="15">
+      <c r="H17" s="15">
+        <f t="shared" si="13"/>
+        <v>122</v>
+      </c>
+      <c r="I17" s="1">
+        <v>24</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="6">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="O17" s="16">
         <f t="shared" si="12"/>
-        <v>122</v>
-      </c>
-      <c r="H17" s="1">
-        <v>24</v>
-      </c>
-      <c r="I17" s="16">
-        <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="6">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="L17" s="15">
+        <v>52</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="22">
+        <v>15</v>
+      </c>
+      <c r="R17" s="1">
+        <v>78</v>
+      </c>
+      <c r="S17" s="16">
         <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="M17" s="1">
+        <v>79</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="6">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <f>U17+Q17+1</f>
+        <v>16</v>
+      </c>
+      <c r="W17" s="1">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="N17" s="16">
+        <v>89</v>
+      </c>
+      <c r="X17" s="1">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="22">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>78</v>
-      </c>
-      <c r="R17" s="16">
+        <v>212</v>
+      </c>
+      <c r="Y17" s="1">
         <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="6">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <f>T17+P17+1</f>
-        <v>16</v>
-      </c>
-      <c r="V17" s="1">
+        <v>285</v>
+      </c>
+      <c r="Z17" s="1">
         <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="W17" s="1">
+        <v>301</v>
+      </c>
+      <c r="AA17" s="1">
         <f t="shared" si="7"/>
-        <v>206</v>
-      </c>
-      <c r="X17" s="1">
+        <v>374</v>
+      </c>
+      <c r="AB17" s="8">
         <f t="shared" si="8"/>
-        <v>273</v>
-      </c>
-      <c r="Y17" s="1">
-        <f t="shared" si="9"/>
-        <v>289</v>
-      </c>
-      <c r="Z17" s="1">
-        <f t="shared" si="10"/>
-        <v>356</v>
-      </c>
-      <c r="AA17" s="8">
-        <f t="shared" si="11"/>
-        <v>479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="13">
         <v>16</v>
       </c>
       <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D18" s="13">
         <v>128</v>
       </c>
-      <c r="D18" s="14">
+      <c r="E18" s="14">
         <v>88</v>
       </c>
-      <c r="F18" s="12">
-        <f t="shared" si="0"/>
+      <c r="G18" s="12">
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="G18" s="19">
-        <f>F18+2</f>
+      <c r="H18" s="19">
+        <f>G18+2</f>
         <v>130</v>
       </c>
-      <c r="H18" s="20">
+      <c r="I18" s="20">
         <v>24</v>
       </c>
-      <c r="I18" s="21">
-        <f>H18+2</f>
+      <c r="J18" s="21">
+        <f>I18+2</f>
         <v>26</v>
       </c>
-      <c r="K18" s="12">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="L18" s="19">
+      <c r="L18" s="12">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="M18" s="19">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="N18" s="20">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="O18" s="21">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="Q18" s="24">
+        <v>16</v>
+      </c>
+      <c r="R18" s="20">
+        <v>82</v>
+      </c>
+      <c r="S18" s="21">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="M18" s="20">
+        <v>83</v>
+      </c>
+      <c r="U18" s="12">
+        <v>0</v>
+      </c>
+      <c r="V18" s="20">
+        <f>U18+Q18+1</f>
+        <v>17</v>
+      </c>
+      <c r="W18" s="20">
         <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="N18" s="21">
+        <v>94</v>
+      </c>
+      <c r="X18" s="20">
         <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="P18" s="24">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="20">
-        <v>82</v>
-      </c>
-      <c r="R18" s="21">
+        <v>225</v>
+      </c>
+      <c r="Y18" s="20">
         <f t="shared" si="5"/>
-        <v>83</v>
-      </c>
-      <c r="T18" s="12">
-        <v>0</v>
-      </c>
-      <c r="U18" s="20">
-        <f>T18+P18+1</f>
-        <v>17</v>
-      </c>
-      <c r="V18" s="20">
+        <v>302</v>
+      </c>
+      <c r="Z18" s="20">
         <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
-      <c r="W18" s="20">
+        <v>319</v>
+      </c>
+      <c r="AA18" s="20">
         <f t="shared" si="7"/>
-        <v>219</v>
-      </c>
-      <c r="X18" s="20">
+        <v>396</v>
+      </c>
+      <c r="AB18" s="14">
         <f t="shared" si="8"/>
-        <v>290</v>
-      </c>
-      <c r="Y18" s="20">
-        <f t="shared" si="9"/>
-        <v>307</v>
-      </c>
-      <c r="Z18" s="20">
-        <f t="shared" si="10"/>
-        <v>378</v>
-      </c>
-      <c r="AA18" s="14">
-        <f t="shared" si="11"/>
-        <v>509</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5856,23 +6665,23 @@
   <sheetData>
     <row r="1" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-      <c r="K2" s="32" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="K2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-      <c r="P2" s="32" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="P2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
     </row>
     <row r="3" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="25" t="s">
@@ -6627,7 +7436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D567034D-4663-46F2-A4A6-28819A59EEA7}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -6638,12 +7447,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
@@ -7009,4 +7818,1900 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCDE093-BF87-48D4-BE7D-AFEA8C3CA6A0}">
+  <dimension ref="A1:M211"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2835" ySplit="765" topLeftCell="C51" activePane="bottomRight"/>
+      <selection activeCell="B2" sqref="A2:XFD2"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128:B129"/>
+      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="28" style="31" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="31" customWidth="1"/>
+    <col min="7" max="9" width="27.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="28" style="31" customWidth="1"/>
+    <col min="12" max="13" width="27.42578125" style="31" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="36">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="36">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="36">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="36">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="36">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="36">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="36">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="36">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="36">
+        <v>1858</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="36">
+        <v>1859</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="36">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="36">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="36">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="36">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="36">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="36">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="36">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="36">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="36">
+        <v>1868</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="36">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="36">
+        <v>1870</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="36">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="36">
+        <v>1872</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="36">
+        <v>1873</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="36">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="36">
+        <v>1875</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="36">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="36">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="36">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="36">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="36">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="36">
+        <v>1881</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="36">
+        <v>1882</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="36">
+        <v>1883</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="36">
+        <v>1884</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="36">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="36">
+        <v>1886</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" s="36">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="36">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="36">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="36">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" s="36">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
+      <c r="B44" s="36">
+        <v>1892</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+      <c r="B45" s="36">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="36">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+      <c r="B47" s="36">
+        <v>1895</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="36">
+        <v>1896</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
+      <c r="C49" s="31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+      <c r="B50" s="36">
+        <v>1897</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
+      <c r="F51" s="31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
+      <c r="B52" s="36">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+      <c r="B53" s="36">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="36">
+        <v>1900</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
+      <c r="B55" s="36">
+        <v>1901</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
+      <c r="B56" s="36">
+        <v>1902</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="M56" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
+      <c r="G57" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
+      <c r="B58" s="36">
+        <v>1903</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="44"/>
+      <c r="D59" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
+      <c r="B60" s="36">
+        <v>1904</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="36">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
+      <c r="B62" s="36">
+        <v>1906</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="M62" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
+      <c r="B63" s="36">
+        <v>1907</v>
+      </c>
+      <c r="H63" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="44"/>
+      <c r="B64" s="36">
+        <v>1908</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="44"/>
+      <c r="B65" s="36">
+        <v>1909</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="44"/>
+      <c r="B66" s="36">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="44"/>
+      <c r="B67" s="36">
+        <v>1911</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="44"/>
+      <c r="B68" s="36">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="44"/>
+      <c r="B69" s="36">
+        <v>1913</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="44"/>
+      <c r="B70" s="36">
+        <v>1914</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="44"/>
+      <c r="B71" s="36">
+        <v>1915</v>
+      </c>
+      <c r="L71" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="44"/>
+      <c r="B72" s="36">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="44"/>
+      <c r="B73" s="36">
+        <v>1917</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="44"/>
+      <c r="B74" s="36">
+        <v>1918</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="44"/>
+      <c r="B75" s="36">
+        <v>1919</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="M75" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="44"/>
+      <c r="B76" s="36">
+        <v>1920</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="36">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="44"/>
+      <c r="B78" s="36">
+        <v>1922</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="44"/>
+      <c r="B79" s="36">
+        <v>1923</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="44"/>
+      <c r="B80" s="36">
+        <v>1924</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="44"/>
+      <c r="B81" s="36">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="44"/>
+      <c r="B82" s="36">
+        <v>1926</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="44"/>
+      <c r="B83" s="44">
+        <v>1927</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G83" s="31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="44"/>
+      <c r="B85" s="36">
+        <v>1928</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="44"/>
+      <c r="B86" s="44">
+        <v>1929</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H86" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="44"/>
+      <c r="B88" s="36">
+        <v>1930</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H88" s="31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="44"/>
+      <c r="B89" s="36">
+        <v>1931</v>
+      </c>
+      <c r="F89" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="44"/>
+      <c r="B90" s="36">
+        <v>1932</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="L90" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="44"/>
+      <c r="L91" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="44"/>
+      <c r="L92" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="44"/>
+      <c r="B93" s="36">
+        <v>1933</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="44"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="44"/>
+      <c r="B95" s="36">
+        <v>1934</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H95" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="J95" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="44"/>
+      <c r="B96" s="36">
+        <v>1935</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="L96" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="44"/>
+      <c r="B97" s="44">
+        <v>1936</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G97" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="44"/>
+      <c r="B99" s="36">
+        <v>1937</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="L99" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="44"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="44"/>
+      <c r="B101" s="36">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="44"/>
+      <c r="B102" s="36">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="44"/>
+      <c r="B103" s="36">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="44"/>
+      <c r="B104" s="36">
+        <v>1941</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="L104" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="44"/>
+      <c r="E105" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="44"/>
+      <c r="E106" s="31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="44"/>
+      <c r="B107" s="36">
+        <v>1942</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H107" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="44"/>
+      <c r="B108" s="36">
+        <v>1943</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G108" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="44"/>
+      <c r="B109" s="36">
+        <v>1944</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="44"/>
+      <c r="B110" s="36">
+        <v>1945</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="44"/>
+      <c r="C111" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="44"/>
+      <c r="B112" s="36">
+        <v>1946</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="44"/>
+      <c r="B113" s="36">
+        <v>1947</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B114" s="36">
+        <v>1948</v>
+      </c>
+      <c r="C114" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G114" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="44"/>
+      <c r="C115" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="44"/>
+      <c r="E116" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F116" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="44"/>
+      <c r="F117" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="44"/>
+      <c r="B118" s="36">
+        <v>1949</v>
+      </c>
+      <c r="L118" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="44"/>
+      <c r="B119" s="36">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="44"/>
+      <c r="B120" s="36">
+        <v>1951</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="44"/>
+      <c r="B121" s="36">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="44"/>
+      <c r="B122" s="36">
+        <v>1953</v>
+      </c>
+      <c r="E122" s="31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="44"/>
+      <c r="B123" s="36">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="44"/>
+      <c r="B124" s="36">
+        <v>1955</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="44"/>
+      <c r="C125" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="44"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B127" s="36">
+        <v>1956</v>
+      </c>
+      <c r="J127" s="31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="44"/>
+      <c r="B128" s="36">
+        <v>1957</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="J128" s="31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="44"/>
+      <c r="B129" s="36">
+        <v>1958</v>
+      </c>
+      <c r="C129" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G129" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="44"/>
+      <c r="C130" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="44"/>
+      <c r="B131" s="36">
+        <v>1959</v>
+      </c>
+      <c r="C131" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="J131" s="31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="44"/>
+      <c r="J132" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="44"/>
+      <c r="B133" s="36">
+        <v>1960</v>
+      </c>
+      <c r="C133" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E133" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="J133" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="44"/>
+      <c r="D134" s="31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="44"/>
+      <c r="B135" s="44">
+        <v>1961</v>
+      </c>
+      <c r="C135" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E135" s="31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="44"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="44"/>
+      <c r="B137" s="44"/>
+      <c r="C137" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="44"/>
+      <c r="B139" s="36">
+        <v>1962</v>
+      </c>
+      <c r="E139" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="44"/>
+      <c r="B140" s="36">
+        <v>1963</v>
+      </c>
+      <c r="K140" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="44"/>
+      <c r="B141" s="36">
+        <v>1964</v>
+      </c>
+      <c r="L141" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="44"/>
+      <c r="B142" s="36">
+        <v>1965</v>
+      </c>
+      <c r="L142" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M142" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="44"/>
+      <c r="B143" s="36">
+        <v>1966</v>
+      </c>
+      <c r="L143" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="44"/>
+      <c r="L144" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="44"/>
+      <c r="B145" s="36">
+        <v>1967</v>
+      </c>
+      <c r="C145" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="44"/>
+      <c r="B146" s="36">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="44"/>
+      <c r="B147" s="36">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="44"/>
+      <c r="B148" s="36">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B149" s="36">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="44"/>
+      <c r="B150" s="36">
+        <v>1972</v>
+      </c>
+      <c r="J150" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K150" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="44"/>
+      <c r="B151" s="36">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="44"/>
+      <c r="B152" s="36">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="44"/>
+      <c r="B153" s="36">
+        <v>1975</v>
+      </c>
+      <c r="J153" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="44"/>
+      <c r="J154" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="44"/>
+      <c r="B155" s="36">
+        <v>1976</v>
+      </c>
+      <c r="G155" s="31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="44"/>
+      <c r="B156" s="36">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="44"/>
+      <c r="B157" s="36">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="44"/>
+      <c r="B158" s="36">
+        <v>1979</v>
+      </c>
+      <c r="K158" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="44"/>
+      <c r="B159" s="36">
+        <v>1980</v>
+      </c>
+      <c r="J159" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="K159" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="44"/>
+      <c r="B160" s="36">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="44"/>
+      <c r="B161" s="36">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="44"/>
+      <c r="B162" s="36">
+        <v>1983</v>
+      </c>
+      <c r="G162" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="L162" s="31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="44"/>
+      <c r="B163" s="36">
+        <v>1984</v>
+      </c>
+      <c r="J163" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="44"/>
+      <c r="B164" s="36">
+        <v>1985</v>
+      </c>
+      <c r="G164" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="J164" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="44"/>
+      <c r="B165" s="36">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="44"/>
+      <c r="B166" s="36">
+        <v>1987</v>
+      </c>
+      <c r="J166" s="31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="44"/>
+      <c r="J167" s="31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="44"/>
+      <c r="B168" s="36">
+        <v>1988</v>
+      </c>
+      <c r="C168" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="L168" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="44"/>
+      <c r="B169" s="36">
+        <v>1989</v>
+      </c>
+      <c r="G169" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="J169" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="44"/>
+      <c r="B170" s="36">
+        <v>1990</v>
+      </c>
+      <c r="J170" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="44"/>
+      <c r="B171" s="36">
+        <v>1991</v>
+      </c>
+      <c r="L171" s="31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="44"/>
+      <c r="B172" s="36">
+        <v>1992</v>
+      </c>
+      <c r="J172" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K172" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="44"/>
+      <c r="J173" s="31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="44"/>
+      <c r="B174" s="36">
+        <v>1993</v>
+      </c>
+      <c r="L174" s="31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="44"/>
+      <c r="B175" s="36">
+        <v>1994</v>
+      </c>
+      <c r="K175" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="L175" s="43"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="44"/>
+      <c r="B176" s="36">
+        <v>1995</v>
+      </c>
+      <c r="K176" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B177" s="36">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="44"/>
+      <c r="B178" s="36">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="44"/>
+      <c r="B179" s="36">
+        <v>1998</v>
+      </c>
+      <c r="G179" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J179" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="44"/>
+      <c r="B180" s="36">
+        <v>1999</v>
+      </c>
+      <c r="K180" s="31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="44"/>
+      <c r="K181" s="31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="44"/>
+      <c r="B182" s="36">
+        <v>2000</v>
+      </c>
+      <c r="J182" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L182" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="44"/>
+      <c r="B183" s="36">
+        <v>2001</v>
+      </c>
+      <c r="K183" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="44"/>
+      <c r="B184" s="36">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="44"/>
+      <c r="B185" s="36">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="44"/>
+      <c r="B186" s="36">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="44"/>
+      <c r="B187" s="36">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B188" s="36">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="44"/>
+      <c r="B189" s="36">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="44"/>
+      <c r="B190" s="36">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="44"/>
+      <c r="B191" s="36">
+        <v>2009</v>
+      </c>
+      <c r="K191" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="44"/>
+      <c r="B192" s="36">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="44"/>
+      <c r="B193" s="36">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="44"/>
+      <c r="B194" s="36">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="44"/>
+      <c r="B195" s="36">
+        <v>2013</v>
+      </c>
+      <c r="E195" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="44"/>
+      <c r="B196" s="36">
+        <v>2014</v>
+      </c>
+      <c r="J196" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K196" s="31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="44"/>
+      <c r="B197" s="36">
+        <v>2015</v>
+      </c>
+      <c r="K197" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="44"/>
+      <c r="B198" s="36">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="44"/>
+      <c r="B199" s="36">
+        <v>2017</v>
+      </c>
+      <c r="K199" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="44"/>
+      <c r="B200" s="36">
+        <v>2018</v>
+      </c>
+      <c r="K200" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="44"/>
+      <c r="B201" s="36">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="44"/>
+      <c r="B202" s="36">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="44"/>
+      <c r="B203" s="36">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="44"/>
+      <c r="B204" s="36">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="44"/>
+      <c r="B205" s="36">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="44"/>
+      <c r="B206" s="36">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="44"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="44"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="44"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="44"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A114:A126"/>
+    <mergeCell ref="A2:A53"/>
+    <mergeCell ref="A54:A76"/>
+    <mergeCell ref="A77:A113"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="A177:A187"/>
+    <mergeCell ref="A188:A211"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A127:A148"/>
+    <mergeCell ref="A149:A176"/>
+    <mergeCell ref="B135:B138"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/New Template Calculations.xlsx
+++ b/docs/New Template Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRTrains2-Extended\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736EE48B-A5CD-4FC3-B441-05D2BD6B7DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC927EE-8C02-4DF9-848F-F0EAF591C4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{D51931E5-81BC-4C5B-8C55-7A4B86E09E95}"/>
   </bookViews>
@@ -1156,11 +1156,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7825,11 +7825,11 @@
   <dimension ref="A1:M211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2835" ySplit="765" topLeftCell="C51" activePane="bottomRight"/>
+      <pane xSplit="2835" ySplit="765" topLeftCell="G180" activePane="bottomRight"/>
       <selection activeCell="B2" sqref="A2:XFD2"/>
       <selection pane="topRight" activeCell="E1" sqref="E1:E1048576"/>
       <selection pane="bottomLeft" activeCell="B128" sqref="B128:B129"/>
-      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomRight" activeCell="K192" sqref="K192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7889,7 +7889,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="36">
@@ -7897,49 +7897,49 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="36">
         <v>1851</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="36">
         <v>1852</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="36">
         <v>1853</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="36">
         <v>1854</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="36">
         <v>1855</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="36">
         <v>1856</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="36">
         <v>1857</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="36">
         <v>1858</v>
       </c>
@@ -7948,7 +7948,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="36">
         <v>1859</v>
       </c>
@@ -7957,55 +7957,55 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="36">
         <v>1860</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="36">
         <v>1861</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="36">
         <v>1862</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="36">
         <v>1863</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="36">
         <v>1864</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="36">
         <v>1865</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="36">
         <v>1866</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="36">
         <v>1867</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="36">
         <v>1868</v>
       </c>
@@ -8014,13 +8014,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="36">
         <v>1869</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="36">
         <v>1870</v>
       </c>
@@ -8029,13 +8029,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="36">
         <v>1871</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="36">
         <v>1872</v>
       </c>
@@ -8044,7 +8044,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="36">
         <v>1873</v>
       </c>
@@ -8053,13 +8053,13 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="36">
         <v>1874</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="36">
         <v>1875</v>
       </c>
@@ -8068,37 +8068,37 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="36">
         <v>1876</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="36">
         <v>1877</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="36">
         <v>1878</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="36">
         <v>1879</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="36">
         <v>1880</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="36">
         <v>1881</v>
       </c>
@@ -8107,7 +8107,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="36">
         <v>1882</v>
       </c>
@@ -8119,7 +8119,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="36">
         <v>1883</v>
       </c>
@@ -8128,7 +8128,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="36">
         <v>1884</v>
       </c>
@@ -8137,13 +8137,13 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="36">
         <v>1885</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="36">
         <v>1886</v>
       </c>
@@ -8152,37 +8152,37 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="36">
         <v>1887</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="36">
         <v>1888</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="36">
         <v>1889</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="36">
         <v>1890</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="36">
         <v>1891</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="36">
         <v>1892</v>
       </c>
@@ -8191,19 +8191,19 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="36">
         <v>1893</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="36">
         <v>1894</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="36">
         <v>1895</v>
       </c>
@@ -8212,7 +8212,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="36">
         <v>1896</v>
       </c>
@@ -8221,13 +8221,13 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
+      <c r="A49" s="43"/>
       <c r="C49" s="31" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="36">
         <v>1897</v>
       </c>
@@ -8236,25 +8236,25 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+      <c r="A51" s="43"/>
       <c r="F51" s="31" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="36">
         <v>1898</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="36">
         <v>1899</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="43" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="36">
@@ -8268,7 +8268,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="36">
         <v>1901</v>
       </c>
@@ -8277,7 +8277,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="36">
         <v>1902</v>
       </c>
@@ -8289,13 +8289,13 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
+      <c r="A57" s="43"/>
       <c r="G57" s="31" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="36">
         <v>1903</v>
       </c>
@@ -8310,13 +8310,13 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
+      <c r="A59" s="43"/>
       <c r="D59" s="31" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="36">
         <v>1904</v>
       </c>
@@ -8328,13 +8328,13 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="36">
         <v>1905</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
+      <c r="A62" s="43"/>
       <c r="B62" s="36">
         <v>1906</v>
       </c>
@@ -8346,7 +8346,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="36">
         <v>1907</v>
       </c>
@@ -8355,7 +8355,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
+      <c r="A64" s="43"/>
       <c r="B64" s="36">
         <v>1908</v>
       </c>
@@ -8364,7 +8364,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="36">
         <v>1909</v>
       </c>
@@ -8373,13 +8373,13 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="36">
         <v>1910</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="36">
         <v>1911</v>
       </c>
@@ -8397,13 +8397,13 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
+      <c r="A68" s="43"/>
       <c r="B68" s="36">
         <v>1912</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="36">
         <v>1913</v>
       </c>
@@ -8418,7 +8418,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
+      <c r="A70" s="43"/>
       <c r="B70" s="36">
         <v>1914</v>
       </c>
@@ -8436,7 +8436,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="36">
         <v>1915</v>
       </c>
@@ -8445,13 +8445,13 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
+      <c r="A72" s="43"/>
       <c r="B72" s="36">
         <v>1916</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
+      <c r="A73" s="43"/>
       <c r="B73" s="36">
         <v>1917</v>
       </c>
@@ -8460,7 +8460,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="36">
         <v>1918</v>
       </c>
@@ -8472,7 +8472,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
+      <c r="A75" s="43"/>
       <c r="B75" s="36">
         <v>1919</v>
       </c>
@@ -8490,7 +8490,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
+      <c r="A76" s="43"/>
       <c r="B76" s="36">
         <v>1920</v>
       </c>
@@ -8499,7 +8499,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B77" s="36">
@@ -8507,7 +8507,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
+      <c r="A78" s="43"/>
       <c r="B78" s="36">
         <v>1922</v>
       </c>
@@ -8516,7 +8516,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
+      <c r="A79" s="43"/>
       <c r="B79" s="36">
         <v>1923</v>
       </c>
@@ -8528,7 +8528,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="36">
         <v>1924</v>
       </c>
@@ -8543,13 +8543,13 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="36">
         <v>1925</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="36">
         <v>1926</v>
       </c>
@@ -8561,8 +8561,8 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43">
         <v>1927</v>
       </c>
       <c r="C83" s="31" t="s">
@@ -8579,8 +8579,8 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="31" t="s">
         <v>92</v>
       </c>
@@ -8589,7 +8589,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="44"/>
+      <c r="A85" s="43"/>
       <c r="B85" s="36">
         <v>1928</v>
       </c>
@@ -8607,8 +8607,8 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43">
         <v>1929</v>
       </c>
       <c r="C86" s="31" t="s">
@@ -8625,14 +8625,14 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="31" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
+      <c r="A88" s="43"/>
       <c r="B88" s="36">
         <v>1930</v>
       </c>
@@ -8647,7 +8647,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="36">
         <v>1931</v>
       </c>
@@ -8656,7 +8656,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="44"/>
+      <c r="A90" s="43"/>
       <c r="B90" s="36">
         <v>1932</v>
       </c>
@@ -8668,19 +8668,19 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="44"/>
+      <c r="A91" s="43"/>
       <c r="L91" s="31" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="44"/>
+      <c r="A92" s="43"/>
       <c r="L92" s="31" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="44"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="36">
         <v>1933</v>
       </c>
@@ -8692,10 +8692,10 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="44"/>
+      <c r="A94" s="43"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="44"/>
+      <c r="A95" s="43"/>
       <c r="B95" s="36">
         <v>1934</v>
       </c>
@@ -8716,7 +8716,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
+      <c r="A96" s="43"/>
       <c r="B96" s="36">
         <v>1935</v>
       </c>
@@ -8731,8 +8731,8 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44">
+      <c r="A97" s="43"/>
+      <c r="B97" s="43">
         <v>1936</v>
       </c>
       <c r="C97" s="31" t="s">
@@ -8746,8 +8746,8 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="31" t="s">
         <v>127</v>
       </c>
@@ -8756,7 +8756,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="44"/>
+      <c r="A99" s="43"/>
       <c r="B99" s="36">
         <v>1937</v>
       </c>
@@ -8771,28 +8771,28 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="44"/>
+      <c r="A100" s="43"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
+      <c r="A101" s="43"/>
       <c r="B101" s="36">
         <v>1938</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
+      <c r="A102" s="43"/>
       <c r="B102" s="36">
         <v>1939</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="44"/>
+      <c r="A103" s="43"/>
       <c r="B103" s="36">
         <v>1940</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="44"/>
+      <c r="A104" s="43"/>
       <c r="B104" s="36">
         <v>1941</v>
       </c>
@@ -8807,19 +8807,19 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
+      <c r="A105" s="43"/>
       <c r="E105" s="31" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="44"/>
+      <c r="A106" s="43"/>
       <c r="E106" s="31" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="44"/>
+      <c r="A107" s="43"/>
       <c r="B107" s="36">
         <v>1942</v>
       </c>
@@ -8837,7 +8837,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="44"/>
+      <c r="A108" s="43"/>
       <c r="B108" s="36">
         <v>1943</v>
       </c>
@@ -8855,7 +8855,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="44"/>
+      <c r="A109" s="43"/>
       <c r="B109" s="36">
         <v>1944</v>
       </c>
@@ -8867,7 +8867,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
+      <c r="A110" s="43"/>
       <c r="B110" s="36">
         <v>1945</v>
       </c>
@@ -8876,13 +8876,13 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
+      <c r="A111" s="43"/>
       <c r="C111" s="31" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="44"/>
+      <c r="A112" s="43"/>
       <c r="B112" s="36">
         <v>1946</v>
       </c>
@@ -8897,7 +8897,7 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="44"/>
+      <c r="A113" s="43"/>
       <c r="B113" s="36">
         <v>1947</v>
       </c>
@@ -8909,7 +8909,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="44" t="s">
+      <c r="A114" s="43" t="s">
         <v>58</v>
       </c>
       <c r="B114" s="36">
@@ -8932,7 +8932,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="44"/>
+      <c r="A115" s="43"/>
       <c r="C115" s="31" t="s">
         <v>147</v>
       </c>
@@ -8944,7 +8944,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="44"/>
+      <c r="A116" s="43"/>
       <c r="E116" s="31" t="s">
         <v>151</v>
       </c>
@@ -8953,13 +8953,13 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="44"/>
+      <c r="A117" s="43"/>
       <c r="F117" s="31" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="44"/>
+      <c r="A118" s="43"/>
       <c r="B118" s="36">
         <v>1949</v>
       </c>
@@ -8968,13 +8968,13 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="44"/>
+      <c r="A119" s="43"/>
       <c r="B119" s="36">
         <v>1950</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="44"/>
+      <c r="A120" s="43"/>
       <c r="B120" s="36">
         <v>1951</v>
       </c>
@@ -8983,13 +8983,13 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="44"/>
+      <c r="A121" s="43"/>
       <c r="B121" s="36">
         <v>1952</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="44"/>
+      <c r="A122" s="43"/>
       <c r="B122" s="36">
         <v>1953</v>
       </c>
@@ -8998,13 +8998,13 @@
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="44"/>
+      <c r="A123" s="43"/>
       <c r="B123" s="36">
         <v>1954</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="44"/>
+      <c r="A124" s="43"/>
       <c r="B124" s="36">
         <v>1955</v>
       </c>
@@ -9013,16 +9013,16 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="44"/>
+      <c r="A125" s="43"/>
       <c r="C125" s="31" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="44"/>
+      <c r="A126" s="43"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="44" t="s">
+      <c r="A127" s="43" t="s">
         <v>59</v>
       </c>
       <c r="B127" s="36">
@@ -9033,7 +9033,7 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="44"/>
+      <c r="A128" s="43"/>
       <c r="B128" s="36">
         <v>1957</v>
       </c>
@@ -9045,7 +9045,7 @@
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="44"/>
+      <c r="A129" s="43"/>
       <c r="B129" s="36">
         <v>1958</v>
       </c>
@@ -9057,13 +9057,13 @@
       </c>
     </row>
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="44"/>
+      <c r="A130" s="43"/>
       <c r="C130" s="31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="44"/>
+      <c r="A131" s="43"/>
       <c r="B131" s="36">
         <v>1959</v>
       </c>
@@ -9075,13 +9075,13 @@
       </c>
     </row>
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="44"/>
+      <c r="A132" s="43"/>
       <c r="J132" s="31" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="44"/>
+      <c r="A133" s="43"/>
       <c r="B133" s="36">
         <v>1960</v>
       </c>
@@ -9096,14 +9096,14 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="44"/>
+      <c r="A134" s="43"/>
       <c r="D134" s="31" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="44"/>
-      <c r="B135" s="44">
+      <c r="A135" s="43"/>
+      <c r="B135" s="43">
         <v>1961</v>
       </c>
       <c r="C135" s="31" t="s">
@@ -9114,28 +9114,28 @@
       </c>
     </row>
     <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="44"/>
-      <c r="B136" s="44"/>
+      <c r="A136" s="43"/>
+      <c r="B136" s="43"/>
       <c r="C136" s="31" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="44"/>
-      <c r="B137" s="44"/>
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
       <c r="C137" s="31" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
       <c r="C138" s="31" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="44"/>
+      <c r="A139" s="43"/>
       <c r="B139" s="36">
         <v>1962</v>
       </c>
@@ -9144,7 +9144,7 @@
       </c>
     </row>
     <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="44"/>
+      <c r="A140" s="43"/>
       <c r="B140" s="36">
         <v>1963</v>
       </c>
@@ -9153,7 +9153,7 @@
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="44"/>
+      <c r="A141" s="43"/>
       <c r="B141" s="36">
         <v>1964</v>
       </c>
@@ -9162,7 +9162,7 @@
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="44"/>
+      <c r="A142" s="43"/>
       <c r="B142" s="36">
         <v>1965</v>
       </c>
@@ -9174,7 +9174,7 @@
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="44"/>
+      <c r="A143" s="43"/>
       <c r="B143" s="36">
         <v>1966</v>
       </c>
@@ -9183,13 +9183,13 @@
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="44"/>
+      <c r="A144" s="43"/>
       <c r="L144" s="31" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="44"/>
+      <c r="A145" s="43"/>
       <c r="B145" s="36">
         <v>1967</v>
       </c>
@@ -9198,25 +9198,25 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="44"/>
+      <c r="A146" s="43"/>
       <c r="B146" s="36">
         <v>1968</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="44"/>
+      <c r="A147" s="43"/>
       <c r="B147" s="36">
         <v>1969</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="44"/>
+      <c r="A148" s="43"/>
       <c r="B148" s="36">
         <v>1970</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="44" t="s">
+      <c r="A149" s="43" t="s">
         <v>60</v>
       </c>
       <c r="B149" s="36">
@@ -9224,7 +9224,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="44"/>
+      <c r="A150" s="43"/>
       <c r="B150" s="36">
         <v>1972</v>
       </c>
@@ -9236,19 +9236,19 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="44"/>
+      <c r="A151" s="43"/>
       <c r="B151" s="36">
         <v>1973</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="44"/>
+      <c r="A152" s="43"/>
       <c r="B152" s="36">
         <v>1974</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="44"/>
+      <c r="A153" s="43"/>
       <c r="B153" s="36">
         <v>1975</v>
       </c>
@@ -9257,13 +9257,13 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="44"/>
+      <c r="A154" s="43"/>
       <c r="J154" s="31" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="44"/>
+      <c r="A155" s="43"/>
       <c r="B155" s="36">
         <v>1976</v>
       </c>
@@ -9272,19 +9272,19 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="44"/>
+      <c r="A156" s="43"/>
       <c r="B156" s="36">
         <v>1977</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="44"/>
+      <c r="A157" s="43"/>
       <c r="B157" s="36">
         <v>1978</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="44"/>
+      <c r="A158" s="43"/>
       <c r="B158" s="36">
         <v>1979</v>
       </c>
@@ -9293,7 +9293,7 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="44"/>
+      <c r="A159" s="43"/>
       <c r="B159" s="36">
         <v>1980</v>
       </c>
@@ -9305,19 +9305,19 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="44"/>
+      <c r="A160" s="43"/>
       <c r="B160" s="36">
         <v>1981</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="44"/>
+      <c r="A161" s="43"/>
       <c r="B161" s="36">
         <v>1982</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="44"/>
+      <c r="A162" s="43"/>
       <c r="B162" s="36">
         <v>1983</v>
       </c>
@@ -9329,7 +9329,7 @@
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="44"/>
+      <c r="A163" s="43"/>
       <c r="B163" s="36">
         <v>1984</v>
       </c>
@@ -9338,7 +9338,7 @@
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="44"/>
+      <c r="A164" s="43"/>
       <c r="B164" s="36">
         <v>1985</v>
       </c>
@@ -9350,13 +9350,13 @@
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="44"/>
+      <c r="A165" s="43"/>
       <c r="B165" s="36">
         <v>1986</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="44"/>
+      <c r="A166" s="43"/>
       <c r="B166" s="36">
         <v>1987</v>
       </c>
@@ -9365,13 +9365,13 @@
       </c>
     </row>
     <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="44"/>
+      <c r="A167" s="43"/>
       <c r="J167" s="31" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="44"/>
+      <c r="A168" s="43"/>
       <c r="B168" s="36">
         <v>1988</v>
       </c>
@@ -9383,7 +9383,7 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="44"/>
+      <c r="A169" s="43"/>
       <c r="B169" s="36">
         <v>1989</v>
       </c>
@@ -9395,7 +9395,7 @@
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="44"/>
+      <c r="A170" s="43"/>
       <c r="B170" s="36">
         <v>1990</v>
       </c>
@@ -9404,7 +9404,7 @@
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="44"/>
+      <c r="A171" s="43"/>
       <c r="B171" s="36">
         <v>1991</v>
       </c>
@@ -9413,7 +9413,7 @@
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="44"/>
+      <c r="A172" s="43"/>
       <c r="B172" s="36">
         <v>1992</v>
       </c>
@@ -9425,13 +9425,13 @@
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="44"/>
+      <c r="A173" s="43"/>
       <c r="J173" s="31" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="44"/>
+      <c r="A174" s="43"/>
       <c r="B174" s="36">
         <v>1993</v>
       </c>
@@ -9440,17 +9440,17 @@
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="44"/>
+      <c r="A175" s="43"/>
       <c r="B175" s="36">
         <v>1994</v>
       </c>
-      <c r="K175" s="43" t="s">
+      <c r="K175" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="L175" s="43"/>
+      <c r="L175" s="44"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="44"/>
+      <c r="A176" s="43"/>
       <c r="B176" s="36">
         <v>1995</v>
       </c>
@@ -9459,7 +9459,7 @@
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="44" t="s">
+      <c r="A177" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B177" s="36">
@@ -9467,13 +9467,13 @@
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="44"/>
+      <c r="A178" s="43"/>
       <c r="B178" s="36">
         <v>1997</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="44"/>
+      <c r="A179" s="43"/>
       <c r="B179" s="36">
         <v>1998</v>
       </c>
@@ -9485,7 +9485,7 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="44"/>
+      <c r="A180" s="43"/>
       <c r="B180" s="36">
         <v>1999</v>
       </c>
@@ -9494,13 +9494,13 @@
       </c>
     </row>
     <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="44"/>
+      <c r="A181" s="43"/>
       <c r="K181" s="31" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="44"/>
+      <c r="A182" s="43"/>
       <c r="B182" s="36">
         <v>2000</v>
       </c>
@@ -9512,7 +9512,7 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="44"/>
+      <c r="A183" s="43"/>
       <c r="B183" s="36">
         <v>2001</v>
       </c>
@@ -9521,31 +9521,31 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="44"/>
+      <c r="A184" s="43"/>
       <c r="B184" s="36">
         <v>2002</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="44"/>
+      <c r="A185" s="43"/>
       <c r="B185" s="36">
         <v>2003</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="44"/>
+      <c r="A186" s="43"/>
       <c r="B186" s="36">
         <v>2004</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="44"/>
+      <c r="A187" s="43"/>
       <c r="B187" s="36">
         <v>2005</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="44" t="s">
+      <c r="A188" s="43" t="s">
         <v>70</v>
       </c>
       <c r="B188" s="36">
@@ -9553,46 +9553,46 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="44"/>
+      <c r="A189" s="43"/>
       <c r="B189" s="36">
         <v>2007</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="44"/>
+      <c r="A190" s="43"/>
       <c r="B190" s="36">
         <v>2008</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="44"/>
+      <c r="A191" s="43"/>
       <c r="B191" s="36">
         <v>2009</v>
       </c>
-      <c r="K191" s="31" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="44"/>
+      <c r="A192" s="43"/>
       <c r="B192" s="36">
         <v>2010</v>
       </c>
+      <c r="K192" s="31" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="44"/>
+      <c r="A193" s="43"/>
       <c r="B193" s="36">
         <v>2011</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="44"/>
+      <c r="A194" s="43"/>
       <c r="B194" s="36">
         <v>2012</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="44"/>
+      <c r="A195" s="43"/>
       <c r="B195" s="36">
         <v>2013</v>
       </c>
@@ -9601,7 +9601,7 @@
       </c>
     </row>
     <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="44"/>
+      <c r="A196" s="43"/>
       <c r="B196" s="36">
         <v>2014</v>
       </c>
@@ -9613,7 +9613,7 @@
       </c>
     </row>
     <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="44"/>
+      <c r="A197" s="43"/>
       <c r="B197" s="36">
         <v>2015</v>
       </c>
@@ -9622,13 +9622,13 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="44"/>
+      <c r="A198" s="43"/>
       <c r="B198" s="36">
         <v>2016</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="44"/>
+      <c r="A199" s="43"/>
       <c r="B199" s="36">
         <v>2017</v>
       </c>
@@ -9637,7 +9637,7 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="44"/>
+      <c r="A200" s="43"/>
       <c r="B200" s="36">
         <v>2018</v>
       </c>
@@ -9646,63 +9646,58 @@
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="44"/>
+      <c r="A201" s="43"/>
       <c r="B201" s="36">
         <v>2019</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="44"/>
+      <c r="A202" s="43"/>
       <c r="B202" s="36">
         <v>2020</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="44"/>
+      <c r="A203" s="43"/>
       <c r="B203" s="36">
         <v>2021</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="44"/>
+      <c r="A204" s="43"/>
       <c r="B204" s="36">
         <v>2022</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="44"/>
+      <c r="A205" s="43"/>
       <c r="B205" s="36">
         <v>2023</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="44"/>
+      <c r="A206" s="43"/>
       <c r="B206" s="36">
         <v>2024</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="44"/>
+      <c r="A207" s="43"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="44"/>
+      <c r="A208" s="43"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="44"/>
+      <c r="A209" s="43"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="44"/>
+      <c r="A210" s="43"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="44"/>
+      <c r="A211" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A114:A126"/>
-    <mergeCell ref="A2:A53"/>
-    <mergeCell ref="A54:A76"/>
-    <mergeCell ref="A77:A113"/>
     <mergeCell ref="K175:L175"/>
     <mergeCell ref="A177:A187"/>
     <mergeCell ref="A188:A211"/>
@@ -9711,6 +9706,11 @@
     <mergeCell ref="A127:A148"/>
     <mergeCell ref="A149:A176"/>
     <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A114:A126"/>
+    <mergeCell ref="A2:A53"/>
+    <mergeCell ref="A54:A76"/>
+    <mergeCell ref="A77:A113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/New Template Calculations.xlsx
+++ b/docs/New Template Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRTrains2-Extended\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC927EE-8C02-4DF9-848F-F0EAF591C4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE93C41-FD8B-419B-A39B-FEBC8AF73FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{D51931E5-81BC-4C5B-8C55-7A4B86E09E95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="698" xr2:uid="{D51931E5-81BC-4C5B-8C55-7A4B86E09E95}"/>
   </bookViews>
   <sheets>
     <sheet name="1x" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="286">
   <si>
     <t>Horizontal</t>
   </si>
@@ -892,6 +892,9 @@
   </si>
   <si>
     <t>LMS Fowler 4P Compound</t>
+  </si>
+  <si>
+    <t>Voxel</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1156,12 +1159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1498,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C473DBD1-BF4E-4659-B175-DA8950A0E94D}">
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:N14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,6 +1555,9 @@
       <c r="D2" s="27" t="s">
         <v>27</v>
       </c>
+      <c r="E2" s="45" t="s">
+        <v>285</v>
+      </c>
       <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
@@ -1887,6 +1894,9 @@
       <c r="D6" s="11">
         <v>22</v>
       </c>
+      <c r="E6">
+        <v>66</v>
+      </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1975,6 +1985,9 @@
       <c r="D7" s="8">
         <v>27.5</v>
       </c>
+      <c r="E7" s="1">
+        <v>82</v>
+      </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2063,6 +2076,9 @@
       <c r="D8" s="11">
         <v>33</v>
       </c>
+      <c r="E8">
+        <v>98</v>
+      </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2151,6 +2167,9 @@
       <c r="D9" s="8">
         <v>38.5</v>
       </c>
+      <c r="E9" s="1">
+        <v>114</v>
+      </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -2238,6 +2257,9 @@
       </c>
       <c r="D10" s="11">
         <v>44</v>
+      </c>
+      <c r="E10">
+        <v>132</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="1"/>
@@ -2325,7 +2347,9 @@
       <c r="D11" s="8">
         <v>49.5</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>148</v>
+      </c>
       <c r="F11" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2416,6 +2440,9 @@
       <c r="D12" s="11">
         <v>55</v>
       </c>
+      <c r="E12">
+        <v>164</v>
+      </c>
       <c r="F12" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2502,7 +2529,9 @@
       <c r="D13" s="8">
         <v>60.5</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>180</v>
+      </c>
       <c r="F13" s="6">
         <f>C13</f>
         <v>44</v>
@@ -2595,6 +2624,9 @@
       <c r="D14" s="11">
         <v>66</v>
       </c>
+      <c r="E14">
+        <v>198</v>
+      </c>
       <c r="F14" s="9">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2681,7 +2713,9 @@
       <c r="D15" s="8">
         <v>71.5</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>214</v>
+      </c>
       <c r="F15" s="6">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2771,6 +2805,9 @@
       <c r="D16" s="11">
         <v>77</v>
       </c>
+      <c r="E16">
+        <v>230</v>
+      </c>
       <c r="F16" s="9">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2857,7 +2894,9 @@
       <c r="D17" s="8">
         <v>82.5</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>246</v>
+      </c>
       <c r="F17" s="6">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2946,6 +2985,9 @@
       </c>
       <c r="D18" s="14">
         <v>88</v>
+      </c>
+      <c r="E18">
+        <v>255</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="1"/>
@@ -7824,7 +7866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCDE093-BF87-48D4-BE7D-AFEA8C3CA6A0}">
   <dimension ref="A1:M211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2835" ySplit="765" topLeftCell="G180" activePane="bottomRight"/>
       <selection activeCell="B2" sqref="A2:XFD2"/>
       <selection pane="topRight" activeCell="E1" sqref="E1:E1048576"/>
@@ -7889,7 +7931,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="36">
@@ -7897,49 +7939,49 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="36">
         <v>1851</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="36">
         <v>1852</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="36">
         <v>1853</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="36">
         <v>1854</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="36">
         <v>1855</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="36">
         <v>1856</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="36">
         <v>1857</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="36">
         <v>1858</v>
       </c>
@@ -7948,7 +7990,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="36">
         <v>1859</v>
       </c>
@@ -7957,55 +7999,55 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="36">
         <v>1860</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="36">
         <v>1861</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="36">
         <v>1862</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="36">
         <v>1863</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="36">
         <v>1864</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="36">
         <v>1865</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="36">
         <v>1866</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="36">
         <v>1867</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="36">
         <v>1868</v>
       </c>
@@ -8014,13 +8056,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="36">
         <v>1869</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="36">
         <v>1870</v>
       </c>
@@ -8029,13 +8071,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="36">
         <v>1871</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="36">
         <v>1872</v>
       </c>
@@ -8044,7 +8086,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="36">
         <v>1873</v>
       </c>
@@ -8053,13 +8095,13 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="36">
         <v>1874</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="36">
         <v>1875</v>
       </c>
@@ -8068,37 +8110,37 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="36">
         <v>1876</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="36">
         <v>1877</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="36">
         <v>1878</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="36">
         <v>1879</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="36">
         <v>1880</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="36">
         <v>1881</v>
       </c>
@@ -8107,7 +8149,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="36">
         <v>1882</v>
       </c>
@@ -8119,7 +8161,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="36">
         <v>1883</v>
       </c>
@@ -8128,7 +8170,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="36">
         <v>1884</v>
       </c>
@@ -8137,13 +8179,13 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="36">
         <v>1885</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="36">
         <v>1886</v>
       </c>
@@ -8152,37 +8194,37 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="36">
         <v>1887</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="36">
         <v>1888</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="36">
         <v>1889</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="36">
         <v>1890</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="36">
         <v>1891</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="36">
         <v>1892</v>
       </c>
@@ -8191,19 +8233,19 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="36">
         <v>1893</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="36">
         <v>1894</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="36">
         <v>1895</v>
       </c>
@@ -8212,7 +8254,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="36">
         <v>1896</v>
       </c>
@@ -8221,13 +8263,13 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="C49" s="31" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="36">
         <v>1897</v>
       </c>
@@ -8236,25 +8278,25 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="F51" s="31" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="36">
         <v>1898</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="36">
         <v>1899</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="44" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="36">
@@ -8268,7 +8310,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="36">
         <v>1901</v>
       </c>
@@ -8277,7 +8319,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="36">
         <v>1902</v>
       </c>
@@ -8289,13 +8331,13 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
+      <c r="A57" s="44"/>
       <c r="G57" s="31" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
+      <c r="A58" s="44"/>
       <c r="B58" s="36">
         <v>1903</v>
       </c>
@@ -8310,13 +8352,13 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
+      <c r="A59" s="44"/>
       <c r="D59" s="31" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="36">
         <v>1904</v>
       </c>
@@ -8328,13 +8370,13 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="36">
         <v>1905</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="36">
         <v>1906</v>
       </c>
@@ -8346,7 +8388,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="36">
         <v>1907</v>
       </c>
@@ -8355,7 +8397,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="36">
         <v>1908</v>
       </c>
@@ -8364,7 +8406,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
+      <c r="A65" s="44"/>
       <c r="B65" s="36">
         <v>1909</v>
       </c>
@@ -8373,13 +8415,13 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="36">
         <v>1910</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="43"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="36">
         <v>1911</v>
       </c>
@@ -8397,13 +8439,13 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
+      <c r="A68" s="44"/>
       <c r="B68" s="36">
         <v>1912</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="36">
         <v>1913</v>
       </c>
@@ -8418,7 +8460,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
+      <c r="A70" s="44"/>
       <c r="B70" s="36">
         <v>1914</v>
       </c>
@@ -8436,7 +8478,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
+      <c r="A71" s="44"/>
       <c r="B71" s="36">
         <v>1915</v>
       </c>
@@ -8445,13 +8487,13 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
+      <c r="A72" s="44"/>
       <c r="B72" s="36">
         <v>1916</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="36">
         <v>1917</v>
       </c>
@@ -8460,7 +8502,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
+      <c r="A74" s="44"/>
       <c r="B74" s="36">
         <v>1918</v>
       </c>
@@ -8472,7 +8514,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
+      <c r="A75" s="44"/>
       <c r="B75" s="36">
         <v>1919</v>
       </c>
@@ -8490,7 +8532,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
+      <c r="A76" s="44"/>
       <c r="B76" s="36">
         <v>1920</v>
       </c>
@@ -8499,7 +8541,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="44" t="s">
         <v>57</v>
       </c>
       <c r="B77" s="36">
@@ -8507,7 +8549,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
+      <c r="A78" s="44"/>
       <c r="B78" s="36">
         <v>1922</v>
       </c>
@@ -8516,7 +8558,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="43"/>
+      <c r="A79" s="44"/>
       <c r="B79" s="36">
         <v>1923</v>
       </c>
@@ -8528,7 +8570,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
+      <c r="A80" s="44"/>
       <c r="B80" s="36">
         <v>1924</v>
       </c>
@@ -8543,13 +8585,13 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="43"/>
+      <c r="A81" s="44"/>
       <c r="B81" s="36">
         <v>1925</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
+      <c r="A82" s="44"/>
       <c r="B82" s="36">
         <v>1926</v>
       </c>
@@ -8561,8 +8603,8 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43">
+      <c r="A83" s="44"/>
+      <c r="B83" s="44">
         <v>1927</v>
       </c>
       <c r="C83" s="31" t="s">
@@ -8579,8 +8621,8 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="31" t="s">
         <v>92</v>
       </c>
@@ -8589,7 +8631,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="43"/>
+      <c r="A85" s="44"/>
       <c r="B85" s="36">
         <v>1928</v>
       </c>
@@ -8607,8 +8649,8 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43">
+      <c r="A86" s="44"/>
+      <c r="B86" s="44">
         <v>1929</v>
       </c>
       <c r="C86" s="31" t="s">
@@ -8625,14 +8667,14 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="31" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="43"/>
+      <c r="A88" s="44"/>
       <c r="B88" s="36">
         <v>1930</v>
       </c>
@@ -8647,7 +8689,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
+      <c r="A89" s="44"/>
       <c r="B89" s="36">
         <v>1931</v>
       </c>
@@ -8656,7 +8698,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
+      <c r="A90" s="44"/>
       <c r="B90" s="36">
         <v>1932</v>
       </c>
@@ -8668,19 +8710,19 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
+      <c r="A91" s="44"/>
       <c r="L91" s="31" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
+      <c r="A92" s="44"/>
       <c r="L92" s="31" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="43"/>
+      <c r="A93" s="44"/>
       <c r="B93" s="36">
         <v>1933</v>
       </c>
@@ -8692,10 +8734,10 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
+      <c r="A94" s="44"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
+      <c r="A95" s="44"/>
       <c r="B95" s="36">
         <v>1934</v>
       </c>
@@ -8716,7 +8758,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="43"/>
+      <c r="A96" s="44"/>
       <c r="B96" s="36">
         <v>1935</v>
       </c>
@@ -8731,8 +8773,8 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43">
+      <c r="A97" s="44"/>
+      <c r="B97" s="44">
         <v>1936</v>
       </c>
       <c r="C97" s="31" t="s">
@@ -8746,8 +8788,8 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="31" t="s">
         <v>127</v>
       </c>
@@ -8756,7 +8798,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
+      <c r="A99" s="44"/>
       <c r="B99" s="36">
         <v>1937</v>
       </c>
@@ -8771,28 +8813,28 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="43"/>
+      <c r="A100" s="44"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="43"/>
+      <c r="A101" s="44"/>
       <c r="B101" s="36">
         <v>1938</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="43"/>
+      <c r="A102" s="44"/>
       <c r="B102" s="36">
         <v>1939</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="43"/>
+      <c r="A103" s="44"/>
       <c r="B103" s="36">
         <v>1940</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
+      <c r="A104" s="44"/>
       <c r="B104" s="36">
         <v>1941</v>
       </c>
@@ -8807,19 +8849,19 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
+      <c r="A105" s="44"/>
       <c r="E105" s="31" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="43"/>
+      <c r="A106" s="44"/>
       <c r="E106" s="31" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="43"/>
+      <c r="A107" s="44"/>
       <c r="B107" s="36">
         <v>1942</v>
       </c>
@@ -8837,7 +8879,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="43"/>
+      <c r="A108" s="44"/>
       <c r="B108" s="36">
         <v>1943</v>
       </c>
@@ -8855,7 +8897,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="43"/>
+      <c r="A109" s="44"/>
       <c r="B109" s="36">
         <v>1944</v>
       </c>
@@ -8867,7 +8909,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
+      <c r="A110" s="44"/>
       <c r="B110" s="36">
         <v>1945</v>
       </c>
@@ -8876,13 +8918,13 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="43"/>
+      <c r="A111" s="44"/>
       <c r="C111" s="31" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="43"/>
+      <c r="A112" s="44"/>
       <c r="B112" s="36">
         <v>1946</v>
       </c>
@@ -8897,7 +8939,7 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="43"/>
+      <c r="A113" s="44"/>
       <c r="B113" s="36">
         <v>1947</v>
       </c>
@@ -8909,7 +8951,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="43" t="s">
+      <c r="A114" s="44" t="s">
         <v>58</v>
       </c>
       <c r="B114" s="36">
@@ -8932,7 +8974,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="43"/>
+      <c r="A115" s="44"/>
       <c r="C115" s="31" t="s">
         <v>147</v>
       </c>
@@ -8944,7 +8986,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="43"/>
+      <c r="A116" s="44"/>
       <c r="E116" s="31" t="s">
         <v>151</v>
       </c>
@@ -8953,13 +8995,13 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="43"/>
+      <c r="A117" s="44"/>
       <c r="F117" s="31" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="43"/>
+      <c r="A118" s="44"/>
       <c r="B118" s="36">
         <v>1949</v>
       </c>
@@ -8968,13 +9010,13 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="43"/>
+      <c r="A119" s="44"/>
       <c r="B119" s="36">
         <v>1950</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="43"/>
+      <c r="A120" s="44"/>
       <c r="B120" s="36">
         <v>1951</v>
       </c>
@@ -8983,13 +9025,13 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="43"/>
+      <c r="A121" s="44"/>
       <c r="B121" s="36">
         <v>1952</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="43"/>
+      <c r="A122" s="44"/>
       <c r="B122" s="36">
         <v>1953</v>
       </c>
@@ -8998,13 +9040,13 @@
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="43"/>
+      <c r="A123" s="44"/>
       <c r="B123" s="36">
         <v>1954</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="43"/>
+      <c r="A124" s="44"/>
       <c r="B124" s="36">
         <v>1955</v>
       </c>
@@ -9013,16 +9055,16 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="43"/>
+      <c r="A125" s="44"/>
       <c r="C125" s="31" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="43"/>
+      <c r="A126" s="44"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="43" t="s">
+      <c r="A127" s="44" t="s">
         <v>59</v>
       </c>
       <c r="B127" s="36">
@@ -9033,7 +9075,7 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="43"/>
+      <c r="A128" s="44"/>
       <c r="B128" s="36">
         <v>1957</v>
       </c>
@@ -9045,7 +9087,7 @@
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="43"/>
+      <c r="A129" s="44"/>
       <c r="B129" s="36">
         <v>1958</v>
       </c>
@@ -9057,13 +9099,13 @@
       </c>
     </row>
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="43"/>
+      <c r="A130" s="44"/>
       <c r="C130" s="31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="43"/>
+      <c r="A131" s="44"/>
       <c r="B131" s="36">
         <v>1959</v>
       </c>
@@ -9075,13 +9117,13 @@
       </c>
     </row>
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="43"/>
+      <c r="A132" s="44"/>
       <c r="J132" s="31" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="43"/>
+      <c r="A133" s="44"/>
       <c r="B133" s="36">
         <v>1960</v>
       </c>
@@ -9096,14 +9138,14 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="43"/>
+      <c r="A134" s="44"/>
       <c r="D134" s="31" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="43"/>
-      <c r="B135" s="43">
+      <c r="A135" s="44"/>
+      <c r="B135" s="44">
         <v>1961</v>
       </c>
       <c r="C135" s="31" t="s">
@@ -9114,28 +9156,28 @@
       </c>
     </row>
     <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="43"/>
-      <c r="B136" s="43"/>
+      <c r="A136" s="44"/>
+      <c r="B136" s="44"/>
       <c r="C136" s="31" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="43"/>
-      <c r="B137" s="43"/>
+      <c r="A137" s="44"/>
+      <c r="B137" s="44"/>
       <c r="C137" s="31" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
       <c r="C138" s="31" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="43"/>
+      <c r="A139" s="44"/>
       <c r="B139" s="36">
         <v>1962</v>
       </c>
@@ -9144,7 +9186,7 @@
       </c>
     </row>
     <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="43"/>
+      <c r="A140" s="44"/>
       <c r="B140" s="36">
         <v>1963</v>
       </c>
@@ -9153,7 +9195,7 @@
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="43"/>
+      <c r="A141" s="44"/>
       <c r="B141" s="36">
         <v>1964</v>
       </c>
@@ -9162,7 +9204,7 @@
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="43"/>
+      <c r="A142" s="44"/>
       <c r="B142" s="36">
         <v>1965</v>
       </c>
@@ -9174,7 +9216,7 @@
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="43"/>
+      <c r="A143" s="44"/>
       <c r="B143" s="36">
         <v>1966</v>
       </c>
@@ -9183,13 +9225,13 @@
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="43"/>
+      <c r="A144" s="44"/>
       <c r="L144" s="31" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="43"/>
+      <c r="A145" s="44"/>
       <c r="B145" s="36">
         <v>1967</v>
       </c>
@@ -9198,25 +9240,25 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="43"/>
+      <c r="A146" s="44"/>
       <c r="B146" s="36">
         <v>1968</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="43"/>
+      <c r="A147" s="44"/>
       <c r="B147" s="36">
         <v>1969</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="43"/>
+      <c r="A148" s="44"/>
       <c r="B148" s="36">
         <v>1970</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="43" t="s">
+      <c r="A149" s="44" t="s">
         <v>60</v>
       </c>
       <c r="B149" s="36">
@@ -9224,7 +9266,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="43"/>
+      <c r="A150" s="44"/>
       <c r="B150" s="36">
         <v>1972</v>
       </c>
@@ -9236,19 +9278,19 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="43"/>
+      <c r="A151" s="44"/>
       <c r="B151" s="36">
         <v>1973</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="43"/>
+      <c r="A152" s="44"/>
       <c r="B152" s="36">
         <v>1974</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="43"/>
+      <c r="A153" s="44"/>
       <c r="B153" s="36">
         <v>1975</v>
       </c>
@@ -9257,13 +9299,13 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="43"/>
+      <c r="A154" s="44"/>
       <c r="J154" s="31" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="43"/>
+      <c r="A155" s="44"/>
       <c r="B155" s="36">
         <v>1976</v>
       </c>
@@ -9272,19 +9314,19 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="43"/>
+      <c r="A156" s="44"/>
       <c r="B156" s="36">
         <v>1977</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="43"/>
+      <c r="A157" s="44"/>
       <c r="B157" s="36">
         <v>1978</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="43"/>
+      <c r="A158" s="44"/>
       <c r="B158" s="36">
         <v>1979</v>
       </c>
@@ -9293,7 +9335,7 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="43"/>
+      <c r="A159" s="44"/>
       <c r="B159" s="36">
         <v>1980</v>
       </c>
@@ -9305,19 +9347,19 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="43"/>
+      <c r="A160" s="44"/>
       <c r="B160" s="36">
         <v>1981</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="43"/>
+      <c r="A161" s="44"/>
       <c r="B161" s="36">
         <v>1982</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="43"/>
+      <c r="A162" s="44"/>
       <c r="B162" s="36">
         <v>1983</v>
       </c>
@@ -9329,7 +9371,7 @@
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="43"/>
+      <c r="A163" s="44"/>
       <c r="B163" s="36">
         <v>1984</v>
       </c>
@@ -9338,7 +9380,7 @@
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="43"/>
+      <c r="A164" s="44"/>
       <c r="B164" s="36">
         <v>1985</v>
       </c>
@@ -9350,13 +9392,13 @@
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="43"/>
+      <c r="A165" s="44"/>
       <c r="B165" s="36">
         <v>1986</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="43"/>
+      <c r="A166" s="44"/>
       <c r="B166" s="36">
         <v>1987</v>
       </c>
@@ -9365,13 +9407,13 @@
       </c>
     </row>
     <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="43"/>
+      <c r="A167" s="44"/>
       <c r="J167" s="31" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="43"/>
+      <c r="A168" s="44"/>
       <c r="B168" s="36">
         <v>1988</v>
       </c>
@@ -9383,7 +9425,7 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="43"/>
+      <c r="A169" s="44"/>
       <c r="B169" s="36">
         <v>1989</v>
       </c>
@@ -9395,7 +9437,7 @@
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="43"/>
+      <c r="A170" s="44"/>
       <c r="B170" s="36">
         <v>1990</v>
       </c>
@@ -9404,7 +9446,7 @@
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="43"/>
+      <c r="A171" s="44"/>
       <c r="B171" s="36">
         <v>1991</v>
       </c>
@@ -9413,7 +9455,7 @@
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="43"/>
+      <c r="A172" s="44"/>
       <c r="B172" s="36">
         <v>1992</v>
       </c>
@@ -9425,13 +9467,13 @@
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="43"/>
+      <c r="A173" s="44"/>
       <c r="J173" s="31" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="43"/>
+      <c r="A174" s="44"/>
       <c r="B174" s="36">
         <v>1993</v>
       </c>
@@ -9440,17 +9482,17 @@
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="43"/>
+      <c r="A175" s="44"/>
       <c r="B175" s="36">
         <v>1994</v>
       </c>
-      <c r="K175" s="44" t="s">
+      <c r="K175" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="L175" s="44"/>
+      <c r="L175" s="43"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="43"/>
+      <c r="A176" s="44"/>
       <c r="B176" s="36">
         <v>1995</v>
       </c>
@@ -9459,7 +9501,7 @@
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="43" t="s">
+      <c r="A177" s="44" t="s">
         <v>69</v>
       </c>
       <c r="B177" s="36">
@@ -9467,13 +9509,13 @@
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="43"/>
+      <c r="A178" s="44"/>
       <c r="B178" s="36">
         <v>1997</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="43"/>
+      <c r="A179" s="44"/>
       <c r="B179" s="36">
         <v>1998</v>
       </c>
@@ -9485,7 +9527,7 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="43"/>
+      <c r="A180" s="44"/>
       <c r="B180" s="36">
         <v>1999</v>
       </c>
@@ -9494,13 +9536,13 @@
       </c>
     </row>
     <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="43"/>
+      <c r="A181" s="44"/>
       <c r="K181" s="31" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="43"/>
+      <c r="A182" s="44"/>
       <c r="B182" s="36">
         <v>2000</v>
       </c>
@@ -9512,7 +9554,7 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="43"/>
+      <c r="A183" s="44"/>
       <c r="B183" s="36">
         <v>2001</v>
       </c>
@@ -9521,31 +9563,31 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="43"/>
+      <c r="A184" s="44"/>
       <c r="B184" s="36">
         <v>2002</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="43"/>
+      <c r="A185" s="44"/>
       <c r="B185" s="36">
         <v>2003</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="43"/>
+      <c r="A186" s="44"/>
       <c r="B186" s="36">
         <v>2004</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="43"/>
+      <c r="A187" s="44"/>
       <c r="B187" s="36">
         <v>2005</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="43" t="s">
+      <c r="A188" s="44" t="s">
         <v>70</v>
       </c>
       <c r="B188" s="36">
@@ -9553,25 +9595,25 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="43"/>
+      <c r="A189" s="44"/>
       <c r="B189" s="36">
         <v>2007</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="43"/>
+      <c r="A190" s="44"/>
       <c r="B190" s="36">
         <v>2008</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="43"/>
+      <c r="A191" s="44"/>
       <c r="B191" s="36">
         <v>2009</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="43"/>
+      <c r="A192" s="44"/>
       <c r="B192" s="36">
         <v>2010</v>
       </c>
@@ -9580,19 +9622,19 @@
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="43"/>
+      <c r="A193" s="44"/>
       <c r="B193" s="36">
         <v>2011</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="43"/>
+      <c r="A194" s="44"/>
       <c r="B194" s="36">
         <v>2012</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="43"/>
+      <c r="A195" s="44"/>
       <c r="B195" s="36">
         <v>2013</v>
       </c>
@@ -9601,7 +9643,7 @@
       </c>
     </row>
     <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="43"/>
+      <c r="A196" s="44"/>
       <c r="B196" s="36">
         <v>2014</v>
       </c>
@@ -9613,7 +9655,7 @@
       </c>
     </row>
     <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="43"/>
+      <c r="A197" s="44"/>
       <c r="B197" s="36">
         <v>2015</v>
       </c>
@@ -9622,13 +9664,13 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="43"/>
+      <c r="A198" s="44"/>
       <c r="B198" s="36">
         <v>2016</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="43"/>
+      <c r="A199" s="44"/>
       <c r="B199" s="36">
         <v>2017</v>
       </c>
@@ -9637,7 +9679,7 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="43"/>
+      <c r="A200" s="44"/>
       <c r="B200" s="36">
         <v>2018</v>
       </c>
@@ -9646,58 +9688,63 @@
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="43"/>
+      <c r="A201" s="44"/>
       <c r="B201" s="36">
         <v>2019</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="43"/>
+      <c r="A202" s="44"/>
       <c r="B202" s="36">
         <v>2020</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="43"/>
+      <c r="A203" s="44"/>
       <c r="B203" s="36">
         <v>2021</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="43"/>
+      <c r="A204" s="44"/>
       <c r="B204" s="36">
         <v>2022</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="43"/>
+      <c r="A205" s="44"/>
       <c r="B205" s="36">
         <v>2023</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="43"/>
+      <c r="A206" s="44"/>
       <c r="B206" s="36">
         <v>2024</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="43"/>
+      <c r="A207" s="44"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="43"/>
+      <c r="A208" s="44"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="43"/>
+      <c r="A209" s="44"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="43"/>
+      <c r="A210" s="44"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="43"/>
+      <c r="A211" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A114:A126"/>
+    <mergeCell ref="A2:A53"/>
+    <mergeCell ref="A54:A76"/>
+    <mergeCell ref="A77:A113"/>
     <mergeCell ref="K175:L175"/>
     <mergeCell ref="A177:A187"/>
     <mergeCell ref="A188:A211"/>
@@ -9706,11 +9753,6 @@
     <mergeCell ref="A127:A148"/>
     <mergeCell ref="A149:A176"/>
     <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A114:A126"/>
-    <mergeCell ref="A2:A53"/>
-    <mergeCell ref="A54:A76"/>
-    <mergeCell ref="A77:A113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/New Template Calculations.xlsx
+++ b/docs/New Template Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRTrains2-Extended\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE93C41-FD8B-419B-A39B-FEBC8AF73FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF90BFF-B757-4D13-AD85-427B2F925BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="698" xr2:uid="{D51931E5-81BC-4C5B-8C55-7A4B86E09E95}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="289">
   <si>
     <t>Horizontal</t>
   </si>
@@ -126,15 +126,9 @@
     <t>1px</t>
   </si>
   <si>
-    <t>~1.375 ft</t>
-  </si>
-  <si>
     <t>~0.7 ft</t>
   </si>
   <si>
-    <t>~0.4m</t>
-  </si>
-  <si>
     <t>Examples</t>
   </si>
   <si>
@@ -895,6 +889,21 @@
   </si>
   <si>
     <t>Voxel</t>
+  </si>
+  <si>
+    <t>10cm</t>
+  </si>
+  <si>
+    <t>1vx</t>
+  </si>
+  <si>
+    <t>Ft</t>
+  </si>
+  <si>
+    <t>Px Ft ratio</t>
+  </si>
+  <si>
+    <t>Vx Ft ratio</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1159,13 +1168,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1500,49 +1523,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C473DBD1-BF4E-4659-B175-DA8950A0E94D}">
-  <dimension ref="A1:AB48"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="4" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
+    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1">
+        <v>10</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
+      <c r="N1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41"/>
-      <c r="P1" s="39" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41"/>
+      <c r="S1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="41"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T1" s="40"/>
+      <c r="U1" s="41"/>
+    </row>
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -1552,1429 +1575,1531 @@
       <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="O2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="Q2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="S2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="T2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="U2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="W2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="X2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="Y2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="Z2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="AA2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="AB2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="AC2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AD2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
         <v>0.1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="48">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="48">
         <f t="shared" ref="C3:C18" si="0">32/(8/B3)</f>
         <v>4</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="34">
         <v>5.5</v>
       </c>
-      <c r="F3" s="6">
-        <f t="shared" ref="F3:F18" si="1">C3</f>
+      <c r="E3" s="34">
+        <v>18</v>
+      </c>
+      <c r="F3" s="49">
+        <f>ROUND(E3*F1/30.48, 1)</f>
+        <v>5.9</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I18" si="1">C3</f>
         <v>4</v>
       </c>
-      <c r="G3" s="15">
-        <f t="shared" ref="G3:G18" si="2">F3+1</f>
+      <c r="J3" s="15">
+        <f t="shared" ref="J3:J18" si="2">I3+1</f>
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
         <v>12</v>
       </c>
-      <c r="I3" s="16">
-        <f t="shared" ref="I3:I18" si="3">H3+1</f>
+      <c r="L3" s="16">
+        <f t="shared" ref="L3:L18" si="3">K3+1</f>
         <v>13</v>
       </c>
-      <c r="K3" s="6">
-        <f t="shared" ref="K3:K18" si="4">L3-1</f>
+      <c r="N3" s="6">
+        <f t="shared" ref="N3:N18" si="4">O3-1</f>
         <v>7</v>
       </c>
-      <c r="L3" s="15">
+      <c r="O3" s="15">
         <f>((C3/2)+6)</f>
         <v>8</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M18" si="5">((C3/4)+10)</f>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P18" si="5">((C3/4)+10)</f>
         <v>11</v>
       </c>
-      <c r="N3" s="16">
-        <f t="shared" ref="N3:N18" si="6">M3+1</f>
+      <c r="Q3" s="16">
+        <f t="shared" ref="Q3:Q18" si="6">P3+1</f>
         <v>12</v>
       </c>
-      <c r="P3" s="22">
+      <c r="S3" s="22">
         <v>8</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="T3" s="1">
         <f>(B3*2)+8</f>
         <v>10</v>
       </c>
-      <c r="R3" s="16">
-        <f t="shared" ref="R3:R18" si="7">Q3+1</f>
+      <c r="U3" s="16">
+        <f t="shared" ref="U3:U18" si="7">T3+1</f>
         <v>11</v>
       </c>
-      <c r="T3" s="6">
+      <c r="W3" s="6">
         <v>0</v>
       </c>
-      <c r="U3" s="1">
-        <f>T3+P3+1</f>
+      <c r="X3" s="1">
+        <f>W3+S3+1</f>
         <v>9</v>
       </c>
-      <c r="V3" s="1">
-        <f t="shared" ref="V3:V14" si="8">U3+L3+1</f>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y14" si="8">X3+O3+1</f>
         <v>18</v>
       </c>
-      <c r="W3" s="1">
-        <f t="shared" ref="W3:W14" si="9">V3+G3+1</f>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z14" si="9">Y3+J3+1</f>
         <v>24</v>
       </c>
-      <c r="X3" s="1">
-        <f t="shared" ref="X3:X14" si="10">W3+L3+1</f>
+      <c r="AA3" s="1">
+        <f t="shared" ref="AA3:AA14" si="10">Z3+O3+1</f>
         <v>33</v>
       </c>
-      <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y14" si="11">X3+P3+1</f>
+      <c r="AB3" s="1">
+        <f t="shared" ref="AB3:AB14" si="11">AA3+S3+1</f>
         <v>42</v>
       </c>
-      <c r="Z3" s="1">
-        <f t="shared" ref="Z3:Z14" si="12">Y3+L3+1</f>
+      <c r="AC3" s="1">
+        <f t="shared" ref="AC3:AC14" si="12">AB3+O3+1</f>
         <v>51</v>
       </c>
-      <c r="AA3" s="8">
-        <f t="shared" ref="AA3:AA14" si="13">Z3+G3+1</f>
+      <c r="AD3" s="8">
+        <f t="shared" ref="AD3:AD14" si="13">AC3+J3+1</f>
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>0.15</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="50">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="50">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="46">
         <v>11</v>
       </c>
-      <c r="F4" s="9">
+      <c r="E4" s="46">
+        <v>34</v>
+      </c>
+      <c r="F4" s="51">
+        <f>ROUND(E4*10/30.48, 1)</f>
+        <v>11.2</v>
+      </c>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G4" s="17">
+      <c r="J4" s="17">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>12</v>
       </c>
-      <c r="I4" s="18">
+      <c r="L4" s="18">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K4" s="9">
+      <c r="N4" s="9">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="L4" s="17">
-        <f t="shared" ref="L4:L18" si="14">((C4/2)+6)</f>
+      <c r="O4" s="17">
+        <f t="shared" ref="O4:O18" si="14">((C4/2)+6)</f>
         <v>10</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="N4" s="18">
+      <c r="Q4" s="18">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="P4" s="23">
+      <c r="S4" s="23">
         <v>8</v>
       </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q14" si="15">(C4/2)+8</f>
+      <c r="T4">
+        <f t="shared" ref="T4:T14" si="15">(C4/2)+8</f>
         <v>12</v>
       </c>
-      <c r="R4" s="18">
+      <c r="U4" s="18">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="T4" s="9">
+      <c r="W4" s="9">
         <v>0</v>
       </c>
-      <c r="U4">
-        <f>T4+P4+1</f>
+      <c r="X4">
+        <f>W4+S4+1</f>
         <v>9</v>
       </c>
-      <c r="V4">
+      <c r="Y4">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="Y4">
+      <c r="AB4">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z4">
+      <c r="AC4">
         <f t="shared" si="12"/>
         <v>61</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AD4" s="11">
         <f t="shared" si="13"/>
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0.2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="52">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="52">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="47">
         <v>16.5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E5" s="47">
+        <v>50</v>
+      </c>
+      <c r="F5" s="8">
+        <f>ROUND(E5*10/30.48, 1)</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G5" s="15">
+      <c r="J5" s="15">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <v>12</v>
       </c>
-      <c r="I5" s="16">
+      <c r="L5" s="16">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K5" s="6">
+      <c r="N5" s="6">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="L5" s="15">
+      <c r="O5" s="15">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="M5" s="1">
+      <c r="P5" s="1">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="N5" s="16">
+      <c r="Q5" s="16">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="P5" s="22">
+      <c r="S5" s="22">
         <v>8</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="T5" s="1">
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-      <c r="R5" s="16">
+      <c r="U5" s="16">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="T5" s="6">
+      <c r="W5" s="6">
         <v>0</v>
       </c>
-      <c r="U5" s="1">
-        <f>T5+P5+1</f>
+      <c r="X5" s="1">
+        <f>W5+S5+1</f>
         <v>9</v>
       </c>
-      <c r="V5" s="1">
+      <c r="Y5" s="1">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Z5" s="1">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="X5" s="1">
+      <c r="AA5" s="1">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AB5" s="1">
         <f t="shared" si="11"/>
         <v>58</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AC5" s="1">
         <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AD5" s="8">
         <f t="shared" si="13"/>
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>0.25</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="50">
         <v>4</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="50">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D6" s="11">
-        <v>22</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="46">
+        <v>21.7</v>
+      </c>
+      <c r="E6" s="46">
         <v>66</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="51">
+        <f>ROUND(E6*10/30.48, 1)</f>
+        <v>21.7</v>
+      </c>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G6" s="17">
+      <c r="J6" s="17">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>12</v>
       </c>
-      <c r="I6" s="18">
+      <c r="L6" s="18">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K6" s="9">
+      <c r="N6" s="9">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="L6" s="17">
+      <c r="O6" s="17">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="N6" s="18">
+      <c r="Q6" s="18">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="P6" s="23">
+      <c r="S6" s="23">
         <v>8</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="R6" s="18">
+      <c r="U6" s="18">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="T6" s="9">
+      <c r="W6" s="9">
         <v>0</v>
       </c>
-      <c r="U6">
-        <f>T6+P6+1</f>
+      <c r="X6">
+        <f>W6+S6+1</f>
         <v>9</v>
       </c>
-      <c r="V6">
+      <c r="Y6">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="W6">
+      <c r="Z6">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="X6">
+      <c r="AA6">
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
-      <c r="Y6">
+      <c r="AB6">
         <f t="shared" si="11"/>
         <v>66</v>
       </c>
-      <c r="Z6">
+      <c r="AC6">
         <f t="shared" si="12"/>
         <v>81</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AD6" s="11">
         <f t="shared" si="13"/>
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0.35</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="52">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="52">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D7" s="8">
-        <v>27.5</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="47">
+        <v>27</v>
+      </c>
+      <c r="E7" s="47">
         <v>82</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
+        <f>ROUND(E7*10/30.48, 1)</f>
+        <v>26.9</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G7" s="15">
+      <c r="J7" s="15">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7" s="1">
         <v>12</v>
       </c>
-      <c r="I7" s="16">
+      <c r="L7" s="16">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K7" s="6">
+      <c r="N7" s="6">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="L7" s="15">
+      <c r="O7" s="15">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="M7" s="1">
+      <c r="P7" s="1">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="N7" s="16">
+      <c r="Q7" s="16">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="P7" s="22">
+      <c r="S7" s="22">
         <v>8</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="T7" s="1">
         <f t="shared" si="15"/>
         <v>18</v>
       </c>
-      <c r="R7" s="16">
+      <c r="U7" s="16">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="T7" s="6">
+      <c r="W7" s="6">
         <v>0</v>
       </c>
-      <c r="U7" s="1">
-        <f>T7+P7+1</f>
+      <c r="X7" s="1">
+        <f>W7+S7+1</f>
         <v>9</v>
       </c>
-      <c r="V7" s="1">
+      <c r="Y7" s="1">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="W7" s="1">
+      <c r="Z7" s="1">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="X7" s="1">
+      <c r="AA7" s="1">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AB7" s="1">
         <f t="shared" si="11"/>
         <v>74</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AC7" s="1">
         <f t="shared" si="12"/>
         <v>91</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AD7" s="8">
         <f t="shared" si="13"/>
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>0.4</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="50">
         <v>6</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="50">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D8" s="11">
-        <v>33</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="46">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E8" s="46">
         <v>98</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="51">
+        <f>ROUND(E8*10/30.48, 1)</f>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="9">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G8" s="17">
+      <c r="J8" s="17">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>12</v>
       </c>
-      <c r="I8" s="18">
+      <c r="L8" s="18">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K8" s="9">
+      <c r="N8" s="9">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="L8" s="17">
+      <c r="O8" s="17">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="N8" s="18">
+      <c r="Q8" s="18">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="P8" s="23">
+      <c r="S8" s="23">
         <v>8</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="R8" s="18">
+      <c r="U8" s="18">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="T8" s="9">
+      <c r="W8" s="9">
         <v>0</v>
       </c>
-      <c r="U8">
-        <f t="shared" ref="U8:U14" si="16">T8+P8+1</f>
+      <c r="X8">
+        <f t="shared" ref="X8:X14" si="16">W8+S8+1</f>
         <v>9</v>
       </c>
-      <c r="V8">
+      <c r="Y8">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
         <f t="shared" si="9"/>
         <v>54</v>
       </c>
-      <c r="X8">
+      <c r="AA8">
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="Y8">
+      <c r="AB8">
         <f t="shared" si="11"/>
         <v>82</v>
       </c>
-      <c r="Z8">
+      <c r="AC8">
         <f t="shared" si="12"/>
         <v>101</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AD8" s="11">
         <f t="shared" si="13"/>
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>0.45</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="52">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="52">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D9" s="8">
-        <v>38.5</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="47">
+        <v>37.4</v>
+      </c>
+      <c r="E9" s="47">
         <v>114</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
+        <f>ROUND(E9*10/30.48, 1)</f>
+        <v>37.4</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="G9" s="15">
+      <c r="J9" s="15">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9" s="1">
         <v>12</v>
       </c>
-      <c r="I9" s="16">
+      <c r="L9" s="16">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K9" s="6">
+      <c r="N9" s="6">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="L9" s="15">
+      <c r="O9" s="15">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="M9" s="1">
+      <c r="P9" s="1">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="N9" s="16">
+      <c r="Q9" s="16">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="P9" s="22">
+      <c r="S9" s="22">
         <v>8</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="T9" s="1">
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
-      <c r="R9" s="16">
+      <c r="U9" s="16">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="T9" s="6">
+      <c r="W9" s="6">
         <v>0</v>
       </c>
-      <c r="U9" s="1">
+      <c r="X9" s="1">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="V9" s="1">
+      <c r="Y9" s="1">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="W9" s="1">
+      <c r="Z9" s="1">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="X9" s="1">
+      <c r="AA9" s="1">
         <f t="shared" si="10"/>
         <v>81</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AB9" s="1">
         <f t="shared" si="11"/>
         <v>90</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AC9" s="1">
         <f t="shared" si="12"/>
         <v>111</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AD9" s="8">
         <f t="shared" si="13"/>
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>0.5</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="50">
         <v>8</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="50">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D10" s="11">
-        <v>44</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="46">
+        <v>43.3</v>
+      </c>
+      <c r="E10" s="46">
         <v>132</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="51">
+        <f>ROUND(E10*10/30.48, 1)</f>
+        <v>43.3</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="G10" s="17">
+      <c r="J10" s="17">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>12</v>
       </c>
-      <c r="I10" s="18">
+      <c r="L10" s="18">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K10" s="9">
+      <c r="N10" s="9">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="L10" s="17">
+      <c r="O10" s="17">
         <f t="shared" si="14"/>
         <v>22</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="N10" s="18">
+      <c r="Q10" s="18">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="P10" s="23">
+      <c r="S10" s="23">
         <v>8</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <f t="shared" si="15"/>
         <v>24</v>
       </c>
-      <c r="R10" s="18">
+      <c r="U10" s="18">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="T10" s="9">
+      <c r="W10" s="9">
         <v>0</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="V10">
+      <c r="Y10">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="W10">
+      <c r="Z10">
         <f t="shared" si="9"/>
         <v>66</v>
       </c>
-      <c r="X10">
+      <c r="AA10">
         <f t="shared" si="10"/>
         <v>89</v>
       </c>
-      <c r="Y10">
+      <c r="AB10">
         <f t="shared" si="11"/>
         <v>98</v>
       </c>
-      <c r="Z10">
+      <c r="AC10">
         <f t="shared" si="12"/>
         <v>121</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AD10" s="11">
         <f t="shared" si="13"/>
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="7">
+      <c r="B11" s="52">
         <v>9</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="52">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D11" s="8">
-        <v>49.5</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="47">
+        <v>48.5</v>
+      </c>
+      <c r="E11" s="47">
         <v>148</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
+        <f>ROUND(E11*10/30.48, 1)</f>
+        <v>48.6</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="G11" s="15">
+      <c r="J11" s="15">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11" s="1">
         <v>12</v>
       </c>
-      <c r="I11" s="16">
+      <c r="L11" s="16">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="6">
+      <c r="M11" s="1"/>
+      <c r="N11" s="6">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="L11" s="15">
+      <c r="O11" s="15">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
-      <c r="M11" s="1">
+      <c r="P11" s="1">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="N11" s="16">
+      <c r="Q11" s="16">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="22">
+      <c r="R11" s="1"/>
+      <c r="S11" s="22">
         <v>9</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="T11" s="1">
         <f t="shared" si="15"/>
         <v>26</v>
       </c>
-      <c r="R11" s="16">
+      <c r="U11" s="16">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="6">
+      <c r="V11" s="1"/>
+      <c r="W11" s="6">
         <v>0</v>
       </c>
-      <c r="U11" s="1">
+      <c r="X11" s="1">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="V11" s="1">
+      <c r="Y11" s="1">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="W11" s="1">
+      <c r="Z11" s="1">
         <f t="shared" si="9"/>
         <v>73</v>
       </c>
-      <c r="X11" s="1">
+      <c r="AA11" s="1">
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AB11" s="1">
         <f t="shared" si="11"/>
         <v>108</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AC11" s="1">
         <f t="shared" si="12"/>
         <v>133</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AD11" s="8">
         <f t="shared" si="13"/>
         <v>171</v>
       </c>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="10">
+      <c r="B12" s="50">
         <v>10</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="50">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D12" s="11">
-        <v>55</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="46">
+        <v>53.8</v>
+      </c>
+      <c r="E12" s="46">
         <v>164</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="51">
+        <f>ROUND(E12*10/30.48, 1)</f>
+        <v>53.8</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="G12" s="17">
+      <c r="J12" s="17">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>12</v>
       </c>
-      <c r="I12" s="18">
+      <c r="L12" s="18">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K12" s="9">
+      <c r="N12" s="9">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="L12" s="17">
+      <c r="O12" s="17">
         <f t="shared" si="14"/>
         <v>26</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="N12" s="18">
+      <c r="Q12" s="18">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="P12" s="23">
+      <c r="S12" s="23">
         <v>10</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <f t="shared" si="15"/>
         <v>28</v>
       </c>
-      <c r="R12" s="18">
+      <c r="U12" s="18">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="T12" s="9">
+      <c r="W12" s="9">
         <v>0</v>
       </c>
-      <c r="U12">
+      <c r="X12">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="V12">
+      <c r="Y12">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="W12">
+      <c r="Z12">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="X12">
+      <c r="AA12">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
-      <c r="Y12">
+      <c r="AB12">
         <f t="shared" si="11"/>
         <v>118</v>
       </c>
-      <c r="Z12">
+      <c r="AC12">
         <f t="shared" si="12"/>
         <v>145</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AD12" s="11">
         <f t="shared" si="13"/>
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="7">
+      <c r="B13" s="52">
         <v>11</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="52">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D13" s="8">
-        <v>60.5</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="47">
+        <v>59.1</v>
+      </c>
+      <c r="E13" s="47">
         <v>180</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="8">
+        <f>ROUND(E13*10/30.48, 1)</f>
+        <v>59.1</v>
+      </c>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="6">
         <f>C13</f>
         <v>44</v>
       </c>
-      <c r="G13" s="15">
+      <c r="J13" s="15">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13" s="1">
         <v>12</v>
       </c>
-      <c r="I13" s="16">
+      <c r="L13" s="16">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="6">
+      <c r="M13" s="1"/>
+      <c r="N13" s="6">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="L13" s="15">
+      <c r="O13" s="15">
         <f t="shared" si="14"/>
         <v>28</v>
       </c>
-      <c r="M13" s="1">
+      <c r="P13" s="1">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="N13" s="16">
+      <c r="Q13" s="16">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="22">
+      <c r="R13" s="1"/>
+      <c r="S13" s="22">
         <v>11</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="T13" s="1">
         <f t="shared" si="15"/>
         <v>30</v>
       </c>
-      <c r="R13" s="16">
+      <c r="U13" s="16">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="6">
+      <c r="V13" s="1"/>
+      <c r="W13" s="6">
         <v>0</v>
       </c>
-      <c r="U13" s="1">
+      <c r="X13" s="1">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="V13" s="1">
+      <c r="Y13" s="1">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="W13" s="1">
+      <c r="Z13" s="1">
         <f t="shared" si="9"/>
         <v>87</v>
       </c>
-      <c r="X13" s="1">
+      <c r="AA13" s="1">
         <f t="shared" si="10"/>
         <v>116</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AB13" s="1">
         <f t="shared" si="11"/>
         <v>128</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AC13" s="1">
         <f t="shared" si="12"/>
         <v>157</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AD13" s="8">
         <f t="shared" si="13"/>
         <v>203</v>
       </c>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>0.8</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="50">
         <v>12</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="D14" s="11">
-        <v>66</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="46">
+        <v>65</v>
+      </c>
+      <c r="E14" s="46">
         <v>198</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="51">
+        <f>ROUND(E14*10/30.48, 1)</f>
+        <v>65</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="9">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G14" s="17">
+      <c r="J14" s="17">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>12</v>
       </c>
-      <c r="I14" s="18">
+      <c r="L14" s="18">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K14" s="9">
+      <c r="N14" s="9">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="L14" s="17">
+      <c r="O14" s="17">
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="N14" s="18">
+      <c r="Q14" s="18">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="P14" s="23">
+      <c r="S14" s="23">
         <v>12</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <f t="shared" si="15"/>
         <v>32</v>
       </c>
-      <c r="R14" s="18">
+      <c r="U14" s="18">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="T14" s="9">
+      <c r="W14" s="9">
         <v>0</v>
       </c>
-      <c r="U14">
+      <c r="X14">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="V14">
+      <c r="Y14">
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="W14">
+      <c r="Z14">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="X14">
+      <c r="AA14">
         <f t="shared" si="10"/>
         <v>125</v>
       </c>
-      <c r="Y14">
+      <c r="AB14">
         <f t="shared" si="11"/>
         <v>138</v>
       </c>
-      <c r="Z14">
+      <c r="AC14">
         <f t="shared" si="12"/>
         <v>169</v>
       </c>
-      <c r="AA14" s="11">
+      <c r="AD14" s="11">
         <f t="shared" si="13"/>
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="7">
+      <c r="B15" s="52">
         <v>13</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="52">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D15" s="8">
-        <v>71.5</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="47">
+        <v>70.2</v>
+      </c>
+      <c r="E15" s="47">
         <v>214</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
+        <f>ROUND(E15*10/30.48, 1)</f>
+        <v>70.2</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="6">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="G15" s="15">
+      <c r="J15" s="15">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="H15" s="1">
+      <c r="K15" s="1">
         <v>12</v>
       </c>
-      <c r="I15" s="16">
+      <c r="L15" s="16">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="6">
+      <c r="M15" s="1"/>
+      <c r="N15" s="6">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="L15" s="15">
+      <c r="O15" s="15">
         <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="M15" s="1">
+      <c r="P15" s="1">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="N15" s="16">
+      <c r="Q15" s="16">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="22">
+      <c r="R15" s="1"/>
+      <c r="S15" s="22">
         <v>13</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="T15" s="1">
         <f>(B15*2)+8</f>
         <v>34</v>
       </c>
-      <c r="R15" s="16">
+      <c r="U15" s="16">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="6">
+      <c r="V15" s="1"/>
+      <c r="W15" s="6">
         <v>0</v>
       </c>
-      <c r="U15" s="1">
-        <f>T15+P15+1</f>
+      <c r="X15" s="1">
+        <f>W15+S15+1</f>
         <v>14</v>
       </c>
-      <c r="V15" s="1">
-        <f>U15+L15+1</f>
+      <c r="Y15" s="1">
+        <f>X15+O15+1</f>
         <v>47</v>
       </c>
-      <c r="W15" s="1">
-        <f>V15+G15+1</f>
+      <c r="Z15" s="1">
+        <f>Y15+J15+1</f>
         <v>101</v>
       </c>
-      <c r="X15" s="1">
-        <f>W15+L15+1</f>
+      <c r="AA15" s="1">
+        <f>Z15+O15+1</f>
         <v>134</v>
       </c>
-      <c r="Y15" s="1">
-        <f>X15+P15+1</f>
+      <c r="AB15" s="1">
+        <f>AA15+S15+1</f>
         <v>148</v>
       </c>
-      <c r="Z15" s="1">
-        <f>Y15+L15+1</f>
+      <c r="AC15" s="1">
+        <f>AB15+O15+1</f>
         <v>181</v>
       </c>
-      <c r="AA15" s="8">
-        <f>Z15+G15+1</f>
+      <c r="AD15" s="8">
+        <f>AC15+J15+1</f>
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="10">
+      <c r="B16" s="50">
         <v>14</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="50">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D16" s="11">
-        <v>77</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="46">
+        <v>75.5</v>
+      </c>
+      <c r="E16" s="46">
         <v>230</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="51">
+        <f>ROUND(E16*10/30.48, 1)</f>
+        <v>75.5</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="9">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="G16" s="17">
+      <c r="J16" s="17">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>12</v>
       </c>
-      <c r="I16" s="18">
+      <c r="L16" s="18">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K16" s="9">
+      <c r="N16" s="9">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="L16" s="17">
+      <c r="O16" s="17">
         <f t="shared" si="14"/>
         <v>34</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="N16" s="18">
+      <c r="Q16" s="18">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="P16" s="23">
+      <c r="S16" s="23">
         <v>14</v>
       </c>
-      <c r="Q16">
+      <c r="T16">
         <f>(C16/2)+8</f>
         <v>36</v>
       </c>
-      <c r="R16" s="18">
+      <c r="U16" s="18">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="T16" s="9">
+      <c r="W16" s="9">
         <v>0</v>
       </c>
-      <c r="U16">
-        <f>T16+P16+1</f>
+      <c r="X16">
+        <f>W16+S16+1</f>
         <v>15</v>
       </c>
-      <c r="V16">
-        <f>U16+L16+1</f>
+      <c r="Y16">
+        <f>X16+O16+1</f>
         <v>50</v>
       </c>
-      <c r="W16">
-        <f>V16+G16+1</f>
+      <c r="Z16">
+        <f>Y16+J16+1</f>
         <v>108</v>
       </c>
-      <c r="X16">
-        <f>W16+L16+1</f>
+      <c r="AA16">
+        <f>Z16+O16+1</f>
         <v>143</v>
       </c>
-      <c r="Y16">
-        <f>X16+P16+1</f>
+      <c r="AB16">
+        <f>AA16+S16+1</f>
         <v>158</v>
       </c>
-      <c r="Z16">
-        <f>Y16+L16+1</f>
+      <c r="AC16">
+        <f>AB16+O16+1</f>
         <v>193</v>
       </c>
-      <c r="AA16" s="11">
-        <f>Z16+G16+1</f>
+      <c r="AD16" s="11">
+        <f>AC16+J16+1</f>
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="7">
+      <c r="B17" s="52">
         <v>15</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="52">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D17" s="8">
-        <v>82.5</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="47">
+        <v>80.7</v>
+      </c>
+      <c r="E17" s="47">
         <v>246</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="8">
+        <f>ROUND(E17*10/30.48, 1)</f>
+        <v>80.7</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="6">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G17" s="15">
+      <c r="J17" s="15">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="H17" s="1">
+      <c r="K17" s="1">
         <v>12</v>
       </c>
-      <c r="I17" s="16">
+      <c r="L17" s="16">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="6">
+      <c r="M17" s="1"/>
+      <c r="N17" s="6">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="L17" s="15">
+      <c r="O17" s="15">
         <f t="shared" si="14"/>
         <v>36</v>
       </c>
-      <c r="M17" s="1">
+      <c r="P17" s="1">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="N17" s="16">
+      <c r="Q17" s="16">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="22">
+      <c r="R17" s="1"/>
+      <c r="S17" s="22">
         <v>15</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="T17" s="1">
         <f>(C17/2)+8</f>
         <v>38</v>
       </c>
-      <c r="R17" s="16">
+      <c r="U17" s="16">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="6">
+      <c r="V17" s="1"/>
+      <c r="W17" s="6">
         <v>0</v>
       </c>
-      <c r="U17" s="1">
-        <f>T17+P17+1</f>
+      <c r="X17" s="1">
+        <f>W17+S17+1</f>
         <v>16</v>
       </c>
-      <c r="V17" s="1">
-        <f>U17+L17+1</f>
+      <c r="Y17" s="1">
+        <f>X17+O17+1</f>
         <v>53</v>
       </c>
-      <c r="W17" s="1">
-        <f>V17+G17+1</f>
+      <c r="Z17" s="1">
+        <f>Y17+J17+1</f>
         <v>115</v>
       </c>
-      <c r="X17" s="1">
-        <f>W17+L17+1</f>
+      <c r="AA17" s="1">
+        <f>Z17+O17+1</f>
         <v>152</v>
       </c>
-      <c r="Y17" s="1">
-        <f>X17+P17+1</f>
+      <c r="AB17" s="1">
+        <f>AA17+S17+1</f>
         <v>168</v>
       </c>
-      <c r="Z17" s="1">
-        <f>Y17+L17+1</f>
+      <c r="AC17" s="1">
+        <f>AB17+O17+1</f>
         <v>205</v>
       </c>
-      <c r="AA17" s="8">
-        <f>Z17+G17+1</f>
+      <c r="AD17" s="8">
+        <f>AC17+J17+1</f>
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="13">
         <v>16</v>
@@ -2983,2095 +3108,2116 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D18" s="14">
-        <v>88</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="20">
+        <v>83.7</v>
+      </c>
+      <c r="E18" s="20">
         <v>255</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="53">
+        <f>ROUND(E18*10/30.48, 1)</f>
+        <v>83.7</v>
+      </c>
+      <c r="I18" s="12">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="G18" s="19">
+      <c r="J18" s="19">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="H18" s="20">
+      <c r="K18" s="20">
         <v>12</v>
       </c>
-      <c r="I18" s="21">
+      <c r="L18" s="21">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K18" s="12">
+      <c r="N18" s="12">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="L18" s="19">
+      <c r="O18" s="19">
         <f t="shared" si="14"/>
         <v>38</v>
       </c>
-      <c r="M18" s="20">
+      <c r="P18" s="20">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="N18" s="21">
+      <c r="Q18" s="21">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="P18" s="24">
+      <c r="S18" s="24">
         <v>16</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="T18" s="20">
         <f>(C18/2)+8</f>
         <v>40</v>
       </c>
-      <c r="R18" s="21">
+      <c r="U18" s="21">
         <f t="shared" si="7"/>
         <v>41</v>
       </c>
-      <c r="T18" s="12">
+      <c r="W18" s="12">
         <v>0</v>
       </c>
-      <c r="U18" s="20">
-        <f>T18+P18+1</f>
+      <c r="X18" s="20">
+        <f>W18+S18+1</f>
         <v>17</v>
       </c>
-      <c r="V18" s="20">
-        <f>U18+L18+1</f>
+      <c r="Y18" s="20">
+        <f>X18+O18+1</f>
         <v>56</v>
       </c>
-      <c r="W18" s="20">
-        <f>V18+G18+1</f>
+      <c r="Z18" s="20">
+        <f>Y18+J18+1</f>
         <v>122</v>
       </c>
-      <c r="X18" s="20">
-        <f>W18+L18+1</f>
+      <c r="AA18" s="20">
+        <f>Z18+O18+1</f>
         <v>161</v>
       </c>
-      <c r="Y18" s="20">
-        <f>X18+P18+1</f>
+      <c r="AB18" s="20">
+        <f>AA18+S18+1</f>
         <v>178</v>
       </c>
-      <c r="Z18" s="20">
-        <f>Y18+L18+1</f>
+      <c r="AC18" s="20">
+        <f>AB18+O18+1</f>
         <v>217</v>
       </c>
-      <c r="AA18" s="14">
-        <f>Z18+G18+1</f>
+      <c r="AD18" s="14">
+        <f>AC18+J18+1</f>
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="O20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O20" t="s">
+      <c r="R20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="28">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="28">
         <v>1</v>
       </c>
-      <c r="C21" s="7">
-        <f t="shared" ref="C21:C36" si="17">32/(8/B21)</f>
+      <c r="F21" s="7">
+        <f t="shared" ref="F21:F36" si="17">32/(8/E21)</f>
         <v>4</v>
       </c>
-      <c r="D21" s="7" t="str">
-        <f t="shared" ref="D21:D32" si="18">_xlfn.CONCAT(T3, ": ", $P3," x ", $R3)</f>
+      <c r="G21" s="7" t="str">
+        <f>_xlfn.CONCAT(W3, ": ", $S3," x ", $U3)</f>
         <v>0: 8 x 11</v>
       </c>
-      <c r="E21" s="7" t="str">
-        <f t="shared" ref="E21:E36" si="19">_xlfn.CONCAT(U3, ": ", $L3," x ", $N3)</f>
+      <c r="H21" s="7" t="str">
+        <f>_xlfn.CONCAT(X3, ": ", $O3," x ", $Q3)</f>
         <v>9: 8 x 12</v>
       </c>
-      <c r="F21" s="7" t="str">
-        <f t="shared" ref="F21:F36" si="20">_xlfn.CONCAT(V3, ": ", $G3," x ", $I3)</f>
+      <c r="I21" s="7" t="str">
+        <f t="shared" ref="I21:I36" si="18">_xlfn.CONCAT(Y3, ": ", $J3," x ", $L3)</f>
         <v>18: 5 x 13</v>
       </c>
-      <c r="G21" s="7" t="str">
-        <f t="shared" ref="G21:G36" si="21">_xlfn.CONCAT(W3, ": ", $L3," x ", $N3)</f>
+      <c r="J21" s="7" t="str">
+        <f t="shared" ref="J21:J36" si="19">_xlfn.CONCAT(Z3, ": ", $O3," x ", $Q3)</f>
         <v>24: 8 x 12</v>
       </c>
-      <c r="H21" s="7" t="str">
-        <f t="shared" ref="H21:H36" si="22">_xlfn.CONCAT(X3, ": ", $P3," x ", $R3)</f>
+      <c r="K21" s="7" t="str">
+        <f t="shared" ref="K21:K36" si="20">_xlfn.CONCAT(AA3, ": ", $S3," x ", $U3)</f>
         <v>33: 8 x 11</v>
       </c>
-      <c r="I21" s="7" t="str">
-        <f t="shared" ref="I21:I36" si="23">_xlfn.CONCAT(Y3, ": ", $L3," x ", $N3)</f>
+      <c r="L21" s="7" t="str">
+        <f t="shared" ref="L21:L36" si="21">_xlfn.CONCAT(AB3, ": ", $O3," x ", $Q3)</f>
         <v>42: 8 x 12</v>
       </c>
-      <c r="J21" s="7" t="str">
-        <f t="shared" ref="J21:J36" si="24">_xlfn.CONCAT(Z3, ": ", $G3," x ", $I3)</f>
+      <c r="M21" s="7" t="str">
+        <f t="shared" ref="M21:M36" si="22">_xlfn.CONCAT(AC3, ": ", $J3," x ", $L3)</f>
         <v>51: 5 x 13</v>
       </c>
-      <c r="K21" s="7" t="str">
-        <f t="shared" ref="K21:K36" si="25">_xlfn.CONCAT(AA3, ": ", $L3," x ", $N3)</f>
+      <c r="N21" s="7" t="str">
+        <f t="shared" ref="N21:N36" si="23">_xlfn.CONCAT(AD3, ": ", $O3," x ", $Q3)</f>
         <v>57: 8 x 12</v>
       </c>
-      <c r="L21" s="8">
-        <f t="shared" ref="L21:L36" si="26">R3+1</f>
+      <c r="O21" s="8">
+        <f t="shared" ref="O21:O36" si="24">U3+1</f>
         <v>12</v>
       </c>
-      <c r="O21" s="1">
+      <c r="R21" s="1">
         <v>13</v>
       </c>
-      <c r="P21" s="1">
-        <f t="shared" ref="P21:AA21" si="27">O21+$L21</f>
+      <c r="S21" s="1">
+        <f t="shared" ref="S21:AD21" si="25">R21+$O21</f>
         <v>25</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="T21" s="1">
+        <f t="shared" si="25"/>
+        <v>37</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="25"/>
+        <v>61</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="25"/>
+        <v>73</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="25"/>
+        <v>85</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="25"/>
+        <v>97</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="25"/>
+        <v>109</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="25"/>
+        <v>121</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="25"/>
+        <v>133</v>
+      </c>
+      <c r="AC21" s="1">
+        <f t="shared" si="25"/>
+        <v>145</v>
+      </c>
+      <c r="AD21" s="1">
+        <f t="shared" si="25"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>D3/C3</f>
+        <v>1.375</v>
+      </c>
+      <c r="C22">
+        <f>F3/E3</f>
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="E22" s="29">
+        <v>2</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="G22" s="10" t="str">
+        <f>_xlfn.CONCAT(W4, ": ", $S4," x ", $U4)</f>
+        <v>0: 8 x 13</v>
+      </c>
+      <c r="H22" s="10" t="str">
+        <f>_xlfn.CONCAT(X4, ": ", $O4," x ", $Q4)</f>
+        <v>9: 10 x 13</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>20: 9 x 13</v>
+      </c>
+      <c r="J22" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>30: 10 x 13</v>
+      </c>
+      <c r="K22" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>41: 8 x 13</v>
+      </c>
+      <c r="L22" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>50: 10 x 13</v>
+      </c>
+      <c r="M22" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>61: 9 x 13</v>
+      </c>
+      <c r="N22" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>71: 10 x 13</v>
+      </c>
+      <c r="O22" s="11">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>13</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22:AD22" si="26">R22+$O22</f>
+        <v>27</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="26"/>
+        <v>41</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="26"/>
+        <v>55</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="26"/>
+        <v>69</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="26"/>
+        <v>83</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="26"/>
+        <v>97</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="26"/>
+        <v>111</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="26"/>
+        <v>125</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="26"/>
+        <v>139</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="26"/>
+        <v>153</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="26"/>
+        <v>167</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="26"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E23" s="28">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="str">
+        <f>_xlfn.CONCAT(W5, ": ", $S5," x ", $U5)</f>
+        <v>0: 8 x 15</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f>_xlfn.CONCAT(X5, ": ", $O5," x ", $Q5)</f>
+        <v>9: 12 x 14</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>22: 13 x 13</v>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>36: 12 x 14</v>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>49: 8 x 15</v>
+      </c>
+      <c r="L23" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>58: 12 x 14</v>
+      </c>
+      <c r="M23" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>71: 13 x 13</v>
+      </c>
+      <c r="N23" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>85: 12 x 14</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="R23" s="1">
+        <v>13</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" ref="S23:AD23" si="27">R23+$O23</f>
+        <v>29</v>
+      </c>
+      <c r="T23" s="1">
         <f t="shared" si="27"/>
-        <v>37</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="27"/>
-        <v>49</v>
-      </c>
-      <c r="S21" s="1">
+        <v>45</v>
+      </c>
+      <c r="U23" s="1">
         <f t="shared" si="27"/>
         <v>61</v>
       </c>
-      <c r="T21" s="1">
+      <c r="V23" s="1">
         <f t="shared" si="27"/>
-        <v>73</v>
-      </c>
-      <c r="U21" s="1">
+        <v>77</v>
+      </c>
+      <c r="W23" s="1">
         <f t="shared" si="27"/>
-        <v>85</v>
-      </c>
-      <c r="V21" s="1">
-        <f t="shared" si="27"/>
-        <v>97</v>
-      </c>
-      <c r="W21" s="1">
+        <v>93</v>
+      </c>
+      <c r="X23" s="1">
         <f t="shared" si="27"/>
         <v>109</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y23" s="1">
         <f t="shared" si="27"/>
-        <v>121</v>
-      </c>
-      <c r="Y21" s="1">
+        <v>125</v>
+      </c>
+      <c r="Z23" s="1">
         <f t="shared" si="27"/>
-        <v>133</v>
-      </c>
-      <c r="Z21" s="1">
-        <f t="shared" si="27"/>
-        <v>145</v>
-      </c>
-      <c r="AA21" s="1">
+        <v>141</v>
+      </c>
+      <c r="AA23" s="1">
         <f t="shared" si="27"/>
         <v>157</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="29">
-        <v>2</v>
-      </c>
-      <c r="C22" s="10">
+      <c r="AB23" s="1">
+        <f t="shared" si="27"/>
+        <v>173</v>
+      </c>
+      <c r="AC23" s="1">
+        <f t="shared" si="27"/>
+        <v>189</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" si="27"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E24" s="29">
+        <v>4</v>
+      </c>
+      <c r="F24" s="10">
         <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
-      <c r="D22" s="10" t="str">
+        <v>16</v>
+      </c>
+      <c r="G24" s="10" t="str">
+        <f>_xlfn.CONCAT(W6, ": ", $S6," x ", $U6)</f>
+        <v>0: 8 x 17</v>
+      </c>
+      <c r="H24" s="10" t="str">
+        <f>_xlfn.CONCAT(X6, ": ", $O6," x ", $Q6)</f>
+        <v>9: 14 x 15</v>
+      </c>
+      <c r="I24" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>0: 8 x 13</v>
-      </c>
-      <c r="E22" s="10" t="str">
+        <v>24: 17 x 13</v>
+      </c>
+      <c r="J24" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>9: 10 x 13</v>
-      </c>
-      <c r="F22" s="10" t="str">
+        <v>42: 14 x 15</v>
+      </c>
+      <c r="K24" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>20: 9 x 13</v>
-      </c>
-      <c r="G22" s="10" t="str">
+        <v>57: 8 x 17</v>
+      </c>
+      <c r="L24" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>30: 10 x 13</v>
-      </c>
-      <c r="H22" s="10" t="str">
+        <v>66: 14 x 15</v>
+      </c>
+      <c r="M24" s="10" t="str">
         <f t="shared" si="22"/>
-        <v>41: 8 x 13</v>
-      </c>
-      <c r="I22" s="10" t="str">
+        <v>81: 17 x 13</v>
+      </c>
+      <c r="N24" s="10" t="str">
         <f t="shared" si="23"/>
-        <v>50: 10 x 13</v>
-      </c>
-      <c r="J22" s="10" t="str">
+        <v>99: 14 x 15</v>
+      </c>
+      <c r="O24" s="11">
         <f t="shared" si="24"/>
-        <v>61: 9 x 13</v>
-      </c>
-      <c r="K22" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v>71: 10 x 13</v>
-      </c>
-      <c r="L22" s="11">
-        <f t="shared" si="26"/>
-        <v>14</v>
-      </c>
-      <c r="O22">
+        <v>18</v>
+      </c>
+      <c r="R24">
         <v>13</v>
       </c>
-      <c r="P22">
-        <f t="shared" ref="P22:AA22" si="28">O22+$L22</f>
-        <v>27</v>
-      </c>
-      <c r="Q22">
+      <c r="S24">
+        <f t="shared" ref="S24:AD24" si="28">R24+$O24</f>
+        <v>31</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="28"/>
-        <v>41</v>
-      </c>
-      <c r="R22">
+        <v>49</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="28"/>
-        <v>55</v>
-      </c>
-      <c r="S22">
+        <v>67</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="28"/>
-        <v>69</v>
-      </c>
-      <c r="T22">
+        <v>85</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="28"/>
-        <v>83</v>
-      </c>
-      <c r="U22">
+        <v>103</v>
+      </c>
+      <c r="X24">
         <f t="shared" si="28"/>
-        <v>97</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="28"/>
-        <v>111</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="28"/>
-        <v>125</v>
-      </c>
-      <c r="X22">
+        <v>121</v>
+      </c>
+      <c r="Y24">
         <f t="shared" si="28"/>
         <v>139</v>
       </c>
-      <c r="Y22">
+      <c r="Z24">
         <f t="shared" si="28"/>
-        <v>153</v>
-      </c>
-      <c r="Z22">
+        <v>157</v>
+      </c>
+      <c r="AA24">
         <f t="shared" si="28"/>
-        <v>167</v>
-      </c>
-      <c r="AA22">
+        <v>175</v>
+      </c>
+      <c r="AB24">
         <f t="shared" si="28"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="28">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
+        <v>193</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="28"/>
+        <v>211</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="28"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E25" s="28">
+        <v>5</v>
+      </c>
+      <c r="F25" s="7">
         <f t="shared" si="17"/>
-        <v>12</v>
-      </c>
-      <c r="D23" s="7" t="str">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7" t="str">
+        <f>_xlfn.CONCAT(W7, ": ", $S7," x ", $U7)</f>
+        <v>0: 8 x 19</v>
+      </c>
+      <c r="H25" s="7" t="str">
+        <f>_xlfn.CONCAT(X7, ": ", $O7," x ", $Q7)</f>
+        <v>9: 16 x 16</v>
+      </c>
+      <c r="I25" s="7" t="str">
         <f t="shared" si="18"/>
-        <v>0: 8 x 15</v>
-      </c>
-      <c r="E23" s="7" t="str">
+        <v>26: 21 x 13</v>
+      </c>
+      <c r="J25" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>9: 12 x 14</v>
-      </c>
-      <c r="F23" s="7" t="str">
+        <v>48: 16 x 16</v>
+      </c>
+      <c r="K25" s="7" t="str">
         <f t="shared" si="20"/>
-        <v>22: 13 x 13</v>
-      </c>
-      <c r="G23" s="7" t="str">
+        <v>65: 8 x 19</v>
+      </c>
+      <c r="L25" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>36: 12 x 14</v>
-      </c>
-      <c r="H23" s="7" t="str">
+        <v>74: 16 x 16</v>
+      </c>
+      <c r="M25" s="7" t="str">
         <f t="shared" si="22"/>
-        <v>49: 8 x 15</v>
-      </c>
-      <c r="I23" s="7" t="str">
+        <v>91: 21 x 13</v>
+      </c>
+      <c r="N25" s="7" t="str">
         <f t="shared" si="23"/>
-        <v>58: 12 x 14</v>
-      </c>
-      <c r="J23" s="7" t="str">
+        <v>113: 16 x 16</v>
+      </c>
+      <c r="O25" s="8">
         <f t="shared" si="24"/>
-        <v>71: 13 x 13</v>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v>85: 12 x 14</v>
-      </c>
-      <c r="L23" s="8">
-        <f t="shared" si="26"/>
-        <v>16</v>
-      </c>
-      <c r="O23" s="1">
+        <v>20</v>
+      </c>
+      <c r="R25" s="1">
         <v>13</v>
       </c>
-      <c r="P23" s="1">
-        <f t="shared" ref="P23:AA23" si="29">O23+$L23</f>
-        <v>29</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="S25" s="1">
+        <f t="shared" ref="S25:AD25" si="29">R25+$O25</f>
+        <v>33</v>
+      </c>
+      <c r="T25" s="1">
         <f t="shared" si="29"/>
-        <v>45</v>
-      </c>
-      <c r="R23" s="1">
+        <v>53</v>
+      </c>
+      <c r="U25" s="1">
         <f t="shared" si="29"/>
-        <v>61</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" si="29"/>
-        <v>77</v>
-      </c>
-      <c r="T23" s="1">
+        <v>73</v>
+      </c>
+      <c r="V25" s="1">
         <f t="shared" si="29"/>
         <v>93</v>
       </c>
-      <c r="U23" s="1">
+      <c r="W25" s="1">
         <f t="shared" si="29"/>
-        <v>109</v>
-      </c>
-      <c r="V23" s="1">
+        <v>113</v>
+      </c>
+      <c r="X25" s="1">
         <f t="shared" si="29"/>
-        <v>125</v>
-      </c>
-      <c r="W23" s="1">
+        <v>133</v>
+      </c>
+      <c r="Y25" s="1">
         <f t="shared" si="29"/>
-        <v>141</v>
-      </c>
-      <c r="X23" s="1">
-        <f t="shared" si="29"/>
-        <v>157</v>
-      </c>
-      <c r="Y23" s="1">
+        <v>153</v>
+      </c>
+      <c r="Z25" s="1">
         <f t="shared" si="29"/>
         <v>173</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AA25" s="1">
         <f t="shared" si="29"/>
+        <v>193</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="29"/>
+        <v>213</v>
+      </c>
+      <c r="AC25" s="1">
+        <f t="shared" si="29"/>
+        <v>233</v>
+      </c>
+      <c r="AD25" s="1">
+        <f t="shared" si="29"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E26" s="29">
+        <v>6</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="G26" s="10" t="str">
+        <f>_xlfn.CONCAT(W8, ": ", $S8," x ", $U8)</f>
+        <v>0: 8 x 21</v>
+      </c>
+      <c r="H26" s="10" t="str">
+        <f>_xlfn.CONCAT(X8, ": ", $O8," x ", $Q8)</f>
+        <v>9: 18 x 17</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>28: 25 x 13</v>
+      </c>
+      <c r="J26" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>54: 18 x 17</v>
+      </c>
+      <c r="K26" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>73: 8 x 21</v>
+      </c>
+      <c r="L26" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>82: 18 x 17</v>
+      </c>
+      <c r="M26" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>101: 25 x 13</v>
+      </c>
+      <c r="N26" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>127: 18 x 17</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" si="24"/>
+        <v>22</v>
+      </c>
+      <c r="R26">
+        <v>13</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ref="S26:AD26" si="30">R26+$O26</f>
+        <v>35</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="30"/>
+        <v>57</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="30"/>
+        <v>79</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="30"/>
+        <v>101</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="30"/>
+        <v>123</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="30"/>
+        <v>145</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="30"/>
+        <v>167</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="30"/>
         <v>189</v>
       </c>
-      <c r="AA23" s="1">
-        <f t="shared" si="29"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B24" s="29">
-        <v>4</v>
-      </c>
-      <c r="C24" s="10">
-        <f t="shared" si="17"/>
-        <v>16</v>
-      </c>
-      <c r="D24" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>0: 8 x 17</v>
-      </c>
-      <c r="E24" s="10" t="str">
-        <f t="shared" si="19"/>
-        <v>9: 14 x 15</v>
-      </c>
-      <c r="F24" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v>24: 17 x 13</v>
-      </c>
-      <c r="G24" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>42: 14 x 15</v>
-      </c>
-      <c r="H24" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>57: 8 x 17</v>
-      </c>
-      <c r="I24" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v>66: 14 x 15</v>
-      </c>
-      <c r="J24" s="10" t="str">
-        <f t="shared" si="24"/>
-        <v>81: 17 x 13</v>
-      </c>
-      <c r="K24" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v>99: 14 x 15</v>
-      </c>
-      <c r="L24" s="11">
-        <f t="shared" si="26"/>
-        <v>18</v>
-      </c>
-      <c r="O24">
-        <v>13</v>
-      </c>
-      <c r="P24">
-        <f t="shared" ref="P24:AA24" si="30">O24+$L24</f>
-        <v>31</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="30"/>
-        <v>49</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="30"/>
-        <v>67</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="30"/>
-        <v>85</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="30"/>
-        <v>103</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="30"/>
-        <v>121</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="30"/>
-        <v>139</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="30"/>
-        <v>157</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="30"/>
-        <v>175</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="30"/>
-        <v>193</v>
-      </c>
-      <c r="Z24">
+      <c r="AA26">
         <f t="shared" si="30"/>
         <v>211</v>
       </c>
-      <c r="AA24">
+      <c r="AB26">
         <f t="shared" si="30"/>
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B25" s="28">
-        <v>5</v>
-      </c>
-      <c r="C25" s="7">
+        <v>233</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="30"/>
+        <v>255</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="30"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E27" s="28">
+        <v>7</v>
+      </c>
+      <c r="F27" s="7">
         <f t="shared" si="17"/>
-        <v>20</v>
-      </c>
-      <c r="D25" s="7" t="str">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="str">
+        <f>_xlfn.CONCAT(W9, ": ", $S9," x ", $U9)</f>
+        <v>0: 8 x 23</v>
+      </c>
+      <c r="H27" s="7" t="str">
+        <f>_xlfn.CONCAT(X9, ": ", $O9," x ", $Q9)</f>
+        <v>9: 20 x 18</v>
+      </c>
+      <c r="I27" s="7" t="str">
         <f t="shared" si="18"/>
-        <v>0: 8 x 19</v>
-      </c>
-      <c r="E25" s="7" t="str">
+        <v>30: 29 x 13</v>
+      </c>
+      <c r="J27" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>9: 16 x 16</v>
-      </c>
-      <c r="F25" s="7" t="str">
+        <v>60: 20 x 18</v>
+      </c>
+      <c r="K27" s="7" t="str">
         <f t="shared" si="20"/>
-        <v>26: 21 x 13</v>
-      </c>
-      <c r="G25" s="7" t="str">
+        <v>81: 8 x 23</v>
+      </c>
+      <c r="L27" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>48: 16 x 16</v>
-      </c>
-      <c r="H25" s="7" t="str">
+        <v>90: 20 x 18</v>
+      </c>
+      <c r="M27" s="7" t="str">
         <f t="shared" si="22"/>
-        <v>65: 8 x 19</v>
-      </c>
-      <c r="I25" s="7" t="str">
+        <v>111: 29 x 13</v>
+      </c>
+      <c r="N27" s="7" t="str">
         <f t="shared" si="23"/>
-        <v>74: 16 x 16</v>
-      </c>
-      <c r="J25" s="7" t="str">
+        <v>141: 20 x 18</v>
+      </c>
+      <c r="O27" s="8">
         <f t="shared" si="24"/>
-        <v>91: 21 x 13</v>
-      </c>
-      <c r="K25" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v>113: 16 x 16</v>
-      </c>
-      <c r="L25" s="8">
-        <f t="shared" si="26"/>
-        <v>20</v>
-      </c>
-      <c r="O25" s="1">
+        <v>24</v>
+      </c>
+      <c r="R27" s="1">
         <v>13</v>
       </c>
-      <c r="P25" s="1">
-        <f t="shared" ref="P25:AA25" si="31">O25+$L25</f>
-        <v>33</v>
-      </c>
-      <c r="Q25" s="1">
+      <c r="S27" s="1">
+        <f t="shared" ref="S27:AD27" si="31">R27+$O27</f>
+        <v>37</v>
+      </c>
+      <c r="T27" s="1">
         <f t="shared" si="31"/>
-        <v>53</v>
-      </c>
-      <c r="R25" s="1">
+        <v>61</v>
+      </c>
+      <c r="U27" s="1">
         <f t="shared" si="31"/>
-        <v>73</v>
-      </c>
-      <c r="S25" s="1">
+        <v>85</v>
+      </c>
+      <c r="V27" s="1">
         <f t="shared" si="31"/>
-        <v>93</v>
-      </c>
-      <c r="T25" s="1">
-        <f t="shared" si="31"/>
-        <v>113</v>
-      </c>
-      <c r="U25" s="1">
+        <v>109</v>
+      </c>
+      <c r="W27" s="1">
         <f t="shared" si="31"/>
         <v>133</v>
       </c>
-      <c r="V25" s="1">
+      <c r="X27" s="1">
         <f t="shared" si="31"/>
-        <v>153</v>
-      </c>
-      <c r="W25" s="1">
+        <v>157</v>
+      </c>
+      <c r="Y27" s="1">
         <f t="shared" si="31"/>
-        <v>173</v>
-      </c>
-      <c r="X25" s="1">
+        <v>181</v>
+      </c>
+      <c r="Z27" s="1">
         <f t="shared" si="31"/>
-        <v>193</v>
-      </c>
-      <c r="Y25" s="1">
+        <v>205</v>
+      </c>
+      <c r="AA27" s="1">
         <f t="shared" si="31"/>
-        <v>213</v>
-      </c>
-      <c r="Z25" s="1">
-        <f t="shared" si="31"/>
-        <v>233</v>
-      </c>
-      <c r="AA25" s="1">
+        <v>229</v>
+      </c>
+      <c r="AB27" s="1">
         <f t="shared" si="31"/>
         <v>253</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="29">
-        <v>6</v>
-      </c>
-      <c r="C26" s="10">
+      <c r="AC27" s="1">
+        <f t="shared" si="31"/>
+        <v>277</v>
+      </c>
+      <c r="AD27" s="1">
+        <f t="shared" si="31"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E28" s="29">
+        <v>8</v>
+      </c>
+      <c r="F28" s="10">
         <f t="shared" si="17"/>
-        <v>24</v>
-      </c>
-      <c r="D26" s="10" t="str">
+        <v>32</v>
+      </c>
+      <c r="G28" s="10" t="str">
+        <f>_xlfn.CONCAT(W10, ": ", $S10," x ", $U10)</f>
+        <v>0: 8 x 25</v>
+      </c>
+      <c r="H28" s="10" t="str">
+        <f>_xlfn.CONCAT(X10, ": ", $O10," x ", $Q10)</f>
+        <v>9: 22 x 19</v>
+      </c>
+      <c r="I28" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>0: 8 x 21</v>
-      </c>
-      <c r="E26" s="10" t="str">
+        <v>32: 33 x 13</v>
+      </c>
+      <c r="J28" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>9: 18 x 17</v>
-      </c>
-      <c r="F26" s="10" t="str">
+        <v>66: 22 x 19</v>
+      </c>
+      <c r="K28" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>28: 25 x 13</v>
-      </c>
-      <c r="G26" s="10" t="str">
+        <v>89: 8 x 25</v>
+      </c>
+      <c r="L28" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>54: 18 x 17</v>
-      </c>
-      <c r="H26" s="10" t="str">
+        <v>98: 22 x 19</v>
+      </c>
+      <c r="M28" s="10" t="str">
         <f t="shared" si="22"/>
-        <v>73: 8 x 21</v>
-      </c>
-      <c r="I26" s="10" t="str">
+        <v>121: 33 x 13</v>
+      </c>
+      <c r="N28" s="10" t="str">
         <f t="shared" si="23"/>
-        <v>82: 18 x 17</v>
-      </c>
-      <c r="J26" s="10" t="str">
+        <v>155: 22 x 19</v>
+      </c>
+      <c r="O28" s="11">
         <f t="shared" si="24"/>
-        <v>101: 25 x 13</v>
-      </c>
-      <c r="K26" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v>127: 18 x 17</v>
-      </c>
-      <c r="L26" s="11">
-        <f t="shared" si="26"/>
-        <v>22</v>
-      </c>
-      <c r="O26">
+        <v>26</v>
+      </c>
+      <c r="R28">
         <v>13</v>
       </c>
-      <c r="P26">
-        <f t="shared" ref="P26:AA26" si="32">O26+$L26</f>
-        <v>35</v>
-      </c>
-      <c r="Q26">
+      <c r="S28">
+        <f t="shared" ref="S28:AD28" si="32">R28+$O28</f>
+        <v>39</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="32"/>
-        <v>57</v>
-      </c>
-      <c r="R26">
+        <v>65</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="32"/>
-        <v>79</v>
-      </c>
-      <c r="S26">
+        <v>91</v>
+      </c>
+      <c r="V28">
         <f t="shared" si="32"/>
-        <v>101</v>
-      </c>
-      <c r="T26">
+        <v>117</v>
+      </c>
+      <c r="W28">
         <f t="shared" si="32"/>
-        <v>123</v>
-      </c>
-      <c r="U26">
+        <v>143</v>
+      </c>
+      <c r="X28">
         <f t="shared" si="32"/>
-        <v>145</v>
-      </c>
-      <c r="V26">
+        <v>169</v>
+      </c>
+      <c r="Y28">
         <f t="shared" si="32"/>
-        <v>167</v>
-      </c>
-      <c r="W26">
+        <v>195</v>
+      </c>
+      <c r="Z28">
         <f t="shared" si="32"/>
-        <v>189</v>
-      </c>
-      <c r="X26">
+        <v>221</v>
+      </c>
+      <c r="AA28">
         <f t="shared" si="32"/>
-        <v>211</v>
-      </c>
-      <c r="Y26">
+        <v>247</v>
+      </c>
+      <c r="AB28">
         <f t="shared" si="32"/>
-        <v>233</v>
-      </c>
-      <c r="Z26">
+        <v>273</v>
+      </c>
+      <c r="AC28">
         <f t="shared" si="32"/>
-        <v>255</v>
-      </c>
-      <c r="AA26">
+        <v>299</v>
+      </c>
+      <c r="AD28">
         <f t="shared" si="32"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B27" s="28">
-        <v>7</v>
-      </c>
-      <c r="C27" s="7">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E29" s="28">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7">
         <f t="shared" si="17"/>
+        <v>36</v>
+      </c>
+      <c r="G29" s="7" t="str">
+        <f>_xlfn.CONCAT(W11, ": ", $S11," x ", $U11)</f>
+        <v>0: 9 x 27</v>
+      </c>
+      <c r="H29" s="7" t="str">
+        <f>_xlfn.CONCAT(X11, ": ", $O11," x ", $Q11)</f>
+        <v>10: 24 x 20</v>
+      </c>
+      <c r="I29" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>35: 37 x 13</v>
+      </c>
+      <c r="J29" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>73: 24 x 20</v>
+      </c>
+      <c r="K29" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>98: 9 x 27</v>
+      </c>
+      <c r="L29" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>108: 24 x 20</v>
+      </c>
+      <c r="M29" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>133: 37 x 13</v>
+      </c>
+      <c r="N29" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>171: 24 x 20</v>
+      </c>
+      <c r="O29" s="8">
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
-      <c r="D27" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v>0: 8 x 23</v>
-      </c>
-      <c r="E27" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v>9: 20 x 18</v>
-      </c>
-      <c r="F27" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v>30: 29 x 13</v>
-      </c>
-      <c r="G27" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v>60: 20 x 18</v>
-      </c>
-      <c r="H27" s="7" t="str">
-        <f t="shared" si="22"/>
-        <v>81: 8 x 23</v>
-      </c>
-      <c r="I27" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v>90: 20 x 18</v>
-      </c>
-      <c r="J27" s="7" t="str">
-        <f t="shared" si="24"/>
-        <v>111: 29 x 13</v>
-      </c>
-      <c r="K27" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v>141: 20 x 18</v>
-      </c>
-      <c r="L27" s="8">
-        <f t="shared" si="26"/>
-        <v>24</v>
-      </c>
-      <c r="O27" s="1">
+      <c r="R29" s="1">
         <v>13</v>
       </c>
-      <c r="P27" s="1">
-        <f t="shared" ref="P27:AA27" si="33">O27+$L27</f>
-        <v>37</v>
-      </c>
-      <c r="Q27" s="1">
+      <c r="S29" s="1">
+        <f t="shared" ref="S29:AD29" si="33">R29+$O29</f>
+        <v>41</v>
+      </c>
+      <c r="T29" s="1">
         <f t="shared" si="33"/>
-        <v>61</v>
-      </c>
-      <c r="R27" s="1">
+        <v>69</v>
+      </c>
+      <c r="U29" s="1">
         <f t="shared" si="33"/>
-        <v>85</v>
-      </c>
-      <c r="S27" s="1">
+        <v>97</v>
+      </c>
+      <c r="V29" s="1">
         <f t="shared" si="33"/>
-        <v>109</v>
-      </c>
-      <c r="T27" s="1">
+        <v>125</v>
+      </c>
+      <c r="W29" s="1">
         <f t="shared" si="33"/>
-        <v>133</v>
-      </c>
-      <c r="U27" s="1">
-        <f t="shared" si="33"/>
-        <v>157</v>
-      </c>
-      <c r="V27" s="1">
+        <v>153</v>
+      </c>
+      <c r="X29" s="1">
         <f t="shared" si="33"/>
         <v>181</v>
       </c>
-      <c r="W27" s="1">
+      <c r="Y29" s="1">
         <f t="shared" si="33"/>
+        <v>209</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" si="33"/>
+        <v>237</v>
+      </c>
+      <c r="AA29" s="1">
+        <f t="shared" si="33"/>
+        <v>265</v>
+      </c>
+      <c r="AB29" s="1">
+        <f t="shared" si="33"/>
+        <v>293</v>
+      </c>
+      <c r="AC29" s="1">
+        <f t="shared" si="33"/>
+        <v>321</v>
+      </c>
+      <c r="AD29" s="1">
+        <f t="shared" si="33"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E30" s="29">
+        <v>10</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="G30" s="10" t="str">
+        <f>_xlfn.CONCAT(W12, ": ", $S12," x ", $U12)</f>
+        <v>0: 10 x 29</v>
+      </c>
+      <c r="H30" s="10" t="str">
+        <f>_xlfn.CONCAT(X12, ": ", $O12," x ", $Q12)</f>
+        <v>11: 26 x 21</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>38: 41 x 13</v>
+      </c>
+      <c r="J30" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>80: 26 x 21</v>
+      </c>
+      <c r="K30" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>107: 10 x 29</v>
+      </c>
+      <c r="L30" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>118: 26 x 21</v>
+      </c>
+      <c r="M30" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>145: 41 x 13</v>
+      </c>
+      <c r="N30" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>187: 26 x 21</v>
+      </c>
+      <c r="O30" s="11">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="R30">
+        <v>13</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30:AD30" si="34">R30+$O30</f>
+        <v>43</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="34"/>
+        <v>73</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="34"/>
+        <v>103</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="34"/>
+        <v>133</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="34"/>
+        <v>163</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="34"/>
+        <v>193</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="34"/>
+        <v>223</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="34"/>
+        <v>253</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="34"/>
+        <v>283</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="34"/>
+        <v>313</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="34"/>
+        <v>343</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="34"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E31" s="28">
+        <v>11</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="17"/>
+        <v>44</v>
+      </c>
+      <c r="G31" s="7" t="str">
+        <f>_xlfn.CONCAT(W13, ": ", $S13," x ", $U13)</f>
+        <v>0: 11 x 31</v>
+      </c>
+      <c r="H31" s="7" t="str">
+        <f>_xlfn.CONCAT(X13, ": ", $O13," x ", $Q13)</f>
+        <v>12: 28 x 22</v>
+      </c>
+      <c r="I31" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>41: 45 x 13</v>
+      </c>
+      <c r="J31" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>87: 28 x 22</v>
+      </c>
+      <c r="K31" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>116: 11 x 31</v>
+      </c>
+      <c r="L31" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>128: 28 x 22</v>
+      </c>
+      <c r="M31" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>157: 45 x 13</v>
+      </c>
+      <c r="N31" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>203: 28 x 22</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="24"/>
+        <v>32</v>
+      </c>
+      <c r="R31" s="1">
+        <v>13</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" ref="S31:AD31" si="35">R31+$O31</f>
+        <v>45</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="35"/>
+        <v>77</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="35"/>
+        <v>109</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="35"/>
+        <v>141</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="35"/>
+        <v>173</v>
+      </c>
+      <c r="X31" s="1">
+        <f t="shared" si="35"/>
         <v>205</v>
       </c>
-      <c r="X27" s="1">
-        <f t="shared" si="33"/>
-        <v>229</v>
-      </c>
-      <c r="Y27" s="1">
-        <f t="shared" si="33"/>
-        <v>253</v>
-      </c>
-      <c r="Z27" s="1">
-        <f t="shared" si="33"/>
-        <v>277</v>
-      </c>
-      <c r="AA27" s="1">
-        <f t="shared" si="33"/>
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="29">
-        <v>8</v>
-      </c>
-      <c r="C28" s="10">
-        <f t="shared" si="17"/>
-        <v>32</v>
-      </c>
-      <c r="D28" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>0: 8 x 25</v>
-      </c>
-      <c r="E28" s="10" t="str">
-        <f t="shared" si="19"/>
-        <v>9: 22 x 19</v>
-      </c>
-      <c r="F28" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v>32: 33 x 13</v>
-      </c>
-      <c r="G28" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>66: 22 x 19</v>
-      </c>
-      <c r="H28" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>89: 8 x 25</v>
-      </c>
-      <c r="I28" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v>98: 22 x 19</v>
-      </c>
-      <c r="J28" s="10" t="str">
-        <f t="shared" si="24"/>
-        <v>121: 33 x 13</v>
-      </c>
-      <c r="K28" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v>155: 22 x 19</v>
-      </c>
-      <c r="L28" s="11">
-        <f t="shared" si="26"/>
-        <v>26</v>
-      </c>
-      <c r="O28">
-        <v>13</v>
-      </c>
-      <c r="P28">
-        <f t="shared" ref="P28:AA28" si="34">O28+$L28</f>
-        <v>39</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="34"/>
-        <v>65</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="34"/>
-        <v>91</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="34"/>
-        <v>117</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="34"/>
-        <v>143</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="34"/>
-        <v>169</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="34"/>
-        <v>195</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="34"/>
-        <v>221</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="34"/>
-        <v>247</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="34"/>
-        <v>273</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="34"/>
-        <v>299</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="34"/>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B29" s="28">
-        <v>9</v>
-      </c>
-      <c r="C29" s="7">
-        <f t="shared" si="17"/>
-        <v>36</v>
-      </c>
-      <c r="D29" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v>0: 9 x 27</v>
-      </c>
-      <c r="E29" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v>10: 24 x 20</v>
-      </c>
-      <c r="F29" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v>35: 37 x 13</v>
-      </c>
-      <c r="G29" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v>73: 24 x 20</v>
-      </c>
-      <c r="H29" s="7" t="str">
-        <f t="shared" si="22"/>
-        <v>98: 9 x 27</v>
-      </c>
-      <c r="I29" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v>108: 24 x 20</v>
-      </c>
-      <c r="J29" s="7" t="str">
-        <f t="shared" si="24"/>
-        <v>133: 37 x 13</v>
-      </c>
-      <c r="K29" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v>171: 24 x 20</v>
-      </c>
-      <c r="L29" s="8">
-        <f t="shared" si="26"/>
-        <v>28</v>
-      </c>
-      <c r="O29" s="1">
-        <v>13</v>
-      </c>
-      <c r="P29" s="1">
-        <f t="shared" ref="P29:AA29" si="35">O29+$L29</f>
-        <v>41</v>
-      </c>
-      <c r="Q29" s="1">
-        <f t="shared" si="35"/>
-        <v>69</v>
-      </c>
-      <c r="R29" s="1">
-        <f t="shared" si="35"/>
-        <v>97</v>
-      </c>
-      <c r="S29" s="1">
-        <f t="shared" si="35"/>
-        <v>125</v>
-      </c>
-      <c r="T29" s="1">
-        <f t="shared" si="35"/>
-        <v>153</v>
-      </c>
-      <c r="U29" s="1">
-        <f t="shared" si="35"/>
-        <v>181</v>
-      </c>
-      <c r="V29" s="1">
-        <f t="shared" si="35"/>
-        <v>209</v>
-      </c>
-      <c r="W29" s="1">
+      <c r="Y31" s="1">
         <f t="shared" si="35"/>
         <v>237</v>
       </c>
-      <c r="X29" s="1">
+      <c r="Z31" s="1">
         <f t="shared" si="35"/>
-        <v>265</v>
-      </c>
-      <c r="Y29" s="1">
+        <v>269</v>
+      </c>
+      <c r="AA31" s="1">
         <f t="shared" si="35"/>
-        <v>293</v>
-      </c>
-      <c r="Z29" s="1">
+        <v>301</v>
+      </c>
+      <c r="AB31" s="1">
         <f t="shared" si="35"/>
-        <v>321</v>
-      </c>
-      <c r="AA29" s="1">
+        <v>333</v>
+      </c>
+      <c r="AC31" s="1">
         <f t="shared" si="35"/>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="29">
-        <v>10</v>
-      </c>
-      <c r="C30" s="10">
-        <f t="shared" si="17"/>
-        <v>40</v>
-      </c>
-      <c r="D30" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>0: 10 x 29</v>
-      </c>
-      <c r="E30" s="10" t="str">
-        <f t="shared" si="19"/>
-        <v>11: 26 x 21</v>
-      </c>
-      <c r="F30" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v>38: 41 x 13</v>
-      </c>
-      <c r="G30" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>80: 26 x 21</v>
-      </c>
-      <c r="H30" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>107: 10 x 29</v>
-      </c>
-      <c r="I30" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v>118: 26 x 21</v>
-      </c>
-      <c r="J30" s="10" t="str">
-        <f t="shared" si="24"/>
-        <v>145: 41 x 13</v>
-      </c>
-      <c r="K30" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v>187: 26 x 21</v>
-      </c>
-      <c r="L30" s="11">
-        <f t="shared" si="26"/>
-        <v>30</v>
-      </c>
-      <c r="O30">
-        <v>13</v>
-      </c>
-      <c r="P30">
-        <f t="shared" ref="P30:AA30" si="36">O30+$L30</f>
-        <v>43</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="36"/>
-        <v>73</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="36"/>
-        <v>103</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="36"/>
-        <v>133</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="36"/>
-        <v>163</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="36"/>
-        <v>193</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="36"/>
-        <v>223</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="36"/>
-        <v>253</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="36"/>
-        <v>283</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="36"/>
-        <v>313</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="36"/>
-        <v>343</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="36"/>
-        <v>373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="28">
-        <v>11</v>
-      </c>
-      <c r="C31" s="7">
-        <f t="shared" si="17"/>
-        <v>44</v>
-      </c>
-      <c r="D31" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v>0: 11 x 31</v>
-      </c>
-      <c r="E31" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v>12: 28 x 22</v>
-      </c>
-      <c r="F31" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v>41: 45 x 13</v>
-      </c>
-      <c r="G31" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v>87: 28 x 22</v>
-      </c>
-      <c r="H31" s="7" t="str">
-        <f t="shared" si="22"/>
-        <v>116: 11 x 31</v>
-      </c>
-      <c r="I31" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v>128: 28 x 22</v>
-      </c>
-      <c r="J31" s="7" t="str">
-        <f t="shared" si="24"/>
-        <v>157: 45 x 13</v>
-      </c>
-      <c r="K31" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v>203: 28 x 22</v>
-      </c>
-      <c r="L31" s="8">
-        <f t="shared" si="26"/>
-        <v>32</v>
-      </c>
-      <c r="O31" s="1">
-        <v>13</v>
-      </c>
-      <c r="P31" s="1">
-        <f t="shared" ref="P31:AA31" si="37">O31+$L31</f>
-        <v>45</v>
-      </c>
-      <c r="Q31" s="1">
-        <f t="shared" si="37"/>
-        <v>77</v>
-      </c>
-      <c r="R31" s="1">
-        <f t="shared" si="37"/>
-        <v>109</v>
-      </c>
-      <c r="S31" s="1">
-        <f t="shared" si="37"/>
-        <v>141</v>
-      </c>
-      <c r="T31" s="1">
-        <f t="shared" si="37"/>
-        <v>173</v>
-      </c>
-      <c r="U31" s="1">
-        <f t="shared" si="37"/>
-        <v>205</v>
-      </c>
-      <c r="V31" s="1">
-        <f t="shared" si="37"/>
-        <v>237</v>
-      </c>
-      <c r="W31" s="1">
-        <f t="shared" si="37"/>
-        <v>269</v>
-      </c>
-      <c r="X31" s="1">
-        <f t="shared" si="37"/>
-        <v>301</v>
-      </c>
-      <c r="Y31" s="1">
-        <f t="shared" si="37"/>
-        <v>333</v>
-      </c>
-      <c r="Z31" s="1">
-        <f t="shared" si="37"/>
         <v>365</v>
       </c>
-      <c r="AA31" s="1">
-        <f t="shared" si="37"/>
+      <c r="AD31" s="1">
+        <f t="shared" si="35"/>
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="29">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E32" s="29">
         <v>12</v>
       </c>
-      <c r="C32" s="10">
+      <c r="F32" s="10">
         <f t="shared" si="17"/>
         <v>48</v>
       </c>
-      <c r="D32" s="10" t="str">
+      <c r="G32" s="10" t="str">
+        <f>_xlfn.CONCAT(W14, ": ", $S14," x ", $U14)</f>
+        <v>0: 12 x 33</v>
+      </c>
+      <c r="H32" s="10" t="str">
+        <f>_xlfn.CONCAT(X14, ": ", $O14," x ", $Q14)</f>
+        <v>13: 30 x 23</v>
+      </c>
+      <c r="I32" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>0: 12 x 33</v>
-      </c>
-      <c r="E32" s="10" t="str">
+        <v>44: 49 x 13</v>
+      </c>
+      <c r="J32" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>13: 30 x 23</v>
-      </c>
-      <c r="F32" s="10" t="str">
+        <v>94: 30 x 23</v>
+      </c>
+      <c r="K32" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>44: 49 x 13</v>
-      </c>
-      <c r="G32" s="10" t="str">
+        <v>125: 12 x 33</v>
+      </c>
+      <c r="L32" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>94: 30 x 23</v>
-      </c>
-      <c r="H32" s="10" t="str">
+        <v>138: 30 x 23</v>
+      </c>
+      <c r="M32" s="10" t="str">
         <f t="shared" si="22"/>
-        <v>125: 12 x 33</v>
-      </c>
-      <c r="I32" s="10" t="str">
+        <v>169: 49 x 13</v>
+      </c>
+      <c r="N32" s="10" t="str">
         <f t="shared" si="23"/>
-        <v>138: 30 x 23</v>
-      </c>
-      <c r="J32" s="10" t="str">
+        <v>219: 30 x 23</v>
+      </c>
+      <c r="O32" s="11">
         <f t="shared" si="24"/>
-        <v>169: 49 x 13</v>
-      </c>
-      <c r="K32" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v>219: 30 x 23</v>
-      </c>
-      <c r="L32" s="11">
-        <f t="shared" si="26"/>
         <v>34</v>
       </c>
-      <c r="O32">
+      <c r="R32">
         <v>13</v>
       </c>
-      <c r="P32">
-        <f t="shared" ref="P32:AA32" si="38">O32+$L32</f>
+      <c r="S32">
+        <f t="shared" ref="S32:AD32" si="36">R32+$O32</f>
         <v>47</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="38"/>
+      <c r="T32">
+        <f t="shared" si="36"/>
         <v>81</v>
       </c>
-      <c r="R32">
-        <f t="shared" si="38"/>
+      <c r="U32">
+        <f t="shared" si="36"/>
         <v>115</v>
       </c>
-      <c r="S32">
-        <f t="shared" si="38"/>
+      <c r="V32">
+        <f t="shared" si="36"/>
         <v>149</v>
       </c>
-      <c r="T32">
-        <f t="shared" si="38"/>
+      <c r="W32">
+        <f t="shared" si="36"/>
         <v>183</v>
       </c>
-      <c r="U32">
-        <f t="shared" si="38"/>
+      <c r="X32">
+        <f t="shared" si="36"/>
         <v>217</v>
       </c>
-      <c r="V32">
-        <f t="shared" si="38"/>
+      <c r="Y32">
+        <f t="shared" si="36"/>
         <v>251</v>
       </c>
-      <c r="W32">
-        <f t="shared" si="38"/>
+      <c r="Z32">
+        <f t="shared" si="36"/>
         <v>285</v>
       </c>
-      <c r="X32">
-        <f t="shared" si="38"/>
+      <c r="AA32">
+        <f t="shared" si="36"/>
         <v>319</v>
       </c>
-      <c r="Y32">
-        <f t="shared" si="38"/>
+      <c r="AB32">
+        <f t="shared" si="36"/>
         <v>353</v>
       </c>
-      <c r="Z32">
-        <f t="shared" si="38"/>
+      <c r="AC32">
+        <f t="shared" si="36"/>
         <v>387</v>
       </c>
-      <c r="AA32">
-        <f t="shared" si="38"/>
+      <c r="AD32">
+        <f t="shared" si="36"/>
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B33" s="28">
+    <row r="33" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="E33" s="28">
         <v>13</v>
       </c>
-      <c r="C33" s="7">
+      <c r="F33" s="7">
         <f t="shared" si="17"/>
         <v>52</v>
       </c>
-      <c r="D33" s="7" t="str">
-        <f>_xlfn.CONCAT(T15, ": ", $P15," x ", $R15)</f>
+      <c r="G33" s="7" t="str">
+        <f>_xlfn.CONCAT(W15, ": ", $S15," x ", $U15)</f>
         <v>0: 13 x 35</v>
       </c>
-      <c r="E33" s="7" t="str">
+      <c r="H33" s="7" t="str">
+        <f>_xlfn.CONCAT(X15, ": ", $O15," x ", $Q15)</f>
+        <v>14: 32 x 24</v>
+      </c>
+      <c r="I33" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>47: 53 x 13</v>
+      </c>
+      <c r="J33" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>14: 32 x 24</v>
-      </c>
-      <c r="F33" s="7" t="str">
+        <v>101: 32 x 24</v>
+      </c>
+      <c r="K33" s="7" t="str">
         <f t="shared" si="20"/>
-        <v>47: 53 x 13</v>
-      </c>
-      <c r="G33" s="7" t="str">
+        <v>134: 13 x 35</v>
+      </c>
+      <c r="L33" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>101: 32 x 24</v>
-      </c>
-      <c r="H33" s="7" t="str">
+        <v>148: 32 x 24</v>
+      </c>
+      <c r="M33" s="7" t="str">
         <f t="shared" si="22"/>
-        <v>134: 13 x 35</v>
-      </c>
-      <c r="I33" s="7" t="str">
+        <v>181: 53 x 13</v>
+      </c>
+      <c r="N33" s="7" t="str">
         <f t="shared" si="23"/>
-        <v>148: 32 x 24</v>
-      </c>
-      <c r="J33" s="7" t="str">
+        <v>235: 32 x 24</v>
+      </c>
+      <c r="O33" s="8">
         <f t="shared" si="24"/>
-        <v>181: 53 x 13</v>
-      </c>
-      <c r="K33" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v>235: 32 x 24</v>
-      </c>
-      <c r="L33" s="8">
-        <f t="shared" si="26"/>
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B34" s="29">
+    <row r="34" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="E34" s="29">
         <v>14</v>
       </c>
-      <c r="C34" s="10">
+      <c r="F34" s="10">
         <f t="shared" si="17"/>
         <v>56</v>
       </c>
-      <c r="D34" s="10" t="str">
-        <f>_xlfn.CONCAT(T16, ": ", $P16," x ", $R16)</f>
+      <c r="G34" s="10" t="str">
+        <f>_xlfn.CONCAT(W16, ": ", $S16," x ", $U16)</f>
         <v>0: 14 x 37</v>
       </c>
-      <c r="E34" s="10" t="str">
+      <c r="H34" s="10" t="str">
+        <f>_xlfn.CONCAT(X16, ": ", $O16," x ", $Q16)</f>
+        <v>15: 34 x 25</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>50: 57 x 13</v>
+      </c>
+      <c r="J34" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>15: 34 x 25</v>
-      </c>
-      <c r="F34" s="10" t="str">
+        <v>108: 34 x 25</v>
+      </c>
+      <c r="K34" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>50: 57 x 13</v>
-      </c>
-      <c r="G34" s="10" t="str">
+        <v>143: 14 x 37</v>
+      </c>
+      <c r="L34" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>108: 34 x 25</v>
-      </c>
-      <c r="H34" s="10" t="str">
+        <v>158: 34 x 25</v>
+      </c>
+      <c r="M34" s="10" t="str">
         <f t="shared" si="22"/>
-        <v>143: 14 x 37</v>
-      </c>
-      <c r="I34" s="10" t="str">
+        <v>193: 57 x 13</v>
+      </c>
+      <c r="N34" s="10" t="str">
         <f t="shared" si="23"/>
-        <v>158: 34 x 25</v>
-      </c>
-      <c r="J34" s="10" t="str">
+        <v>251: 34 x 25</v>
+      </c>
+      <c r="O34" s="11">
         <f t="shared" si="24"/>
-        <v>193: 57 x 13</v>
-      </c>
-      <c r="K34" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v>251: 34 x 25</v>
-      </c>
-      <c r="L34" s="11">
-        <f t="shared" si="26"/>
         <v>38</v>
       </c>
-      <c r="O34" s="1">
+      <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="P34" s="1">
-        <f t="shared" ref="P34:AA34" si="39">O34+$L21</f>
+      <c r="S34" s="1">
+        <f t="shared" ref="S34:AD34" si="37">R34+$O21</f>
         <v>12</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="T34" s="1">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="37"/>
+        <v>36</v>
+      </c>
+      <c r="V34" s="1">
+        <f t="shared" si="37"/>
+        <v>48</v>
+      </c>
+      <c r="W34" s="1">
+        <f t="shared" si="37"/>
+        <v>60</v>
+      </c>
+      <c r="X34" s="1">
+        <f t="shared" si="37"/>
+        <v>72</v>
+      </c>
+      <c r="Y34" s="1">
+        <f t="shared" si="37"/>
+        <v>84</v>
+      </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="37"/>
+        <v>96</v>
+      </c>
+      <c r="AA34" s="1">
+        <f t="shared" si="37"/>
+        <v>108</v>
+      </c>
+      <c r="AB34" s="1">
+        <f t="shared" si="37"/>
+        <v>120</v>
+      </c>
+      <c r="AC34" s="1">
+        <f t="shared" si="37"/>
+        <v>132</v>
+      </c>
+      <c r="AD34" s="1">
+        <f t="shared" si="37"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="E35" s="28">
+        <v>15</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="G35" s="7" t="str">
+        <f>_xlfn.CONCAT(W17, ": ", $S17," x ", $U17)</f>
+        <v>0: 15 x 39</v>
+      </c>
+      <c r="H35" s="7" t="str">
+        <f>_xlfn.CONCAT(X17, ": ", $O17," x ", $Q17)</f>
+        <v>16: 36 x 26</v>
+      </c>
+      <c r="I35" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>53: 61 x 13</v>
+      </c>
+      <c r="J35" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>115: 36 x 26</v>
+      </c>
+      <c r="K35" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>152: 15 x 39</v>
+      </c>
+      <c r="L35" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>168: 36 x 26</v>
+      </c>
+      <c r="M35" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>205: 61 x 13</v>
+      </c>
+      <c r="N35" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>267: 36 x 26</v>
+      </c>
+      <c r="O35" s="8">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ref="S35:AD35" si="38">R35+$O22</f>
+        <v>14</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="38"/>
+        <v>28</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="38"/>
+        <v>42</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="38"/>
+        <v>56</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="38"/>
+        <v>70</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="38"/>
+        <v>84</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="38"/>
+        <v>98</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="38"/>
+        <v>112</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="38"/>
+        <v>126</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="38"/>
+        <v>140</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="38"/>
+        <v>154</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="38"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="30">
+        <v>16</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="17"/>
+        <v>64</v>
+      </c>
+      <c r="G36" s="13" t="str">
+        <f>_xlfn.CONCAT(W18, ": ", $S18," x ", $U18)</f>
+        <v>0: 16 x 41</v>
+      </c>
+      <c r="H36" s="13" t="str">
+        <f>_xlfn.CONCAT(X18, ": ", $O18," x ", $Q18)</f>
+        <v>17: 38 x 27</v>
+      </c>
+      <c r="I36" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v>56: 65 x 13</v>
+      </c>
+      <c r="J36" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>122: 38 x 27</v>
+      </c>
+      <c r="K36" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>161: 16 x 41</v>
+      </c>
+      <c r="L36" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>178: 38 x 27</v>
+      </c>
+      <c r="M36" s="13" t="str">
+        <f t="shared" si="22"/>
+        <v>217: 65 x 13</v>
+      </c>
+      <c r="N36" s="13" t="str">
+        <f t="shared" si="23"/>
+        <v>283: 38 x 27</v>
+      </c>
+      <c r="O36" s="14">
+        <f t="shared" si="24"/>
+        <v>42</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" ref="S36:AD36" si="39">R36+$O23</f>
+        <v>16</v>
+      </c>
+      <c r="T36" s="1">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="R34" s="1">
-        <f t="shared" si="39"/>
-        <v>36</v>
-      </c>
-      <c r="S34" s="1">
+        <v>32</v>
+      </c>
+      <c r="U36" s="1">
         <f t="shared" si="39"/>
         <v>48</v>
       </c>
-      <c r="T34" s="1">
+      <c r="V36" s="1">
         <f t="shared" si="39"/>
-        <v>60</v>
-      </c>
-      <c r="U34" s="1">
+        <v>64</v>
+      </c>
+      <c r="W36" s="1">
         <f t="shared" si="39"/>
-        <v>72</v>
-      </c>
-      <c r="V34" s="1">
-        <f t="shared" si="39"/>
-        <v>84</v>
-      </c>
-      <c r="W34" s="1">
+        <v>80</v>
+      </c>
+      <c r="X36" s="1">
         <f t="shared" si="39"/>
         <v>96</v>
       </c>
-      <c r="X34" s="1">
+      <c r="Y36" s="1">
         <f t="shared" si="39"/>
-        <v>108</v>
-      </c>
-      <c r="Y34" s="1">
+        <v>112</v>
+      </c>
+      <c r="Z36" s="1">
         <f t="shared" si="39"/>
-        <v>120</v>
-      </c>
-      <c r="Z34" s="1">
-        <f t="shared" si="39"/>
-        <v>132</v>
-      </c>
-      <c r="AA34" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA36" s="1">
         <f t="shared" si="39"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B35" s="28">
-        <v>15</v>
-      </c>
-      <c r="C35" s="7">
-        <f t="shared" si="17"/>
-        <v>60</v>
-      </c>
-      <c r="D35" s="7" t="str">
-        <f>_xlfn.CONCAT(T17, ": ", $P17," x ", $R17)</f>
-        <v>0: 15 x 39</v>
-      </c>
-      <c r="E35" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v>16: 36 x 26</v>
-      </c>
-      <c r="F35" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v>53: 61 x 13</v>
-      </c>
-      <c r="G35" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v>115: 36 x 26</v>
-      </c>
-      <c r="H35" s="7" t="str">
-        <f t="shared" si="22"/>
-        <v>152: 15 x 39</v>
-      </c>
-      <c r="I35" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v>168: 36 x 26</v>
-      </c>
-      <c r="J35" s="7" t="str">
-        <f t="shared" si="24"/>
-        <v>205: 61 x 13</v>
-      </c>
-      <c r="K35" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v>267: 36 x 26</v>
-      </c>
-      <c r="L35" s="8">
-        <f t="shared" si="26"/>
-        <v>40</v>
-      </c>
-      <c r="O35">
+      <c r="AB36" s="1">
+        <f t="shared" si="39"/>
+        <v>160</v>
+      </c>
+      <c r="AC36" s="1">
+        <f t="shared" si="39"/>
+        <v>176</v>
+      </c>
+      <c r="AD36" s="1">
+        <f t="shared" si="39"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="R37">
         <v>0</v>
       </c>
-      <c r="P35">
-        <f t="shared" ref="P35:AA35" si="40">O35+$L22</f>
-        <v>14</v>
-      </c>
-      <c r="Q35">
+      <c r="S37">
+        <f t="shared" ref="S37:AD37" si="40">R37+$O24</f>
+        <v>18</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="40"/>
-        <v>28</v>
-      </c>
-      <c r="R35">
+        <v>36</v>
+      </c>
+      <c r="U37">
         <f t="shared" si="40"/>
-        <v>42</v>
-      </c>
-      <c r="S35">
+        <v>54</v>
+      </c>
+      <c r="V37">
         <f t="shared" si="40"/>
-        <v>56</v>
-      </c>
-      <c r="T35">
+        <v>72</v>
+      </c>
+      <c r="W37">
         <f t="shared" si="40"/>
-        <v>70</v>
-      </c>
-      <c r="U35">
+        <v>90</v>
+      </c>
+      <c r="X37">
         <f t="shared" si="40"/>
-        <v>84</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="40"/>
-        <v>98</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="40"/>
-        <v>112</v>
-      </c>
-      <c r="X35">
+        <v>108</v>
+      </c>
+      <c r="Y37">
         <f t="shared" si="40"/>
         <v>126</v>
       </c>
-      <c r="Y35">
+      <c r="Z37">
         <f t="shared" si="40"/>
-        <v>140</v>
-      </c>
-      <c r="Z35">
+        <v>144</v>
+      </c>
+      <c r="AA37">
         <f t="shared" si="40"/>
-        <v>154</v>
-      </c>
-      <c r="AA35">
+        <v>162</v>
+      </c>
+      <c r="AB37">
         <f t="shared" si="40"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="30">
-        <v>16</v>
-      </c>
-      <c r="C36" s="13">
-        <f t="shared" si="17"/>
-        <v>64</v>
-      </c>
-      <c r="D36" s="13" t="str">
-        <f>_xlfn.CONCAT(T18, ": ", $P18," x ", $R18)</f>
-        <v>0: 16 x 41</v>
-      </c>
-      <c r="E36" s="13" t="str">
-        <f t="shared" si="19"/>
-        <v>17: 38 x 27</v>
-      </c>
-      <c r="F36" s="13" t="str">
-        <f t="shared" si="20"/>
-        <v>56: 65 x 13</v>
-      </c>
-      <c r="G36" s="13" t="str">
-        <f t="shared" si="21"/>
-        <v>122: 38 x 27</v>
-      </c>
-      <c r="H36" s="13" t="str">
-        <f t="shared" si="22"/>
-        <v>161: 16 x 41</v>
-      </c>
-      <c r="I36" s="13" t="str">
-        <f t="shared" si="23"/>
-        <v>178: 38 x 27</v>
-      </c>
-      <c r="J36" s="13" t="str">
-        <f t="shared" si="24"/>
-        <v>217: 65 x 13</v>
-      </c>
-      <c r="K36" s="13" t="str">
-        <f t="shared" si="25"/>
-        <v>283: 38 x 27</v>
-      </c>
-      <c r="L36" s="14">
-        <f t="shared" si="26"/>
-        <v>42</v>
-      </c>
-      <c r="O36" s="1">
+        <v>180</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="40"/>
+        <v>198</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="40"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
         <v>0</v>
       </c>
-      <c r="P36" s="1">
-        <f t="shared" ref="P36:AA36" si="41">O36+$L23</f>
-        <v>16</v>
-      </c>
-      <c r="Q36" s="1">
+      <c r="S38" s="1">
+        <f t="shared" ref="S38:AD38" si="41">R38+$O25</f>
+        <v>20</v>
+      </c>
+      <c r="T38" s="1">
         <f t="shared" si="41"/>
-        <v>32</v>
-      </c>
-      <c r="R36" s="1">
+        <v>40</v>
+      </c>
+      <c r="U38" s="1">
         <f t="shared" si="41"/>
-        <v>48</v>
-      </c>
-      <c r="S36" s="1">
-        <f t="shared" si="41"/>
-        <v>64</v>
-      </c>
-      <c r="T36" s="1">
+        <v>60</v>
+      </c>
+      <c r="V38" s="1">
         <f t="shared" si="41"/>
         <v>80</v>
       </c>
-      <c r="U36" s="1">
+      <c r="W38" s="1">
         <f t="shared" si="41"/>
-        <v>96</v>
-      </c>
-      <c r="V36" s="1">
+        <v>100</v>
+      </c>
+      <c r="X38" s="1">
         <f t="shared" si="41"/>
-        <v>112</v>
-      </c>
-      <c r="W36" s="1">
+        <v>120</v>
+      </c>
+      <c r="Y38" s="1">
         <f t="shared" si="41"/>
-        <v>128</v>
-      </c>
-      <c r="X36" s="1">
-        <f t="shared" si="41"/>
-        <v>144</v>
-      </c>
-      <c r="Y36" s="1">
+        <v>140</v>
+      </c>
+      <c r="Z38" s="1">
         <f t="shared" si="41"/>
         <v>160</v>
       </c>
-      <c r="Z36" s="1">
+      <c r="AA38" s="1">
         <f t="shared" si="41"/>
+        <v>180</v>
+      </c>
+      <c r="AB38" s="1">
+        <f t="shared" si="41"/>
+        <v>200</v>
+      </c>
+      <c r="AC38" s="1">
+        <f t="shared" si="41"/>
+        <v>220</v>
+      </c>
+      <c r="AD38" s="1">
+        <f t="shared" si="41"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" ref="S39:AD39" si="42">R39+$O26</f>
+        <v>22</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="42"/>
+        <v>44</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="42"/>
+        <v>66</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="42"/>
+        <v>88</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="42"/>
+        <v>110</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="42"/>
+        <v>132</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="42"/>
+        <v>154</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="42"/>
         <v>176</v>
       </c>
-      <c r="AA36" s="1">
-        <f t="shared" si="41"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <f t="shared" ref="P37:AA37" si="42">O37+$L24</f>
-        <v>18</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="42"/>
-        <v>36</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="42"/>
-        <v>54</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="42"/>
-        <v>72</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="42"/>
-        <v>90</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="42"/>
-        <v>108</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="42"/>
-        <v>126</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="42"/>
-        <v>144</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="42"/>
-        <v>162</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="42"/>
-        <v>180</v>
-      </c>
-      <c r="Z37">
+      <c r="AA39">
         <f t="shared" si="42"/>
         <v>198</v>
       </c>
-      <c r="AA37">
+      <c r="AB39">
         <f t="shared" si="42"/>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="O38" s="1">
+        <v>220</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="42"/>
+        <v>242</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="42"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
         <v>0</v>
       </c>
-      <c r="P38" s="1">
-        <f t="shared" ref="P38:AA38" si="43">O38+$L25</f>
-        <v>20</v>
-      </c>
-      <c r="Q38" s="1">
+      <c r="S40" s="1">
+        <f t="shared" ref="S40:AD40" si="43">R40+$O27</f>
+        <v>24</v>
+      </c>
+      <c r="T40" s="1">
         <f t="shared" si="43"/>
-        <v>40</v>
-      </c>
-      <c r="R38" s="1">
+        <v>48</v>
+      </c>
+      <c r="U40" s="1">
         <f t="shared" si="43"/>
-        <v>60</v>
-      </c>
-      <c r="S38" s="1">
+        <v>72</v>
+      </c>
+      <c r="V40" s="1">
         <f t="shared" si="43"/>
-        <v>80</v>
-      </c>
-      <c r="T38" s="1">
-        <f t="shared" si="43"/>
-        <v>100</v>
-      </c>
-      <c r="U38" s="1">
+        <v>96</v>
+      </c>
+      <c r="W40" s="1">
         <f t="shared" si="43"/>
         <v>120</v>
       </c>
-      <c r="V38" s="1">
+      <c r="X40" s="1">
         <f t="shared" si="43"/>
-        <v>140</v>
-      </c>
-      <c r="W38" s="1">
+        <v>144</v>
+      </c>
+      <c r="Y40" s="1">
         <f t="shared" si="43"/>
-        <v>160</v>
-      </c>
-      <c r="X38" s="1">
+        <v>168</v>
+      </c>
+      <c r="Z40" s="1">
         <f t="shared" si="43"/>
-        <v>180</v>
-      </c>
-      <c r="Y38" s="1">
+        <v>192</v>
+      </c>
+      <c r="AA40" s="1">
         <f t="shared" si="43"/>
-        <v>200</v>
-      </c>
-      <c r="Z38" s="1">
-        <f t="shared" si="43"/>
-        <v>220</v>
-      </c>
-      <c r="AA38" s="1">
+        <v>216</v>
+      </c>
+      <c r="AB40" s="1">
         <f t="shared" si="43"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="O39">
+      <c r="AC40" s="1">
+        <f t="shared" si="43"/>
+        <v>264</v>
+      </c>
+      <c r="AD40" s="1">
+        <f t="shared" si="43"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="R41">
         <v>0</v>
       </c>
-      <c r="P39">
-        <f t="shared" ref="P39:AA39" si="44">O39+$L26</f>
-        <v>22</v>
-      </c>
-      <c r="Q39">
+      <c r="S41">
+        <f t="shared" ref="S41:AD41" si="44">R41+$O28</f>
+        <v>26</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="44"/>
-        <v>44</v>
-      </c>
-      <c r="R39">
+        <v>52</v>
+      </c>
+      <c r="U41">
         <f t="shared" si="44"/>
-        <v>66</v>
-      </c>
-      <c r="S39">
+        <v>78</v>
+      </c>
+      <c r="V41">
         <f t="shared" si="44"/>
-        <v>88</v>
-      </c>
-      <c r="T39">
+        <v>104</v>
+      </c>
+      <c r="W41">
         <f t="shared" si="44"/>
-        <v>110</v>
-      </c>
-      <c r="U39">
+        <v>130</v>
+      </c>
+      <c r="X41">
         <f t="shared" si="44"/>
-        <v>132</v>
-      </c>
-      <c r="V39">
+        <v>156</v>
+      </c>
+      <c r="Y41">
         <f t="shared" si="44"/>
-        <v>154</v>
-      </c>
-      <c r="W39">
+        <v>182</v>
+      </c>
+      <c r="Z41">
         <f t="shared" si="44"/>
-        <v>176</v>
-      </c>
-      <c r="X39">
+        <v>208</v>
+      </c>
+      <c r="AA41">
         <f t="shared" si="44"/>
-        <v>198</v>
-      </c>
-      <c r="Y39">
+        <v>234</v>
+      </c>
+      <c r="AB41">
         <f t="shared" si="44"/>
-        <v>220</v>
-      </c>
-      <c r="Z39">
+        <v>260</v>
+      </c>
+      <c r="AC41">
         <f t="shared" si="44"/>
-        <v>242</v>
-      </c>
-      <c r="AA39">
+        <v>286</v>
+      </c>
+      <c r="AD41">
         <f t="shared" si="44"/>
-        <v>264</v>
-      </c>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="O40" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
         <v>0</v>
       </c>
-      <c r="P40" s="1">
-        <f t="shared" ref="P40:AA40" si="45">O40+$L27</f>
-        <v>24</v>
-      </c>
-      <c r="Q40" s="1">
+      <c r="S42" s="1">
+        <f t="shared" ref="S42:AD42" si="45">R42+$O29</f>
+        <v>28</v>
+      </c>
+      <c r="T42" s="1">
         <f t="shared" si="45"/>
-        <v>48</v>
-      </c>
-      <c r="R40" s="1">
+        <v>56</v>
+      </c>
+      <c r="U42" s="1">
         <f t="shared" si="45"/>
-        <v>72</v>
-      </c>
-      <c r="S40" s="1">
+        <v>84</v>
+      </c>
+      <c r="V42" s="1">
         <f t="shared" si="45"/>
-        <v>96</v>
-      </c>
-      <c r="T40" s="1">
+        <v>112</v>
+      </c>
+      <c r="W42" s="1">
         <f t="shared" si="45"/>
-        <v>120</v>
-      </c>
-      <c r="U40" s="1">
-        <f t="shared" si="45"/>
-        <v>144</v>
-      </c>
-      <c r="V40" s="1">
+        <v>140</v>
+      </c>
+      <c r="X42" s="1">
         <f t="shared" si="45"/>
         <v>168</v>
       </c>
-      <c r="W40" s="1">
+      <c r="Y42" s="1">
         <f t="shared" si="45"/>
+        <v>196</v>
+      </c>
+      <c r="Z42" s="1">
+        <f t="shared" si="45"/>
+        <v>224</v>
+      </c>
+      <c r="AA42" s="1">
+        <f t="shared" si="45"/>
+        <v>252</v>
+      </c>
+      <c r="AB42" s="1">
+        <f t="shared" si="45"/>
+        <v>280</v>
+      </c>
+      <c r="AC42" s="1">
+        <f t="shared" si="45"/>
+        <v>308</v>
+      </c>
+      <c r="AD42" s="1">
+        <f t="shared" si="45"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" ref="S43:AD43" si="46">R43+$O30</f>
+        <v>30</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="46"/>
+        <v>60</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="46"/>
+        <v>90</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="46"/>
+        <v>120</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="46"/>
+        <v>150</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="46"/>
+        <v>180</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="46"/>
+        <v>210</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="46"/>
+        <v>240</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="46"/>
+        <v>270</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="46"/>
+        <v>300</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="46"/>
+        <v>330</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="46"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" ref="S44:AD44" si="47">R44+$O31</f>
+        <v>32</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" si="47"/>
+        <v>64</v>
+      </c>
+      <c r="U44" s="1">
+        <f t="shared" si="47"/>
+        <v>96</v>
+      </c>
+      <c r="V44" s="1">
+        <f t="shared" si="47"/>
+        <v>128</v>
+      </c>
+      <c r="W44" s="1">
+        <f t="shared" si="47"/>
+        <v>160</v>
+      </c>
+      <c r="X44" s="1">
+        <f t="shared" si="47"/>
         <v>192</v>
       </c>
-      <c r="X40" s="1">
-        <f t="shared" si="45"/>
-        <v>216</v>
-      </c>
-      <c r="Y40" s="1">
-        <f t="shared" si="45"/>
-        <v>240</v>
-      </c>
-      <c r="Z40" s="1">
-        <f t="shared" si="45"/>
-        <v>264</v>
-      </c>
-      <c r="AA40" s="1">
-        <f t="shared" si="45"/>
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <f t="shared" ref="P41:AA41" si="46">O41+$L28</f>
-        <v>26</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="46"/>
-        <v>52</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="46"/>
-        <v>78</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="46"/>
-        <v>104</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="46"/>
-        <v>130</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="46"/>
-        <v>156</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="46"/>
-        <v>182</v>
-      </c>
-      <c r="W41">
-        <f t="shared" si="46"/>
-        <v>208</v>
-      </c>
-      <c r="X41">
-        <f t="shared" si="46"/>
-        <v>234</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" si="46"/>
-        <v>260</v>
-      </c>
-      <c r="Z41">
-        <f t="shared" si="46"/>
-        <v>286</v>
-      </c>
-      <c r="AA41">
-        <f t="shared" si="46"/>
-        <v>312</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="O42" s="1">
-        <v>0</v>
-      </c>
-      <c r="P42" s="1">
-        <f t="shared" ref="P42:AA42" si="47">O42+$L29</f>
-        <v>28</v>
-      </c>
-      <c r="Q42" s="1">
-        <f t="shared" si="47"/>
-        <v>56</v>
-      </c>
-      <c r="R42" s="1">
-        <f t="shared" si="47"/>
-        <v>84</v>
-      </c>
-      <c r="S42" s="1">
-        <f t="shared" si="47"/>
-        <v>112</v>
-      </c>
-      <c r="T42" s="1">
-        <f t="shared" si="47"/>
-        <v>140</v>
-      </c>
-      <c r="U42" s="1">
-        <f t="shared" si="47"/>
-        <v>168</v>
-      </c>
-      <c r="V42" s="1">
-        <f t="shared" si="47"/>
-        <v>196</v>
-      </c>
-      <c r="W42" s="1">
+      <c r="Y44" s="1">
         <f t="shared" si="47"/>
         <v>224</v>
       </c>
-      <c r="X42" s="1">
+      <c r="Z44" s="1">
         <f t="shared" si="47"/>
-        <v>252</v>
-      </c>
-      <c r="Y42" s="1">
+        <v>256</v>
+      </c>
+      <c r="AA44" s="1">
         <f t="shared" si="47"/>
-        <v>280</v>
-      </c>
-      <c r="Z42" s="1">
+        <v>288</v>
+      </c>
+      <c r="AB44" s="1">
         <f t="shared" si="47"/>
-        <v>308</v>
-      </c>
-      <c r="AA42" s="1">
+        <v>320</v>
+      </c>
+      <c r="AC44" s="1">
         <f t="shared" si="47"/>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <f t="shared" ref="P43:AA43" si="48">O43+$L30</f>
-        <v>30</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="48"/>
-        <v>60</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="48"/>
-        <v>90</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="48"/>
-        <v>120</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="48"/>
-        <v>150</v>
-      </c>
-      <c r="U43">
-        <f t="shared" si="48"/>
-        <v>180</v>
-      </c>
-      <c r="V43">
-        <f t="shared" si="48"/>
-        <v>210</v>
-      </c>
-      <c r="W43">
-        <f t="shared" si="48"/>
-        <v>240</v>
-      </c>
-      <c r="X43">
-        <f t="shared" si="48"/>
-        <v>270</v>
-      </c>
-      <c r="Y43">
-        <f t="shared" si="48"/>
-        <v>300</v>
-      </c>
-      <c r="Z43">
-        <f t="shared" si="48"/>
-        <v>330</v>
-      </c>
-      <c r="AA43">
-        <f t="shared" si="48"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="O44" s="1">
-        <v>0</v>
-      </c>
-      <c r="P44" s="1">
-        <f t="shared" ref="P44:AA44" si="49">O44+$L31</f>
-        <v>32</v>
-      </c>
-      <c r="Q44" s="1">
-        <f t="shared" si="49"/>
-        <v>64</v>
-      </c>
-      <c r="R44" s="1">
-        <f t="shared" si="49"/>
-        <v>96</v>
-      </c>
-      <c r="S44" s="1">
-        <f t="shared" si="49"/>
-        <v>128</v>
-      </c>
-      <c r="T44" s="1">
-        <f t="shared" si="49"/>
-        <v>160</v>
-      </c>
-      <c r="U44" s="1">
-        <f t="shared" si="49"/>
-        <v>192</v>
-      </c>
-      <c r="V44" s="1">
-        <f t="shared" si="49"/>
-        <v>224</v>
-      </c>
-      <c r="W44" s="1">
-        <f t="shared" si="49"/>
-        <v>256</v>
-      </c>
-      <c r="X44" s="1">
-        <f t="shared" si="49"/>
-        <v>288</v>
-      </c>
-      <c r="Y44" s="1">
-        <f t="shared" si="49"/>
-        <v>320</v>
-      </c>
-      <c r="Z44" s="1">
-        <f t="shared" si="49"/>
         <v>352</v>
       </c>
-      <c r="AA44" s="1">
-        <f t="shared" si="49"/>
+      <c r="AD44" s="1">
+        <f t="shared" si="47"/>
         <v>384</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O45">
+      <c r="R45">
         <v>0</v>
       </c>
-      <c r="P45">
-        <f t="shared" ref="P45:AA45" si="50">O45+$L32</f>
+      <c r="S45">
+        <f t="shared" ref="S45:AD45" si="48">R45+$O32</f>
         <v>34</v>
       </c>
-      <c r="Q45">
-        <f t="shared" si="50"/>
+      <c r="T45">
+        <f t="shared" si="48"/>
         <v>68</v>
       </c>
-      <c r="R45">
-        <f t="shared" si="50"/>
+      <c r="U45">
+        <f t="shared" si="48"/>
         <v>102</v>
       </c>
-      <c r="S45">
-        <f t="shared" si="50"/>
+      <c r="V45">
+        <f t="shared" si="48"/>
         <v>136</v>
       </c>
-      <c r="T45">
-        <f t="shared" si="50"/>
+      <c r="W45">
+        <f t="shared" si="48"/>
         <v>170</v>
       </c>
-      <c r="U45">
-        <f t="shared" si="50"/>
+      <c r="X45">
+        <f t="shared" si="48"/>
         <v>204</v>
       </c>
-      <c r="V45">
-        <f t="shared" si="50"/>
+      <c r="Y45">
+        <f t="shared" si="48"/>
         <v>238</v>
       </c>
-      <c r="W45">
-        <f t="shared" si="50"/>
+      <c r="Z45">
+        <f t="shared" si="48"/>
         <v>272</v>
       </c>
-      <c r="X45">
-        <f t="shared" si="50"/>
+      <c r="AA45">
+        <f t="shared" si="48"/>
         <v>306</v>
       </c>
-      <c r="Y45">
-        <f t="shared" si="50"/>
+      <c r="AB45">
+        <f t="shared" si="48"/>
         <v>340</v>
       </c>
-      <c r="Z45">
-        <f t="shared" si="50"/>
+      <c r="AC45">
+        <f t="shared" si="48"/>
         <v>374</v>
       </c>
-      <c r="AA45">
-        <f t="shared" si="50"/>
+      <c r="AD45">
+        <f t="shared" si="48"/>
         <v>408</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -5079,11 +5225,14 @@
         <v>8</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>1</v>
       </c>
@@ -5091,11 +5240,14 @@
         <v>22</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -5103,15 +5255,18 @@
         <v>24</v>
       </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5133,7 +5288,7 @@
         <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="39" t="s">
         <v>0</v>
@@ -5161,7 +5316,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>0</v>
@@ -7490,7 +7645,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
@@ -7510,16 +7665,16 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7596,7 +7751,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I6" s="31"/>
     </row>
@@ -7617,7 +7772,7 @@
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" s="31"/>
     </row>
@@ -7636,11 +7791,11 @@
         <v>33</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="31"/>
     </row>
@@ -7661,7 +7816,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I9" s="31"/>
     </row>
@@ -7702,7 +7857,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -7721,11 +7876,11 @@
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -7744,7 +7899,7 @@
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
@@ -7765,13 +7920,13 @@
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -7790,11 +7945,11 @@
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -7815,7 +7970,7 @@
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -7836,7 +7991,7 @@
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7891,1860 +8046,1855 @@
   <sheetData>
     <row r="1" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F1" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="M1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>55</v>
+      <c r="A2" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="36">
         <v>1850</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="36">
         <v>1851</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="36">
         <v>1852</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="36">
         <v>1853</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="36">
         <v>1854</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="36">
         <v>1855</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="36">
         <v>1856</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="36">
         <v>1857</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="36">
         <v>1858</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="36">
         <v>1859</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="36">
         <v>1860</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="36">
         <v>1861</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="36">
         <v>1862</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="36">
         <v>1863</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="36">
         <v>1864</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="36">
         <v>1865</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="36">
         <v>1866</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="36">
         <v>1867</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="36">
         <v>1868</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="36">
         <v>1869</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="36">
         <v>1870</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="36">
         <v>1871</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="36">
         <v>1872</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="36">
         <v>1873</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="36">
         <v>1874</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="36">
         <v>1875</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="36">
         <v>1876</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="36">
         <v>1877</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="36">
         <v>1878</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="36">
         <v>1879</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="36">
         <v>1880</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="36">
         <v>1881</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="36">
         <v>1882</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="36">
         <v>1883</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="36">
         <v>1884</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="36">
         <v>1885</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="36">
         <v>1886</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="36">
         <v>1887</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="36">
         <v>1888</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="36">
         <v>1889</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="36">
         <v>1890</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="36">
         <v>1891</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="36">
         <v>1892</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="36">
         <v>1893</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="36">
         <v>1894</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="36">
         <v>1895</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="36">
         <v>1896</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
+      <c r="A49" s="43"/>
       <c r="C49" s="31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="36">
         <v>1897</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+      <c r="A51" s="43"/>
       <c r="F51" s="31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="36">
         <v>1898</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="36">
         <v>1899</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
-        <v>56</v>
+      <c r="A54" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="B54" s="36">
         <v>1900</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H54" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="36">
         <v>1901</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="36">
         <v>1902</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M56" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
+      <c r="A57" s="43"/>
       <c r="G57" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="36">
         <v>1903</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
+      <c r="A59" s="43"/>
       <c r="D59" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="36">
         <v>1904</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="36">
         <v>1905</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
+      <c r="A62" s="43"/>
       <c r="B62" s="36">
         <v>1906</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M62" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="36">
         <v>1907</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
+      <c r="A64" s="43"/>
       <c r="B64" s="36">
         <v>1908</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="36">
         <v>1909</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="36">
         <v>1910</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="36">
         <v>1911</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D67" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E67" s="31" t="s">
-        <v>105</v>
-      </c>
       <c r="G67" s="31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
+      <c r="A68" s="43"/>
       <c r="B68" s="36">
         <v>1912</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="36">
         <v>1913</v>
       </c>
       <c r="C69" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="31" t="s">
-        <v>110</v>
-      </c>
       <c r="G69" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
+      <c r="A70" s="43"/>
       <c r="B70" s="36">
         <v>1914</v>
       </c>
       <c r="C70" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="31" t="s">
-        <v>101</v>
-      </c>
       <c r="E70" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="36">
         <v>1915</v>
       </c>
       <c r="L71" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
+      <c r="A72" s="43"/>
       <c r="B72" s="36">
         <v>1916</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
+      <c r="A73" s="43"/>
       <c r="B73" s="36">
         <v>1917</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="36">
         <v>1918</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
+      <c r="A75" s="43"/>
       <c r="B75" s="36">
         <v>1919</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G75" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="M75" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="M75" s="31" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
+      <c r="A76" s="43"/>
       <c r="B76" s="36">
         <v>1920</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="44" t="s">
-        <v>57</v>
+      <c r="A77" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="B77" s="36">
         <v>1921</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
+      <c r="A78" s="43"/>
       <c r="B78" s="36">
         <v>1922</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
+      <c r="A79" s="43"/>
       <c r="B79" s="36">
         <v>1923</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H79" s="31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="36">
         <v>1924</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H80" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="36">
         <v>1925</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="36">
         <v>1926</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43">
         <v>1927</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="44"/>
+      <c r="A85" s="43"/>
       <c r="B85" s="36">
         <v>1928</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D85" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="E85" s="31" t="s">
-        <v>172</v>
-      </c>
       <c r="F85" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43">
         <v>1929</v>
       </c>
       <c r="C86" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H86" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="F86" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="G86" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H86" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="31" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
+      <c r="A88" s="43"/>
       <c r="B88" s="36">
         <v>1930</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H88" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="36">
         <v>1931</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="44"/>
+      <c r="A90" s="43"/>
       <c r="B90" s="36">
         <v>1932</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L90" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="44"/>
+      <c r="A91" s="43"/>
       <c r="L91" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="44"/>
+      <c r="A92" s="43"/>
       <c r="L92" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="44"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="36">
         <v>1933</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="44"/>
+      <c r="A94" s="43"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="44"/>
+      <c r="A95" s="43"/>
       <c r="B95" s="36">
         <v>1934</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D95" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H95" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="E95" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="H95" s="31" t="s">
-        <v>169</v>
-      </c>
       <c r="J95" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
+      <c r="A96" s="43"/>
       <c r="B96" s="36">
         <v>1935</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L96" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44">
+      <c r="A97" s="43"/>
+      <c r="B97" s="43">
         <v>1936</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G97" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="31" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="31" t="s">
-        <v>127</v>
-      </c>
       <c r="E98" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="44"/>
+      <c r="A99" s="43"/>
       <c r="B99" s="36">
         <v>1937</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L99" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="44"/>
+      <c r="A100" s="43"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
+      <c r="A101" s="43"/>
       <c r="B101" s="36">
         <v>1938</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
+      <c r="A102" s="43"/>
       <c r="B102" s="36">
         <v>1939</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="44"/>
+      <c r="A103" s="43"/>
       <c r="B103" s="36">
         <v>1940</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="44"/>
+      <c r="A104" s="43"/>
       <c r="B104" s="36">
         <v>1941</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L104" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
+      <c r="A105" s="43"/>
       <c r="E105" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="44"/>
+      <c r="A106" s="43"/>
       <c r="E106" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="44"/>
+      <c r="A107" s="43"/>
       <c r="B107" s="36">
         <v>1942</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G107" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H107" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="44"/>
+      <c r="A108" s="43"/>
       <c r="B108" s="36">
         <v>1943</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F108" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G108" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="44"/>
+      <c r="A109" s="43"/>
       <c r="B109" s="36">
         <v>1944</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
+      <c r="A110" s="43"/>
       <c r="B110" s="36">
         <v>1945</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
+      <c r="A111" s="43"/>
       <c r="C111" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="44"/>
+      <c r="A112" s="43"/>
       <c r="B112" s="36">
         <v>1946</v>
       </c>
       <c r="C112" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F112" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D112" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="F112" s="31" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="44"/>
+      <c r="A113" s="43"/>
       <c r="B113" s="36">
         <v>1947</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="44" t="s">
-        <v>58</v>
+      <c r="A114" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="B114" s="36">
         <v>1948</v>
       </c>
       <c r="C114" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D114" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="E114" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G114" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="43"/>
+      <c r="C115" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="E114" s="31" t="s">
+      <c r="F115" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="43"/>
+      <c r="E116" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="F114" s="31" t="s">
+      <c r="F116" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="G114" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="44"/>
-      <c r="C115" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F115" s="31" t="s">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="43"/>
+      <c r="F117" s="31" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="44"/>
-      <c r="E116" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F116" s="31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="44"/>
-      <c r="F117" s="31" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="44"/>
+      <c r="A118" s="43"/>
       <c r="B118" s="36">
         <v>1949</v>
       </c>
       <c r="L118" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="44"/>
+      <c r="A119" s="43"/>
       <c r="B119" s="36">
         <v>1950</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="44"/>
+      <c r="A120" s="43"/>
       <c r="B120" s="36">
         <v>1951</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="44"/>
+      <c r="A121" s="43"/>
       <c r="B121" s="36">
         <v>1952</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="44"/>
+      <c r="A122" s="43"/>
       <c r="B122" s="36">
         <v>1953</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="44"/>
+      <c r="A123" s="43"/>
       <c r="B123" s="36">
         <v>1954</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="44"/>
+      <c r="A124" s="43"/>
       <c r="B124" s="36">
         <v>1955</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="44"/>
+      <c r="A125" s="43"/>
       <c r="C125" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="44"/>
+      <c r="A126" s="43"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="44" t="s">
-        <v>59</v>
+      <c r="A127" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="B127" s="36">
         <v>1956</v>
       </c>
       <c r="J127" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="44"/>
+      <c r="A128" s="43"/>
       <c r="B128" s="36">
         <v>1957</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J128" s="31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="44"/>
+      <c r="A129" s="43"/>
       <c r="B129" s="36">
         <v>1958</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G129" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="44"/>
+      <c r="A130" s="43"/>
       <c r="C130" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="44"/>
+      <c r="A131" s="43"/>
       <c r="B131" s="36">
         <v>1959</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J131" s="31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="44"/>
+      <c r="A132" s="43"/>
       <c r="J132" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="44"/>
+      <c r="A133" s="43"/>
       <c r="B133" s="36">
         <v>1960</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J133" s="31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="44"/>
+      <c r="A134" s="43"/>
       <c r="D134" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="44"/>
-      <c r="B135" s="44">
+      <c r="A135" s="43"/>
+      <c r="B135" s="43">
         <v>1961</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="44"/>
-      <c r="B136" s="44"/>
+      <c r="A136" s="43"/>
+      <c r="B136" s="43"/>
       <c r="C136" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="44"/>
-      <c r="B137" s="44"/>
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
       <c r="C137" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
       <c r="C138" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="44"/>
+      <c r="A139" s="43"/>
       <c r="B139" s="36">
         <v>1962</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="44"/>
+      <c r="A140" s="43"/>
       <c r="B140" s="36">
         <v>1963</v>
       </c>
       <c r="K140" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="44"/>
+      <c r="A141" s="43"/>
       <c r="B141" s="36">
         <v>1964</v>
       </c>
       <c r="L141" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="44"/>
+      <c r="A142" s="43"/>
       <c r="B142" s="36">
         <v>1965</v>
       </c>
       <c r="L142" s="31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M142" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="44"/>
+      <c r="A143" s="43"/>
       <c r="B143" s="36">
         <v>1966</v>
       </c>
       <c r="L143" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="44"/>
+      <c r="A144" s="43"/>
       <c r="L144" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="44"/>
+      <c r="A145" s="43"/>
       <c r="B145" s="36">
         <v>1967</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="44"/>
+      <c r="A146" s="43"/>
       <c r="B146" s="36">
         <v>1968</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="44"/>
+      <c r="A147" s="43"/>
       <c r="B147" s="36">
         <v>1969</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="44"/>
+      <c r="A148" s="43"/>
       <c r="B148" s="36">
         <v>1970</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="44" t="s">
-        <v>60</v>
+      <c r="A149" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="B149" s="36">
         <v>1971</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="44"/>
+      <c r="A150" s="43"/>
       <c r="B150" s="36">
         <v>1972</v>
       </c>
       <c r="J150" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K150" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="44"/>
+      <c r="A151" s="43"/>
       <c r="B151" s="36">
         <v>1973</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="44"/>
+      <c r="A152" s="43"/>
       <c r="B152" s="36">
         <v>1974</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="44"/>
+      <c r="A153" s="43"/>
       <c r="B153" s="36">
         <v>1975</v>
       </c>
       <c r="J153" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="44"/>
+      <c r="A154" s="43"/>
       <c r="J154" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="44"/>
+      <c r="A155" s="43"/>
       <c r="B155" s="36">
         <v>1976</v>
       </c>
       <c r="G155" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="44"/>
+      <c r="A156" s="43"/>
       <c r="B156" s="36">
         <v>1977</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="44"/>
+      <c r="A157" s="43"/>
       <c r="B157" s="36">
         <v>1978</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="44"/>
+      <c r="A158" s="43"/>
       <c r="B158" s="36">
         <v>1979</v>
       </c>
       <c r="K158" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="44"/>
+      <c r="A159" s="43"/>
       <c r="B159" s="36">
         <v>1980</v>
       </c>
       <c r="J159" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K159" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="44"/>
+      <c r="A160" s="43"/>
       <c r="B160" s="36">
         <v>1981</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="44"/>
+      <c r="A161" s="43"/>
       <c r="B161" s="36">
         <v>1982</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="44"/>
+      <c r="A162" s="43"/>
       <c r="B162" s="36">
         <v>1983</v>
       </c>
       <c r="G162" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L162" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="44"/>
+      <c r="A163" s="43"/>
       <c r="B163" s="36">
         <v>1984</v>
       </c>
       <c r="J163" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="44"/>
+      <c r="A164" s="43"/>
       <c r="B164" s="36">
         <v>1985</v>
       </c>
       <c r="G164" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J164" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="44"/>
+      <c r="A165" s="43"/>
       <c r="B165" s="36">
         <v>1986</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="44"/>
+      <c r="A166" s="43"/>
       <c r="B166" s="36">
         <v>1987</v>
       </c>
       <c r="J166" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="44"/>
+      <c r="A167" s="43"/>
       <c r="J167" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="44"/>
+      <c r="A168" s="43"/>
       <c r="B168" s="36">
         <v>1988</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L168" s="31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="44"/>
+      <c r="A169" s="43"/>
       <c r="B169" s="36">
         <v>1989</v>
       </c>
       <c r="G169" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J169" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="44"/>
+      <c r="A170" s="43"/>
       <c r="B170" s="36">
         <v>1990</v>
       </c>
       <c r="J170" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="44"/>
+      <c r="A171" s="43"/>
       <c r="B171" s="36">
         <v>1991</v>
       </c>
       <c r="L171" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="44"/>
+      <c r="A172" s="43"/>
       <c r="B172" s="36">
         <v>1992</v>
       </c>
       <c r="J172" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K172" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="44"/>
+      <c r="A173" s="43"/>
       <c r="J173" s="31" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="44"/>
+      <c r="A174" s="43"/>
       <c r="B174" s="36">
         <v>1993</v>
       </c>
       <c r="L174" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="44"/>
+      <c r="A175" s="43"/>
       <c r="B175" s="36">
         <v>1994</v>
       </c>
-      <c r="K175" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="L175" s="43"/>
+      <c r="K175" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="L175" s="44"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="44"/>
+      <c r="A176" s="43"/>
       <c r="B176" s="36">
         <v>1995</v>
       </c>
       <c r="K176" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="44" t="s">
-        <v>69</v>
+      <c r="A177" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="B177" s="36">
         <v>1996</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="44"/>
+      <c r="A178" s="43"/>
       <c r="B178" s="36">
         <v>1997</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="44"/>
+      <c r="A179" s="43"/>
       <c r="B179" s="36">
         <v>1998</v>
       </c>
       <c r="G179" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J179" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="44"/>
+      <c r="A180" s="43"/>
       <c r="B180" s="36">
         <v>1999</v>
       </c>
       <c r="K180" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="43"/>
+      <c r="K181" s="31" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="44"/>
-      <c r="K181" s="31" t="s">
-        <v>233</v>
-      </c>
-    </row>
     <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="44"/>
+      <c r="A182" s="43"/>
       <c r="B182" s="36">
         <v>2000</v>
       </c>
       <c r="J182" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L182" s="31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="44"/>
+      <c r="A183" s="43"/>
       <c r="B183" s="36">
         <v>2001</v>
       </c>
       <c r="K183" s="31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="44"/>
+      <c r="A184" s="43"/>
       <c r="B184" s="36">
         <v>2002</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="44"/>
+      <c r="A185" s="43"/>
       <c r="B185" s="36">
         <v>2003</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="44"/>
+      <c r="A186" s="43"/>
       <c r="B186" s="36">
         <v>2004</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="44"/>
+      <c r="A187" s="43"/>
       <c r="B187" s="36">
         <v>2005</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="44" t="s">
-        <v>70</v>
+      <c r="A188" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="B188" s="36">
         <v>2006</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="44"/>
+      <c r="A189" s="43"/>
       <c r="B189" s="36">
         <v>2007</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="44"/>
+      <c r="A190" s="43"/>
       <c r="B190" s="36">
         <v>2008</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="44"/>
+      <c r="A191" s="43"/>
       <c r="B191" s="36">
         <v>2009</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="44"/>
+      <c r="A192" s="43"/>
       <c r="B192" s="36">
         <v>2010</v>
       </c>
       <c r="K192" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="44"/>
+      <c r="A193" s="43"/>
       <c r="B193" s="36">
         <v>2011</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="44"/>
+      <c r="A194" s="43"/>
       <c r="B194" s="36">
         <v>2012</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="44"/>
+      <c r="A195" s="43"/>
       <c r="B195" s="36">
         <v>2013</v>
       </c>
       <c r="E195" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="44"/>
+      <c r="A196" s="43"/>
       <c r="B196" s="36">
         <v>2014</v>
       </c>
       <c r="J196" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K196" s="31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="44"/>
+      <c r="A197" s="43"/>
       <c r="B197" s="36">
         <v>2015</v>
       </c>
       <c r="K197" s="31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="44"/>
+      <c r="A198" s="43"/>
       <c r="B198" s="36">
         <v>2016</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="44"/>
+      <c r="A199" s="43"/>
       <c r="B199" s="36">
         <v>2017</v>
       </c>
       <c r="K199" s="31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="44"/>
+      <c r="A200" s="43"/>
       <c r="B200" s="36">
         <v>2018</v>
       </c>
       <c r="K200" s="31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="44"/>
+      <c r="A201" s="43"/>
       <c r="B201" s="36">
         <v>2019</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="44"/>
+      <c r="A202" s="43"/>
       <c r="B202" s="36">
         <v>2020</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="44"/>
+      <c r="A203" s="43"/>
       <c r="B203" s="36">
         <v>2021</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="44"/>
+      <c r="A204" s="43"/>
       <c r="B204" s="36">
         <v>2022</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="44"/>
+      <c r="A205" s="43"/>
       <c r="B205" s="36">
         <v>2023</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="44"/>
+      <c r="A206" s="43"/>
       <c r="B206" s="36">
         <v>2024</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="44"/>
+      <c r="A207" s="43"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="44"/>
+      <c r="A208" s="43"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="44"/>
+      <c r="A209" s="43"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="44"/>
+      <c r="A210" s="43"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="44"/>
+      <c r="A211" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A114:A126"/>
-    <mergeCell ref="A2:A53"/>
-    <mergeCell ref="A54:A76"/>
-    <mergeCell ref="A77:A113"/>
     <mergeCell ref="K175:L175"/>
     <mergeCell ref="A177:A187"/>
     <mergeCell ref="A188:A211"/>
@@ -9753,6 +9903,11 @@
     <mergeCell ref="A127:A148"/>
     <mergeCell ref="A149:A176"/>
     <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A114:A126"/>
+    <mergeCell ref="A2:A53"/>
+    <mergeCell ref="A54:A76"/>
+    <mergeCell ref="A77:A113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
